--- a/lect7/nplus-news.xlsx
+++ b/lect7/nplus-news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="197">
   <si>
     <t>link</t>
   </si>
@@ -43,478 +43,568 @@
     <t>clean_text</t>
   </si>
   <si>
-    <t>https://nplus1.ru/news/2019/03/31/first</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/30/very-big-boulder-on-Bennu</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/30/PSP-two-flyby</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/30/functional-brain-map</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/30/seizure-odour</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/30/id-capsule</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/29/mars-helicopter-fly-now</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/29/ABRACADABRA</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/29/nz-apple-picker</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/29/i-know-kung-fu</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/29/warming-leads-to-cruelty</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/29/ghost-faces</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/29/language-storage</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/29/island-building</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/29/deep-water-mars</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/29/curaxins</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/29/inflation-falsification</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/29/sooo-tiny</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/29/small-moons-of-Saturn</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/26/learning-languages</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/26/dark-system</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/27/schizo-genes</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/26/efremovka-ancient-solar-flare</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/27/exoplanet-interferometry</t>
-  </si>
-  <si>
-    <t>https://nplus1.ru/news/2019/03/26/quantum-radiation-pressure-noise</t>
-  </si>
-  <si>
-    <t>2019-03-31</t>
-  </si>
-  <si>
-    <t>2019-03-30</t>
-  </si>
-  <si>
-    <t>2019-03-29</t>
-  </si>
-  <si>
-    <t>2019-03-26</t>
-  </si>
-  <si>
-    <t>2019-03-27</t>
-  </si>
-  <si>
-    <t>Илья Ферапонтов</t>
+    <t>https://nplus1.ru/news/2021/09/28/rTMS-verbal-memory</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/28/desmodus-rotundus</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/28/starlink-geo</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/28/grs-hubble</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/28/twins-methylation</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/28/block3</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/28/wasp-127-clouds</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/28/tissue-or-landscape</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/28/merlin</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/28/dolmen-spain</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/28/life-covid</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/28/hawc</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/28/seated-burials</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/28/archaehierax-sylvestris</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/28/spicomellus-afer</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/27/SED</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/27/darpa-subt</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/27/plocepasser-mahali</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/27/ch-6</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/27/shutdown-of-southern-ocean-convection</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/17/penguin-test</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/24/magic-people-voodoo-people</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/21/raman-transfer</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/23/single-phonon-evidence</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/22/100ms-coherence</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/24/quantum-limit-planet</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/22/single-photon-nonlinear</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/24/it-hears-you</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/24/circular-resonance</t>
+  </si>
+  <si>
+    <t>https://nplus1.ru/news/2021/09/27/optical-levitation</t>
+  </si>
+  <si>
+    <t>2021-09-28</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>2021-09-24</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>2021-09-23</t>
+  </si>
+  <si>
+    <t>2021-09-22</t>
+  </si>
+  <si>
+    <t>Екатерина Рощина</t>
+  </si>
+  <si>
+    <t>Сергей Коленов</t>
+  </si>
+  <si>
+    <t>Григорий Копиев</t>
   </si>
   <si>
     <t>Александр Войтюк</t>
   </si>
   <si>
-    <t>Елизавета Ивтушок</t>
-  </si>
-  <si>
-    <t>Тимур Кешелава</t>
-  </si>
-  <si>
-    <t>Ольга Добровидова</t>
-  </si>
-  <si>
-    <t>Екатерина Русакова</t>
-  </si>
-  <si>
-    <t>Дмитрий Трунин</t>
-  </si>
-  <si>
-    <t>Дарья Спасская</t>
-  </si>
-  <si>
-    <t>Дмитрий Иванов</t>
-  </si>
-  <si>
-    <t>Он должен заменить легкий транспортник Ан-26</t>
-  </si>
-  <si>
-    <t>В создании стереопары принял участие астрофизик и гитарист группы Queen Брайан Мэй</t>
-  </si>
-  <si>
-    <t>4 апреля он пролетит на расстоянии около 24 миллионов километров от звезды</t>
-  </si>
-  <si>
-    <t>Анализ символьной информации больше относится к левому полушарию, а вот эмоциональная обработка — к правому</t>
-  </si>
-  <si>
-    <t>Причем независимо от типа эпилепсии</t>
-  </si>
-  <si>
-    <t>Сейчас ее тестируют в исследовании по профилактике ВИЧ-инфекции</t>
-  </si>
-  <si>
-    <t>Аппарат Mars Helicopter будет участвовать в миссии «Марс-2020».</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полноценная установка будет чувствительна к сигналу частиц с массами от 10-12 до 10-6 электронвольт, а прототип работал с диапазоном от 0,31 до 8,3 наноэлектронвольт. </t>
-  </si>
-  <si>
-    <t>Он даже сможет найти самые спелые и соберет только их</t>
-  </si>
-  <si>
-    <t>Некоторые прыгуны реагировали на движение змей всего через 40 миллисекунд</t>
-  </si>
-  <si>
-    <t>Изменение климата привело к исчезновению крупной дичи и людям пришлось есть друг друга</t>
-  </si>
-  <si>
-    <t>С помощью «призрачной визуализации» ученые добились практически идеального распознавания черно-белых фотографий</t>
-  </si>
-  <si>
-    <t>Все это можно поместить на обыкновенную дискету</t>
-  </si>
-  <si>
-    <t>Намыв острова навредил донным экосистемам и обитателям толщи воды</t>
-  </si>
-  <si>
-    <t>Ученые представили новую идею, объясняющую периодическое появление темных полос на склонах марсианских кратеров. Согласно ей эти процессы связаны с поднятие воды из глубоко залегающих резервуаров, что делает ее потенциальную добычу малореалистичной.</t>
-  </si>
-  <si>
-    <t>Российские ученые открыли необычный механизм действия нового семейства противоопухолевых препаратов.</t>
-  </si>
-  <si>
-    <t>Теоретически такие сигналы можно увидеть по возмущениям кривизны пространства-времени, отраженные в реликтовом излучении</t>
-  </si>
-  <si>
-    <t>Род трех из этих видов ученые назвали Mini</t>
-  </si>
-  <si>
-    <t>За их необычную форму ответственна аккреция частиц</t>
-  </si>
-  <si>
-    <t>Почему психологи одобряют изучение иностранных языков</t>
-  </si>
-  <si>
-    <t>В ходе такого эксперимента ученые будут взаимодействовать только с пробной системой, что заметно отличает новый способ от всех предыдущих</t>
-  </si>
-  <si>
-    <t>Это может значительно сузить генотип заболевания</t>
-  </si>
-  <si>
-    <t>Результаты анализа найденного в Казахстане метеорита наилучшим образом удалось объяснить длительной и яркой вспышкой на Солнце на заре существования нашей планетной системы.</t>
-  </si>
-  <si>
-    <t>Объединив свет всех четырех восьмиметровых телескопов VLT, ученым удалось получить уникальные по точности данные о планете у другой звезды.</t>
-  </si>
-  <si>
-    <t>Физики создали систему, в которой можно регистрировать и изучать квантовый шум, ограничивающий точность приемников гравитационных волн следующего поколения.</t>
-  </si>
-  <si>
-    <t>Транспортный самолет Ил-112В совершил первый полет</t>
-  </si>
-  <si>
-    <t>OSIRIS-REx показал 52-метровую скалу на поверхности Бенну</t>
-  </si>
-  <si>
-    <t>Зонд «Паркер» начал второе тесное сближение с Солнцем</t>
-  </si>
-  <si>
-    <t>Ученые составили карту функциональной латерализации мозга человека</t>
-  </si>
-  <si>
-    <t>Собаки учуяли эпилептический припадок у человека</t>
-  </si>
-  <si>
-    <t>Капсула-пустышка с датчиком проследит за приемом лекарств</t>
-  </si>
-  <si>
-    <t>Беспилотник для Марса совершил первый тестовый полет на Земле</t>
-  </si>
-  <si>
-    <t>Прототип ABRACADABRA не помог найти темную материю</t>
-  </si>
-  <si>
-    <t>Засасывающий яблоки робот приступил к работе</t>
-  </si>
-  <si>
-    <t>Скоростная съемка показала оборону кенгуровых прыгунов от гремучих змей</t>
-  </si>
-  <si>
-    <t>Изменение климата склонило южно-европейских неандертальцев к каннибализму</t>
-  </si>
-  <si>
-    <t>Запутанные фотоны помогли распознать лица</t>
-  </si>
-  <si>
-    <t>Английский язык уместился в полтора мегабайта</t>
-  </si>
-  <si>
-    <t>Площадь ущерба от китайского искусственного острова оказалась в 200 раз больше самого острова</t>
-  </si>
-  <si>
-    <t>Темные полосы на склонах марсианских кратеров связали с сезонным поднятием глубинных вод</t>
-  </si>
-  <si>
-    <t>Противоопухолевая молекула нарушила трехмерную организацию генома раковых клеток</t>
-  </si>
-  <si>
-    <t>Альтернативные теории инфляции проверят с помощью «стандартных часов»</t>
-  </si>
-  <si>
-    <t>На Мадагаскаре нашли пять видов крохотных лягушек не больше человеческого ногтя</t>
-  </si>
-  <si>
-    <t>Необычную форму спутников Сатурна связали с аккрецией частиц из его колец</t>
-  </si>
-  <si>
-    <t>По-турецки говорил</t>
-  </si>
-  <si>
-    <t>Квантовое состояние темной системы предложили измерять с помощью «пробника» и π-импульсов</t>
-  </si>
-  <si>
-    <t>Генотип шизофрении ограничили 413 генами</t>
-  </si>
-  <si>
-    <t>Казахский метеорит указал на грандиозную вспышку древнего Солнца</t>
-  </si>
-  <si>
-    <t>Оптическая интерферометрия прояснила состав атмосферы экзопланеты</t>
-  </si>
-  <si>
-    <t>Квантовый шум гравитационных антенн воспроизвели при комнатной температуре</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Российский военно-транспортный самолет Ил-112В совершил первый полет, сообщает Авиационный комплекс имени Ильюшина. Испытания прошли на аэродроме воронежского авиазавода ПАО «ВАСО», командиром экипажа был шеф-пилот ПАО «Ил» Герой России Николай Куимов. Первый полет стал завершением цикла аэродромной отработки, в ходе которой были проведены испытания всех систем, в том числе пробежки по аэродрому. Полет прошел в штатном режиме. В воздухе Ил-112В сопровождал самолет-лаборатория Ил-114ЛЛ. Ил-112В в перспективе должен заменить легкий транспортник Ан-26. Он будет использоваться для перевозки и десантирования легкой техники, грузов и бойцов, его грузоподъемность — около пяти тонн. Самолет сможет развивать скорость до 550 километров в час и совершать полеты на расстояние до 3,4 тысячи километров, а при взлете с грунтовых аэродромов и максимальной загрузкой — до 1,2 тысячи километров. Транспортник сможет взлетать с взлетно-посадочных полос длиной не более 900 метров. Пробег Ил-112В при посадке составит около 600 метров. Ранее Министерство обороны России объявляло о намерении приобрести 62 самолета этого типа до 2020 года, однако в августе 2018 года появилась информация о планах заказать не менее 100 машин. Сергей Кузнецов Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Исследователи из команды миссии OSIRIS-REx создали стереопару, благодаря которой можно ощутить в объеме 52-метровую скалу на поверхности астероида Бенну. Подобные изображения помогут в выборе места для забора пробы грунта с астероида, сообщается на сайте миссии. Старт автоматической межпланетной станции OSIRIS-REx состоялся в сентябре 2016 года. Главная цель миссии — изучение 500-метрового околоземного астероида (101955) Бенну, относящегося к спектральному классу В. Станция достигла своей цели 3 декабря 2018 года, после чего начала изучение состава грунта при помощи спектрометров. Ожидается, что в начале июля 2020 года станция сблизится с поверхностью астероида и при помощи специального манипулятора соберет с нее 60 граммов пыли и фрагментов породы. После этого в марте 2021 года космический аппарат отправится к Земле и сбросит капсулу с грунтом в сентябре 2023 года. Фотографии валуна на астероиде, из которых было смонтирована стереопара, были получены 1 и 2 декабря 2018 года бортовой камерой PolyCam во время фазы финального сближения OSIRIS-Rex с астероидом. Размер скалы — 52 метра, а находится она в южном полушарии астероида. Скала уходит вглубь поверхности и может быть выступающей частью одного из фрагментов родительского тела астероида.  Примечательно, что в работе принял участие Брайан Мэй — гитарист рок-группы Queen и астрофизик, который в январе официально вошел в состав команды миссии и будет в дальнейшем создавать подобные изображения для помощи в выборе места забора пробы грунта с Бенну. Вторым ученым, работающим над проектом, стала астрофизик Клаудия Манцони (Claudia Manzoni).  Исследование астероида Бенну может дать важную информацию о формировании и эволюции Солнечной системы, включая и ответ на вопрос о том, какие малые тела могут быть ответственны за поставку аминокислот и воды на молодую Землю. О том, что уже узнали ученые об астероиде, читайте в нашем специальном материале «Небесное тело алмазной формы». Александр Войтюк  Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Солнечный зонд «Паркер» начал второе тесное сближение с Солнцем: 4 апреля он пролетит на минимальном на данный момент расстоянии от звезды (около 24 миллионов километров). Это позволит зонду получить новые данные о солнечном ветре и короне Солнца, сообщается на сайте миссии.  Запуск зонда «Паркер» в космос состоялся 13 августа 2018 года. Цель миссии — измерение основных характеристик солнечного ветра (потока высокоэнергетичных заряженных частиц, непрерывно испускаемых Солнцем) и солнечной атмосферы вдоль своей траектории, а также изучение электромагнитных полей вблизи Солнца и процессов, идущих в его внешних слоях. От сильного нагрева и потоков заряженных частиц и излучения от звезды аппарат защищают система охлаждения и теплозащитный щит, под которым укрываются все научные приборы. По плану процесс сближения со звездой продлится семь лет: с каждой новой орбитой (всего их 24) аппарат будет все ближе подходить к светилу. В ноябре 2018 года «Паркер» прошел свой первый перигелий, побив рекорд аппарата Helios-B, который подлетал к звезде на 43,5 миллиона километров в 1976 году. 30 марта 2019 года зонд начал новую фазу сближения со звездой в рамках полета по второй научной орбите вокруг Солнца, а 4 апреля должен пролететь на расстоянии около 24 миллионов километров от звезды, двигаясь со скоростью 343 тысячи километров в час. Собирать научные данные зонд будет в полностью автономном режиме. Фаза сближения окончится 10 ноября, после чего начнется передача данных на Землю.  В декабре 2019 года зонд совершит второй гравитационный маневр вблизи Венеры, а самое тесное сближение с Солнцем запланировано на середину декабря 2024 года, когда «Паркер» окажется на расстоянии около 9–10 солнечных радиусов (около шести миллионов километров) от звезды. Это в семь раз ближе, чем перигелий орбиты Меркурия: еще ни один космический аппарат не подбирался настолько близко к Солнцу. Подробнее о целях этой уникальной миссии и загадках Солнца читайте в нашем материале «Навстречу солнечному ветру». Александр Войтюк Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Французские ученые составили примерную карту функциональной латерализации головного мозга. Изучив данные, полученные в ходе фМРТ-экспериментов, они подразделили почти 600 когнитивных процессов человека на несколько категорий и отнесли их либо к левому, либо к правому полушарию. Статья опубликована в журнале Nature Communications. Если провести линию вдоль человеческого тела, то можно заметить, что две части очень друг на друга похожи. С учетом некоторой асимметрии, которая патологией не считается, человеческое тело — и справа и слева — анатомически достаточно симметрично. Это, однако, совсем не касается функциональных возможностей каждой из этих частей. Среди людей есть правши, левши и амбидекстеры, из-за чего разные конечности (и даже органы чувств) человеческого тела обладают разными возможностями: например, праворукие люди могут писать только правой рукой, а некоторые музыканты-амбидекстеры могут играть на струнных инструментах как правши и как левши. Такое различие называется функциональной латерализацией и присутствует оно также в человеческом мозге: за некоторые функции, в основном, отвечает левое полушарие, а за другие — правое (при этом популярная теория о «творческом» и «логическом» полушариях очень упрощена и, строго говоря, неверна). Систематизировать данные о функциональной латерализации человеческого мозга решили ученые под руководством Мишеля Тьебо де Шоттена (Michel Thiebaut de Schotten) из Парижского университета. Для этого они воспользовались данными, полученными в ходе масштабного метаанализа фМРТ-исследований, посвященных функциональной репрезентации некоторых функций человека.  Всего ученые рассмотрели активность мозга, которая характерна для 590 когнитивных процессов. Доминантное полушарие для каждого процесса ученые определили, высчитав разницу между количеством активных вокселей в правом и левом полушарии: если при уровне значимости p &lt; 0,05 какое-либо из полушарий более активно, чем другое, то оно и считалось доминантным. Следует уточнить, что процессов, которые активируют только одно полушарие абсолютно без какого-либо вмешательства второго, нет: доминантность лишь означает, что какое-то полушарие активируется значительно больше.   Ученые выяснили, что активность мозга, характерную для каждого из рассмотренных процессов, можно примерно разбить на четыре категории: символьная коммуникация (язык, распознавание объектов визуального мира), эмоции, восприятие и действия, а также принятие решений. Так, они выяснили, что символьная коммуникация по большей части активирует левое полушарие, восприятие, действия и эмоции — правое, а принятие решений — лобные доли по большей части также с правой стороны. При этом то, насколько точно тот или иной процесс можно отнести к той или иной категории, отражает и то, насколько он латерализован: к примеру, способность к языку, для которого символьная репрезентация является ключевым, будет латерализован в левой части больше, чем анализ объектов визуального мира, который также относится и к категории восприятия и действия. Также ученые выяснили, что те участки, которые вовлечены в наиболее латерализованные функции (например, центра Брока — один из ключевых языковых центров мозга, находящийся в левом полушарии), в меньшей степени связаны со своими анатомическими аналогами в другом полушарии. На основании полученных данных ученые сделали несколько важных выводов. Во-первых, в процессе развития человека и его мозга наиболее затратные процессы оказались прерогативой того или иного полушария, оставляя другое полушарие вовлеченным в меньшей степени. С точки зрения эволюции это очевидное преимущество: мозг человека увеличивался в размерах, и латерализация определенных функций обеспечивала большую эффективность, сокращая возможность того, что между двумя полушариями будут происходить какие-либо задержки связи. Во-вторых, у такой строгой латерализации есть и важное клиническое значение. Повреждения некоторых отделов мозга вследствие инсульта или травмы могут привести к потере некоторых функций, а строгая вовлеченность определенного полушария при этом может быть как плюсом, так и минусом. С одной стороны, вероятность потерять возможность что-либо делать сокращается (например, большинство афазий связаны как раз с повреждением левого полушария), но с другой стороны, из-за сниженной связи сильно латерализованного отдела с его аналогом в другом полушарии, сокращает и вероятность того, что мозг «переучится» и функция восстановится. Функциональная латерализация может проявляться и анатомически. Например, пару лет назад ученые выяснили, что челюсть хищных рыб цихлид перекошена в ту или иную сторону в зависимости от того, с какой стороны они предпочитают подбираться к жертве. Елизавета Ивтушок Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Французские исследователи выяснили, что собаки могут определять характерный для эпилептического припадка запах, причем независимо от типа эпилепсии и отдельного пациента. Для этого ученые обучили собак реагировать на пот и дыхание одного человека при приступе эпилепсии, а затем проверили эффективность обучения и на запахах других людей. Статья опубликована в журнале Scientific Reports. Состав жидкостей человеческого организма (мочи, пота и слюны) может меняться при наличии некоторых заболеваний, из-за чего может измениться и их запах. Некоторые заболевания по запаху могут распознавать собаки, известные своим эффективным обонянием, хотя существуют и работы, это опровергающие.  То, сможет ли собака распознать заболевание, однако, зависит от того, насколько хорошо ее удалось обучить: в прошлом году ученым, к примеру, удалось научить собак определять характерный для малярии запах по носкам. Другие исследования показывают, что собак также можно научить и предсказывать появление некоторых состояний: например, падения уровня сахара в крови и диабетиков или даже приближающейся мигрени. В новом исследовании ученые под руководством Амели Катала (Amélie Catala) из Университета Ренн (Франция) решили проверить, можно ли обучить собак-поводырей определять по запаху эпилептический припадок. В их эксперименте приняли участие пять собак, которых обучают определять различные заболевания по запаху и реагировать на них. Изначально всех собак обучили определять запах пота и дыхания человека в эпилептическом припадке: для этого использовали биоматериалы одного пациента. Во время тестирования, однако, ученые использовали запахи пота и дыхания пяти других пациентов с разными видами эпилепсии. Во время теста собакам на выбор давали семь канистр с запахом каждого из пяти пациентов по отдельности: в канистрах были запахи, соответствующие дыханию и поту пациентов во время эпилептического припадка, физической активности и запахи, взятые в определенный случайный день в спокойном состоянии. Собакам необходимо было найти нужный запах и остановиться напротив него, после чего в течение некоторого времени открывалась специальная миска с угощением.  Ученые выяснили, что собаки значительно больше времени проводили около образцов, которые соответствовали запаху во время эпилептического припадка. При этом такая реакция собак не зависела от типа эпилепсии участников, что означает, что все типы заболевания объединяет какой-то определенный специфический запах.  Авторы работы пришли к выводу, что реакция собак на характерные для эпилепсии запахи может в будущем пригодиться для исследований, которые помогут выявить определенные маркеры приближения припадка. Это, в свою очередь, будет полезно и для собак, которым необходимо следить за больными: пока что этот эксперимент показывает, что определить наличие припадка собаки могут только тогда, когда он уже начался. Выявлять запахи, которые предсказывают наличие заболевания еще до характерных поражений, уже умеют для болезни Альцгеймера: три года назад ученые с помощью эксперимента на животных показали, что пахучие биомаркеры этого заболевания содержатся в моче. Елизавета Ивтушок Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Американская компания electRx представила специальную одноразовую капсулу для отслеживания приема лекарств. Капсула пустая (в нее можно положить любое лекарство) и состоит из желатиновой оболочки и оснащена датчиком, который реагирует на желудочный сок и посылает сигнал к специальному считывателю, который носится на груди. Подробно о капсуле можно прочитать на сайте компании electRx, а краткую информацию приводит издание New Atlas. Разработки, которые позволяют облегчить мониторинг приема обязательных медикаментов, существуют уже довольно давно. Среди них можно выделить специальные датчики, которые реагируют на желудочный сок и сообщают о том, что лекарство принято. Больше года назад в США, к примеру, одобрили выпуск и продажу таблеток с арипипразолом, который применяется для лечения некоторых психических расстройств, включая шизофрению и биполярное расстройство. В каждую таблетку встроен специальный сенсор, который, реагируя на желудочный сок, посылает к приемнику, закрепляемому на груди пациента, сигнал о том, что лекарство принято. Затем информацию об этом могут получить врачи и родственники пациента. Несмотря на эффективность, сенсоры, поступающие в организм вместе с медикаментами, одноразовые, и выводятся при естественном процессе пищеварения, поэтому содержаться они должны в каждой таблетке, а препарат с арипипразолом — пока что единственное одобренное лекарство с датчиком. Инженеры из electRx решили пойти дальше и разработали пустую капсулу с датчиком. Она работает точно так же, как и все существующие и разрабатываемые сейчас подобные системы мониторинга лекарств, но имеет важное преимущество: желатиновая капсула раскрывается, и в нее можно положить любое лекарство. Информация о приеме затем считывается с помощью специального приемника, который пациенту необходимо носить на груди (его можно заряжать с помощью беспроводной зарядки). Вся информация о приеме лекарств поступает в приложение, через которое сам пациент и его лечащий врач могут отслеживать динамику приема препарата. В данный момент разработка ожидает разрешения на производство от Управления по санитарному надзору за качеством пищевых продуктов и медикаментов США (FDA). Пока что капсула используется в исследовании, которое electRx проводит совместно с больницей Бригхэм Гарвардского университета и организацией Fenway Health, которая занимается вопросами здоровья представителей ЛГБТ-сообщества. Участники исследования и их лечащие врачи с помощью разработанной системы отслеживают прием антиретровирусного препарата «Трувада», который используется для профилактики ВИЧ-инфекции. Еще один вид умных лекарств — капсулы, состоящие из биосовместимых и биоразлагаемых материалов, которые в среде желудка разрушаются с разной скоростью, высвобождая лекарства в определенное время. Капсулу с подобным «таймером» для доставки лекарства в сентябре 2017 года показали в MIT. Елизавета Ивтушок Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Специалисты NASA провели первый испытательный полет беспилотного аппарата Mars Helicopter, который разработан для миссии «Марс-2020». Информация об испытаниях опубликована на сайте Лаборатории реактивного движения NASA. Беспилотный вертолет Mars Helicopter отправится на Марс в июле 2020 года вместе с новым ровером в рамках миссии «Марс-2020». Его задача заключается в демонстрации работоспособности и эффективности беспилотных летательных аппаратов в рамках исследовательских миссий к другим планетам Солнечной системы. Масса дрона составляет 1,8 килограмма, он выполнен по соосной вертолетной схеме с двумя контрвращающимися несущими винтами с широкими лопастями. Энергию для полетов и обогрева аппарат будут поставлять литий-ионные аккумуляторные батареи, подзаряжающиеся при помощи солнечных панелей.  Предполагается, что в течение месяца после прибытия на Марс Mars Helicopter вначале совершит 30-секундный пробный подъем на три метра, после чего совершит как минимум пять дальних полетов, длительность которых будет достигать 90 секунд, а высота полета составит несколько сотен метров. Испытания на Земле проводились в вакуумной камере шириной 7,62 метра. Чтобы смоделировать условия Красной планеты из камеры с дроном откачали воздух, заменив его на углекислый газ, являющийся основным компонентом марсианской атмосферы. Марсианская гравитация моделировалась при помощи системы гравитационной разгрузки, прикрепленной к верхней части вертолета — во время полета система немного тянула аппарат вверх. В общей сложности за два дня испытаний дрон совершил два успешных тестовых подъема на высоту в пять сантиметров.  Александр Войтюк Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Физики опубликовали детальное описание нового эксперимента по поиску сверхлегких частиц темной материи ABRACADABRA и подвели итоги работы прототипа. Полноценная установка будет чувствительна к сигналу частиц с массами от 10-12 до 10-6 электронвольт, а прототип работал с диапазоном от 0,31 до 8,3 наноэлектронвольт. Такими массами могут обладать несколько кандидатов на роль частиц темной материи, в том числе аксионы. Искомых событий в рамках наблюдений с прототипом найдено не было. Результаты приняты к публикации в журнале Physical Review Letters, препринт статьи доступен на сервере arXiv.org. Некоторые явления в астрофизике и космологии не поддаются теоретическому описанию с учетом только известных видов материи и взаимодействий. К таким феноменам относятся кривые вращения галактик, динамическая устойчивость их скоплений, гравитационное линзирование на космологических расстояниях, рост возмущений в ранней Вселенной, особенности формы спектра мощности реликтового излучения и некоторые другие. Наиболее распространенным в современной науке разрешением данного затруднения является введение нового компонента вещества — темной материи. Она не взаимодействует посредством электромагнетизма, поэтому не может быть зафиксирована при помощи обычных телескопов, но ее гравитационное влияние позволяет привести теоретические оценки в соответствие с наблюдениями. На данный момент физики не смогли получить прямых указаний на существование темной материи, несмотря на несколько десятилетий активных поисков. Ситуация затрудняется тем, что астрономические наблюдения не позволяют точно определить свойства частиц темной материи, из-за чего существует огромное разнообразие различных моделей. До недавнего времени наибольшей популярностью пользовалась модель вимпов (WIMPs, Weakly interacting massive particles — слабовзаимодействующие массивные частицы). По массе эти частицы должны быть в десятки раз тяжелее протона, однако ни опыты по прямой регистрации, ни эксперименты на коллайдерах не нашли искомых сигналов. Из-за этого многие ученые начали уделять активное внимание альтернативным моделям. Среди альтернативных вимпам идей есть класс теорий, в рамках которых темная материя состоит из очень легких частиц. В частности, к этому типу относится «размытая» темная материя, массивный темный фотон и аксионы. Последние частицы были предложены около 40 лет назад как потенциальное решение сильной CP-проблемы, которая заключается в том, что сильное взаимодействием не нарушает комбинированную четность, то есть симметрично относительно замен всех зарядов и направлений. Это обстоятельство требует объяснения, так как современная теория сильного взаимодействия — квантовая хромодинамика — допускает нарушение данной симметрии, однако в экспериментах этого зафиксировано не было. В результате была сформулирована гипотеза Печчеи—Квинн, которая предполагала наличие нового квантового поля, обращающего в нуль ту часть лагранжиана КХД, которая способна приводить к нарушению CP-симметрии. Соответствующий квант поля был назван аксионом. К идее аксионов вновь вернулись в контексте темной материи, так как они хорошо вписывались в модель темной материи из легких частиц. В отличие от многих других вариантов, у аксионов должно быть специфическое взаимодействие с электромагнитным полем в определенных условиях, так как аксион и фотон с точки зрения теории оказываются связаны. В частности, в сильных полях одни должны превращаться в другие. Именно это свойство является концептуальной основой экспериментов, называемых «свет сквозь стену»: мощный поток света направляют в магнитное поле перед стенкой, фотоны поглощаются, а аксионы проходят сквозь нее, после чего часть из них превращается обратно в фотоны, которые регистрирует приемник. В основе эксперимента ABRACADABRA (A Broadband/Resonant Approach to Cosmic Axion Detection with an Amplifying B-field Ring Apparatus — широкополосный резонансный подход к поиску космических аксионов с усиливающей сигнал кольцевой установкой, создающей магнитное поле) лежит эффект порождения переменного магнитного поля при попадании аксиона в постоянное поле. В таком случае должно создаваться поле, аналогичное генерируемому переменным током, чей вектор плотности параллелен внешнему полю. Детектором в данном случае является СКВИД-магнитометр, помещенный в центр тороидального магнита. Так как масса аксионов невелика, то и появляющееся поле будет слабое — ученые создавали установку с надеждой зафиксировать колебания на уровне 20 аттотесла, то есть примерно в 1012 раз слабее магнитного поля Земли. В то время как большинство экспериментом по поиску аксионов искали частицы с массами от 10 до 100 микроэлектровольт, ABRACADABRA чувствительна к еще более легким частицам. Полноценная установка должна изучить весь диапазон от 10-12 до 10-6 электронвольт, но прототип из-за малой величины и недостаточной экранировки от внешних шумов работал в диапазоне от 3,1×10-10 до 8,3×10−9 эВ. Регистраций зафиксировано не было, что позволило установить ограничения на степень спаривания аксиона с фотоном. Данные результаты получены за месяц работы и уже почти достигают по точности оценки намного более крупного эксперимента CAST. Авторы планируют развить подход и в ближайшем будущем начать собирать данные с полноценной установкой, которая позволит искать аксионы в большом диапазоне малых масс. Затруднения с моделью вимпов породили существенный интерес к альтернативным идеям и их экспериментальной проверке. Так легкую темную материю недавно предложили ловить сверхпроводящими нанопроводами. О важности самого понятия о темной материи мы говорили с астрофизиком Андреем Дорошкевичем в материале «Невидимый цемент Вселенной». Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В Новой Зеландии приступил к работе первый коммерческий робот, засасывающий яблоки. Робот разработан компанией Abundant Robotics и представляет собой небольшой движущийся трактор, на котором есть манипулятор, собирающий яблоки с помощью насоса. Он ориентируется с помощью лидара, а определить созревшие яблоки ему помогает система компьютерного зрения. Подробно о разработке можно почитать на сайте компании, краткое резюме приводит MIT Technology Review. Развитие сельского хозяйства требует роста использования человеческих ресурсов, что не всегда возможно или оптимально. Именно поэтому сейчас все чаще используются автоматизированные системы. Например, есть робот, который самостоятельно находит сорняки и поливает их гербицидами, а Walmart недавно запатентовала точечное опыление и обработку пестицидами с помощью дрона. При этом коммерчески доступных сельскохозяйственных роботов, которые работают на реальных фермах, не так много. Робот компании Abundant Robotics с начала марта используется на яблочных полях новозеландской компании T&amp;G Global. Лидар помогает ему самостоятельно перемещаться по рядам между посевами. Собирает робот яблоки с помощью специального насоса — достаточно сильного, чтобы сорвать яблоко с ветки, не касаясь его (как пылесос). При этом робот не ломает ветки и никак иначе не вредит растениям.  Робот также самостоятельно может определить зрелость яблока: для этого он оснащен системой компьютерного зрения. При этом T&amp;G Global уточняет, что использование робота не приведет к сокращению штата: пока что машина будет работать только ночью, собирая яблоки в труднодоступных местах. В сентябре 2017 года роботам также удалось засеять гектар и затем собрать с него урожай — причем практически без помощи человека. Об этом вы можете почитать здесь. Елизавета Ивтушок Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Американские ученые сняли на видео несколько встреч пустынных кенгуровых прыгунов и гремучих змей — на высокоскоростной съемке видно, как прыгуны ловко уклоняются от змей и бьют их сильными задними ногами. Две статьи ученых по этому поводу вышли в журналах Functional Ecology и Biological Journal of the Linnean Society, а видео собраны на YouTube-канале Ninja Rat. Пустынные кенгуровые прыгуны Dipodomys deserti — относительно крупные (длиной около 30 сантиметров и массой около 90 грамм) представители рода кенгуровых прыгунов, живущие в пустынных районах юго-запада США. Они, помимо прочего, известны тем, что при виде змей, крайне опасных для них хищников, не прячутся, а ведут себя достаточно агрессивно: топочут, подходят близко к змее и поднимают в воздух песок — так они дают змее понять, что видят ее, а змеи реже нападают на жертв, которые знают об их присутствии. Прыгуны настолько часто выходят невредимыми из столкновений с хищниками, что ученые даже на всякий случай проверяли их на устойчивость к яду гремучих змей — потому что при обычной съемке казалось, что змея все-таки кусает животное. Тимоти Хайем (Timothy Higham) из Калифорнийского университета в Риверсайде и его группа, отследив рогатых гремучников Crotalus cerastes в аризонской пустыне, определили места, где те чаще всего охотятся на пустынных кенгуровых прыгунов, и установили в этих местах камеры для скоростной съемки. Таким образом, им удалось получить, по их словам, первые детальные кадры маневров, которые прыгуны используют для защиты от змей.  В частности, ученые оценили скорость реакции змей и прыгунов: один бросок змеи от полной неподвижности до места, где находится прыгун, занимал менее 100 миллисекунд (для сравнения, человек обычно моргает 150 миллисекунд). Но прыгуны действуют еще быстрее — их реакция занимает около 70 миллисекунд, а многие из них подпрыгивали всего через 40 миллисекунд после того, как змея начинала двигаться. «Быстрые прыгуны часто могли полностью отскочить от змеи так, что та кусала лишь воздух, а сам прыгун поднимался на 7-8 длин своего тела в воздух. Но самое удивительное, что нам удалось выяснить, — то, что те прыгуны, кто не успевал отреагировать достаточно быстро, могли воспользоваться еще одним трюком: они часто избегали ядовитого укуса, переворачиваясь в воздухе и используя свои мощные задние ноги, чтобы отбросить змею, как ниндзя», — сказал соавтор работы Рулон Кларк (Rulon Clark), чьи слова приводит пресс-служба университета. Рапидные камеры могут применяться и для съемки более быстрых событий. Так, самая скорострельная камера в мире делает снимки со скоростью, эквивалентной пяти триллионам изображений в секунду. Это позволяет запечатлеть события длительностью около 0,2 триллионных доли секунды — например, химические реакции или движение света на коротком отрезке пути. Ольга Добровидова Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Неандертальцы, жившие в период межледниковья 128–117 тысяч лет назад на юге Европы, возможно, были каннибалами по необходимости. Так считают французские ученые, опубликовавшие результаты исследования в Journal of Archaeological Science. По их мнению, изменение климата привело к уменьшению количества крупных и средних животных в регионе, где жили неандертальцы, поэтому им пришлось начать поедать друг друга, чтобы выжить. За последние 400 тысяч лет Микулинское (Эемское) межледниковье было самым теплым. Оно продолжалось больше 10 тысяч лет, 128–117 тысяч лет назад. Средняя температура была примерно на 1–2 градуса Цельсия выше, а уровнь моря на 6-9 метров выше, чем сейчас. Как в это время менялись флора и фауна в той или иной области, и как переносили теплый климат жившие в то время в Европе неандертальцы, мы знаем плохо. На сегодняшний день в Западной Европе известно мало мест с точно датированными стратиграфическими слоями, где сохранились бы и останки животных и растений, и следы присутствия древних людей, живших во время Микулинского межледниковья. Одно из таких мест — пещера Мула-Герси на юго-востоке Франции. Здесь есть стратиграфические слои, образовавшиеся во время Микулинского межледниковья, а в них сохранились животные и растительные остатки, каменные орудия и остатки жженого угля. В начале 1990-х годов в Мула-Герси, в слоях, соответствующих Микулинскому межледниковью, нашли останки шести неандертальцев, двух взрослых, двух подростков и двоих детей. По всей видимости, они стали жертвой каннибаллов: на костях ученые обнаружили отметины, сделанные каменными орудиями, тела древних людей расчленили, а на костях пальцев сохранились отметки человеческих зубов.   Большинство исследователей, изучавших каннибализм древних людей, сходятся на том, что чаще это была не ритуальная практика, а возможность пополнить запасы белка при отсутствии другой животной пищи. Археологи Альбан Дефлёр (Alban R. Defleur) и Эммануэль Дескло (Emmanuel Desclaux) из Национального центра научных исследований Франции предположили, что южно-европейские неандертальцы стали каннибалами вынужденно. Из-за изменения климата в регионе условия жизни стали тяжелее, крупная дичь исчезла и древним людям пришлось есть друг друга.   Авторы еще раз проанализировали останки неандертальцев, их каменных орудий, животных и растений, найденных  в Мула-Герси в слоях, сформировавшихся во время последнего межледниковья 128–117 тысяч лет назад, а также до и после него, и сравнили свои данные с другими публикациями.   Ученые подтвердили, что климат в районе Мула-Герси в период Микулинского межледниковья был теплее, чем сейчас. Изменение климата с холодного и засушливого на теплый и влажный произошло довольно быстро. По мере того, как менялся климат, изменилась и фауна, и ландшафты. В слоях, соответствующих ледниковым периодам ученые находили кости шерстистых мамонтов, северных оленей и леммингов. Во время межледниковья их сменили лани, носороги и медведи, но крупных и средних животных, судя по сохранившимся в пещере останкам, стало гораздо меньше. Зато появляется много мелких лесных грызунов, черепахи и змеи. Судя по растительным остаткам, вместо лугов появились леса, охотиться в которых было труднее. Анализ зубной эмали найденных в пещере неандертальцев показал, что они они страдали от недоедания и болезней. Хотя у них был разнообразный растительный рацион и периодически они ели мясо, по-видимому, им часто приходилось голодать и есть растения, которые росли в районе пещеры. В таких условиях неудивительно, что они восполняли недостаток белка за счет сородичей. По-видимому, они поедали умерших членов группы или убивали более слабых. В Мула-Герси четверо из шестерых неандертальцев — дети и подростки моложе 15-16, двое остальных — пожилой мужчина и человек хрупкого телосложения, возможно, женщина. По словам авторов исследования, у них впервые появились доказательства,что неандертальцы переживали тяжелые времена. Они делали все, для того, чтобы выжить и их действия не отличались от того, что в похожей ситуации сделали бы люди.   Ранее ученые показали, что неандертальцы были довольно практичными каннибалами: они использовали кости съеденных соплеменников, как орудия труда.   Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Китайские физики построили систему распознавания лиц, основанную на призрачной визуализации с использованием запутанных фотонов. Работоспособность предложенного способа физики проверили на лицах пятерых сотрудников своей лаборатории. Статья опубликована в Physical Review Letters, кратко о ней сообщает Physics. Распознавание лица позволяет довольно точно установить личность человека, а потому играет важную роль в социальных взаимодействиях. В частности, с помощью такой системы можно ловить преступников или разблокировать смартфон. Как правило, системы распознавания лица анализирует фотографию и выделяет на ней наиболее важные детали, а потом ищет похожие снимки в базе данных. К сожалению, несмотря на быстрый прогресс в этой области, пока еще автоматическое распознавание лиц далеко от совершенства. В то же время, существует альтернативный подход к распознаванию картинок, который не требует сложного машинного анализа и способен одновременно анализировать большие объемы данных. В этом подходе пучок фотонов разделяют на два скоррелированных пучка, один из которых отражается от объекта и создает его изображение (сигнальный пучок), а второй пропускается через маску-фильтр (эталонный пучок). Если изображение совпадает с маской, то интенсивности обоих пучков окажутся скоррелированы; следовательно, по их интерференционной картине можно оценить степень совпадения изображений и быстро распознать очертание объекта. Впервые этот метод предложил еще в 60-х годах прошлого века американский физик Вандер Люгт (Vander Lugt). К сожалению, точность этого метода была неудовлетворительной. Определенного прогресса удалось добиться только в прошлом десятилетии, когда была открыта так называемая призрачная визуализация, основанная на запутанных фотонах. К сожалению, даже в этом случае ученым удавалось распознавать только простые объекты — например, определить число лучей звезды, склеенной из нескольких палочек. Группа физиков под руководством Лисян Чэня (Lixiang Chen) существенно улучшила этот метод и применила его для распознавания лиц. Для этого ученые немного изменили схему, по которой создаются запутанные фотоны и маска объекта. В отличие от предыдущих работ, исследователи работали с лазерными пучками, имеющими не гауссов, а более сложный пространственный профиль. Квантовое состояние пары запутанных фотонов ученые разложили в сумму состояний с фиксированным орбитальным и радиальным квантовым числом. Для этого физики использовали моды Лагерра—Гаусса, которые являются собственными функциями оператора преобразования Фурье. Затем ученые проследили за эволюцией квантового состояния сигнального фотона, проходящего через объект, и сопоставили объекту некоторый оператор. Наконец, с помощью алгебраических преобразований ученые восстановили по этому оператору фурье-спектр эталонного лазерного пучка, который описывает маску объекта. На практике физики получали нужный спектр с помощью пространственного модулятора света.    В сентябре прошлого года американские физики впервые реализовали метод призрачной визуализации с помощью пучка запутанных электронов, а не фотонов. Это позволило ученым сделать микрофотографию предмета с помощью одного-единственного пикселя. В настоящее время системы распознавания лиц активно внедряются в повседневную жизнь. Например, в США такие системы проверяют билеты на концертах, а в Китае ищут преступников и контролируют внимательность школьников. В апреле прошлого года систему распознавания лиц запустили и в московском метро, причем в течение первого месяца она распознала более 40 преступников, которые находились в федеральном розыске и впоследствии были задержаны. А в прошлом месяце Департамент информационных технологий мэрии Москвы сообщил о разработке очков дополненной реальности с технологией распознавания лиц, предназначенных для московской полиции. Дмитрий Трунин Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Американские психологи подсчитали объем информации, который к 18 годам выучивает англоговорящий человек о своем родном языке. По их подсчетам, максимальный объем таких данных составляет около 12,5 миллиона бит: всю информацию о языке, таким образом, почти целиком можно уместить на стандартной трехдюймовой дискете. При этом бóльшая часть хранимой информации посвящена лексической семантике. Статья опубликована в журнале Royal Society Open Science. Самый простой способ записи и хранения информации — двоичный код: в таком виде информация хранится на цифровых носителях, а также в виде набора нолей и единиц можно представить и ту информацию об окружающем мире, которую человек получает и хранит у себя в голове. При этом устройство двоичного кода не дает компактно хранить всю информацию об объекте. Представим, к примеру, черничный пирог. Всю информацию и черничном пироге — то, как он выглядит, какой он на вкус, как называется ягода, которая входит в его состав, какого она цвета и так далее — представить в виде одного бита невозможно. Вместо этого ее приходится хранить в виде своеобразных ответов на разные вопросы. Например, что касается того же пирога, ответ на вопрос «Это пирог?» будет «Да», на вопрос «Он абрикосовый?» ответом будет «Нет», поэтому этот кластер информации о пироге может выглядеть как 1 0, то есть занимать два бита. Разумеется, в мире есть и другие объекты помимо пирогов, и по разным подсчетам человеческая память способна хранить от 109 до 1020 бит информации, а на каждый объект приходится от 10 до 14 битов. В новой работе Фрэнсис Моллика (Francis Mollica) из Рочестерского университета и Стивен Пьянтадоси (Steven Piantadosi) из Калифорнийского института в Беркли решили подсчитать, какой объем занимает языковая информация, которую получает человек с рождения до наступления совершеннолетия. Ученые сосредоточились на англоговорящих людях, а информацию о языке разбили на несколько категорий: фонемы, словоформы, лексическая семантика, частотность слов и синтаксис. Для расчета объема информации в каждой категории ученые воспользовались теорией сокращения информационной энтропии, в соответствии с которой для каждой репрезентации R есть некоторое количество неопределенности H. То есть любой объект, который можно познать, сначала представляется в виде неопределенности H(R). При этом есть некоторая информация D: она относится к R и может сократить информационную энтропию. Далее информацию о каком-то объекте можно перевести в биты с помощью разницы в неопределенности до обучения H(R) и неопределенности после обучения H(R|D). В качестве трех основных параметров получения информации о фонемах ученые приняли время начала озвончения в миллисекундах (количественный параметр, который, к примеру, помогает разграничить [п] и [б]), частота фрикации в барках (артикуляционные особенности, помогающие разграничить фрикативные согласные, например, отличить [с] и [з]) и частоты формант гласных звуков в мелах. На основе известных границ длительности озвончения и воспринимаемых человеком частот, ученые выяснили, что время для начала озвончения звонких и глухих (для глухих — отрицательное число, так как озвончения нет) согласных нужно 5 и 3 бита соответственно, для частоты фрикации — 3 бита, а для определения частоты формант гласных — 15 бит. Учитывая количество фонем в английском языке (50) и в зависимости от того, сколько бит информации каждая из них требует, всю фонетическую систему языка можно, по оценкам ученых, уместить в 375–1500 битах. Вторая категория — словоформы — в понимании ученых содержит только оболочку слова, то есть набор фонем, которые нужны, чтобы это слово произнести или распознать при прослушивании. Они ограничили средний объем лексикона взрослого англоговорящего человека 40 тысячью словами. Воспользовавшись базой лингвистических данных CELEX, ученые выяснили среднее количество фонов (фонетических единиц речи) для каждого слова, а затем рассчитали на основе этого, сколько битов необходимо для одного слова. Получилось, по разным моделям, 5, 10 и 16, что соответствует объему от 200 до 640 тысяч бит для хранения словоформ. Для того, чтобы рассчитать объем информации, относящейся к лексической семантике слов, ученые представили все значения всех слов в многомерном векторном пространстве R. В нем есть определенное слово — например, слово «яблоко», — которое попадает не только в пространство R, но и в пространство r чуть поменьше. При этом R содержит r, но неизвестно, где именно это r находится. И, хотя R содержит информацию о фруктах, овощах, коровах, глобальном потеплении и всех других объектах, нужно именно пространство r — потому что в нем содержится только релевантная информация: для сокращения информационной энтропии, поэтому, необходимо сократить R до r.  Чтобы это оценить, ученые проанализировали векторное представления 10 тысяч существительных в WordNet. В качестве r для каждого слова взяли расстояние до ближайших точек в пространстве, а в качестве R — расстояние до самых дальних. По расчетам ученых, процесс сокращения R до r, то есть нахождение того самого меньшего пространства для каждого слова может занимать до 2 бит. При этом семантическое пространство не одномерно, а многомерно, и количество измерений в нем, по разным оценкам, варьируется от 100 до 500. Объем информации о лексической семантике, таким образом, по подсчетам ученых занимает от 500 тысяч до 40 миллионов бит, учитывая лексикон в 40 тысяч слов. Для оценки объема памяти, необходимого для хранения информации о частотности слов, ученые воспользовались помощью 251 добровольца, каждого из которых попросили сравнить два слова по частотности: то есть решить, какое из них в речи встречается чаще всего. Они выяснили, что точность участников составляет около 76,6 процента — то есть где-то в трех случаях из четырех они правильно угадывали, насколько слово частотное. Смоделировав точность участников при выполнении задания в виде того, сколько частот всего они могут определить (оценив недостающие 23,4 процента как вероятность того, что два слова попадут в одну категорию), они выяснили, что люди примерно распределяют частотность по четырем категориям. Для определения частоты слова, таким образом, необходимо где-то от 1 до 3 бит информации: то есть для всех слов — от 40 до 120 тысяч бит. Наконец, для синтаксиса ученые решили подсчитать количество предложений с уникальной синтаксической структурой вне контекста и необходимый объем памяти, который позволяет отличить одну структуру от другой. У ученых вышло 134, 697 и 1394 бита в зависимости от того, сколько уникальных синтаксических конструкций может распознать человек. Авторы, таким образом, подсчитали, что вся информация, которую англоговорящий человек получает о своем языке с раннего детства до 18 лет, можно поместить в достаточно небольшом объеме памяти: от 794 тысяч до 40 миллионов бит. При этом средний показатель (best guess по всем категориям) равняется 12,48 миллиона бит или около 1,5 мегабайта. При этом ученые уточняют, что их расчеты очень грубые и примерные, и скорее годятся для какого-либо теоретического обоснования, а не для применения в информационных технологиях. К примеру, их расчеты показали, что самым затратным по занимаемому объему памяти является лексическая семантика, а вот синтаксис, наоборот, места занимает очень мало.  Кстати о носителях информации: в январе была представлнена первая серийная SD-карта, на которую можно поместить терабайт данных. Специально к этому событию мы подготовили материал «Терабайт — это много или мало?» о том, как менялись со временем цифровые носители. Елизавета Ивтушок Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Площадь ущерба для акватории вокруг китайского искусственного острова на коралловом рифе Мисчиф в Южно-Китайском море оказалась в 200 с лишним раз больше площади самого острова — 1200 квадратных километров против 5,58 квадратных километра, подсчитали авторы статьи в журнале Scientific Reports. Чтобы укрепить свое влияние в регионе, Китай активно создает в Южно-Китайском море искусственные острова, где, как правило, размещает военные объекты. По оценкам, которые приводятся в статье, в 2013–2017 годах КНР намыла примерно 12,95 квадратных километра новой территории (еще полкилометра намыл Вьетнам, а Тайвань добавил к своей территории три гектара). Напряженный политический климат в этом регионе не позволяет проводить оценки экологической обстановки на месте, рядом с новыми островами, но с помощью спутниковых данных можно дистанционно исследовать эти районы на предмет экологического ущерба.  Леланд Смит (Leland Smith) из Джорджтаунского университета и его коллеги изучали риф Мисчиф в восточной части Южно-Китайского моря, где Китай намыл остров площадью около 5,58 квадратных километра и уже построил взлетно-посадочную полосу и здания. Даты начала и окончания намыва острова неизвестны, поэтому ученые опирались на архив спутниковых снимков Landsat, Aqua и Sentinel и изображений, собранных американским Центром стратегических и международных исследований. Судя по этим изображениям, в 2014 году у рифа еще не было надводной части, в 2015 после начала намыва она появилась, а строения на новом острове возникли в 2016 году. Помимо подсчетов земснарядов и оценки масштаба самих операций в 2015 году, ученые оценивали шлейф поднятых донных осадков от намыва острова и состояние воды вокруг рифа по ее спектральным характеристикам. В частности, они выяснили, что максимальная площадь шлейфа в июне 2015 года составила 262 квадратных километра. Общая площадь моря, затронутая операцией по созданию острова, составила, по их оценкам, примерно 1200 квадратных километров, хотя в пределах этой площади воздействие было неравномерным. Кроме того, изначально работы по намыву острова могли стимулировать рост фитопланктона (хотя авторы относятся к этим данным с осторожностью), но после окончания работ состояние экосистем существенно ухудшилось, причем в радиусе по крайней мере двух километров от внешней границы рифа этот эффект сохранялся с 2016 по 2018 год, (за этот период были доступны). Авторы статьи отмечают, что геополитическое значение экологического ущерба от создания новых островов может быть велико, так как на биоресурсы Южно-Китайского моря претендуют Китай, Тайвань, Вьетнам, Малайзия, Индонезия, Бруней и Филиппины. Разрушение коралловых рифов при намыве островов может приводить к гибели не только локальных экосистем, но и видов рыб, представляющих коммерческий интерес. Ученые считают, что их работа как первая попытка количественно оценить ущерб от этого процесса может стать основой для научной дискуссии о последствиях намыва островов в регионе. Где-то острова появляются, а где-то — исчезают: прошлой осенью ураган «Валака» полностью смыл один из островов Гавайского архипелага, на котором жили редкие тюлени и черепахи. Ольга Добровидова Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выдвинута новая теория образования темных полос на склонах марсианских кратеров, согласно которой ключевую роль в их появлении играет поднимающаяся с больших глубин соленая вода. Эта идея также предполагает наличие обширных водоносных горизонтов и активной системы подземных вод под слоем вечной мерзлоты в коре планеты. Если данная гипотеза верна, то на Красной планете находятся значительные запасы труднодоступной воды. Результаты опубликованы в журнале Nature Geoscience.  Вода не может долгое время находиться на поверхности Марса, так как сочетание низкого давления атмосферы и невысоких температур не допускают наличия равновесной жидкой фазы, как видно из фазовой диаграммы воды. Тем не менее, в виде льда вода может сохраняться длительное время. Грунт Красной планеты даже весьма близко к поверхности может содержать заметные количества льда, который иногда тает и проводит к кратковременному появлению жидкой воды. Подробное выяснение деталей появления жидкой воды важно не только в контексте геологии и эволюции планеты, но и для снабжения потенциальных колонизаторов. Поверхность Марса не остается неизменной — большое количество мелкомасштабных процессов изменяют ее. Одним из вызывающих наибольший интерес у ученых процессов является образование темных полос на склонах кратеров (Recurring Slope Lineae, RSL). Обычно они возникают в начале местного лета, увеличиваются в размере в течение теплого сезона, а потом исчезают, сливаясь с окружающим грунтом, но вновь появляются на следующий год. Существует масса гипотез о механизмах их появления, такие как таяние снегов, сухие осыпи, приповерхностные грунтовые воды и расплывание за счет поглощения атмосферной влаги. Кроме сухих осыпей все эти идеи предполагают наличие приповерхностных вод или паров воды, что делает изучение потенциально подходящих для поддержания жизни условий возможным с использованием имеющихся технологий. Аботалиб Заки Аботалиб (Abotalib Zaki Abotalib) из Университета Южной Калифорнии и Ессам Хегги (Essam Heggy) из Калифорнийского технологического института выдвигают новую теорию о ключевой роли залегающих на большой глубине вод. Авторы обладают опытом исследований подземных течений в пустынях на Земле, поэтому решили применить имеющиеся знания для анализа изображений с камеры HiRISE на борту американского зонда Mars Reconnaissance Orbiter. Они изучили снимки склонов нескольких кратеров, в том числе Паликир, который является типичным местов возникновения темных полос, и обнаружили, что RSL обычно начинаются от разломов и трещин поверхности. Это навело их на мысль, что особенности создаются водой, которая под большим давлением поднимается с глубин около 750 метров сквозь расселины в породе. Авторы утверждают, что подобный механизм наблюдается и на Земле, в том числе в северной части Сахары и на Аравийском полуострове.   Самым значительным недавним открытием, связанным с водой на Марсе, является обнаружение большого озера, залегающего на глубине около полутора километров под Южным полюсом планеты. Недавно NASA согласовало с учеными новый план по картированию доступной для потенциального использования воды на поверхности Марса. Тимур Кешелава Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Российские ученые открыли необычный механизм действия нового семейства противоопухолевых препаратов. Как говорится в статье в Nature Communications, вещества под названием кураксины нарушают трехмерную организацию генома в раковых клетках, что приводит к снижению экспрессии онкогенов и других важных для жизнедеятельности клетки генов.  В человеческом геноме ДНК при помощи белковых комплексов организована в структурные домены, которые облегчают активацию транскрипции генов и их взаимодействие с удаленными регуляторными элементами — энхансерами. Такая трехмерная организация, в частности, важна для активации онкогенов — генов, избыточная функция которых приводит к злокачественной трансформации клетки. Подавление активации онкогенов лежит в основе механизма действия некоторых противоопухолевых препаратов. Относительно недавно открытые кураксины, родственные противомалярийному препарату хинакрину, работают в том числе путем подавления удаленного взаимодействия энхансеров с онкогенами, выяснили ученые из Института биологии гена РАН, биофака МГУ и Института биоорганической химии РАН под руководством Сергея Разина. Работа была выполнена в сотрудничестве с американскими центрами изучения рака Fox Chase и Roswell Park при поддержке Российского научного фонда, РФФИ, американского Национального института рака, компании «Инкурон» и ряда других организаций.  В качестве объекта исследования авторы работы выбрали группу онкогенов семейства MYC, экспрессия которых наиболее чувствительна к действию кураксинов. На двух раковых клеточных линиях ученые показали, что активация MYC зависит от удаленных энхансеров, а на in vitro модели — что кураксин CBL0137 нарушает взаимодействие энхансера с промотором («включателем» транскрипции) гена. Глобальное исследование структуры хроматина (ДНК-белкового комплекса ядра) методом Hi-C в присутствии кураксина CBL0137 обнаружило нарушение общей трехмерной структуры генома и изменение границ транскрипционно активных доменов. Наблюдаемое нарушение активации онкогенов, по-видимому, происходит благодаря глобальной перестройке контактов между участками хроматина, что приводит к разрушению взаимодействия ген-энхансер.   В предыдущих исследованиях ученые показали, что кураксины нарушают взаимодействие ДНК с нуклеосомами и препятствуют работе транскрипционного комплекса FACT в раковых клетках. Однако новый механизм, ранее не описанный для противоопухолевых препаратов, затрагивает изменение физических свойств хроматина — по-видимому, кураксин делает ДНК-белковые нити более жесткими, в том числе за счет удаления белка CTCF, и не дает им изгибаться и образовывать контакты.  Класс противоопухолевых препаратов под названием кураксины был разработан и исследуется с участием российской компании Инкурон и американской Cleveland Biolabs, Inc. В настоящее время самая перспективная молекула из этой группы, вещество под номером CBL0137, успешно прошла доклинические испытания, и в 2019 году должны начаться очередные исследования ее эффективности на пациентах с меланомой. Дарья Спасская Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Физики из Гарварда предложили способ, с помощью которого можно выбрать одну из альтернативных теорий инфляции или фальсифицировать инфляционный сценарий как таковой. Для этого ученые рассчитали спектр возмущений кривизны пространства времени, возникающих из-за «стандартных часов» — колебаний массивного поля, сопровождающих эволюцию молодой Вселенной. Оказалось, что в инфляционном сценарии спектр постоянный, а в альтернативных сценариях осциллирует. Ученые утверждают, что до этого способа фальсифицировать инфляционный сценарий не существовало в принципе. Статья опубликована в Physical Review Letters, кратко о ней сообщает Physics, препринт работы выложен на сайте arXiv.org. Несмотря на небольшие отклонения на масштабах планет и галактик, в среднем наша Вселенная практически идеально плоская и однородная. Последние измерения астрономов подтверждают, что, параметр, который входит в уравнение эволюции Вселенной и отвечает за ее кривизну, отклоняется от единицы не более чем на 10−14, а флуктуации реликтового излучения не превышают 0,1 процента. Объяснить эти значения в рамках стандартной теории Большого взрыва невозможно. Поэтому физики дополняют эту теорию космологической инфляцией — периодом быстрого расширения, в результате которого растягиваются квантовые флуктуации и разглаживаются неоднородности пространства-времени. Как такая модификация решает эти проблемы, можно прочитать в статьях «Рождение Вселенной» и «Всемогущая инфляция». В настоящее время инфляционная модель является общепринятой среди физиков-космологов.  Тем не менее, инфляционная модель не является единственной — физикам известно несколько альтернативных теорий, которые так же хорошо объясняют однородность и нулевую кривизну Вселенной. Например, теория «отскока», в которой периоду быстрого расширения предшествовал период быстрого сжатия. Хуже того, теория инфляции имеет серьезный недостаток, из-за которого ее нельзя считать по-настоящему научной теорией. Дело в том, что инфляционный сценарий включает в себя большой набор моделей, которые объединены общей идеей, но отличаются способом ее реализации. Результаты наблюдений почти всегда можно подогнать под одну из этих моделей. В этом смысле инфляция напоминает Стандартную модель из физики элементарных частиц: когда эта теория только зарождалась, физики пробовали разные калибровочные группы и сравнивали их предсказания с экспериментом. В конце концов оказалось, что в статьях и на конференциях все чаще и чаще встречается группа U(1)×SU(2)×SU(3), которую назвали стандартной. К сожалению, в отличие от Стандартной модели частиц Стандартную модель инфляции невозможно фальсифицировать (опровергнуть) с помощью прямого наблюдения. По крайней мере, до этого момента каждое предсказание (как положительное, так и отрицательное), которое казалось уникальным для инфляционного сценария, удавалось воспроизвести с помощью одной из альтернативной теорий. Физики Абрахам Лёб (Abraham Loeb), Синан Чэнь (Xingang Chen) и Чжун-Чжи Сянью (Zhong-Zhi Xianyu), похоже, наконец, нашли явление, которое различает инфляцию и альтернативные сценарии (хотя бы теоретически). В основе предложенного метода лежит тот факт, что разные сценарии предсказывают разные законы a(t), по которым размер Вселенной меняется во времени. Правда, почувствовать эту разницу обычно невозможно, поскольку законы не связаны напрямую с наблюдаемыми величинами. В новой статье ученые предложили наблюдаемую величину, которая отражает вид закона a(t). Для этого ученые заметили, что любая простая модель инфляции должна быть вложена в модель с большим числом полей, которая обладает корректным ультрафиолетовым поведением (то есть позволяет осуществить перенормировки и избавиться от нефизичных расходимостей). При этом масса некоторых из дополнительных полей обязательно превышает характерный масштаб простой модели, то есть масштаб на горизонте событий. Осцилляции таких полей, напоминающие осцилляции обычного гармонического осциллятора, физики называются «первичными стандартными часами» (primordial standard clocks). С одной стороны, «стандартные часы» оставляют «отпечатки» в распределении плотности материи. С другой стороны, они напрямую связаны с законом расширения Вселенной. Следовательно, по сигналу «стандартных часов» можно восстановить закон a(t) и различить альтернативные сценарии эволюции Вселенной. Чтобы оценить величину этого сигнала, ученые сначала решили уравнение на моды массивного поля, помещенного в однородную Вселенную с заданным законом расширения. Исследователи рассмотрели закон расширения вида a(t) ~ (t/t0)p с произвольной степенью. В этом подходе значения |p| ≫ 1 воспроизводят инфляцию, значения −1 &lt; p &lt; 0 отвечают не-инфляционным моделям расширения, а значения 0 &lt; p &lt; 1 — сценариям сжатия. Затем физики подставили найденные моды в двухточечную корреляционную функцию, которая описывает возмущения кривизны пространства-времени. В результате ученые получили спектр таких возмущений, то есть нашли, как их амплитуда зависит от импульса «стандартных часов».  Оказалось, что в инфляционном сценарии спектр возмущений кривизны не зависит от импульса, тогда как в альтернативных сценариях он быстро осциллирует. Качественно это поведение можно объяснить тем, что в ходе инфляции массивное поле все время остается в классическом режиме и быстро колеблется, из-за чего интегралы в корреляционной функции в среднем равны нулю. В альтернативных сценариях такое сокращение происходит только для очень больших или очень маленьких импульсов. Более того, ученые подчеркивают, что получить осциллирующий спектр возмущений кривизны в инфляционном сценарии за счет «новой физики» очень сложно из-за «тонкой настройки» параметров. Другими словами, для этого нужно создать в инфляционном потенциале целую серию особенностей, расположенных в нужных местах и имеющих нужную силу, что кажется нереалистичным.  Таким образом, авторы статьи считают, что предложенный ими эффект хотя бы в принципе позволяет альтернативные теории инфляции или фальсифицировать инфляционный сценарий (поскольку он является общим для всех инфляционных моделей). Для этого нужно извлечь спектр возмущений кривизны из реликтового излучения. К сожалению, в настоящее время точности измерений не хватает, чтобы почувствовать такие возмущения. Ранее мы писали о других исследования, выполненных под руководством Абрахама Лёба. Например, в 2016 году астрофизик предположил, что черные дыры, сигнал от слияния которых впервые зарегистрировала обсерватория LIGO (GW150614), родились из одной звезды. Это объясняет гамма-всплеск, дошедший до Земли на 0,4 секунды позже гравитационных волн. В декабре 2017 года Абрахам Лёб совместно с коллегой из Гарварда показал, что черные дыры не могут образоваться по стандартному сценарию раньше, чем через сто миллионов лет после Большого взрыва (красное смещение z ≈ 40). Теоретически, это наблюдение может указать на существование первичных черных дыр — если астрономы когда-нибудь зарегистрируют гравитационные волны от пары черных дыр с бо́льшим красным смещением. Самая известная работа физика изучает образование источников света (звезд и квазаров) в ранней Вселенной и к настоящему моменту имеет более 700 цитирований. Впрочем, также стоит отметить, что иногда ученый участвует в довольно авантюрных проектах. Подробно прочитать про теорию космологической инфляции можно в материале «Инфляция космических масштабов» — пересказе обзора Андрея Линде, фактически разработавшего эту модель в 80-х годах прошлого века. А про современное состояние теории можно узнать из интервью Андрея Линде, которое ученый дал в конце прошлого года.  Дмитрий Трунин Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Международная группа ученых нашла на Мадагаскаре пять новых видов миниатюрных лягушек размером от человеческого ногтя до зернышка риса — три из них ученые объединили в новый род Mini. Статья об открытии опубликована в журнале PLoS ONE. Первый автор работы, зоолог Марк Шерц (Mark Scherz) из Мюнхенского университета, в статье для The Conversation пишет, что таксономическое разнообразие крошечных лягушек часто недооценивается, поскольку при таких размерах они сильно похожи друг на друга, и их легко счесть одним и тем же видом. В частности, как отмечается в статье, долгое время всех мелких лягушек Мадагаскара, где обитает более 350 видов лягушек самых разных размеров, относили к одному роду Stumpffia просто из-за их небольших габаритов. Теперь ученые нашли на Мадагаскаре пять новых видов лягушек из семейства узкоротов, или микроквакш. Все виды принадлежат к эндемичному для острова подсемейству Cophylinae. Три из них оказались представителями неизвестного рода, поэтому ученые назвали его Mini, а самих лягушек — Mini mum, Mini scule и Mini ature (игра слов: в английском языке все эти слова, начинающиеся с mini, обозначают небольшой размер).  Авторы статьи отмечают, что лягушки «миниатюризировались» независимо друг от друга, и эволюционные причины, по которым это происходит, представляют большой интерес для науки. Кроме того, Rhombophryne proportionalis получила свое название за уникальную для лягушек острова пропорциональность: она выглядит как уменьшенная до 12 миллиметров копия больших лягушек, тогда как обычно у этих небольших амфибий более крупные головы и глаза.   Ольга Добровидова Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Благодаря данным, собранным межпланетной станцией «Кассини», астрономы смогли доказать, что за необычную форму внутренних небольших спутников Сатурна  ответственна аккреция частиц из колец и подповерхностных выбросов ледяного спутника Энцелада. Статья опубликована в журнале Science, кратко о ней рассказывается на сайте Лаборатории реактивного движения NASA. Сатурн обладает семейством маленьких внутренних нерегулярных спутников, движущихся вблизи колец газового гиганта. Это Дафнис и Пан, расположенные в щелях между кольцами, три спутника-«пастуха» кольца А и F (Атлас, Пандора и Прометей) и коорбитальные спутники Янус и Эпиметей. Cчитается, что кольца Сатурна напрямую связаны с процессами формирования и эволюции этих спутников, однако неясно, сформировались ли кольца из-за распада внутреннего спутника, либо спутники образовались из вещества колец. До исследования Сатурна межпланетными станциями предполагалось, что кольца представляют собой обломки вещества, из которого формировалась планета, неспособные образовать спутники из-за приливных сил. Данные «Вояджеров» показали, что кольца и внутренние спутники могли быть обломками, образовавшимися при распаде одного или нескольких крупных родительских тел, причем спутники были самыми большими фрагментами. Однако после того, как изучением колец и спутников занялась межпланетная станция «Кассини», картина формирования и эволюции внутренних спутников значительно усложнилась. В новой работе группа астрономов во главе с Бонни Буратти (Bonnie Buratti) опубликовала результаты анализа данных, собранных «Кассини» в ходе пяти сближений с внутренними спутниками Сатурна (Паном, Дафнисом, Атласом, Пандорой и Эпиметеем) в период с декабря 2016 года по апрель 2017 года. Тогда станция смогла получить о морфологии, структуре и составе спутников, а также получить их изображения в ультрафиолетовом и инфракрасном диапазонах волн. Оказалось, что плотность спутников низкая, что говорит о высокой пористости вещества и подтверждает идею о том, что они образовались в несколько этапов, когда вещество колец оседало на более плотных ядрах, которые могут быть фрагментами более крупного объекта. Низкая плотность согласуется и с необычной формой некоторых спутников, которая напоминает пельмень. Цвет спутников Дафниса и Пана, расположенных близко к кольцу А, схож с цветом вещества кольца из-за накопления красноватого хромофора, представляющего собой смесь органических веществ и железа. Поверхности Атласа, Прометея и Пандоры, которые находятся гораздо дальше от Сатурна, также покрыты веществом колец, однако там преобладают яркие ледяные частицы и замерзший водяной пар из подповерхностных выбросов спутника Энцелада. Благодаря «Кассини» ученые получили детальные данные о Сатурне и его огромных и удивительных кольцах, о его новых лунах, где могла возникнуть внеземная жизнь, о шестиугольных штормах, бушующих на газовом гиганте, и о многих других вещах. Обо всем этом читайте в нашем материале «Большой финал «Кассини». Александр Войтюк Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ученые из Университета Чикаго в 2012 году показали, что при переборе вариантов, представленных на иностранном языке, решение оказывается более взвешенным. Все из-за того, что необходимость говорить и думать не на родном языке увеличивает когнитивную нагрузку на мозг, а это снижает влияние эмоциональной обработки в процессе принятия решений и помогает мыслить более рационально. Авторы работы пришли к выводу, что люди, пользующиеся иностранным языком на регулярной основе, в долгосрочной перспективе могут получить больше выгоды при принятии деловых, финансовых и личных решений. Разумеется, если будут делать это не на родном языке. Ученые из Университета Чикаго в 2012 году показали, что при переборе вариантов, представленных на иностранном языке, решение оказывается более взвешенным. Все из-за того, что необходимость говорить и думать не на родном языке увеличивает когнитивную нагрузку на мозг, а это снижает влияние эмоциональной обработки в процессе принятия решений и помогает мыслить более рационально. Авторы работы пришли к выводу, что люди, пользующиеся иностранным языком на регулярной основе, в долгосрочной перспективе могут получить больше выгоды при принятии деловых, финансовых и личных решений. Разумеется, если будут делать это не на родном языке. Несмотря на то, что билингвы (люди, владеющие двумя языками на уровне родного) в действительности обладают более развитыми когнитивными функциями по сравнению с монолингвами, британские исследователи в 2016 году выяснили, что для улучшения внимания достаточно учить новый язык в течение недели. Англоязычные участники эксперимента прошли недельный интенсивный курс шотландского, и их результаты в тестах на переключение внимания улучшились. Более того, в последующие годы их внимание только улучшилось, но, конечно, при условии, что они занимались новым языком не менее пяти часов в неделю. Кстати, преподавателей шотландского можно найти и на Italki. Несмотря на то, что билингвы (люди, владеющие двумя языками на уровне родного) в действительности обладают более развитыми когнитивными функциями по сравнению с монолингвами, британские исследователи в 2016 году выяснили, что для улучшения внимания достаточно учить новый язык в течение недели. Англоязычные участники эксперимента прошли недельный интенсивный курс шотландского, и их результаты в тестах на переключение внимания улучшились. Более того, в последующие годы их внимание только улучшилось, но, конечно, при условии, что они занимались новым языком не менее пяти часов в неделю. Кстати, преподавателей шотландского можно найти и на Italki. Когда дело касается влияния иностранных языков на когнитивные способности, то чем их будет больше, тем лучше. Это подтверждает и исследование люксембургских ученых, выяснивших, что люди, всю жизнь говорившие на двух и более иностранных языках (не считая родного), в возрасте 70 лет и старше чаще других сохраняют ясность ума. По мнению авторов, новые навыки (в том числе и новый иностранный язык) помогают мозгу оставаться пластичным, а значит, молодым, даже в пожилом возрасте. Когда дело касается влияния иностранных языков на когнитивные способности, то чем их будет больше, тем лучше. Это подтверждает и исследование люксембургских ученых, выяснивших, что люди, всю жизнь говорившие на двух и более иностранных языках (не считая родного), в возрасте 70 лет и старше чаще других сохраняют ясность ума. По мнению авторов, новые навыки (в том числе и новый иностранный язык) помогают мозгу оставаться пластичным, а значит, молодым, даже в пожилом возрасте. Изучение иностранного языка приводит к тому, что объем нижней лобной извилины увеличивается. Интересно, что это зависит от очередности овладения языками. Так, если второй язык ребенок выучил одновременно с первым, то с его мозгом не произойдет ничего необычого. А вот уже у подростка, взявшегося за новый язык после того, как в совершенстве освоил родной, нижняя лобная извилина начнет увеличиваться в объеме. Кстати, эта извилина отвечает не только за обработку речевых стимулов, но и за процесс принятия решений, память, внимание и многое другое. Изучение иностранного языка приводит к тому, что объем нижней лобной извилины увеличивается. Интересно, что это зависит от очередности овладения языками. Так, если второй язык ребенок выучил одновременно с первым, то с его мозгом не произойдет ничего необычого. А вот уже у подростка, взявшегося за новый язык после того, как в совершенстве освоил родной, нижняя лобная извилина начнет увеличиваться в объеме. Кстати, эта извилина отвечает не только за обработку речевых стимулов, но и за процесс принятия решений, память, внимание и многое другое. В 2015 году исследователи из Великобритании пришли к выводу, что, в сравнении с людьми, знающими только родной язык, те, кто учит иностранный язык в университете, так же хорошо умеют умеют переключать внимание между несколькими задачами, как и билингвы, владеющие двумя языками с раннего детства. Так что не стоит бояться, что учить язык во взрослом возрасте бесполезно: даже если вас не примут за местного в чужой стране, ваше внимание улучшится. В 2015 году исследователи из Великобритании пришли к выводу, что, в сравнении с людьми, знающими только родной язык, те, кто учит иностранный язык в университете, так же хорошо умеют умеют переключать внимание между несколькими задачами, как и билингвы, владеющие двумя языками с раннего детства. Так что не стоит бояться, что учить язык во взрослом возрасте бесполезно: даже если вас не примут за местного в чужой стране, ваше внимание улучшится. Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Китайские физики научились измерять квантовое состояние темной системы, не прибегая к ее прямому контролю. Для этого нужно связать темную систему с пробной двухуровневой системой, подвергуть «пробник» последовательности π-импульсов и несколько раз измерить его состояние. Кроме того, потенциал, связывающий две системы, должен зависеть от состояния «пробника». До этого измерять состояние темной системы, не прибегая к прямому контролю, ученые не умели. Статья опубликована в Physical Review Letters, препринт работы выложен на сайте arXiv.org. Измерение квантовых состояний физической системы в настоящее время кажется чем-то рутинным. Такие измерения обязательно производятся в каждом эксперименте, который содержит в названии слово «квантовый», начиная с фундаментальных проверок законов квантовой механики и заканчивая квантовыми компьютерами и квантовой связью. Тем не менее, далеко не всегда измерение квантового состояния оказывается тривиальной задачей. Наряду с простыми системами — фотонами, спинами, атомами и сверхпроводящими кубитами, — существует большое число сложных систем, квантовое состояние которых невозможно извлечь с помощью прямых наблюдений. Физики называют такие системы «темными». Частный случай темной системы — это темное состояние атома, в котором он не может поглотить фотон и потому становится невидимым для просвечивающих его лазеров. Чтобы измерить состояние таких систем, ученым приходится идти на различные хитрости. Во-первых, нужно ввести вспомогательную систему, запутанную с темной системой и доступную для непосредственных наблюдений. Во-вторых, уровень шума, который разрушает запутанность и квантовые состояния систем, не должен превышать определенный порог. В-третьих, нужно независимым образом воздействовать на темную систему или контролировать связь между запутанными системами. Впрочем, из-за последнего требования такую систему нельзя считать по-настоящему темной. Методов же, которые восстанавливают состояние темной системы, работая только с пробной системой, до последнего времени не было. Группа физиков под руководством Цзяньмина Цая (Jianming Cai) наконец придумала такой способ. Для этого ученые теоретически рассмотрели двухуровневую пробную систему, связанную с темной системой потенциалом, величина которого зависит от состояния пробной системы. В начале мысленного эксперимента состояние пробной системы состояло из суперпозиции двух ее собственных состояний, отвечающих фиксированным значениям энергии. Затем физики применяли к ней последовательность 2N мгновенных π-импульсов, разделенных промежутками свободной эволюции продолжительностью τ. Грубо говоря, π-импульс — это резонансный электромагнитный импульс, который переводит двухуровневую систему в возбужденное состояние, а потом возвращает ее обратно в основное (подробнее можно прочитать в энциклопедии). Наконец, ученые измеряли состояние пробной системы, которое напрямую связано со значением некоторого известного оператора, зависящего от параметров N и τ и усредненного по исходному состоянию темной системы. Учитывая эту зависимость и измеряя состояния пробной системы для различных значений N и τ, можно извлечь информацию об исходном квантовом состоянии темной системы. Правда, чтобы множественное измерение было возможно, квантовое состояние пробной системы должно слабо изменяться в ходе эксперимента, то есть время ее декогеренции должно превышать суммарное время опыта. Предложенную универсальную схему ученые проверили на двух простых примерах: темном спине и темном квантовом осцилляторе. В первом случае темная система имела дискретный спектр, во втором случае — непрерывный, поэтому их матрица плотности выглядела по-разному. Так, чтобы восстановить матрицу плотности темного спина, достаточно знать ее вектор Блоха, а для квантового осциллятора достаточно рассчитать характеристическую функцию Вигнера (преобразование Фурье от обычной функции Вигнера). Поэтому физики разработали два независимых метода, которые восстанавливают эти функции по измеренным состояниям пробной системы. Оказалось, что для первого случая достаточно трех независимых измерений пробной системы, для второго — около двадцати. Таким образом, предложенная учеными схема теоретически позволяет измерять квантовые состояния обеих темных систем. Более того, ученые утверждают, что медленный шум, действующий на системы, практически не влияет на результаты таких измерений. Кроме того, физии предложили схемы экспериментов, в которых можно проверить предложенный ими способ. Реализовать схему с темным спином исследователи предлагают с помощью NV-центра (пробная система) и атома углерода-13 (темная система), встроенных в кристаллическую решетку алмаза и слабо взаимодействующих между собой. В этом случае потенциал, зависящий от состояния NV-центра, можно создать с помощью внешнего магнитного поля. А в качестве темной системы с непрерывным спектром исследователи предлагают взять отдельный ион иттербия-171, пойманный в магнитную ловушку Пауля. Если наложить на эту систему магнитное поле, напряженность которого линейно растет вдоль оси ловушки, энергетические уровни иона расщепятся. В результате уровни с минимальной возможной энергией можно рассматривать как пробную систему, а поступательное движение иона как темную систему с непрерывным спектром. По оценкам ученых, обе предложенные схемы можно реализовать на практике в ближайшее время. Темные состояния часто используют для лазерного охлаждения, поскольку они не взаимодействуют с фотонами лазера и разогреваются только за счет взаимодействия со «светлыми» состояниями. Например, в августе прошлого года американские физики с помощью «темных» состояний охладили облако молекул фторида кальция до рекордно низкой температуры 20 микрокельвин. А в феврале этого года другая группа ученых использовала похожий метод, чтобы охладить до основного состояния все осевые моды колебаний двумерного кристалла, состоящего из 190 ионов бериллия-9. Таким образом ученые побили рекорд по количеству одновременно охлажденных мод. Дмитрий Трунин Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Международная группа ученых обнаружила 413 генов, экспрессия которых в головном мозге связана с шизофренией. Для этого они создали статистическую модель, которая связывает характерную для заболевания экспрессию генов в головном мозге с генетическими вариантами по всему геному. Вовлеченные в заболевание гены затем обнаружили, проанализировав геном более сотни тысяч человек, у 40 тысяч из которых диагностирована шизофрения. Статья опубликована в журнале Nature Genetics. Шизофрения — одно из самых плохо изученных психических заболеваний. Сложности заключаются как в его диагностике (до сих пор не выявлено единой симптоматики заболевания), так и в изучении и лечении: исследования шизофрении сильно осложнены тем, что вывести модельные организмы с достоверными симптомами заболевания практически невозможно. Применяемые сейчас антипсихотики позволяют только купировать некоторые симптомы.  Известно, что шизофрения — заболевание наследуемое, но до сих пор генетические исследования этого вопроса не давали точных результатов (подробнее об этом вы можете прочитать в нашем материале «Безумие в наследство»), хотя метод полногеномного поиска ассоциаций несколько раз указывал на наличие некоторых генов-кандидатов (об этом вы можете прочитать во второй части материала, «Безумие в наследство — 2»). Тем не менее, сам метод может указать только на связь определенного генотипа (а точнее — однонуклеотидных полиморфизмов) с риском развития заболевания и проявления определенных симптомов, но не могут дать информации об экспрессии определенных генов в тканях. Ученые под руководством Лоры Хакинс (Laura Huckins) из Медицинской школы Икан на горе Синай (Нью-Йорк) решили расширить и систематизировать имеющиеся данные о генетических маркерах шизофрении. Они использовали статистический метод транскриптомной импутации (transcriptomic imputation), который помогает обнаружить взаимосвязь между результатами полногеномных исследований и исследований транскриптома, которые связывают экспрессию генов в тканях с определенными признаками, характерными для организма. Другими словами, такой метод позволяет не только выявить генетические вариации, характерные для определенного состояния, но и выделить среди них те, экспрессия которых в тканях в действительности связана с проявлением симптомов заболевания. Для этого ученые воспользовались посмертными данными, собранными в рамках проекта CommonMind Consortium: оттуда они взяли данные о генотипе и экспрессии генов в доросатеральной части префронтальной коры головного мозга 538 человек (254 из них болели шизофренией). Они создали статистическую модель, которая предсказывает экспрессию определенного гена в тканях головного мозга на основе наличия определенных однонуклеотидных полиморфизмов (то есть как раз на основе данных полногеномного анализа). Всего с помощью такого анализа ученым удалось выделить около 20 тысяч уникальных генов, варианты которых могут быть связаны с экспрессией генов в префронтальной коре — в основном, через влияние на другие участки мозга. Для того, чтобы сузить характерный для шизофрении генотип, ученые проанализировали геном 40299 человек с диагностированной шизофренией и 65264 здоровых человек в качестве контрольной группы. На основании этого ученым удалось выделить 413 генетических вариантов с экспрессией в 13 участках мозга, включая как дорсолатеральную часть префронтальной коры, так и, к примеру, мозжечок, гиппокам, гипоталамус, базальную ганглию и другие. Воспользовавшись данными об экспрессии генов в головном мозге в разные периоды развития организма человека (от раннего утробного до взрослого возраста), исследователи также оценили и то, как экспрессия в изученных участках проявляется в течение жизни человека. Так, в самом начале формирования мозга в утробе матери наиболее значимая экспрессия, характерная для шизофрении, наблюдается в первичной соматосенсорной и моторной коре, а также в дорсолатеральной и вентролатеральной частях префронтальной коры.  Крупные генетические исследования очень важны для изучения таких наследуемых заболеваний, как шизофрения. Метод, который применили ученые в новой работе, позволяет существенно сократить количество генов, которые в действительности влияют на риск развития заболевания через экспрессию в тканях, тем самым делая генетический анализ более точным.  Зимой прошлого года другое крупное исследование экспрессии генов в головном мозге при наличии психических заболеваний сблизили шизофрению и биполярное расстройство. Об этом вы можете прочитать в нашей заметке. Елизавета Ивтушок Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Изотопный состав найденного_x000D_ в Казахстане метеорита Ефремовка лучше всего описывается предположением,_x000D_ что на очень молодом Солнце произошла исключительно длительная и мощная вспышка. Ученые пришли к такому_x000D_ заключению, исследуя богатые кальцием и алюминием включения в метеорите. Результаты анализа опубликованы в журнале Nature Astronomy. Считается, что многие_x000D_ болиды образовались на заре существования Солнечной системы, поэтому их_x000D_ изучение может предоставить информацию о ее прошлом. Одним из важнейших_x000D_ источников подобных данных является исследование элементного и изотопного_x000D_ состава упавших на Землю метеоритов. Некоторые изотопы образуют лишь при_x000D_ специфических условиях, поэтому их наличие может указать на характер и время_x000D_ оказанных воздействий. В частности, можно_x000D_ исследовать изотопы, являющиеся продуктами распада других короткоживущих ядер._x000D_ К таким ядрам относится бериллий-10 с периодом полураспада 1,4 миллиона лет. Согласно_x000D_ теории, он получается из кислорода или углерода в результате реакции выбивания_x000D_ (spallation), при котором ядро расщепляется на несколько продуктов после_x000D_ взаимодействия с высокоэнергичной частицей. Одна из объясняющих присутствие_x000D_ этого изотопа в ранней Солнечной системе гипотез утверждает, что это связано с_x000D_ повышенным облучением космическими лучами или солнечной радиацией. Согласно_x000D_ другой, появление такой же концентрации бериллия-10 можно объяснить близкой_x000D_ вспышкой сверхновой, в результате которой возник интенсивный поток нейтрино_x000D_ высоких энергий. В работе под руководством_x000D_ Ритеша Кумара Мишры (Ritesh Kumar Mishra) из Космического центра имени Линдона Джонсона NASA изучаются_x000D_ богатые кальцием и алюминием включения (calcium-  and aluminium rich inclusion — CAI) в метеорите_x000D_ Ефремовка. Данные уран-свинцового метода датирования указывают на внушительный возраст_x000D_ этих образований — 4,568 миллиардов лет. Благодаря этому данные включения_x000D_ считаются одними из первых объектов, сформировавшихся на горячем этапе_x000D_ существования Солнечной системы, а от этого времени принято формально отсчитывать_x000D_ ее возраст. CAI чаще всего встречаются в метеоритах из класса углистых хондритов_x000D_ и в основном состоят из оксидов и силикатов кальция, алюминия, титана и магния._x000D_ Изотопный состав алюминия и магния в CAI метеорита Ефремовка уже изучался, по нему удалось оценить возраст_x000D_ формирования включений: они оказались примерно 0,45 миллионов лет моложе_x000D_ Солнечной системы. Основное внимание авторы_x000D_ уделили изотопному составу лития, бериллия и бора в минерале милелите, встречающемся_x000D_ в CAI. Ученые обнаружили повышенное содержание нескольких изотопов. В_x000D_ частности, повышенной оказалась концентрация изотопов бериллия 10Be/9Be. Также наблюдался_x000D_ избыток 7Li по сравнению с другим стабильным вариантом 6Li. Однако взятые из разных мест пробы указали на_x000D_ линейную корреляцию отношения 7Li/6Li с отношением 9Be/6Li, что говорит о происхождении избыточного лития в_x000D_ результате бета-распада 7Be. Однако период полураспада 7Be составляет всего 53_x000D_ дня, что делает маловероятным его появление в результате вспышки сверхновой или_x000D_ связанными с космическими лучами процессами. Авторы называют_x000D_ взаимодействие порожденных Солнцем энергетических частиц с самими CAI или веществами, из которых они образовались, наиболее_x000D_ вероятным механизмом появления данного изотопа. Вместе с измеренным избытком 10Be_x000D_ ученым удалось оценить вклад солнечной активности в производство короткоживущих_x000D_ ядер, соотношение длительности и интенсивности соответствующих событий и временные_x000D_ рамки появление изученных CAI. Дополнительные модельные расчеты при различных_x000D_ параметрах активности Солнца и состава твердых веществ-предшественников_x000D_ изученных минералов показали, что производство 7Be линейно связано с_x000D_ производством 10Be, а подходящий для образования нужного изотопного состава_x000D_ всех элементов поток протонов (1010 частиц в секунду на квадратный сантиметр)_x000D_ мог быть произведен лишь супервспышкой на Солнце с рентгеновской светимостью в_x000D_ 1032 эрг в секунду. В предположении о постоянной яркости такое событие должно_x000D_ было продолжаться пару лет, в то время как данная светимость находится на_x000D_ уровне пиковых значений наиболее мощных вспышек современного Солнца. Данная_x000D_ оценка значительно уточняет предыдущие гипотезы о ранней высокой активности_x000D_ Солнца, которые выдвигали для объяснения изотопного состава бериллия и ванадия_x000D_ в других работах: их авторы приходили к выводу, что облучение длилось не более_x000D_ 300 лет для тел, расположенный в 0,1 астрономической единицы от звезды. Ученые не первый раз используют данные о радиоактивных элементах для оценок активности Солнца в прошлом. В частности, вспышку на звезде пару тысяч лет назад связали с радиоактивными ядрами в гренландском льду. Подобные явления называются событиям Мияке, а мы публиковали подробный текст о важности этого феномена в уточнении методов определения возраста. Тимур Кешелава Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Приемник излучения GRAVITY впервые позволил использовать технику оптической интерферометрии в ближней инфракрасной области для непосредственного наблюдения экзопланеты. Данный метод позволяет объединить возможности нескольких телескопов для получения данных высокого качества. В частности, астрономам удалось изучить исходящий непосредственно от планеты свет, несмотря на то, что излучение близкой звезды мешает этому. Благодаря этому стала возможна оценка параметров ее орбиты и состав атмосферы. Результаты опубликованы в Astronomy &amp; Astrophysics. На данный момент астрономы обнаружили множество экзопланет и планетных систем, но большинство этих открытий сделаны транзитным методом, при котором исследуются небольшие периодические колебания света при прохождении планеты по диску родительской звезды. Этот метод позволяет оценить период обращения и размер планеты, но ничего не говорит о ее составе. Однако для выяснения физических условий на планетах и истории их формирования необходимо точное определение масс и спектров излучения. На сегодняшний день существует только два метода, которые позволяют оценить состав и свойства внешней поверхности экзопланет — транзитная спектроскопия и спектроскопия теплового излучения. Первая анализирует прошедший сквозь атмосферы планет свет звезд во время затмения и подходит для объектов на близких к светилам орбитах с раздутыми от нагрева газовыми оболочками. Второй способ можно использовать для определения параметров расположенных вдали от звезд молодых планет, не успевших остыть и потому все еще излучающих собственный свет. Однако порождаемые светилом фотоны могут мешать изучать свет планеты, а их поток флуктуирует в зависимости от условий наблюдений на Земле. К возможным решениям относится вынесение приемников в космос и использование телескопов с диаметром апертуры порядка 10 метров, но в новом исследовании ученые пошли еще дальше и реализовали наблюдения на всех четырех восьмиметровых телескопах VLT в режиме интерферометра. Эта техника позволяет добиться получения данных, соответствующих телескопу с размером зеркала равным максимальному расстоянию между антеннами, что в случае VLT дает около 100 метров. Данная методика наблюдений требует очень точной временной корреляции данных с разных телескопов, из-за чего ее реализация для высоких частот чрезвычайна сложна. В то же время, в области радиоастрономии интерферометрические наблюдения давно вошли в практику, существует даже наземно-космический интерферометр — в таком режиме работает российский спутник «Радиоастрон» (в данный момент с ним потеряна связь). Астрономам удалось разделить потоки звезды и планеты в системе HR 8799, расположенной на расстоянии 39 парсек. Данная планета называется HR 8799e, потому что была открыта четвертой, но на самом деле расположена ближе всего к своей звезде: при наблюдении с Земли угол между светилом и экзопланетой составляет всего 370 миллисекунд дуги. Ученые использовали возможности приемника GRAVITY, который собирает свет всех четырех телескопов VLT. Авторам удалось определить координаты звезды примерно в десять раз точнее, чем возможно методами прямых наблюдений. Это позволило не только с высокой точностью выяснить форму траектории (большая полуось 16,4±1,5 астрономических единицы, эксцентриситет 0,15±0,08), но и оценить угол наклона орбиты (25±8 градусов), что не получается сделать другими методами. Ученые сравнили измеренные координаты с предсказаниями динамических моделей данной планетной системы, в которых все тела находятся на стабильных орбитах, расположенных строго в одной плоскости. Эти данные позволяют полностью опровергнуть эти модели.  Также ученые получили спектр объекта с разрешением в 500 единиц и отношением сигнал/шум равным 5. В нем сразу выделяется линия угарного газа и отсутствие признаков наличия метана. Моделирование его особенностей с учетом известных линий излучения веществ позволило научной группе обнаружить в атмосфере планеты свидетельства существования облаков железа и силикатной пыли. В сочетании с избытком окиси углерода это показывает, что атмосфера HR 8799e охвачена гигантской бурей.  «Наш анализ показал, что атмосфера HR 8799e содержит гораздо больше окиси углерода, чем метана — неожиданный результат с точки зрения химии равновесных процессов. Нам удалось лучше всего объяснить этот удивительный факт вертикальными ветрами, дующими в верхних слоях атмосферы, которые не позволяют угарному газу вступать в реакцию с водородом и образовывать метан, — говорит руководитель исследовательской группы Сильвестр Лакур (Sylvestre Lacour) из Национального центра научных исследований Франции (CNRS). — Наши наблюдения свидетельствуют об освещенном изнутри газовом шаре, причем лучи света пробиваются сквозь охваченные бурей участки темной облачности. Облака из железо-силикатных частиц перемещаются под действием конвекции и разрушаются, а их содержимое выпадает внутрь планеты. Все это создает картину динамической атмосферы гигантской экзопланеты в процессе рождения, на которой идут сложные физические и химические процессы». Моделирование физических условий на поверхности тела также позволило оценить его параметры: температура оказалась равна 1150 ± 50 кельвинам, радиус — 1,17 ± 0,12 радиусов Юпитера, ускорение силы тяжести — 104,3 ± 0,3 см/с2, а масса от 6 до 17 юпитерианских с наиболее вероятным значением около 10. Сейчас в космосе работает специально созданный для поиска экзопланет спутник TESS, который открыл 280 объектов-кандидатов всего за первые полгода работы. Недавно также удалось подтвердить первую обнаруженную телескопом «Кеплер» экзопланету. О необычных экзопланетах мы делали материал «Краткий путеводитель по галактике». Тимур Кешелава Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Физики представили первую систему, в которой возможно непосредственное измерение порождаемого давлением излучения квантового шума — одного из основных факторов, ограничивающих точность гравитационно-волновых приемников следующего поколения. В результате у ученых появилась удобная испытательная модель для изучения методов преодоления данного ограничения, таких как использование сжатых состояний света. Описание разработки опубликовано в журнале Nature. Современные детекторы гравитационных волн используют электромагнитное излучение для непрерывного слежения за положением тестовых масс. Они представляют собой оптические интерферометры, по плечам которых распространяются лазерные лучи, отражающиеся от зеркал. После многократного прохождения плеча импульсы излучения из разных плеч сводятся вместе и интерферируют. Если через такой приемник проходит гравитационная волна, то она слегка изменяет оптические длины путей между тестовыми массами (зеркалами), из-за чего лазерные импульсы приходят с задержкой и интерференционная картина изменяется. Квантовая механика накладывает фундаментальный предел на точность таких непрерывных измерений. Он является следствием принципа неопределенности Гейзенберга: если увеличивать точность определения одной наблюдаемой величины (например, координаты), то будут увеличиваться ошибки в измерении сопряженной величины (импульса). Это явление получило название квантового обратного действия (quantum back action). В контексте гравитационно-волновых антенн это значит, что увеличение мощности лазерного излучения снижает вклад дробового шума — связанного с квантовой природой света шума счета фотонов, — но при этом неминуемо возрастает связанный с давлением излучения квантовый шум (quantum radiation pressure noise — QRPN). Чувствительность гравитационно-волновых антенн первого поколения, таких как LIGO и Virgo, ограничивалась другими факторами, но для следующего поколения установок данного типа, к которым относятся Advanced LIGO, Advanced  Virgo и KAGRA, предсказывается ведущая роль QRPN в качестве компонента шумов в диапазоне от 10 до 100 герц. Существует несколько концепций противодействия QRPN в случае гравитационных антенн, но до недавнего момента не существовало возможности проверить их экспериментально. Изучение этого явления осложняется тем, что обычно классические шумы, такие как вибрации и связанные с температурой флуктуации, доминируют, а вклад квантовых шумов незначителен. В работе под руководством Томаса Корбитта (Thomas Corbitt) из Университета штата Луизиана описана система, в которой возможно непосредственное измерение QRPN в килогерцовом диапазоне при комнатной температуре. Разработка представляет собой хорошо отражающий монокристаллический микрорезонатор с низкими потерями и сильно подавленными тепловыми шумами, включенный в оптомеханическую систему в качестве одного из зеркал в интерферометре Фабри — Перо. Микрорезонатор состоит из соединенной с монокристаллом арсенида галлия оправы и зеркала из 23 пар четвертьволновых пластинок, пропускающих 250 миллионных долей падающего света. Механическая добротность микрорезонатора массой 50 нанограмм при комнатной температуре составила 16000, а оптическая добротность интерферометра — 13000.  Если включить установку, то излучение Nd:YAG-лазера будет использоваться как для измерения движения микрорезонатора, так и для его стабилизации от флуктуаций посредством системы с обратной связью. Дополнительный контур обратной связи отвечает за несовпадение резонансных частот интерферометра и лазерного излучения. После компенсации возмущений, отраженный от микрорезонатора свет используется для анализа его смещений. Измеряемой величиной является шумовой спектр фотодетектора PDM. Он состоит из нескольких компонент, из которых авторы работы рассматривают классические флуктуации интенсивности и частоты лазера, тепловой шум, дробовой шум, шум темнового тока фотодиода и QRPN. Основной вклад вносит тепловой шум, но работа устройства на малой мощности позволяет построить его модель в условиях пренебрежимо малого влияния следующего по важности компонента — QRPN.  Для непосредственного определения квантового обратного действия физики измеряли смещения микрорезонатора при пяти значениях мощности лазерного излучения: 10, 73, 110, 150 и 220 милливаттах. Оказалось, что QRPN примерно равен по мощности тепловому шуму на частотах от 100 до 10 кГц, затем тепловой становится доминирующим, но QRPN все еще можно измерить вплоть до 2 кГц, где его вклад составляет примерно 20%. Также физики проверили зависимость QRPN от мощности излучения, которая соответствовала предсказываемой теорией квадратичной.   Поиск гравитационных волн является примером измерений очень малых величин, поэтому для уверенной регистрации необходим учет множества факторов, а исказить данные могут самые неожиданные причины. Например, слушать гравитационные волны может помешать атмосфера и даже птицы. Тем не менее, физики значительно продвигаются в плане учета разных шумов. О революционности открытия гравитационных волн мы писали в материале «За волной волна». Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2019 N+1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N+1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
-  </si>
-  <si>
-    <t>Авиация</t>
+    <t>Анастасия Кузнецова</t>
+  </si>
+  <si>
+    <t>Василиса Чернявцева</t>
+  </si>
+  <si>
+    <t>Михаил Подрезов</t>
+  </si>
+  <si>
+    <t>Семён Морозов</t>
+  </si>
+  <si>
+    <t>Марина Попова</t>
+  </si>
+  <si>
+    <t>Марат Хамадеев</t>
+  </si>
+  <si>
+    <t>И сопровождалась снижением бета-волн - состоянием полезным для запоминания</t>
+  </si>
+  <si>
+    <t>Ранее считалось, что дружеские связи этих рукокрылых проявляются лишь в местах отдыха.</t>
+  </si>
+  <si>
+    <t>При этом содержимое сигналов знать не нужно</t>
+  </si>
+  <si>
+    <t>За 11 лет она увеличилась на 4–8 процентов</t>
+  </si>
+  <si>
+    <t>Больше всего отличий нашли в генах эмбриогенеза</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Самолет получил планер с ресурсом десять тысяч летных часов, кокпит с панорамным многофункциональным сенсорным дисплеем и радиопоглощающее покрытие</t>
+  </si>
+  <si>
+    <t>Целью наблюдений стала экзопланета WASP-127</t>
+  </si>
+  <si>
+    <t>Отличите ли вы спутниковый снимок от среза человеческой ткани</t>
+  </si>
+  <si>
+    <t>Он может летать на высоте до пяти километров и непрерывно вести наблюдения в течение десяти часов</t>
+  </si>
+  <si>
+    <t>Археологи изучили фрагменты костей, обнаруженные в дольмене Лакара</t>
+  </si>
+  <si>
+    <t>Наибольшее снижение продолжительности жизни обнаружили у американцев и литовцев</t>
+  </si>
+  <si>
+    <t>Она достигла скорости, более чем в пять раз превышающей звуковую</t>
+  </si>
+  <si>
+    <t>Археолог отнес их к лолинской культуре</t>
+  </si>
+  <si>
+    <t>Он был мельче клинохвостого орла, жил в лесах и, вероятно, охотился на птиц и млеокпитающих.</t>
+  </si>
+  <si>
+    <t>Ученые отмечают, что это первый анкилозавр, обнаруженный в Африке</t>
+  </si>
+  <si>
+    <t>Они усомнились в достоверности предыдущих исследований</t>
+  </si>
+  <si>
+    <t>Победил четвероногий робот</t>
+  </si>
+  <si>
+    <t>Помощники-самки помогают взрослым парам этих птиц вырастить птенцов в засушливые годы.</t>
+  </si>
+  <si>
+    <t>Это средневысотный аппарат, способный летать на длинные дистанции на дозвуковых скоростях</t>
+  </si>
+  <si>
+    <t>Вода вблизи Антарктиды стала менее эффективным поглотителем избыточного тепла атмосферы</t>
+  </si>
+  <si>
+    <t>Разберитесь с мифами о пингвинах</t>
+  </si>
+  <si>
+    <t>Это может помочь решить одну из важнейших математических проблем</t>
+  </si>
+  <si>
+    <t>У такой молекулы удалось измерить когерентные процессы</t>
+  </si>
+  <si>
+    <t>Это было сделано благодаря рассеянию света на фононах</t>
+  </si>
+  <si>
+    <t>Это было сделано за счет тщательного анализа причин декогеренции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для этого понадобилось применить квантовую теорию информации </t>
+  </si>
+  <si>
+    <t>Для этого следили за конденсацией поляритонов при облучении светом полимерной пленки в резонаторе</t>
+  </si>
+  <si>
+    <t>В роли барабанной перепонки выступают их покровы</t>
+  </si>
+  <si>
+    <t>Это может помочь создавать спин-поляризованные пучки электронов</t>
+  </si>
+  <si>
+    <t>Для этого физики вращали стол с оптическим пинцетом</t>
+  </si>
+  <si>
+    <t>Транскраниальная магнитная стимуляция улучшила кратковременную вербальную память</t>
+  </si>
+  <si>
+    <t>Самки обыкновенных вампиров попили крови вместе с подругами и родственницами</t>
+  </si>
+  <si>
+    <t>Сигналы Starlink и высотомер использовали для геолокации с точностью в несколько метров</t>
+  </si>
+  <si>
+    <t>«Хаббл» выявил увеличение скорости ветра в Большом Красном Пятне</t>
+  </si>
+  <si>
+    <t>У однояйцевых близнецов обнаружили общий паттерн метилирования ДНК</t>
+  </si>
+  <si>
+    <t>Американцы получили обновленную версию Super Hornet</t>
+  </si>
+  <si>
+    <t>Астрономы измерили высоту облачного слоя на горячем сатурне с большой точностью</t>
+  </si>
+  <si>
+    <t>Космос внутри</t>
+  </si>
+  <si>
+    <t>Смоленский НИИ разработал разведывательный беспилотник «Мерлин-ВР»</t>
+  </si>
+  <si>
+    <t>Древние жители Испании захоронили кремированные останки в коридорной гробнице</t>
+  </si>
+  <si>
+    <t>Ожидаемая продолжительность жизни европейцев за пандемию снизилась на 0,5–1,7 года</t>
+  </si>
+  <si>
+    <t>Американцы успешно запустили гиперзвуковую ракету HAWC</t>
+  </si>
+  <si>
+    <t>Сидячие захоронения из Волго-Уралья датировали финалом средней бронзы</t>
+  </si>
+  <si>
+    <t>Австралийцы описали «лесного древнего ястреба» возрастом 25 миллионов лет</t>
+  </si>
+  <si>
+    <t>Древнейшего анкилозавра описали по уникальному шипастому ребру</t>
+  </si>
+  <si>
+    <t>Медики предложили пересмотреть рекомендации по оптимальному пребыванию на солнце</t>
+  </si>
+  <si>
+    <t>DARPA объявила итоги соревнований подземных роботов</t>
+  </si>
+  <si>
+    <t>Подросшие дочери ткачиковых воробьев помогли подтвердить гипотезу альтруистической подстраховки</t>
+  </si>
+  <si>
+    <t>Китайцы построили прототип вооруженного разведывательного беспилотника</t>
+  </si>
+  <si>
+    <t>Интенсивность глобального потепления связали с ослаблением циркуляции в Южном океане</t>
+  </si>
+  <si>
+    <t>Тест на пингвина</t>
+  </si>
+  <si>
+    <t>Физик нашел новые магические числа для зарядов на сфере</t>
+  </si>
+  <si>
+    <t>Свет помог собрать ультрахолодную молекулу из двух атомов</t>
+  </si>
+  <si>
+    <t>Добавление и вычитание одиночного фонона увидели при комнатной температуре</t>
+  </si>
+  <si>
+    <t>Время когерентности молекулярных кубитов повысили на порядок</t>
+  </si>
+  <si>
+    <t>Экзопланеты предложили искать в квантовом пределе</t>
+  </si>
+  <si>
+    <t>Однофотонную нелинейность реализовали при комнатной температуре</t>
+  </si>
+  <si>
+    <t>Круглые черви оказались способны слышать всем телом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аномальную ионизацию атомов объяснили резонансами </t>
+  </si>
+  <si>
+    <t>Из оптически левитирующих частиц предложили сделать гироскоп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Левая дорсолатеральная префронтальсвязаная кора играет важную роль в формировании вербальной памяти: если во время запоминания слов, любого текста, или его отрывка стимулировать эту область, то после, при попытке воспроизвести запомненное, обнаружится снижение производительности памяти. Причем такое снижение производительности в основном отмечается при применении возбуждающей транскраниальной магнитной стимуляции (ТМС) с частотой колебаний 20 герц. Таким образом, кажется, что активность левой дорсолатеральной префронтальной коры может иметь обратную связь с производительностью памяти. Соответственно, можно предположить, что, подавляя активность левой дорсолатеральной префронтальной коры, возможно увеличить производительность памяти. А тот факт, что применение медленной (с частотой один герц) повторяющейся ТМС оказывает тормозящее действие на моторные области, подсказывает метод воздействия. Мирче ван дер Плас (Mircea van der Plas) и его коллеги проверили эту гипотезу, повторно проанализировав данные исследования, авторы которого изучали роль левой дорсолатеральной префронтальной коры в процессах намеренного забывания. В первом эксперименте исследования 40 здоровых участников и во втором — 24 просматривали за серию по два списка из 10 слов, а всего таких серий было 12. Перед участниками стояла задача либо запомнить оба списка, либо только один. При этом в каждом эксперименте во время запоминания второго списка половина участников получала повторяющуюся ТМС с частотой один герц левой дорсолатеральной префронтальной коры, а другая половина, которая стала контрольной группой, — в область макушки головы, так как согласно предыдущим исследованиям стимуляция этих зон оказывает относительно небольшое влияние на текущие мозговые процессы, участвующие в большинстве экспериментальных задач. Оказалось, что при свободном припоминании по сравнению с контрольной группой участники экспериментальной группы вспомнили значимо больше слов, но только слов из тех списков, во время запоминания которых они получали стимуляцию дорсолатеральной префронтальной коры. Одновременно записанные для данные ЭЭГ для первого эксперимента показали, что ТМС с частотой один герц ассоциировалась с последующим снижением бета-волн — состоянием, которое, как известно, полезно для формирования памяти. Это снижение отмечалось в теменных и затылочных областях, которые участвуют в процессах восприятия информации, что критично для запоминания, ведь невозможно верно запомнить то, что неверно воспринято или вовсе не воспринято. Но пока непонятно, связано ли это снижение с тем, что таким образом передние отделы побуждают задние к более качественной обработке или, наоборот, тормозят ее, или же вовсе это свидетельство более высокой функциональной связанности между передними и задними регионами. Как пишут авторы, это должно стать предметом будущих исследований, которые ответят на вопросы о том, как именно ТМС с частотой один герц, примененная к левой дорсолатеральной префронтальной коре, вызывает более выраженное снижение бета-волн в задних областях и улучшение памяти в результате этого. Помимо эффекта, который ТМС оказывает на память, она помогла ученым перехватить воспоминания на пути из кратковременной в долговременную память. А это важно для изучения механизмов формирования памяти, и переноса информации из рабочей памяти в долговременное хранилище. Екатерина Рощина Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зоологи выяснили, что самки обыкновенных вампиров регулярно пьют кровь вместе с подругами и родственницами. Ранее считалось, что дружеские связи этих рукокрылых проявляются лишь внутри колоний, во время отдыха. По мнению авторов исследования, совместное кормление кровью одних и тех же жертв укрепляет связи между вампирами — а также позволяет сэкономить энергию, необходимую для прокусывания кожи, и при необходимости дать отпор конкуренту из чужой колонии. Результаты исследования опубликованы в статье для журнала PloS Biology. Обыкновенные вампиры (Desmodus rotundus) давно стали излюбленным объектом изучения зоологов. Дело в том, что для отдыха в светлое время суток самки этих летучих мышей собираются большими группами, члены которых делятся друг с другом добытой кровью и формируют крепкие дружеские связи. Ученые надеются, что, наблюдая за вампирами, они смогут больше узнать об эволюции социальности, в том числе у людей. Команда специалистов под руководством Джеральда Картера (Gerald Carter) из Университета штата Огайо и Смитсоновского института тропических исследований изучает социальное поведение обыкновенных вампиров уже много лет. За это время исследователям удалось, например, выяснить, что в сообществах вампиров-самок отсутствует строгая иерархия, а подруги заботятся о детенышах друг друга. Кроме того, заболевшие особи поддерживают социальное дистанцирование. Картер и его соавтор Саймон Риппергер (Simon P. Ripperger) обратили внимание, что большинство работ о социальности вампиров посвящены тому, как эти рукокрылые ведут себя внутри колоний, где проводят светлое время суток. О взаимоотношениях вампиров за пределами мест отдыха известно намного меньше. Лишь в некоторых публикациях есть упоминания о том, что самки вампиров, связанные дружескими отношениями, вместе отправляют за пищей, во время ее поиска держатся небольшими компаниями от двух до шести особей и даже сосут кровь одних и тех же животных.  В попытке выяснить, действительно ли обыкновенные вампиры ищут еду и кормятся вместе с друзьями, Картер и Риппергер пометили датчиками сближения 50 самок вампиров из округа Толе в Панаме. 27 из них поймали в дикой природе и сразу же выпустили, оснастив меткой. Еще 23 самки перед выпуском провели 21 месяц в лаборатории или родились в неволе. Благодаря датчикам ученые получили возможность отслеживать встречи вампиров как на месте отдыха, так и во время кормления. Чтобы облегчить наблюдение за вампирами, их снабдили стабильным источником питания. В течение пяти ночей в сентябре 2017 года зоологи сгоняли стадо из примерно ста коров в загон, расположенный в 300 метрах от дерева, в дупле которого в светлое время суток держалась интересовавшая их колония из 200-250 вампиров. На протяжении еще четырех ночей в течение периода исследования скот пасся свободно. Как выяснили Картер и Риппергер, обыкновенные вампиры почти никогда не вылетают с места отдыха одновременно с друзьями или другими сородичами. Однако порой они воссоединяются друг с другом за пределами колонии, когда кормятся на одном и том же животном. В общей сложности авторы зафксировали 586 таких встреч, которые в среднем длились около секунды — намного меньше, чем взаимодействия во время отдыха. Ни одна из встреч во время кормления не заняла более получаса. Во взаимодействиях вне колонии поучаствовала 151 пара самок. Члены 45 таких пар встречались друг с другом больше одного раза. Исследователи выявили положительную корреляцию между степенью родства и вероятностью, что две особи столкнутся во время кормления (p&lt;0,0001). Кроме того, они выяснили, что близкие родственники, встретившиеся вне колонии, проводят рядом особенно много времени (в среднем девять секунд против одной секунды для самок, не связанных родством). Дружеские отношения между вампирами также повышают вероятность совместного кормления. Самки, склонные проводить больше времени друг с другом во время отдыха, чаще встречаются вне колонии и дольше держатся рядом. А самые общительные особи, которые поддерживают контакт со значительным количеством сородичей на месте отдыха, также чаще встречаются с ними за пределами колонии. Особое внимание Картер и Риппергер уделили самкам вампиров, которые перед выпуском около двух лет прожили в неволе. Оказалось, что наличие дружеских связей, сформировавшихся в лаборатории, положительно коррелирует с вероятностью совместного кормления. При этом в неволе, где вампиров кормят кровью из фонтанчика, они не демонстрируют склонности кормиться вместе с друзьями. Во время работ в округе Толе исследователи лишь дважды собственными глазами видели кормление пары летучих мышей на одной корове. Чтобы непосредственно понаблюдать за этим процессом, авторы вооружились инфракрасными камерами и отправились на ферму в округе Ла Чоррера. В результате они смогли запечатлеть 14 случаев совместного кормления вампиров. В некоторых случаях рукокрылые вели себя дружелюбно, но иногда вступали в конфликт, причем более ожесточенный, чем можно наблюдать во время кормления в неволе (вероятно, это были представители разных колоний, не связанные родственными и дружескими узами).  Ученым также удалось записать ультразвуковые сигналы, которые вампиры издавали при кормлении. Два типа криков уже были знакомы специалистам: нисходящий сигнал, который эти летучие мыши производят в колониях, а также жужжание, сопровождающее конфликты особей. Однако помимо них исследователи также выявили еще один, неизвестный ранее сигнал, который на спектрограмме напоминает английскую букву «n». Его издавали вампиры, встретившиеся на одной корове. Картер и Риппергер не обнаружили подтверждений, что вампиры из одной колонии вместе ищут жертв. Тем не менее эти рукокрылые регулярно встречаются во время кормления, причем предпочитают питаться вместе с друзьями и родственниками (представители многих других видов животных, от птиц до дельфинов и приматов, также предпочитают кормиться вместе с друзьями). Поскольку прокусить кожу коровы довольно трудно, одна особь в паре может пить кровь из отверстия, которое уже проделала ее подруга. Это менее затратный способ поделиться едой, чем срыгнуть проглоченную кровь товарищу, оставшемуся в колонии. Также пара самок-подруг с большей вероятностью даст отпор конкурентам из других колоний, чем одиночная особь. Авторы предполагают, что совместное кормление укрепляет дружеские связи между самками вампиров — а в некоторых случаях дает им начало. Например, если две особи предпочитают определенный вид добычи, они с высокой вероятностью встретятся на одной и той же жертве, после чего их дружба продолжит развиваться на месте отдыха. С другой стороны, если две самки подружились внутри колонии, они, скорее всего, предпочтут пить кровь одних и тех же животных. В последние годы зоологи получают все больше данных о дружбе между дикими животными. Среди видов, которые заводят друзей на долгие годы, такие разные существа, как темноперые серые акулы (Carcharhinus amblyrhynchos), жирафы (Giraffa camelopardalis) и четыре вида фламинго.  Сергей Коленов Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Американские инженеры показали, что сигналы интернет-спутников Starlink можно использовать для геолокации с помощью любительского радиооборудования. Записав сигналы шести пролетающих спутников, они рассчитали местоположение в пространстве с ошибкой в 33,5 метра, а при использовании высотомера и позиционировании на плоскости ошибка уменьшилась до 7,7 метра. Статья опубликована в IEEE Transactions on Aerospace and Electronic Systems, а также доступна на сайте Калифорнийского университета в Ирвайне. GPS, ГЛОНАСС и другие глобальные спутниковые навигационные системы работают следующим образом. Находясь на орбите, спутники транслируют сигнал, содержащий в себе данные о времени его испускания. Получив этот сигнал, приемник может сравнить его с собственным временем и по скорости распространения радиоволн рассчитать расстояние до спутника. А получив сигналы от хотя бы трех спутников, он может рассчитать свое местоположение. Спутники GPS и ГЛОНАСС находятся на высоте 19-20 тысяч километров, поэтому сигнал доходит с не очень высокой мощностью и исследователи уже довольно давно изучают возможность использования низкоорбитальных аппаратов, расположенных намного ближе к Земле. В последние годы толчок этому направлению дали новые большие группировки интернет-спутников, такие как Starlink, OneWeb и несколько планируемых, в том числе Kuiper от Amazon. Потенциально близкое расположение к поверхности Земли и мощный принимаемый сигнал могут повысить качество спутниковой навигации, но фактически существующие системы не «заточены» под такое использование, поэтому классический метод с приемом сигналов о времени с ними не работает. Ранее исследователи предлагали альтернативные методы, для которых необязательно знать содержимое сигналов, но к Starlink их пока не применяли. Исследователи под руководством Захера Кассаса (Zaher Kassas) из Калифорнийского университета в Ирвайне научились рассчитывать местоположение по сигналам Starlink, не имея информации о его содержимом. Они обнаружили, что в сигнале спутников на частоте 11,325 гигагерц есть девять несущих пиков сигнала. Авторы решили рассчитывать местоположение с помощью отслеживания фазы несущей, метода, используемого для повышения точности GPS-измерений до десятков сантиметров. Они дополнили его адаптивным фильтром Калмана для подстройки частоты из-за допплеровского смещения сигнала от спутников.   Одна из проблем использования GPS и его аналогов в больших городах заключается в том, что сигнал отражается от зданий, поэтому расчеты происходят с ошибками. В прошлом году Google начала добавлять в Android модели зданий в некоторых городах, чтобы учитывать их при расчете координат. Григорий Копиев Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Данные наблюдений космического телескопа «Хаббл» за 11 лет помогли ученым определить, что средняя скорость ветров в знаменитом вихре Большое Красное Пятно на Юпитере постепенно растет по мере уменьшения размеров урагана и округления его формы. За 11 лет она увеличилась на 4–8 процентов. Статья опубликована в Geophysical Research Letters. Большое Красное Пятно представляет собой огромный антициклон в Южной тропической зоне (STrZ) атмосферы Юпитера, который наблюдается уже более 350 лет и исследовался многими наземными и космическими телескопами, а также межпланетными станциями. Размеры и долговечность урагана делают его уникальным среди вихрей Солнечной системы, кроме того он интересен как представитель класса вихревых блинов (pancake vortices), которые включают в себя темные пятна на Нептуне и некоторые вихри в земных океанах и характеризуются тем, что их толщина намного меньше их горизонтальных размеров. Более ранние долговременные исследования уже помогли выявить уменьшение вихря (что, впрочем, пытаются опровергнуть некоторые научные группы), изменение его формы с овала на круг и смену окраски. Группа планетологов во главе с Майклом Вонгом (Michael Wong) из Калифорнийского университета опубликовала результаты измерения скорости и направления ветров в Большом Красном Пятне путем анализа данных наблюдений космического телескопа «Хаббл» в период с 2009 по 2020 год.   Ранее мы рассказывали о том, как ученые выяснили природу темных областей в Большом Красном Пятне и на какую глубину уходят «корни» урагана. Александр Войтюк Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эмбриологи обнаружили, что ДНК однояйцевых близнецов отличается от ДНК разнояйцевых близнецов различным метилированием в 243 позициях. Этот паттерн метилирования сходен для всех монозиготных близнецов, и по нему можно сказать, был ли человек зачат как однояйцевый близнец или нет. Для того чтобы выяснить это, ученые проанализировали образцы крови 924 монозиготных близнецов и 1033 дизиготных близнецов. Больше всего отличий нашли в метилировании регионов рядом с теломерами и центромерами хромосом, а также в генах, участвующих в клеточной адгезии и эмбриогенезе. Исследование опубликовали в Nature Communications.  Монозиготные (однояйцевые) близнецы появляются в результате деления одной зиготы, то есть такие близнецы имеют одинаковый генотип. Примерно 12 процентов от всех беременностей начинается с развития монозиготных близнецов, но в процессе дальнейшего развития один из близнецов погибает. Точные причины образования однояйцевых близнецов не известны, и пока ученые считают, что это случайный процесс.  На ранних этапах эмбриогенеза возникновение монозиготных близнецов совпадает по времени с эпигенетическими изменениями в геноме эмбриона — метилированием и деметилированием. Ученые из семи стран во главе с Доррет Боомсма (Dorret I. Boomsma) из Амстердамского свободного университета предположили, что такие эпигенетические изменения у однояйцевых близнецов могут отличаться от остальных эмбрионов. Чтобы проверить свою гипотезу, исследователи проанализировали образцы крови 1957 человек: из них 924 человека были монозиготными близнецами, а 1033 — дизиготными (разнояйцевыми) близнецами, возникшими после оплодотворения двух разных яйцеклеток. Оказалось, что ДНК у всех пар однояйцевых близнецов имеет сходный паттерн метилирования, который отличается от паттерна метилирования в ДНК разнояйцевых близнецов в 243 позициях (p &lt; 0,0001). В среднем разница в метилировании составляет 2,2 процента. При этом больше всего отличий в метилировании наблюдали на участках ДНК рядом с теломерами и центромерами хромосом, в зонах гетерохроматина, а также в генах, участвующих в клеточной адгезии и эмбриогенезе.  Кроме этого, ученые разработали алгоритм, с помощью которого можно узнать, был ли человек зачат как однояйцевый близнец, проанализировав его ДНК. Этот метод позволит изучать редкие генетические аномалии, например синдром Беквита-Видемана. Существует гипотеза, что этот синдром развивается у монозиготных близнецов, один из которых впоследствии умирает внутриутробно на ранних стадиях развития. Пока эмбриологи не могут сказать, является ли особый паттерн метилировании ДНК однояйцевых близнецов следствием, побочным событием или причиной их образования. Для того чтобы определить это, понадобятся новые исследования. За последние 30 лет доля рождения близнецов от общего числа рождений в популяции по всему миру увеличилась на треть. По словам ученых, важной причиной этого стоит считать огромный рост вспомогательных репродуктивных технологий. Анастасия Кузнецова-Фантони Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Американский авиастроительный концерн Boeing передал ВМС США первый палубный истребитель F/A-18 Super Hornet версии Block III. Самолет получил планер с ресурсом десять тысяч летных часов, кокпит с панорамным многофункциональным сенсорным дисплеем и радиопоглощающее покрытие.  Первые F/A-18 разработали в семидесятых годах, а в восьмидесятых они поступили на вооружение корпуса морской пехоты и ВМС США. Это семейство истребителей включает самолеты трех поколений: первого — одноместные и двухместные F/A-18A и F/A-18B, второго — C и D и третьего — E/F. ВМС США собираются списать все устаревшие версии Super Hornet, то есть А, B, C и D, к 2030 году.  Разработкой новой версией Super Hornet под названием Block III занимается Boeing. Военные заказали у концерна 78 таких самолетов. Super Hornet Block III отличаются радиопоглощающим покрытием, которое делает их малозаметными для радиолокационных станций, и улучшенным планером. Ресурс последнего составляет десять тысяч часов. Для сравнения, у остальных F/A-18E/F он насчитывает шесть тысяч часов.  Super Hornet Block III получил многофункциональный сенсорный дисплей, усовершенствованную систему управления вооружением и инфракрасную поисково-следящую систему, позволяющую обнаруживать цели по тепловому излучению.  На истребитель также должны были установить конформные топливные баки. Они увеличили бы его дальность полета на 222 километра. Но ВМС США отказались от этих планов, не раскрывая точных причин. Предполагается, что военных не устроили вопросы стоимости, графика готовности и эффективности баков.  В прошлом году ВМС США получили два самолета с некоторыми обновлениями Block III. Опытные образцы уже успешно прошли ряд испытаний, подтвердивших, что подходят для запуска и посадки на авианосец.  ВМС США получили первый палубный истребитель F/A-18 Super Hornet версии Block III 31 августа, но сообщили об этом только 27 сентября. Первый из 78 обновленных Super Hornet отправили двадцать третьей испытательной эскадрилье в Мэриленде для проведения доводочных испытаний. Boeing планирует не только строить новые истребители версии Block III, но и модифицировать Super Hornet Block II.  Новая версия Super Hornet частично основана на проекте Advanced Super Hornet, о котором мы писали ранее.  Василиса Чернявцева Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Астрономы с большой точностью определили положение непрозрачного облачного слоя в атмосфере экзопланеты WASP-127, которая относится к классу горячих сатурнов. В этом им помогли наземный телескоп VLT и космический телескоп «Хаббл». Результаты работы доступны на сайте конференции EPSC-2021. За последние несколько лет в области исследований атмосфер экзопланет наблюдается значительный прогресс как с точки зрения определения их примерного химического состава, так и их свойств, в частности распределения температуры, наличия ветров, облаков или дымки. При этом целями наблюдений становятся самые разные объекты — от землеподобных экзопланет до горячих газовых гигантов, а результаты подобных исследований позволяют ученым проверять модели формирования и эволюции экзопланет, а также оценивать их потенциальную обитаемость при помощи биомаркеров. Группа астрономов во главе с Роменом Аллартом (Romain Allart) из Монреальского университета опубликовала результаты анализа наблюдений за экзопланетой WASP-127b в оптическом диапазоне волн при помощи эшелле-спектрографа ESPRESSO, установленного на комплексе из четырех 8-метровых телескопов VLT, а также в ближнем инфракрасном диапазоне волн при помощи космического телескопа «Хаббл». Наблюдения велись когда планета проходила по диску своей звезды, при этом излучение светила проходило сквозь атмосферу экзопланеты, неся в себе информацию о ее свойствах.  Ученые сравнили полученные данные о содержании водяного пара и атомарного натрия с моделями строения атмосферы WASP-127b и пришли к выводу, что лучше всего подходит модель, в которой есть слои облаков, непрозрачных в оптическом диапазоне, но прозрачных в инфракрасном, на высотах, соответствующих давлению между 0,3 и 0,5 миллибар. Ученые считают, что примененная ими в ходе работы методика поможет выявить облака и на других экзопланетах. Ранее мы рассказывали о том, как «Спитцер» не нашел атмосферы у близкой экзопланеты земного типа и как богатая углеродом атмосфера горячего юпитера указала на место его формирования. Александр Войтюк Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перед вами фотография Южного полюса Марса, сделанная аппаратом Mars Reconnaissance Orbiter. Он обнаружил рядом со льдом глину, и ученые решили, что именно ее астрономы раньше ошибочно принимали за жидкую воду при обследовании поверхности с помощью радиолокации. А срез мозжечка выглядит так: Перед вами фотография Южного полюса Марса, сделанная аппаратом Mars Reconnaissance Orbiter. Он обнаружил рядом со льдом глину, и ученые решили, что именно ее астрономы раньше ошибочно принимали за жидкую воду при обследовании поверхности с помощью радиолокации. А срез мозжечка выглядит так: Вы смотрите на моторные нейроны спинного мозга. Они располагаются в передних его рогах и обеспечивают сокращение мышц конечностей. Мотонейроны объединяются в пулы, которые иннервируют определенную мышцу. Их количество в каждом пуле прямо пропорционально точности контроля за работой отдельной мышцы. Например, у мышц пальцев мотонейронов больше, чем в мышце бедра — это и позволяет пальцам выполнять более тонкую работу. А поверхность спутника Юпитера Европы (на снимке с зонде «Галилео») выглядит так:  Вы смотрите на моторные нейроны спинного мозга. Они располагаются в передних его рогах и обеспечивают сокращение мышц конечностей. Мотонейроны объединяются в пулы, которые иннервируют определенную мышцу. Их количество в каждом пуле прямо пропорционально точности контроля за работой отдельной мышцы. Например, у мышц пальцев мотонейронов больше, чем в мышце бедра — это и позволяет пальцам выполнять более тонкую работу. А поверхность спутника Юпитера Европы (на снимке с зонде «Галилео») выглядит так:  Вы смотрите на снимок Земли Ноя, которая находится в южной части западного полушария Марса. В честь этого нагорья астрономы назвали отдельный период истории Марса, во время которого планета подвергалась мощной бомбардировке астероидами. Кроме множества кратеров, в южной части земли Ноя появились причудливые узоры, вызванные, по всей видимости, сжатием и расширением подземного льда. А срез поджелудочной железы выглядит так: Вы смотрите на снимок Земли Ноя, которая находится в южной части западного полушария Марса. В честь этого нагорья астрономы назвали отдельный период истории Марса, во время которого планета подвергалась мощной бомбардировке астероидами. Кроме множества кратеров, в южной части земли Ноя появились причудливые узоры, вызванные, по всей видимости, сжатием и расширением подземного льда. А срез поджелудочной железы выглядит так: На изображении срез головного мозга, обработанный нитратом серебра и дихроматом калия. Именно способ окрашивания препарата и придает ему желто-коричневый цвет. Эту технику придумал итальянский гистолог Камилло Гольджи, и нее есть преимущества перед другими методами окрашивания. Дело в том, что клетки в нервной ткани расположены очень компактно, но по методу Гольджи окрашивается только небольшое число клеток. Причина этого феномена до сих пор неизвестна. А поверхность Ио выглядит так (темные пятна — погасшие вулканы): На изображении срез головного мозга, обработанный нитратом серебра и дихроматом калия. Именно способ окрашивания препарата и придает ему желто-коричневый цвет. Эту технику придумал итальянский гистолог Камилло Гольджи, и нее есть преимущества перед другими методами окрашивания. Дело в том, что клетки в нервной ткани расположены очень компактно, но по методу Гольджи окрашивается только небольшое число клеток. Причина этого феномена до сих пор неизвестна. А поверхность Ио выглядит так (темные пятна — погасшие вулканы): Кишечные ворсинки — это выросты слизистой оболочки тонкой кишки, покрытые клетками эпителия с множеством еще более мелких ворсинок. За счет них всасывающая способность кишки увеличивается в 8-10 раз. Внутри кишечной ворсинки находятся сосуды, по которым питательные вещества доставляются от кишки в остальные ткани организма. Расщепленные белки и углеводы попадают в кровеносные сосуды, а жиры — в лимфатические. А фьорды на спутниковых снимков выглядят так: Кишечные ворсинки — это выросты слизистой оболочки тонкой кишки, покрытые клетками эпителия с множеством еще более мелких ворсинок. За счет них всасывающая способность кишки увеличивается в 8-10 раз. Внутри кишечной ворсинки находятся сосуды, по которым питательные вещества доставляются от кишки в остальные ткани организма. Расщепленные белки и углеводы попадают в кровеносные сосуды, а жиры — в лимфатические. А фьорды на спутниковых снимков выглядят так: Эту фотографию поверхности Энцелада сделал космический аппарат «Кассини» 18 мая 2020 года. «Кассини» начал изучать Энцелад еще в 2005 году и с тех пор обнаружил, что спутник Сатурна геологически активен, а под его ледяной поверхностью находится океан жидкой воды. Так Энцелад стал важным для астробиологов объектом. Еще больше снимков Сатурна — в материалах «Большой финал "Кассини"» и «Свидание с властелином колец». А срез соединительная ткань выглядит так:  Эту фотографию поверхности Энцелада сделал космический аппарат «Кассини» 18 мая 2020 года. «Кассини» начал изучать Энцелад еще в 2005 году и с тех пор обнаружил, что спутник Сатурна геологически активен, а под его ледяной поверхностью находится океан жидкой воды. Так Энцелад стал важным для астробиологов объектом. Еще больше снимков Сатурна — в материалах «Большой финал "Кассини"» и «Свидание с властелином колец». А срез соединительная ткань выглядит так:  Перед вами изображение центра шестиугольника Сатурна — вихря, расположенного на северном полюсе этой планеты. Каждая из сторон шестиугольника имеет в длину 14 500 километров, что сравнимо с диаметром Земли. До сих пор ученые точно не знают, как образовался этот шестиугольник, и регулярно выдвигают новые гипотезы. А катаракта выглядит так: Перед вами изображение центра шестиугольника Сатурна — вихря, расположенного на северном полюсе этой планеты. Каждая из сторон шестиугольника имеет в длину 14 500 километров, что сравнимо с диаметром Земли. До сих пор ученые точно не знают, как образовался этот шестиугольник, и регулярно выдвигают новые гипотезы. А катаракта выглядит так: Южная полярная шапка Марса состоит из большого количества твердого диоксида углерода с примесью льда, воды и пыли. Летом часть полярной шапки испаряется и ее площадь уменьшается. В NASA этот снимок окрестили «Мистер Арахис» из-за сходства изображения с бобом. А срез тонкой кишки при целиакии выглядит так: Южная полярная шапка Марса состоит из большого количества твердого диоксида углерода с примесью льда, воды и пыли. Летом часть полярной шапки испаряется и ее площадь уменьшается. В NASA этот снимок окрестили «Мистер Арахис» из-за сходства изображения с бобом. А срез тонкой кишки при целиакии выглядит так: 29 января 2020 года астрономы с помощью самого большого наземного солнечного телескопа DKIST получили наиболее детальное изображение фотосферы Солнца на сегодняшний день. На нем можно различить объекты размером до 30 километров. А хрящ выглядит так: 29 января 2020 года астрономы с помощью самого большого наземного солнечного телескопа DKIST получили наиболее детальное изображение фотосферы Солнца на сегодняшний день. На нем можно различить объекты размером до 30 километров. А хрящ выглядит так: Компактная костная ткань составляет около 80 процентов от общей массы человеческого скелета. Она складывается из отдельных единиц, которые называются остеонами. Эти цилиндрические образования состоят из костных пластинок, которые окружают Гаверсов канал — по нему проходят нервы и сосуды, питающие кость. А поверхность Меркурия выглядит так (цвета искусственные и обозначают химический состав): Компактная костная ткань составляет около 80 процентов от общей массы человеческого скелета. Она складывается из отдельных единиц, которые называются остеонами. Эти цилиндрические образования состоят из костных пластинок, которые окружают Гаверсов канал — по нему проходят нервы и сосуды, питающие кость. А поверхность Меркурия выглядит так (цвета искусственные и обозначают химический состав): Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Смоленский научно-исследовательский институт современных телекоммуникационных технологий разработал разведывательный беспилотник «Мерлин-ВР» с гибридным двигателем. Как сообщает «РИА Новости», он может летать на высоте до пяти километров и непрерывно вести наблюдения в течение десяти часов.  Пока на вооружении российской армии есть только небольшие разведывательные беспилотники. Например, «Орлан-10» со взлетной массой 14 килограммов. Он может летать на скорости до 150 километров и находиться в воздухе до 16 часов, а его дальность в автономном режиме составляет 600 километров. Есть и более тяжелые аппараты, такие как «Форпост-Р», у которого недавно появилась ударная модификация.  Смоленский научно-исследовательский институт современных телекоммуникационных технологий разработал разведывательный беспилотник «Мерлин-ВР» с гибридным двигателем. Он может летать на высоте до пяти километров и десять часов вести воздушный мониторинг в автоматическом и полуавтоматическом режиме.   Максимальная масса полезной нагрузки беспилотника — 6,5 килограмма. Этого достаточно, чтобы нести различные оптико-локационные станции. Разработчики уже представили «Мерлина-ВР» военным, и сейчас рассматривается возможность его испытаний. Других подробностей об аппарате не приводится.  В России также уже несколько лет идут программы по разработке ударных беспилотников. Ранее мы писали, военные уже получили три беспилотника «Орион» для опытной эксплуатации. Каждый такой аппарат может нести четыре ракеты.  Василиса Чернявцева Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Археологи исследовали человеческие останки, обнаруженные в коридорной гробнице на западе Испании. Оказалось, что в дольмене хоронили кремированные кости, причем само сожжение проходило за пределами памятника. Вероятно, такой погребальный обряд существовал в регионе в первой половине III тысячелетия до нашей эры. Статья опубликована в Journal of Archaeological Science: Reports. В эпоху неолита и халколита в Европе получили распространение сложенные из больших камней мегалитические гробницы, возникновение которых ученые связывают с появлением и развитием земледельческих обществ. Схожесть конструкций многих таких сооружений, расположенных в Скандинавии, Ирландии, Великобритании, Франции и Испании, позволила ученым связать их появление с развитием контактов между представителями разных культур. Известны такие гробницы III–II тысячелетия до нашей эры и на территории России, например, на Кавказе, где они относятся к майкопской археологической культуре раннего бронзового века. Существует два основных типа мегалитических гробниц: длинные каменные ящики (могилы с галереей) и коридорные гробницы. Последние представляют собой могильные камеры, к которым ведет более низкий и узкий вход. Такие сооружения наиболее распространены в Средиземноморье, Франции, Ирландии, Шотландии и Швеции. Погребальные сооружения, по всей видимости, всегда закрывались курганами или пирамидой из камней. В Испании мегалитические конструкции порой включали останки более ста человек, причем в большинстве случаев практиковалась ингумация, а по мере заполнения могильной камеры более древние кости перемещались к одной стороне, освобождая место для новых захоронений.  Давид Санчес-Абельян (David Sanchez-Abellan) совместно с коллегами из Мадридского университета Комплутенсе исследовал мегалитическую коридорную гробницу Лакара, расположенную на западе Пиренейского полуострова в Эстермадуре. Памятник представляет собой большой курган, в котором находится гранитное сооружение, состоящее из коридора и погребальной камеры. Исследователи предполагают, что подобные захоронения в регионе появились уже в конце эпохи неолита. Ученые проанализировали 1418 фрагментов костей, обнаруженных в гробнице в разные годы раскопок. В ходе работы они выяснили, что останки являются свидетельством преднамеренной кремации. Внутри гробницы не было обнаружено никаких свидетельств огня или значительного количества древесного угля, что указывает на кремацию за пределами дольмена. Цвет и текстура исследованных образцов показали, что большинство костей было сожжено при температуре выше 500 градусов Цельсия.  Археологи отметили, что сложно определить конкретный период, когда дольмен Лакара использовался для захоронения кремированных останков. При первом приближении датировка охватывает почти два тысячелетия (начало IV — конец III тысячелетия до нашей эры). Однако на других памятниках региона, где практиковалось захоронение кремированных останков в мегалитах, была проведена радиоуглеродная датировка по древесному углю. Оказалось, что они использовались в промежутке между 2800 и 2500 годами до нашей эры. Ранее на N + 1 рассказывали, что похороненные в мегалитах люди в Ирландии и Скандинавии нередко приходились друг другу близкими родственниками. Кроме того, археологи обнаружили на севере Израиля гигантский дольмен с гравировками, возраст которого превышает 4000 лет. Михаил Подрезов Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ученые из Оксфорда выявили снижение ожидаемой продолжительности жизни в 2020 году в 27 странах из 29, в демографические базы которых были проанализированы. При этом в 11 странах ожидаемая продолжительность жизни у мужчин снизилась более чем на год. У женщин снижение продолжительности жизни больше чем на год наблюдалось в 8 странах. Результаты работы опубликованы в International Journal of Epidemiology. Ожидаемая продолжительность жизни рассчитывается исходя из предположения, что уровни смертности населения во всех возрастах в будущем останутся такими же, как в рассматриваемом году. Этот показатель обычно рассчитывают для описания текущего состояния общества, а для описания статистики по длине человеческой жизни в прошлом используют данные о средней продолжительности жизни, взятые из демографических баз.  С течением времени продолжительность жизни росла: если в Средневековье она составляла 30 лет, то к его концу поднялась до 50 лет. Бум роста продолжительности жизни пришелся на XX век, но его прервала Вторая мировая война. В Европейских странах, наиболее пострадавших во время войны, в 1943-1945 годах продолжительность жизни снизилась на 5-10 лет. Пандемия коронавируса унесла жизни 4,5 миллионов людей, вызвав увеличение смертности (а значит и снижение продолжительности жизни) по всему миру. Ученые из Оксфорда под руководством Ридхи Кашьяпа (Ridhi Kashyap) проанализировали смертность от всех причин в 29 странах (государства Европы, США и Чили) за 2020 год, добавив к ней смерти от коронавируса. По этим данным эпидемиологи рассчитали ожидаемую продолжительность жизни на момент рождения. Ее значения сравнивали с ожидаемой продолжительностью жизни в 2019 году. Исследователи выявили снижение продолжительности жизни в 27 из 29 исследованных стран. В 11 странах (среди них США, Литва, Болгария и Польша) ожидаемая продолжительность жизни у мужчин снизилась более чем на год. В 8 странах (среди них США, Испания и Бельгия) ожидаемая продолжительность жизни у женщин снизилась больше чем на год. Наибольшее снижение ожидаемой продолжительности жизни обнаружили у мужчин в США (2,2 года) и Литве (1,7 года).   Анастасия Кузнецова-Фантони Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Агентство перспективных оборонных разработок (DARPA) министерства обороны США вместе с ВВС США провело успешные летные испытания гиперзвуковой крылатой ракеты HAWC. Ракета достигла скорости, в пять раз превышающей звуковую.  DARPA в середине 2010-х годов объявило тендер на разработку гиперзвуковой авиационной ракеты HAWC (Hypersonic Air-breathing Weapon Concept, концепция гиперзвукового воздушно-реактивного оружия), которую можно было бы запускать с истребителей нескольких типов. В том числе, с F-35 Lightning II. В рамках проекта военные хотят также получить технологии управляемого гиперзвукового полета, прямоточного гиперзвукового воздушно-реактивного двигателя, работающего на углеводородном топливе, а также термостойких материалов. В тендере участвуют две американских компании: Raytheon и Lockheed Martin. Они обе уже провели первые испытания своих прототипов HAWC, во время которых ракеты были подвешены на самолет. Прошлой зимой ВВС США попытались запустить боеприпас разработки Lockheed Martin, но сброс был отменен по неуказанным механическим причинам.  На прошлой неделе DARPA и ВВС США запустили ракету HAWC, построенную Raytheon. Испытания прошли успешно. Двигатель ракеты запустился спустя несколько секунд после того, как ее сбросили с самолета, и она достигла скорости, в пять раз превышающей звуковую. Другие подробности не раскрываются.  В этом году американские военные попытались запустить другую гиперзвуковую ракету — аэробаллистическую AGM-183A ARRW, о которой мы писали ранее. Но испытания завершились неудачей. Василиса Чернявцева Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Археолог Роман Мимоход исследовал погребения, совершенные в сидячем положении, из могильников Волго-Уральского региона. Оказалось, что они относятся к финальному этапу среднего бронзового века (около XXII–XX веков до нашей эры), а оставили их представители лолинской археологической культуры, входящей в блок посткатакомбных культур. Статья опубликована в журнале Российская археология. Финальный этап среднего бронзового века (около XXII–XVIII веков до нашей эры) на обширной территории от Днепра до Нижней Волги и Северного Кавказа характеризуется появлением блока посткатакомбных культурных образований, одним из которых была лолинская культура. Ее памятники в основном сконцентрированы в степном Предкавказье. Археологи связывают появление этой культуры с передвижением групп населения из Северо-Восточного Кавказа в степь из-за резкой аридизации климата, которая произошла около 4200 лет назад. Миграция населения, связанного с лолинской культурой, подтверждена результатами палеоантропологических исследований, в том числе анализом морфологии серии черепов. Погребения лолинской культуры совершались как в одиночных курганах в составе более древних могильников, так и в отдельных скоплениях насыпей. В некоторых случаях они сопровождались каменными оградами, кромлехами и ровиками. Могилы обычно представлены простыми ямами, ямами с заплечиками или подбоями, а также катакомбами. В большинстве случаев это одиночные захоронения, которые, как правило, совершались в скорченном положении на левом боку. В редких случаях встречаются останки людей с деформированными черепами (узнать больше о разных древних черепах можно в нашем материале «Кто забыл эту голову?»), элементами расчленения или вторичного захоронения.  Роман Мимоход (Roman Mimokhod) из Института археологии РАН исследовал серию погребений бронзового века из Волго-Уралья, которые совершались в сидячем положении. Такие захоронения характеризуются следующими чертами: плотно прижатые кости голеней к бедренным; согнутые в локтях руки, охватывающие колени; вертикально поднятый череп теменем вверх. В ряде случаев зафиксирована не сидячая поза, а ее имитация. В этом случае ноги размещались аналогично, но туловище укладывалось на спину. Археолог отметил, что погребение в сидячем положении (или его имитация) распространено на памятниках эпохи энеолита на правобережье Волги. Однако исследуемые случаи относятся к финальному этапу среднего бронзового века. Так, в кургане 2 могильника Перевозинка два основных погребения относятся к волго-уральской культурной группе посткатакомбного периода — одной из составляющих культурного круга Лола. На это указывает целый ряд черт обряда, например, большая могила с заплечиками, скорченное положение скелета на левом боку с ориентировкой на юго-запад. Погребения волго-уральской культурной группы также характеризуются наличием костей ног мелких или крупных рогатых животных. Часть сидячих погребений (23 процента) была сделана в ямах с подбоем. Ученый отметил, что в 5 из 13 случаев в могилах также были найдены следы горения (зола и уголь) — по всей видимости, значимый признак погребального обряда. Инвентарь из этих погребений также свидетельствует об их датировке финалом среднего бронзового века. Он включал, в частности, фрагменты защитных накладок на запястье лучника, бронзовый нож с узким листовидным клинком, костяное пряслице и пряжку.  Археолог пришел к выводу, что сидячие захоронения из Волго-Уралья, судя по обряду и инвентарю, демонстрируют посткатакомбные признаки, за исключением лишь одного погребения, относящегося к постшнуровым традициям. С учетом локализации этих погребений и характерных черт обряда, по мнению ученого, их нужно отнести к волго-уральской культурной группе, находившейся на северной периферии культурного круга Лола. Датировка этих памятников — около XXII–XX веков до нашей эры. Ранее на N + 1 мы рассказывали о других исследованиях древностей бронзового века на территории России. Так, челябинские археологи обнаружили 17 младенческих погребений синташтинской культуры, а в Хакасии нашли богатое непотревоженное женское погребение карасукской культуры. Михаил Подрезов Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палеонтологи обнаружили самую древнюю ястребиную птицу Австралии. Новый вид Archaehierax sylvestris («Лесной древний ястреб») жил в местных лесах около 25 миллионов лет назад, был довольно крупным и охотился на млекопитающих размером до кролика и птиц. Как отмечается в статье для журнала Historical Biology, древний хищник приходился весьма отдаленным родственником современным ястребам и орлам и потомков не оставил. Семейство ястребиных (Accipitridae) включает около 250 современных видов, многие из которых, например, орлы, орланы и грифы, занимают экологические ниши крупных хищников или падальщиков. Эволюционная история данной группы началась не позднее среднего эоцена. Именно к этой эпохе специалисты относят древнейшие ископаемые остатки птиц, которые напоминают ныне живущих ястребов и их родственников (в раннем эоцене их нишу могли занимать совы). А уже около 20 миллионов лет назад, судя по палеонтологическим и молекулярным данным, существовали все современные подсемейства ястребиных. К сожалению, в ископаемой летописи некоторых континентов ястребиные птицы представлены очень слабо. Например, до сих пор специалистам были известны всего два представителя этой группы, которые жили на территории Австралии до начала плейстоцена (возраст одного составляет 20-24 миллиона лет, а второго — 12-14 миллионов лет). Получить новые данные об эволюции австралийских ястребиных удалось команде палеонтологов во главе с Эллен Мэтер (Ellen K. Mather) из Университета Флиндерса. В центре внимания исследователей оказались окаменевшие остатки хищной птицы возрастом 24-25 миллионов лет, обнаруженные в 2016 году на позднеолигоценовой геологической формации Намба в штате Южная Австралия. Тщательно изучив находку, в том числе хорошо сохранившиеся кости крыльев и ног, а также фрагменты черепа, клюва и некоторых других частей скелета (в общей сложности 63 элемента), Мэтер и ее соавторы пришли к выводу, что перед ними не известный ранее представитель семейства Accipitridae, древнейший из обнаруженных на территории Австралии. Он получил название Archaehierax sylvestris — то есть, в переводе с древнегреческого, «лесной древний ястреб». Этот пернатый хищник был довольно крупным. По размерам он уступал самым крупным хищным птицам современной Австралии, клинохвостому орлу (Aquila audax) и белобрюхому орлану (Haliaeetus leucogaster), но был крупнее канюкового коршуна (Hamirostra melanosternon). Исследователи отмечают, что A. sylvestris обладал комбинацией анатомических признаков, характерных для разных современных подсемейств ястребиных птиц, так что его нельзя отнести ни к одному из них. А некоторые черты его строения и вовсе не встречаются у ныне живущих ястребиных. В результате A. sylvestris был выделен в собственное подсемейство Archaehieraxinae, состоящее из единственного вида. Возможно, оно является сестринским ко всем остальным ястребиным за исключением дымчатых коршунов (Elaninae). Как бы то ни было, доживших до современности потомков «лесной древний ястреб» не оставил.  В позднем олигоцене значительную часть Австралии покрывали леса. Известные к настоящему времени ископаемые флора и фауна формации Намба также соответствует лесистой местности. Исходя из этого, авторы предполагают, что A. sylvestris жил и охотился в лесах. В пользу данной гипотезы также говорят некоторые анатомические особенности данного вида, а именно относительно короткие крылья, обеспечивающие маневренность и позволяющие летать среди древесных стволов и крон, и удлиненные ноги, которыми удобно хватать жертв, сидящих на ветках. Похожие черты характерны для современных пернатых хищников, которые населяют леса, например, хохлатых орлов (Spizaetus) и гарпий (Harpia harpyja). Основной добычей «лесного древнего ястреба», вероятно, были наземные, древесные и околоводные позвоночные: млекопитающие размером с кролика и мельче (например, древние сородичи поссумов и коал) или мелкие и среднеразмерные птицы. Он мог поджидать их в засаде, сидя на ветке, а затем, когда жертва оказывалась зоне досягаемости, быстро вылетать из укрытия и атаковать. Вместе с остатками A. sylvestris палеонтологи обнаружили в формации Намба еще две кости конечностей более мелких ястребиных птиц, которые, скорее всего, относились к другому виду или видам. Однако плохая сохранность не позволяет достоверно судить о систематическом положении и биологических особенностях их владельцев. Многие современные хищные птицы по вине человека оказались на грани исчезновения. Проанализировав распространение и видовое разнообразие пернатых хищников по всему миру, орнитологи пришли к выводу, что для сохранения редких представителей этой группы лучше сосредоточиться на более эффективной охране существующих заповедников и национальных парков, а не на создании новых. Сергей Коленов Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палеонтологи описали новый род и вид анкилозавров — Spicomellus afer. Ученые отмечают, что это самый древний представитель группы, а также первый анкилозавр, найденный в Африке. Новый анкилозавр описан на основе необычного ребра, которое срослось с шипастой остеодермой (кожным окостенением). В статье, опубликованной в журнале Nature Ecology &amp; Evolution, говорится, что подобная анатомическая структура не встречается ни у каких других животных. Анкилозавры (Ankylosauria) — группа растительноядных динозавров, покрытых броней из остеодерм. Они были родственны стегозаврам, от которых отделились в конце ранней или начале средней юры. В палеонтологической летописи базальные анкилозавры практически не представлены. Единственный валидный вид анкилозавров из средней юры — Sarcolestes leedsi, найденный на территории Великобритании в отложениях формации Оксфорд-Клэй (Oxford Clay Formation).  Большинство ископаемых остатков анкилозавров обнаружено на территории бывшей Лавразии — в Северной Америке и Евразии, в то время как гондванские анкилозавры немногочисленны и в основном представлены фрагментарным материалом. Исследование Сюзанны Мейдмент (Susannah C. R. Maidment) из Музея естественной истории в Лондоне и ее коллег из Великобритании, Марокко и Швейцарии позволяет предположить, что разнообразие гондванских анкилозавров гораздо выше, чем считалось ранее. Ученые описали новый род и вид анкилозавров на основе окаменелости, найденной в Марокко. Палеонтологи отмечают, что это первый африканский представитель группы. Динозавра назвали Spicomellus afer, что в переводе с латыни означает «шипастый воротник из Африки». Такое название ему дали из-за необычного вида окаменелости: это был фрагмент ребра, к которому сверху приросла остеодерма, несущая ряд конических шипов. Из-за этого исследователи сначала даже затруднялись определить таксономическую принадлежность образца. Только после изучения окаменелости с помощью компьютерной томографии и палеогистологических методов ученые смогли отнести образец к анкилозаврам.  Срастание остеодерм с ребрами еще не было обнаружено у анкилозавров. Более того, оно не встречается и у других животных, включая черепах, — в формировании костальных пластинок их карапакса остеодермы не принимают участия. По мнению авторов, срастающиеся с ребрами шипастые остеодермы были более надежной защитой по сравнению с отдельными шипами.  Окаменелость была обнаружена в среднеюрских отложениях формации Эль-Мерс III (El Mers III Formation), возраст которых составляет примерно 168,3–163,5 миллиона лет, что делает S. afer древнейшим представителем анкилозавров. Недавно из этой же формации был описан и самый древний стегозавр — Adratiklit boulahfa. Прежде ученые предполагали, что анкилозавры вытеснили стегозавров, которые в итоге вымерли в конце раннего мела. Однако очередной пример сосуществования анкилозавра и стегозавра в одной экосистеме ставит под сомнение такое предположение. Другие подобные примеры включают в себя анкилозавра Sarcolestes и стегозавра Loricatosaurus из среднеюрской формации Оксфорд-Клэй; анкилозавра Dracopelta и стегозавров Miragaia и Stegosaurus из верхнеюрской формации Лориньян (Lourinhã Formation). Таким образом, представители обеих групп сосуществовали на протяжении более 20 миллионов лет, поэтому вымирание стегозавров, вероятно, произошло по другим причинам. Ранее мы писали о другом анкилозавре — Borealopelta markmitchelli из раннего мела Канады. Его ископаемые остатки содержали следы меланина, что позволило палеонтологам предположить о наличии у этого динозавра покровительственной окраски.  Семён Морозов Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Английские и датские ученые в эксперименте на добровольцах показали, что текущие рекомендации по оптимальному для выработки витамина D пребыванию на солнце могут быть неверными, но пока непонятно, в большую или меньшую сторону. Медики посмотрели концентрацию витамина D в крови участников исследования после облучения разными аппаратами. Оказалось, что облучение одинаковой интенсивности, но из разных источников, вызывает выработку разного количества витамина D. Исследование опубликовали в Proceedings of the National Academy of Sciences. Солнечное излучение в большом количестве вызывает покраснение кожи. Для его оценки в медицине приняли единицу измерения SED (стандартная эритемная доза). Одна единица SED равна дозе в 100 джоулей на квадратный метр поверхности кожи. При этом для расчета индивидуальной реакции кожи на солнечное излучение используют MED (минимальная эритемная доза). У людей со светлой кожей (I/II фототип) MED составляет примерно три SED. В работах, изучающих синтез витамина D в коже под действием ультрафиолетового излучения, чаще используют единицы SED, чтобы сделать результаты единообразными. В таких экспериментах ученые пытаются понять, как соблюсти баланс между выработкой витамина D и повреждением кожи. При этом в исследованиях применяют разные источники ультрафиолетового излучения (а не только солнце), полагая, что излучение одинаковой интенсивности одинаково сказывается на выработке витамина D. По таким работам обычно и строятся рекомендации по оптимальному пребыванию на солнце: обычно рекомендуют бывать на улице 15-30 минут между 11 и 15 часами дня. Ученые из Англии и Дании во главе с Петером Филипсеном (Peter A. Philipsen) из Больницы университета Копенгагена решили проверить, совпадают ли показатели синтеза витамина D (25(OH)D3) при одинаковой SED от разных ультрафиолетовых ламп. Они облучили все тело участников разными аппаратами: Arimed B (19 человек), UV6 (10 человек) и PUVA (11 человек). Всего провели 5 сеансов, и на каждом из них участники получили дозу в два SED. В начале исследования у каждого испытуемого взяли кровь, по которой определили уровень 25(OH)D3, а затем измеряли его концентрацию после каждого сеанса.  Исследователи считают, что SED нельзя использовать для предсказания синтеза витамина D, так как разные источники ультрафиолетового излучения по-разному воздействуют на его выработку. По мнению авторов работы, предыдущие рекомендации по оптимальному для синтеза витамина D пребыванию на солнце могут не соответствовать истине, а значит их надо пересмотреть после дополнительной проверки. В большую или в меньшую сторону – сказать пока нельзя, это покажут новые исследования. Американские медики обнаружили связь дефицита ультрафиолета B, ответственного за выработку витамина D, с заболеваемостью колоректальным раком, причем найденная ассоциация усиливается с возрастом. Анастасия Кузнецова-Фантони Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Организаторы соревнований роботов для подземной среды DARPA Subterranean Challenge провели финальный этап и объявили победителей. В реальном соревновании, проходившем в пещере и искусственных подземных сооружениях, победила команда CERBERUS, использовавшая четвероногого робота, а в виртуальном зачете первой стала Dynamo, выбравшая квадрокоптер. Запись финала опубликована на YouTube-канале DARPA. Управление перспективных исследовательских проектов Министерства обороны США (DARPA) непосредственно разрабатывает и способствует разработке новых технологий, которые потенциально можно использовать в военных целях. Управление известно в том числе и своими технологическими конкурсами, самым успешным из которых стал Urban Challenge, в рамках которого разработчики создавали беспилотные автомобили. Этот конкурс дал огромный толчок отрасли, а многие из его участников затем основали компании и проекты, которые сегодня лидируют в этой области: Waymo, Zoox, Nuro и другие. Цель Subterranean Challenge заключалась в разработке роботов и вообще разного рода систем для автономной навигации и создания карт подземных пространств, а также поиска в них объектов. Конкурс был разделен на две основные категории: реальную и виртуальную (участвовать можно было сразу в обеих). Сначала прошли три отдельных этапа. На первом роботы и дроны команд перемещались и выполняли задания в шахтном тоннеле. На втором этапе соревнования проходило в городских подземных сооружениях. А третий должен был проходить в пещере, но его провели лишь виртуально из-за пандемии. Наконец, в финале командам предстояло продемонстрировать свои разработки сразу в трех этих средах.  Команды оценивались по тому, как много объектов они обнаружили и как быстро они это сделали. Среди объектов были потерявшийся человек, рюкзак, источник газа и другие. Победителем в основной категории стала CERBERUS, в состав которой вошли инженеры из США, Швейцарии, Великобритании и Норвегии. Изначально команда планировала использовать связку из четвероногого робота и дрона, но в итоге остановилась лишь на четвероногом роботе ANYmal. Робот обнаружил 23 из 40 объектов. Команда CSIRO Data61 тоже нашла 23 объекта, но потратила на это больше времени, поэтому заняла второе место. Она использовала связку из гусеничного робота и расположенного на нем квадрокоптера. В результате CERBERUS получила два миллиона долларов, CSIRO Data61 достался один миллион, а MARBLE, занявшая третье место с 18 найденными объектами, выиграла 500 тысяч долларов. В виртуальном соревновании победила испанская команда Dynamo, использовавшая квадрокоптер с лидаром. Она получила 223 балла и выиграла 750 тысяч долларов. Вторыми и третьими стали CTU-CRAS-NORLAB и Coordinated Robotics, они получили 500 и 250 тысяч соответственно. Примечательно, что команды могли участвовать в виртуальных и реальных соревнованиях, и четыре команды так и поступили, но ни одна из них не смогла занять призовое место в обеих категориях. В 2018 году DARPA запустила соревнование по созданию микророботов и технологий, необходимых для их создания. Финальный этап должен пройти весной 2022 года. Григорий Копиев Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ткачиковые воробьи, которые обитают в пустыне Калахари, могут вырастить потомство даже в засушливые годы, но для этого размножающейся паре нужна помощь подросших птенцов предыдущих лет, которые остались с родителями. Особенно ценны помощники-самки. Как выяснили британские орнитологи, благодаря помощникам женского пола ткачиковым воробьям удается сохранять репродуктивный успех на стабильном уровне независимо от уровня осадков. Это подтверждает гипотезу альтруистической подстраховки, согласно которой в некоторых случаях появление альтруизма может быть реакцией на жизнь в среде обитания с непредсказуемыми условиями. Результаты исследования опубликованы в статье для журнала Science Advances. У многих видов птиц в выращивании потомства участвует не только родительская пара, но и ее подросшие птенцы, появившиеся на свет в предыдущие годы. Их называют помощниками на гнездах. Поведение таких особей может показаться нелогичным: они как будто жертвуют своим шансом на размножение, чтобы помочь родителям поднять на крыло младших братьев и сестер. Однако с генетической точки зрения помощнику выгодно ухаживать за сиблингами, ведь у него с ними такое же количество общих генов, какое было бы у него и его собственных птенцов. Специалисты предполагают, что эволюция поддерживает появление помощников на гнездах, поскольку те увеличивают средний репродуктивный успех матери и отца. Однако недавно была выдвинута гипотеза альтруистической подстраховки (altruistic bet-hedging), согласно которой в непредсказуемой среде обитания такое поведение — и другие проявления альтруизма — защищает от провальных сезонов размножения. Если эта идея верна, то в неблагоприятные годы семьи, в которых есть помощники, выращивают больше птенцов, чем их сородичи, и за счет этого выигрывают у них в конкурентной борьбе. Впрочем, убедительные доказательства в пользу этой точки зрения до сих пор отсутствовали. Команда орнитологов под руководством Эндрю Янга (Andrew J. Young) из Эксетерского университета решила проверить гипотезу альтруистической подстраховки на ткачиковых воробьях (Plocepasser mahali). Эти мелкие птицы из семейства ткачиковых (Ploceidae) обитают в засушливых местностях на юге и востоке Африки, где уровень осадков сильно варьирует от года к году. Держатся они группами, которые состоят из пары размножающихся птиц и 0-10 помощников на гнездах (обычно это подросшие потомки пары). В течение девяти сезонов, с 2007 по 2016 годы, Янг и его коллеги оценивали успех размножения примерно 40 семейных групп ткачиковых воробьев из кустарниковой саванны в южноафриканской части пустыни Калахари. Они подсчитывали количество отложенных яиц, вылупившихся птенцов и покинувших гнезда слетков. Кроме того, исследователи попытались выяснить, насколько велик вклад каждого члена группы в выкармливание потомства. Для этого на видеокамеры фиксировали всех особей, которые посещали гнезда с восьмого по тринадцатый день с момента вылупления первого птенца. Чтобы иметь возможность отличать отдельных членов группы на записях, ученые заранее наносили на перья каждого из них, кроме доминирующей самки, индивидуальные метки черной краской. В общей сложности команде удалось записать на видео выкармливание 159 выводков 35 семейных групп. Оказалось, что пищу птенцам приносят помощники обоих полов — однако самки делают это чаще. Кроме того, лишь вклад самок положительно сказывается на частоте кормления юных птиц. При этом чем больше помощников женского пола у доминирующей самки в конкретном сезоне размножения, тем выше частота кормления птенцов. Количество помощников-самцов на этот показатель не повлияло. А когда в ходе дополнительного эксперимента авторы удалили помощников-самок из части групп, птенцы в них стали получать пищу намного реже, при этом удаление самцов такого эффекта не оказало. Несмотря на важную роль помощников-самок, ткачиковые воробьи способны выкормить птенцов и без них. Как показал анализ данных о примерно 400 выводках, группы, в которых нет помощников женского пола, в среднем выращивают примерно такое же количество потомства, что и те, где они есть. Тем не менее присутствие помощников-самок делает репродуктивный успех групп более стабильным от сезона к сезону. Кроме того, чем больше у доминирующей самки помощников женского пола в данном сезоне, тем ближе к среднему будет ее репродуктивный успех. Янг и его коллеги предположили, что межгодовые отличия в успехе размножения у ткачиковых воробьев связаны с уровнем осадков, который в Калахари сильно варьируется от года к году. Присутствие помощников-самок в теории может смягчить влияние погоды. Чтобы проверить эту идею, авторы сопоставили данные об осадках на исследованном участке во временном диапазоне от 36 дней до и 9 дней после вылупления первого птенца, репродуктивном успехе разных групп и наличии в них помощников-самок. Оказалось, что чем больше в группе помощников женского пола, тем выше в ней выживаемость птенцов в засушливые годы, когда пища в дефиците — судя по всему, благодаря усиленному кормлению. Эти результаты согласуются с гипотезой альтруистической подстраховки. Интересно, что во влажные годы, когда еды вдоволь, дополнительные помощники-самки, напротив, снижают выживаемость птенцов. Возможно, их активность привлекает к гнезду хищников. Тем не менее польза от помощников в засушливые годы, судя по всему, перевешивает вред, который они приносят в годы с высоким уровнем осадков. В целом же, чем больше в группе помощников женского пола, тем меньше на ее репродуктивный успех влияют осадки. Таким образом, по крайней мере для ткачиковых воробьев гипотеза альтруистической подстраховки оказалась верной. Янг и его соавторы предполагают, что аналогичный механизм может быть обнаружен и у других видов из засушливых регионов, где главным фактором, влияющим на репродуктивный успех, является уровень осадков. В более стабильной среде помощники на гнездах также приносят пользу родителям. Например, доминирующие самки сейшельских камышовок (Acrocephalus sechellensis) медленнее стареют, если у них есть помощники. Кроме того, благодаря помощникам даже стареющие самки остаются успешными матерями. Сергей Коленов Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Китайская аэрокосмическая научно-техническая корпорация (CASC) построила прототип вооруженного разведывательного беспилотника CH-6. Как сообщает Janes, летательный аппарат покажут на авиасалоне в Чжухае. CH-6 — средневысотный аппарат, способный летать на длинные дистанции на дозвуковых скоростях.  Китайская академия аэрокосмической аэродинамики (филиал CASC) начала работать над созданием CH-6 в 2019 году. Внешне беспилотник похож на высотный беспилотник CH-5, который, в свою очередь, напоминает американский ударный MQ-9 Reaper. Но хвостовое оперение у CH-6 Т-образное, а над хвостовой частью у него два реактивных двигателя.   CH-6 может стать одним из крупнейших китайских беспилотников. Предполагается, что его максимальная взлетная масса составит 7,8 тонны. В разведывательной конфигурации аппарат сможет нести до 300 килограмм, а в разведывательно-ударной — две тонны. При длине в 15 метров размах крыла беспилотника составляет 20,5 метра. Максимальная скорость CH-6 составит 800 километров в час, а крейсерская — от 500 до 700 километров в час. Он сможет подниматься на высоту до 12 километров и пролетать в разведывательной конфигурации до 12 тысяч километров. У вооруженного CH-6 дальность будет меньше — всего 4,5 тысячи километров.  На беспилотник можно будет устанавливать разные виды полезной нагрузки. Например, радиолокационную станцию дальнего обнаружения, ракеты класса «воздух-земля» и бомбы.  Китайцы разрабатывают и другие беспилотники. Например, реактивный ударный WJ-700, о котором мы писали ранее. Он весит 3,5 тонны и может находиться в воздухе до 20 часов.  Василиса Чернявцева Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ученые обнаружили связь между ускорением потепления климата и ослаблением опрокидывающей меридиональной циркуляции в Южном океане. Потепление изменило режим ветров в области Антарктиды и нагрело придонные воды, вследствие чего Южный океан стал хуже поглощать избыток тепла из атмосферы. Такие выводы позволило сделать сравнение двух климатических моделей ансамбля CMIP6, одна из которых прогнозировала более быстрое и интенсивное потепление климата. Статья опубликована в журнале Nature Geoscience.  Антропогенные выбросы парниковых газов приводят к глобальному изменению климата, но в масштабах планеты этот процесс неоднороден, и не все конкретные механизмы отклика климатической системы на рост концентрации CO2 в атмосфере к текущему моменту детально изучены. Один из способов изучения механизмов потепления — использование математических моделей. В разных моделях потепление прогнозируется с неодинаковыми скоростью и интенсивностью, и различия в таких прогнозах позволяет выявить критически уязвимые компоненты климатической системы. Климатические модели сравниваются в рамках специального международного проекта Coupled Model Intercomparison Project (CMIP), который сейчас находится в шестой фазе. Одним из важных показателей, в оценках которого зачастую расходятся климатические модели, является эффективная чувствительность климата (EffCS) — сбалансированное глобальное среднее потепление земной поверхности, которое произойдет за 150 лет при четырехкратном росте концентрации углекислого газа в атмосфере. В предыдущей фазе проекта по сравнению климатических моделей (CMIP5) отличия в значениях EffCS приходились на тропическую акваторию Тихого океана. В последней же фазе (CMIP6) прогнозы относительно этих широт нивелировались, и отличия проявились уже для области Южного океана ниже 35 градуса южной широты.  Ученые под руководством Ады Гьермундсен (Ada Gjermundsen) из Норвежского метеорологического института попытались понять, чем вызвано различие между прогнозами потепления у моделей в CMIP6. Для этого они рассмотрели две климатические модели системы Земли: CESM2 (The Community Earth System Model version 2), разработанную в Лаборатории климата и глобальной динамики Национального центра атмосферных исследований США, и NorESM2 (Norwegian Earth System Model version 2), разработанную в Норвежском метеорологическом институте. Эти модели отличаются значением показателя EffCS: в американской модели он составляет 5,3 кельвин, а в норвежской 2,5 кельвин. При этом базовые параметры, которые используются в этих моделях для описания суши, атмосферы и морского льда, одинаковы. Авторы обратили внимания на разницу в отражении коротковолновой радиации от облаков над Южным океаном: в модели CESM2 они отражают на 0,5 ватт, деленный на метр в квадрате и на кельвин тепла больше, чем в модели NorESM2, то есть облачность в этой зоне приводит к ускоренному потеплению земной поверхности.  Климатологи пришли к выводу, что это может быть связано с изменением опрокидывающей циркуляции Южного океана — главного поглотителя избыточного тепла атмосферы. Она действует аналогично Атлантической меридиональной циркуляции, благодаря которой углекислый газ поглощается холодной водой, опускается на глубину и надолго выводится из атмосферы. Потепление климата привело к тому, что эта циркуляция была нарушена: режим ветров вблизи Антарктиды изменился, воды антарктического дна нагрелись, и поглощение атмосферного тепла заметно ослабло. Это привело к усилению облачности над Южным океаном, которая также стала удерживать тепло, и как следствие к дополнительному потеплению климата в целом.  Марина Попова Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Пингвинами» изначально называли бескрылых гагарок (Pinguinus impennis), крупных нелетающих птиц из семейства чистиковых (Alcidae), которые обитали в Северной Атлантике. С настоящими пингвинами европейцы впервые повстречались только в конце XV века, когда португальская экспедиция под руководством Бартоломеу Диаша огибала мыс Доброй Надежды на юге Африки. Здесь моряки увидели огромные колонии очковых пингвинов (Spheniscus demersus). Учитывая, что бескрылые гагарки и пингвины похожи из-за конвергентной эволюции, неудивительно, что их долгое время считали ближайшими родственниками и называли одним и тем же словом. К сожалению, к середине XIX века бескрылых гагарок истребили охотники и сборщики яиц. Очковым пингвинам знакомство с людьми тоже не пошло на пользу: их численность сократилась c нескольких миллионов особей до примерно двадцати тысяч размножающихся пар из-за чрезмерного вылова рыбы и разливов нефти.  «Пингвинами» изначально называли бескрылых гагарок (Pinguinus impennis), крупных нелетающих птиц из семейства чистиковых (Alcidae), которые обитали в Северной Атлантике. С настоящими пингвинами европейцы впервые повстречались только в конце XV века, когда португальская экспедиция под руководством Бартоломеу Диаша огибала мыс Доброй Надежды на юге Африки. Здесь моряки увидели огромные колонии очковых пингвинов (Spheniscus demersus). Учитывая, что бескрылые гагарки и пингвины похожи из-за конвергентной эволюции, неудивительно, что их долгое время считали ближайшими родственниками и называли одним и тем же словом. К сожалению, к середине XIX века бескрылых гагарок истребили охотники и сборщики яиц. Очковым пингвинам знакомство с людьми тоже не пошло на пользу: их численность сократилась с нескольких миллионов особей до примерно двадцати тысяч размножающихся пар из-за чрезмерного вылова рыбы и разливов нефти.  Одним из главных врагов Бэтмена действительно является криминальный босс Освальд Честерфилд Кобблпот по прозвищу Пингвин. А пингвинам Гумбольдта (Spheniscus humboldti), гнездящимся на побережье Перу и Чили, приходится давать отпор летучим мышам в реальной жизни. Дело в том, что колонии этих птиц привлекают обыкновенных вампиров (Desmodus rotundus), которые по ночам прокусывают кожу на лапках пингвинят и сосут их кровь. На взрослых пингвинов летучие мыши нападать боятся, ведь те могут закидать их грязью или окатить пометом (последнее вы, собственно, и видите на гифке).Интересно, что обычно обыкновенные вампиры кормятся кровью млекопитающих; например, на пустынном побережье Перу и Чили они нападают на южных морских львов (Otaria flavescens). Тем не менее, некоторым особям явно больше нравится кровь пингвинов.  Одним из главных врагов Бэтмена действительно является криминальный босс Освальд Честерфилд Кобблпот по прозвищу Пингвин. А пингвинам Гумбольдта (Spheniscus humboldti), гнездящимся на побережье Перу и Чили, приходится давать отпор летучим мышам в реальной жизни. Дело в том, что колонии этих птиц привлекают обыкновенных вампиров (Desmodus rotundus), которые по ночам прокусывают кожу на лапках пингвинят и сосут их кровь. На взрослых пингвинов летучие мыши нападать боятся, ведь те могут закидать их грязью или окатить пометом (последнее вы, собственно, и видите на гифке).Интересно, что обычно обыкновенные вампиры кормятся кровью млекопитающих; например, на пустынном побережье Перу и Чили они нападают на южных морских львов (Otaria flavescens). Тем не менее, некоторым особям явно больше нравится кровь пингвинов.  Численность тасманийских дьяволов (Sarcophilus harrisii) быстро сокращается из-за распространения инфекционного рака. В попытке спасти этих хищников специалисты создают изолированные страховочные популяции, состоящие из здоровых особей. В 2012 году одна из таких популяций появилась на островке Марайа у восточного побережья Тасмании. Прежде дьяволы никогда здесь не обитали, однако быстро освоились — и принялись разорять гнезда живущих на острове морских птиц.В результате местная колония из примерно трех тысяч пар малых пингвинов полностью исчезла. Пострадали и другие виды птиц. Теперь орнитологи призывают вывезти дьяволов с Марайи — тем более что на других островах и в материковой Австралии появились дополнительные страховочные популяции вида, а инфекционный рак представляет для дьяволов меньшую угрозу, чем считалось ранее.Любопытно, что в 2009 году логотипом Linux 2.6.29 вместо традиционного малого пингвина стал тасманийский дьявол в маске с клювом. Так Линус Торвальдс хотел привлечь внимание к проблемам этого вида. Численность тасманийских дьяволов (Sarcophilus harrisii) быстро сокращается из-за распространения инфекционного рака. В попытке спасти этих хищников специалисты создают изолированные страховочные популяции, состоящие из здоровых особей. В 2012 году одна из таких популяций появилась на островке Марайа у восточного побережья Тасмании. Прежде дьяволы никогда здесь не обитали, однако быстро освоились — и принялись разорять гнезда живущих на острове морских птиц.В результате местная колония из примерно трех тысяч пар малых пингвинов полностью исчезла. Пострадали и другие виды птиц. Теперь орнитологи призывают вывезти дьяволов с Марайи — тем более что на других островах и в материковой Австралии появились дополнительные страховочные популяции вида, а инфекционный рак представляет для дьяволов меньшую угрозу, чем считалось ранее.Любопытно, что в 2009 году логотипом Linux 2.6.29 вместо традиционного малого пингвина стал тасманийский дьявол в маске с клювом. Так Линус Торвальдс хотел привлечь внимание к проблемам этого вида. Пингвин Пен-Пен живет в квартире Мисато Кацураги, одной из героинь аниме Neon Genesis Evangelion. Ему выделена специальная комната, где поддерживается прохладная температура. К какому именно виду принадлежит Пен-Пен, сказать трудно. Хохолок на голове делает его похожим на представителя рода хохлатых пингвинов (Eudyptes), однако когтей на крыльях и чрезвычайно высокого интеллекта нет ни у одного из современных видов пингвинов. Возможно, Пен-Пен появился в результате генетических экспериментов. Реальному же пингвину, в отличие от анимешного, в городской квартире будет плохо – да и хозяину он причинит немало неудобств. Пингвин Пен-Пен живет в квартире Мисато Кацураги, одной из героинь аниме Neon Genesis Evangelion. Ему выделена специальная комната, где поддерживается прохладная температура. К какому именно виду принадлежит Пен-Пен, сказать трудно. Хохолок на голове делает его похожим на представителя рода хохлатых пингвинов (Eudyptes), однако когтей на крыльях и чрезвычайно высокого интеллекта нет ни у одного из современных видов пингвинов. Возможно, Пен-Пен появился в результате генетических экспериментов. Реальному же пингвину, в отличие от анимешного, в городской квартире будет плохо – да и хозяину он причинит немало неудобств. В 2016 году американский орнитолог Стивен Эмсли во время экспедиции на антарктический мыс Иризар, вдающийся в море Росса, действительно обнаружил на месте отступившего из-за климатических изменений ледника следы колонии пингвинов Адели (Pygoscelis adeliae): кучки гальки, а также мумифицированные тушки, кости и перья. Изначально ученый думал, что остаткам птиц всего пять-десять лет. Однако, как показал радиоуглеродный анализ, на самом деле их возраст составляет от 685 до 5135 лет. Интересно, что сейчас пингвины Адели на мысе Иризар не гнездятся, поскольку море вокруг него постоянно покрыто льдом. В 2016 году американский орнитолог Стивен Эмсли во время экспедиции на антарктический мыс Иризар, вдающийся в море Росса, действительно обнаружил на месте отступившего из-за климатических изменений ледника следы колонии пингвинов Адели (Pygoscelis adeliae): кучки гальки, а также мумифицированные тушки, кости и перья. Изначально ученый думал, что остаткам птиц всего пять-десять лет. Однако, как показал радиоуглеродный анализ, на самом деле их возраст составляет от 685 до 5135 лет. Интересно, что сейчас пингвины Адели на мысе Иризар не гнездятся, поскольку море вокруг него постоянно покрыто льдом. Так делают герои советского мультфильма – живущий на айсберге пингвин и его друг-кит. Вместе они поддерживают айсберг в идеальной чистоте: кит время от времени орошает его фонтаном воды, а пингвин полирует поверхность тряпкой и собирает мусор в корзину. К сожалению, эта идиллия привлекла многочисленных туристов, которые так загадили айсберг, что друзьям стало не под силу его очищать. Так делают герои советского мультфильма – живущий на айсберге пингвин и его друг-кит. Вместе они поддерживают айсберг в идеальной чистоте: кит время от времени орошает его фонтаном воды, а пингвин полирует поверхность тряпкой и собирает мусор в корзину. К сожалению, эта идиллия привлекла многочисленных туристов, которые так загадили айсберг, что друзьям стало не под силу его очищать. Юный императорский пингвин по имени Мамбл, персонаж мультфильма «Делай ноги», в отличие от сородичей, с рождения не умеет петь. Вместо этого он ловко отбивает чечетку. В результате Мамбл становится изгоем и оказывается далеко от дома, где его ждут опасные приключения. Интересно, что в мультфильме императорские пингвины исполняют популярные музыкальные хиты, однако в реальности голоса у этих птиц не самые приятные. Танцевать чечетку императорские пингвины тоже не умеют: брачные демонстрации самцов, помимо криков, включают различные позы и движения, например, покачивание головой. А заинтересовавшиеся друг другом самец и самка  встают лицом к лицу, после чего каждый из них в течение нескольких минут повторяет все движения потенциального партнера. Юный императорский пингвин по имени Мамбл, персонаж мультфильма «Делай ноги», в отличие от сородичей, с рождения не умеет петь. Вместо этого он ловко отбивает чечетку. В результате Мамбл становится изгоем и оказывается далеко от дома, где его ждут опасные приключения. Интересно, что в мультфильме императорские пингвины исполняют популярные музыкальные хиты, однако в реальности голоса у этих птиц не самые приятные. Танцевать чечетку императорские пингвины тоже не умеют: брачные демонстрации самцов, помимо криков, включают различные позы и движения, например, покачивание головой. А заинтересовавшиеся друг другом самец и самка  встают лицом к лицу, после чего каждый из них в течение нескольких минут повторяет все движения потенциального партнера. Субантарктические пингвины (Pygoscelis papua) предпочитают гнездиться на голых скалах. Однако порой выбранные ими участки оказываются заметены снегом. Чтобы очистить место для гнезда, пингвины используют необычный трюк. Они испражняются на снег в одних и тех же точках, из-за чего он темнеет и тает быстрее, чем за пределами колонии. В результате скалы очищаются, и птицы могут быстрее приступить к откладке яиц. Субантарктические пингвины (Pygoscelis papua) предпочитают гнездиться на голых скалах. Однако порой выбранные ими участки оказываются заметены снегом. Чтобы очистить место для гнезда, пингвины используют необычный трюк. Они испражняются на снег в одних и тех же точках, из-за чего он темнеет и тает быстрее, чем за пределами колонии. В результате скалы очищаются, и птицы могут быстрее приступить к откладке яиц. Многие птицы умеют изготавливать и использовать инструменты. Однако пингвинов в этом списке нет. Скорее всего, они просто не нуждаются в орудиях ни во время охоты, ни в период размножения. Впрочем, недавно орнитологи застали других морских птиц, тупиков (Fratercula arctica), за чисткой перьев с помощью палочки. Возможно, и за пингвинами ученым стоит понаблюдать повнимательнее. Многие птицы умеют изготавливать и использовать инструменты. Однако пингвинов в этом списке нет. Скорее всего, они просто не нуждаются в орудиях ни во время охоты, ни в период размножения. Впрочем, недавно орнитологи застали других морских птиц, тупиков (Fratercula arctica), за чисткой перьев с помощью палочки. Возможно, и за пингвинами ученым стоит понаблюдать повнимательнее. Мифу о «поднимателе пингвинов» скоро исполнится полвека. Во время войны на Фолклендских островах (1982 год) британские летчики якобы заметили, что пингвины внимательно смотрят на пролетающие над ними самолеты. При этом они порой так сильно задирают головы, что падают на спину. В первоначальной версии истории речь шла о том, как одновременно перевернулись сразу десять тысяч любопытных пингвинов. С 1994 года миф о падающих на спину птицах циркулирует по интернету, постепенно меняясь и обрастая подробностями. Место действия рассказа переместилось в Антарктиду – а еще в нем появился специальный человек, обязанность которого – переворачивать пингвинов со спины на живот (сами они якобы сделать этого не могут). В реальности пингвины опасаются громких шумов. Когда над ними пролетает самолет или вертолет, они замолкают и стараются убежать. Однако даже если какой-то пингвин упадет на спину, засмотревшись в небо, он с легкостью перевернется на живот и поднимется на ноги. Мифу о «поднимателе пингвинов» скоро исполнится полвека. Во время войны на Фолклендских островах (1982 год) британские летчики якобы заметили, что пингвины внимательно смотрят на пролетающие над ними самолеты. При этом они порой так сильно задирают головы, что падают на спину. В первоначальной версии истории речь шла о том, как одновременно перевернулись сразу десять тысяч любопытных пингвинов. С 1994 года миф о падающих на спину птицах циркулирует по интернету, постепенно меняясь и обрастая подробностями. Место действия рассказа переместилось в Антарктиду – а еще в нем появился специальный человек, обязанность которого – переворачивать пингвинов со спины на живот (сами они якобы сделать этого не могут). В реальности пингвины опасаются громких шумов. Когда над ними пролетает самолет или вертолет, они замолкают и стараются убежать. Однако даже если какой-то пингвин упадет на спину, засмотревшись в небо, он с легкостью перевернется на живот и поднимется на ноги. Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Японский физик рассмотрел задачу о расположении точечных зарядов на поверхности сферы с точки зрения частот их колебаний. Он получил последовательность магических чисел, которая отличается от аналогичной последовательности, полученной из энергетических соображений. Автор связал обнаруженные аномалии со степенью энергетического вырождения и симметрией зарядового распределения. Исследование опубликовано в Physical Review B. Знание о том, как распределяются заряды по поверхности сферы, имеет как практическое, так и фундаментальное значение. В первом случае это будет полезно при синтезе и применении разнообразных нанокластеров, например, фуллеренов. Во втором случае это знание связано с решением седьмой из восемнадцати нерешенных математических проблем, сформулированных Стивеном Смейлом. Эта проблему еще часто называют задачей Томсона. Сложность энергетической структуры состояний зарядов на сфере быстро растет с их числом N. В общем случае ученые строят поверхность потенциальной энергии в фазовом пространстве размерности 2N и ищут в ней глобальный и локальные минимумы. В целом характеристики структуры, например, энергия или устойчивость, зависят от N монотонно, однако для некоторых чисел появляются аномалии. Такие числа физики называют магическими и исследуют с особым интересом. Так, ранее ряд из чисел 12,32,72,122,132,137,146,182,187 и 192 был признан магическим на основании стабильности конфигураций зарядов на сфере. Японский физик Шота Оно (Shota Ono) из Университета Гифу предложил другой подход к поиску магических чисел. Он учел тот факт, что при ненулевой температуре нужно учитывать колебания всей структуры в окрестности минимумов поверхности потенциальной энергии. Изучая зависимость максимально возможной частоты колебания решетки зарядов, Оно выяснил, что часть найденных им чисел совпадает с ранее приведенными числами, в то время как другие — нет. Для начала физик записал классический лагранжиан для точечных зарядов, размещенных на сфере единичного радиуса, что позволило получить ему все уравнения движения. Далее, предположив гармоничность колебаний, он переформулировал уравнения через малые отклонения от положений равновесия, и решил оптимизационную задачу с помощью метода Монте-Карло, подтвердив, что заряды на сфере выстраиваются в треугольную решетку. Знания о положении минимумов и кривизне поверхностей позволили ему вычислить частоты колебаний. Далее Оно исследовал зависимость наибольшей из частот от числа зарядов N. Она представляла собой монотонно растущую кривую, совмещенную с небольшими флуктуациями. Для некоторых магических чисел, однако, флуктуации были особенно существенными. Для их выявления физик построил полуэмпирическую формулу, объясняющую монотонный тренд, после чего вычел ее из значений частот.  Отмечая значения N, для которых частоты получились существенно ниже выборки, автор составил ряд магических чисел 12,32,72,132 и 192. Общее количество таких чисел оказалось меньше, чем в использованном ранее подходе, связанном с вычислением полной энергии. Физик объяснил этот факт тем, что величина максимальной частоты отражает отсутствие энергетического разнообразия (то есть, высокую степень вырождения) и икосаэдрическую симметрию распределения зарядов. Проверяя эту гипотезу, он обнаружил еще несколько значений N, равных 212,272,282 и 372, чья степень вырождения была также высока. В заключение Оно отметил, что результаты его работы демонстрируют другой подход к решению проблемы Томсона. Физик также надеется, что предложенный формализм принесет пользу применительно к реальным физическим объектам, таким, например, как атомные дефекты в металлах. Ученые не первый раз работают с магическими математическими объектами. Ранее мы уже писали, как поворот на магический угол сделал двухслойный графен сверхпроводящим и как ЦЕРН подтвердил двойную магичность олова-132. Марат Хамадеев Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физики применили двухфотонный оптический комбинационный переход через промежуточное возбужденное состояние для ассоциации атомов натрия и цезия в молекулу в слабосвязанном состоянии. Они смоги пронаблюдать осцилляции Раби для такого перехода, а также изучить то, как этот когерентный процесс зависит от свойств оптических ловушек, в которых он происходит. Исследование опубликовано в Physical Review X. Ученые относительно недавно научились создавать и манипулировать ультрахолодными молекулами, однако они уже успели стать полезным инструментом для точных измерений, квантовых симуляций и обработки квантовой информации. Зачастую для этих целей нужны экзотические молекулы, которые собираются из отдельных, сильно охлажденных и запертых в ловушки атомов. Сложность при этом заключается в том, что для образования достаточно прочной молекулы, она должна быть создана в состоянии, чья энергия будет существенно ниже, изначальная суммарная энергия атомов, и ее избыток нужно куда-то деть. Кроме того, волновая функция такого состояния слабо пересекается с волновыми функциями атомов, что уменьшает шансы на соединение. Для решения этой проблемы ученые соединяют атомы в молекулу в промежуточном состоянии, а затем пытаются перевести ее в целевое состояние с помощью вынужденного излучения. Самым распространенным способом сделать это стала магнитоассоциация с помощью резонанса Фешбаха, однако этот метод не работает для немагнитных атомов, а также для атомов без узких интеркомбинационных линий. В качестве альтернативы физики использую оптическую ассоциацию в лазерном поле. Несмотря на работоспособность этого метода, рождающиеся таким образом молекулы распадаются слишком быстро, чтобы можно было изучать в них какие-либо когерентные процессы. Для решения этой проблемы команда физиков из Великобритании, Испании и США при участии Джереми Хатсона (Jeremy Hutson) из Даремского университета применила двухфотонных оптический комбинационный переход через промежуточное возбужденное состояние для ассоциации атомов натрия и цезия в молекулу в слабосвязанном состоянии. В результате им удалось наблюдать осцилляции Раби на этом переходе до того, как молекула распалась. Эксперимент начинался с помещения атомов в отдельные оптические пинцеты. После этого авторы включали слабое магнитное поле, чтобы зафиксировать выделенную ось для конкретизации проекций на нее орбитальных и спиновых моментов. За счет бокового охлаждения они добивались того, чтобы атомы занимали только основное колебательное состояние внутри пинцета, а их спины выбирались сонаправленными. При слиянии пинцетов, физики переворачивали цезиевый спин, переводя таким образом систему в начальное для комбинационного перехода состояние. Параллельно они добавляли модуляцию к частоте лазера, формирующего пинцет, равную 770 мегагерцам. Такая модуляция соответствовала биениям от сложения двух лазерных мод с частотами, необходимыми для двухфотонного перехода. Включая комбинационный переход на небольшое и регулируемое время, физики измеряли, какая доля атомов остается в диссоциированном состоянии. Зависимость этой доли от времени носит осциллирующий характер и описывает когерентные переходы всей системы между молекулярным состоянием и состоянием свободных атомов. Осцилляции, однако, быстро затухали, что исследователи связали со временем жизни молекулы.  Для проверки этой гипотезы они включали переход на время, соответствующего полному переходу атомов в молекулярное состояние, затем давали системе проэволюционировать, а затем переключали ее обратно в атомное состояние. Изучая число сохранившихся молекул для различных времен эволюции, они получили характерное время жизни, равное 0,2 миллисекундам, которое совпало с временем затухания осцилляций Раби. Физики также исследовали зависимость свойств этих осцилляций от мощности лазера, формирующего пинцет, и его отстройки, что позволило уточнить теоретическую модель комбинационного перехода. В заключении авторы отмечают, что эффективность перехода в их эксперименте составила 69 процентов, однако она может быть улучшена в будущем подбором других состояний. Кроме того, они указали возможные способы уменьшения декогеренции, включающие борьбу с шумом в спектре лазера и с нелинейными эффектами в волноводе. Даже если получаемые ультрахолодные молекулы оказываются относительно стабильными, им грозит распад при взаимодействии друг с другом. Ранее мы писали, как физики борются с этим с помощью микроволного и электрического полей. Марат Хамадеев Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Американские физики смогли зафиксировать процесс добавления и вычитания одиночного фонона из механического резонатора при комнатной температуре. Это было сделано с помощью измерения характеристик рассеянного на нем лазерного излучения. Эксперимент подтвердил, что состояния, отличающиеся от равновесных на один фонон, оказываются неклассическими даже в нормальных условиях. Исследование опубликовано в Physical Review Letters. Механические движения рассматриваются в квантовых технологиях в качестве источника квантовых состояний наряду электронными, фотонными и другими степенями свободы. Речь идет в первую очередь о квантованном движении частиц в оптических и магнитных ловушках, колебаниях и вращениях молекул, а также о возбуждении в резонаторах квантованных механических волн, которые описываются с помощью фононов. Свет — наиболее удобный инструмент для манипуляции механическими степенями свободы. При переходе оптомеханики в квантовый режим одиночные фотоны начинают играть ощутимую роль. Например, воздействие одиночного фотона на механический резонатор способно сделать его статистические характеристики существенно неклассическими. Такие эффекты как правило наблюдаются при низких температурах, чтобы повысить чувствительность эксперимента. Амир Сафави-Наейни (Amir Safavi-Naeini) с коллегами из Стэнфордского университета решили выйти за рамки этого ограничения и провести эксперимент, в котором они бы смогли зафиксировать добавление и вычитание одиночных фононов за счет взаимодействия со светом при комнатной температуре. Прямое измерение этого эффекта затруднено в силу большого числа фононов (для резонатора, использованного в статье, их число составляло чуть более полутора тысяч), поэтому авторы исследовали статистические свойства фотонов, рассеянных на них. Рассеиваясь на фононах, свет может увеличивать (уменьшать) их число, при этом его энергия будет уменьшаться (увеличиваться) на величину, равную энергии фонона. Этот процесс аналогичен комбинационному рассеянию в молекулах, где свет уносит (добавляет) энергию их колебаний и вращений. В случае же, когда число фотонов не меняется, рассеяний свет несет информацию о статистических свойствах фононного ансамбля. Физики использовали оба этих явления в своем эксперименте. Они подавали излучение лазера, слегка отстроенное от частоты оптомеханического резонатора: выше по частоте, чтобы добавить фотон, и ниже — чтобы вычесть. Рассеянное излучение разделялось на две части: одна из них использовалась для того, чтобы фиксировать присутствие в пучке одиночного фотона с резонансной частотой, вторая отправлялась на гетеродинный балансный детектор, измерявший функцию Вигнера света, несущую информацию о свойствах фононов. Когда физики игнорировали сигнал с однофотонного источника, статистика фотонов была равновесной (гауссовой). При учете же только тех данных балансного детектора, которые следовали за щелчком однофотонного детектора в течение двух микросекунд, статистика свидетельствовала о добавлении или исключении одного фонона.  Исследователи измеряли среднее число фононов для равновесного и неравновесного распределений. В частности, для случая добавления фонона эти числа оказались равны 1597,6±0,6 и 3158,1±0,9 соответственно. Их отличие в два раза кажется парадоксальным, однако хорошо объясняется теорией. Дело в том, что в случае срабатывания однофотонного детектора в распределении должна быть учтена вероятность рассеяния фотона на фононах, которая пропорциональна их числу. Это приводит к удвоенному отношению средних, что и наблюдалось в эксперименте с высокой точностью. В заключении авторы отмечают, что их работа подтверждает теоретические расчеты, которые предсказывали, что состояния ансамбля фононов, отличающиеся от равновесных на одну квазичастицу, могут быть неклассическими при любых температурах. Они надеются, что последующие исследования смогут превратить продемонстрированные состояния в полезный квантовый ресурс. В качестве примера физики приводят создание механических состояний, описываемых как состояние кота Шрёдингера. Ученые регулярно создают такие системы, состоянием которых можно управлять с помощью всего лишь одного фотона. Недавно мы писали про то, как два атома возбудили одним фотоном и как однофотонную нелинейность реализовали при комнатной температуре. Марат Хамадеев Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физики смогли увеличить время когерентности кубитов, созданных на базе ультрахолодных молекул, до ста миллисекунд, что на порядок больше, чем в предыдущих работах. Этого удалось достичь благодаря активному подавлению шума в магнитном поле и правильной ориентации магнитных и электрических полей относительно друг друга. Исследование опубликовано в Physical Review Letters, доступен также препринт. Квантовая механика предписывает всем связанным микросистемам обладать дискретным энергетическим спектром. При этом чем больше в системе элементов, тем она сложнее. Энергетические уровни атомов определяются в первую очередь электронной конфигурацией, обогащаясь небольшими поправками на взаимодействия, чувствительные к орбитальным и спиновым степеням свободы электронов и ядра. У молекул же возникает куда более сложная структура, в которую дают вклад колебания ядер относительно друг друга, а также вращения в молекуле. Оказалось, что эти колебательные и вращательные уровни хорошо подходят для хранения и обработки квантовой информации. В случае же, когда молекула полярная, то есть обладает собственным дипольным моментом, ее проще связывать с соседями для образования квантовой запутанности и ею проще манипулировать. Однако, как и многие другие физические реализации кубитов, состояния молекул подвержены декогеренции, то есть, потере квантовой информации. Для увеличения времени когерентности их очень сильно охлаждают и помещают в оптические ловушки, но пока физикам удалось достичь времени, не превышающего 10 миллисекунд (про похожее исследование мы недавно писали), хотя для нужд квантовых вычислений оно должно быть существенно больше. Шон Бурчески (Sean Burchesky) из Кембриджского университета с коллегами из США и Южной Кореи сообщили о том, что им удалось десятикратно увеличить это время, сохраняя когерентность вращательных уровней в молекуле CaF, удерживаемой оптическим пинцетом. Такой результат был получен благодаря тщательному анализу причин декогеренции и борьбе с ними. В частности, авторы применили уникальную систему подавления флуктуаций магнитного поля, а также избавились от сдвигов, вызываемых электрическим полем лазера пинцета с помощью правильной конфигурации установки. В качестве состояний кубита физики использовали пару вращательных уровней |N = 0; J = 1/2; F = 1; mf = 0&gt; и |N = 1; J = 1/2; F = 0; mf = 0&gt; из разрешенной сверхтонкой структуры. Перед началом каждого экспериментального цикла одиночные молекулы, захваченные лазерным пинцетом с длиной волны 780 нанометров, готовились в верхнем состоянии. Затем они облучались парой микроволновых π/2-импульсов с контролируемым интервалом времени между ними. Первый импульс поворачивал вектор состояния кубита в экваториальную плоскость сферы Блоха (то есть в равную квантовую суперпозицию), в пределах которой возникала его свободная эволюция, в то время как второй импульс возвращал его к одному из пары исходных состояний. В конце населенность состояния молекулы измерялась с помощью интерферометрии Рамси. Контраст осцилляций Рамси характеризует степень когерентности, а его уменьшение в e раз – искомое время.  Сначала физики рассмотрели постоянное магнитное поле как источник декогеренции. Благодаря конфигурации выбранной пары уровней, на них оказывал влияние только квадратичный зеемановский сдвиг. Однако даже он вызывал помехи из-за флуктуаций поля, вызванных шумами в источниках питания и дробовыми шумами. Для борьбы с ними авторы применили активное шумоподавление, которое заключалось в синхронной компенсации флуктуаций поля с помощью дополнительного зонда, помещенного недалеко от молекулы. Затем ученые проанализировали влияние переменных электрических полей лазерного пинцета. Для их компенсации физики создавали такой режим, при котором сдвиги, вызванные магнитным полем, оказывались сопоставимы с поправками на тензорную поляризуемость. Выбрав правильный угол между магнитным полем и направлением поляризации света (магический угол), они смогли скомпенсировать влияние полей и довести время когерентности до 93±7 миллисекунд при температуре молекулы пять микрокельвин. Авторы отмечают, что даже несмотря на использование магических углов, остаточная дифференциальная поляризуемость мешает продлить время когерентности выше сотни миллисекунд. Одним из выходов они назвали применение более коротких квантовых вентилей, что позволит производить несколько тысяч операций над кубитами за это время. Физики также отметили универсальность предложенных ими улучшений, которые могут быть применены к широкому классу молекул. Холодные молекулы – не единственные кандидаты в кубиты. Мы уже рассказывали, как время когерентности твердотельных спиновых кубитов было увеличено до десятков миллисекунд, а также о том, как радиация ограничила время когерентности сверхпроводящих кубитов четырьмя миллисекундами. Марат Хамадеев Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физики применили квантовую теорию информации к проблеме прямого наблюдения экзопланет. Они показали, что измерение в режиме квантового предела способно снизить вероятность ложноотрицательной ошибки, а также показали, какие из существующих методов детектирования могут достичь этого на практике. Работа опубликована в Physical Review Letters. Астрономы начали обнаруживать экзопланеты сравнительно недавно и на сегодняшний день их число насчитывает около четырех с половиной тысяч (примерно половина ожидает подтверждения). Большинство из них обнаруживаются с помощью метода транзитной фотометрии, и всего лишь около процента можно увидеть напрямую. Причина этого в том, что излучение света от экзопланет слабее, чем излучение звезды рядом с ними. При прямом наблюдении звездных систем их изображение собирается в фокальной плоскости телескопа. Из-за дифракционного предела изображение небесных тел оказывается размытым, что неизбежно приводит к ошибкам, как ложноположительными (увидели планету там, где ее нет), так и ложноотрицательными (не увидели планету, хотя она там есть). В силу редкости экзопланет ошибки второго типа куда более критичны, поэтому астрономы стараются избегать в первую очередь их. Физики Цзысинь Хуан (Zixin Huang) из Университета Маккуори и Космо Лупо из Университета Шеффилд решили применить к этой проблеме подход, основанный на квантовой теории информации. Они взяли за основу параметр ε, равный отношению интенсивности света, рассеянного экзопланетой, к интенсивности света от всей системы и показали, что в пределе малого параметра квантовый подход к оценке ошибок будет иметь преимущества перед классическим. Авторы также показали, в каких типах измерений может быть достигнут квантовый предел. Вероятность ложноотрицательной ошибки определяется в теории информации через относительную энтропию, выражаемую через вероятности встретить фотон на экране для случаев наличия и отсутствия экзопланеты. Физики привели выкладки для классической и квантовой относительных энтропий, и обнаружили, что, если распределение от точечного источника на экране имеет гауссов вид, они зависят от малого ε по квадратичному и линейному законам, соответственно. На практике это будет означать, что в случае слабого сигнала от экзопланеты измерение, которое учитывает квантовую природу света, имеет меньшую вероятность ошибки. Авторы рассмотрели несколько подходов к измерению, которые могли бы достичь квантового предела. Проведя соответствующие вычисления, они показали, что это возможно в режиме пространственного демультиплексирования (SPADE) и в режиме инверсионной интерферометрии (SLIVER). Первый метод основан на разложении приходящего света на пространственные моды Эрмита-Гаусса и вычислении вероятностей для каждой из них. Он мог бы быть реализован в интерферометрах, с помощью голографической техники и мультимодовых волноводов. Второй метод оценивает влияние параметра ε на вероятность получить ту или иную четность при инверсии пришедшего сигнала. Такой режим также может быть реализован в интерферометрах. В обоих случаях измеренная относительная энтропия зависит от ε линейно. Физики также исследовали влияние статистического разброса по числу фотонов в пределах одной моды, которым характеризуется классический равновесный свет, на приведенные выше оценки. Оказалось, что даже большое число фотонов в равновесном свете несущественно увеличивает ошибку. Более того, астрономы чаще всего имеют дело со слабыми оптическими сигналами, в которых содержится мало фотонов. В этом пределе получаемые выражения для энтропий практически совпадают с формулами, выведенными авторами в самом начале. Исследователи отмечают, что развитый подход применим не только к астрономическим наблюдениям, но вообще к любому классу задач, где необходимо оптически разрешить один слабый источник на фоне другого сильного. В качестве примера они приводят поиск димеров в микроскопии, а также идентификацию объектов, которые расположены очень близко друг к другу. Для поиска экзопланет астрономы используют весь арсенал доступных им физических методов. Мы уже рассказывали, как астрономы фиксируют их радиоизлучение и ищут их при помощи метода радиальных скоростей. Марат Хамадеев Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физики экспериментально продемонстрировали систему, в которой возникает нелинейный отклик всего лишь от одного фотона при комнатной температуре. Для этого исследователи возбуждали поляритоны в полимерной пленке и следили за их конденсацией в зависимости от интенсивности затравочных импульсов. Работа опубликована в Nature. Взаимодействие вещества со светом в нелинейном режиме стало довольно важным явлением, нашедшим применение во множестве практических приложений, начиная от телекоммуникации и заканчивая микроскопией высокого разрешения. Его главный признак — нелинейная зависимость отклика среды на воздействие светом, например, переизлучение средой света с удвоенной частотой или самофокусировка пучка. Традиционно нелинейность ассоциируется с большими интенсивностями падающего излучения. Однако, как оказалось, в некоторых средах нелинейного режима можно достичь и при облучении их всего одним фотоном. Это удавалось наблюдать для атомов и атомоподобных систем, помещенных в резонатор, либо для ультрахолодных атомных ансамблей. В последнем случае сильная и устойчивая однофотонная нелинейность достигается за счет сильно скоррелированных состояний, например, в бозе-эйнштейновском конденсате, однако его создание требует очень сложных условий для реализации, включая очень низкие температуры. Группа физиков из Германии, России и Швейцарии под руководством Антона Заседателева (Anton Zasedatelev) и Павлоса Лагудакиса (Pavlos Lagoudakis) из Сколковского института науки и технологий экспериментально показала, что однофотонную нелинейность можно получить при комнатной температуре, объединив преимущества подхода, основанного на усилении взаимодействия света с веществом с помощью резонаторов, с сильными корреляциями, наблюдаемыми в бозе-конденсатах. Для этого они помещали пленку из полипарафенилена (MeLPPP) толщиной 35 нанометров, окруженную двумя прокладками из диоксида кремния толщиной 50 нанометров, в оптический микрорезонатор на основе брэгговских зеркал. Физики имели возможность резонансно возбуждать в полимере экситоны с помощью импульса накачки. За счет правильно подобранных свойств среды эта энергия эффективно передавалась в колебательные степени свободы с образованием соответствующего поляритона, то есть квазичастицы, объединяющей в себе возбуждения среды с фотоном. Начиная с некоторого порога интенсивности накачки, спонтанно рождаемые поляритоны конденсировались, что отражалось на излучении, выходящем из системы.  Затем авторы решили усилить конденсацию с помощью затравочных импульсов, которые напрямую возбуждали новые поляритоны. Они следили за величиной, названной контрастом, которая характеризовала то, насколько затравочных поляритонов больше, чем спонтанно образованных. Построив зависимость контраста от энергии одного импульса, физики обнаружили степенной закон, который подтвердил численные симуляции. Экстраполируя эту зависимость до энергии импульса, соответствующей энергии одного фотона, они получили контраст, равный 28 процентам. Исследователи обратили внимание на то, что полученное значение нельзя считать истинно однофотонным, поскольку в проделанном опыте свет был классическим. Иными словами, распределение вероятности встретить в моде n фотонов носило пуассоновский характер. Это означает, что в измерениях с накоплением данных после множества повторений неизбежно возникнут вклады от многофотонных состояний. Чтобы обойти эту проблему, физики измеряли фотолюминесценцию после каждого затравочного импульса. Повторение эксперимента в таком режиме снизило значение контраста до 11 процентов для импульсов, содержащих в среднем один фотон. В заключении авторы подчеркивают, что проведенный ими эксперимент стал четким подтверждением однофотонной нелинейности при комнатной температуре, что может быть полезно для разработки устройств фотоники на чипе. Они также отмечают, что отношение сигнал/шум эксперимента может быть увеличено путем управления свойствами фильтрации и накачки, размерами конденсата, конфигурацией затравочных состояний и многим другим. Физики с большим интересом изучают нелинейные эффекты в конденсированных средах. Мы уже рассказывали, как они получили «двуцветный» фотон и исследовали генерацию высших гармоник в графене. Марат Хамадеев Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Американские и китайские биологи показали, что нематоды Caenorhabditis elegans могут воспринимать звук, несмотря на то, что у них нет морфологически обособленных органов слуха. При этом роль барабанной перепонки играет кутикула — покровы червей. В работе, опубликованной в журнале Neuron, исследователи отмечают, что слух может быть более широко распространен среди беспозвоночных, чем считалось ранее.  Животные воспринимают сигналы внешней и внутренней среды при помощи сенсорных систем, среди которых наиболее распространены органы зрения, осязания, обоняния, вкуса и проприорецепции. При этом привычная для людей слуховая сенсорная система характерна только для нескольких групп животных: позвоночных и некоторых членистоногих. Также предполагается, что слухом могут обладать и головоногие моллюски.       Для того чтобы исключить реакцию нематод на колебания субстрата, исследователи изучили поведение червей с мутацией в гене mec-4, которая приводит к дегенерации механосенсорных нейронов, ответственных за восприятие вибрации субстрата. Оказалось, что и такие мутанты проявляли отрицательный фонотаксис. Дополнительно исследователи измерили вибрацию субстрата при помощи лазерной виброметрии и обнаружили, что звук вызывает минимальные колебания в субстрате. Затем ученые решили выяснить, каким образом звук активирует поведение фонотаксиса. Для этого они снова использовали лазерную виброметрию, которая показала, что кутикула червей вибрирует в ответ на звук. Биологи предположили, что кутикула C. elegans выступает аналогом барабанной перепонки позвоночных и перепонки тимпанальных органов насекомых. Ученые проверили это предположение, изучив поведение нематод с мутациями в генах bli-1, bli-2 и bli-6, вызывающими нарушение структуры кутикулы. Выяснилось, что такие мутанты практически не реагировали на звуковые колебания. Адам Илифф с коллегами установили, что за фонотаксисное поведение отвечают механосенсорные нейроны FLP и PVD. Ученые выяснили, что центральную роль в преобразовании звуковых сигналов играют субъединицы DES-2/DEG-3 никотинового ацетилхолинового рецептора. При этом оказалось, что ацетилхолин не участвует в передаче сигнала, так как мутанты по генам cha-1 и unc-17, у которых отсутствует синтез ацетилхолина, проявляли нормальную реакцию на звуковые стимулы.  Ученые предполагают, что DES-2/DEG-3 выступают порообразующими субъединицами канального комплекса механотрансдукции, который преобразует звуковые волны в нервный импульс. Этим нематоды отличаются от насекомых и позвоночных, у которых такую функцию выполняют каналы TRP и TMC соответственно. В экспериментах нематоды реагировали на звук с частотой от 100 до 5000 герц. Биологи отмечают, что частотный диапазон C. elegans шире, чем у некоторых позвоночных, таких как рыбы или черепахи. По мнению авторов, полученные результаты подтверждают представление о том, что органы слуха независимо возникали у животных в процессе эволюции, в отличие от органов зрения, которые у билатеральных животных, вероятно, имеют общее происхождение. Также авторы работы предположили, что аналогичным образом воспринимать звук могут и другие беспозвоночные с мягким телом, такие как моллюски, кольчатые и плоские черви.  Ранее мы писали о том, как американские биологи с помощью ультразвука научились управлять активностью нейронов C. elegans.  Семён Морозов Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физики провели численную симуляцию процесса ионизации атома водорода, находящегося в циркулярном состоянии, мощным лазерным импульсом. Они обнаружили аномальную зависимость вероятности ионизации от частоты света, которую объяснили резонансными процессами с участием нижележащего уровня. Исследование опубликовано в Physical Review A. Атом водорода сегодня изучен лучше любой другой квантовой системы. В силу простоты своего устройства он стал отправной точкой для построения теорий и предсказания новых эффектов. По этой же причине он стал популярным объектом для экспериментов по измерению физических величин с рекордной точностью. Недавно, однако, выяснилось, что при взаимодействии атома водорода с очень интенсивными лазерными полями характер происходящих с ним процессов может быть довольно сложным. В первую очередь это касается ионизации, которая, как оказалось, сильно зависит от магнитного квантового числа m электрона из-за возникновения резонансных эффектов. С другой стороны, возможность резонансного контроля ионизации позволит создавать спин-поляризованные электронные пучки, свойствами которых можно управлять на фемтосекундном масштабе (про одно из таких исследований мы уже писали), поэтому физики продолжают строить модели этих процессов. Пэйсян Лу (Peixiang Lu) из Хуачжунского университета науки и технологии с коллегами решили подробнее изучить зависимость малофотонной ионизации от частоты лазера для циркулярных состояний атома водорода. Циркулярными называют состояния с максимально возможным значением магнитного квантового числа m для данного главного квантового числа n. Строго говоря, для атома водорода возможно всего два их варианта: m = n − 1 и m = − |n − 1|. Если облучать атом светом с круговой поляризацией, то направление вращения плотности электронного тока одного из циркулярных состояний совпадет с направлением вращения вектора электрического поля, а для другого они окажутся противоположны. Физики численно решали зависящее от времени уравнение Шрёдингера для атома в обоих циркулярных состояниях с n = 3, облучаемого лазерным импульсом большой интенсивности. Они разлагали искомое решение по сферическим функциям с зависящей от времени радиальной частью, ограничиваясь сверху орбитальным квантовым числом l = 30. Строя зависимость вероятности ионизации от частоты света, они обнаружили ее неожиданное поведение в диапазоне, соответствующему поглощению двух фотонов. В частности, для состояния атома, чье вращение сонаправленно с вращением поля, авторы увидели сильный рост ионизации, в то время как для другого состояния ее вероятность монотонно убывала. Такой характер зависимости сохранялся в широком диапазоне интенсивностей света и длительностей импульсов.  Для понимания причин усиления и подавления ионизации на разных частотах, авторы детально исследовали эволюцию населенности уровней с другими квантовыми числами для обоих циркулярных состояний. Так, они выяснили, что рост вероятности ионизации для сонаправленного состояния объясняется резонансными переходами ни нижний уровень, который также участвует в ионизации. Вместе с тем подавление ионизации происходит из-за осцилляций Раби между начальным и нижним уровнем. Физики надеются, что выявленный ими механизм поможет лучше понять процессы, происходящие при ионизации с большим числом фотонов. И хотя ионизацию атомов изучают уже больше века, с ней до сих пор не все ясно. Так, физики лишь недавно разобрались с тем, как в этом процессе распределяются импульсы фотонов и насколько важно учитывать при этом релятивизм. Марат Хамадеев Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Китайские физики подробно изучили поведение левитирующей в оптическом пинцете микрочастицы в условиях центрифугирования. Они показали, что такая система может быть использована для измерения массы частиц, а также в качестве детектора угловой скорости или гироскопа. Исследование опубликовано в Optics Letters. Оптические пинцеты стали неотъемлемым инструментом современного физического эксперимента. В их основе лежит способность сфокусированного пучка света удерживать микрочастицы в определенной области пространства за счет давления света﻿﻿. Это оказывается полезно для множества задач атомной и молекулярной физики, химии, биологии и других областей. За изобретение оптического пинцета в 2018 году была присуждена Нобелевская премия по физике, чему был посвящен наш материал «Скальпель и пинцет». Помимо чисто практических целей удержание частиц в пинцете представляет интерес благодаря богатой динамике, сопровождающей такую оптическую левитацию. Захваченные микрочастицы испытывают движение центра масс, вращение, либрацию и прецессию. Все эти типы движения, с одной стороны легко детектируются, с другой — очень чувствительны к мельчайшим воздействиям, что делает их хорошими механическими сенсорами, поэтому ученые уделяют этому вопросу большое внимание. Юйле У (Yulie Wu) из Оборонного научно-технического университета Народно-освободительной армии Китая с коллегами решили изучить центробежное движение микрочастицы, пойманной во вращающийся оптический пинцет. Для этого они разместили все элементы оптической схемы на вращающемся столе. Ось вращения была параллельна оси пинцета, но отстояла от нее на некотором расстоянии.  Для создания ловушки физики использовали лазер с длиной волны 1064 нанометра и мощностью 500 милливатт, свет от которого был сфокусирован в пятно диаметром около четырех миллиметров при комнатной температуре и давлении. После фокусировки излучение передавалось на балансный детектор, который измерял смещение частицы. Дополнительно ловушка облучалась светом лампы для получения изображения с помощью камеры. Авторы записали и решили уравнения движения частицы в таких условиях и выяснили, что смещение должно зависеть линейно от массы, расстояния между осями и обратной жесткости ловушки, но квадратично от угловой скорости. Измерив смещение для различных скоростей и направлений вращения для кремниевой сферической частицы диаметров 22 микрона и межосного расстояния, равного 20 миллиметрам, физики убедились в этом, однако извлеченная из аппроксимации жесткость оптической ловушки оказалась несколько завышенной по сравнению с этой же величиной, но полученной из измерения поперечных осцилляций. Исследователи предположили, что ошибка исходит из неточного измерения расстояния между осями. Проведя аналогичные эксперименты с разными значениями этого расстояния, физики увидели, что зависимость от него действительно оказалась нелинейна. Проведя корректировку, авторы убедились, что вычисленная из данных о вращении масса частицы не зависит от частоты в пределах погрешностей и совпадает с величиной, измеренной другим методом. Также ученые изучили то, как изменяется вращение левитирующей микрочастицы в условиях центрифугирования. Для этого они помещали в пинцет эллиптическую микрочастицу и облучали ее лазером с круговой поляризации. В отсутствие вращения стола частица вращалась с частотой 1,3 герца. Добавление вращения стола уменьшало эту частоту по параболическому закону. Авторы объяснили это центробежным смещением частицы в область с более низкой интенсивностью света, и, как следствие, с меньшим моментом силы. Они предполагают, что это может найти применение в сенсорах вращения и гироскопах. Оптические пинцеты позволяют делать с микрочастицами удивительные вещи. Недавно мы рассказывали, как с их помощью пожонглировали глицериновыми каплями и увидели квантование электрического заряда невооруженным глазом. Марат Хамадеев Нашли опечатку? Выделите фрагмент и нажмите Ctrl+Enter. Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности Коэффициент сложности © 2021 N + 1 Интернет-издание   Свидетельство о регистрации СМИ Эл № ФС77-67614 Использование всех текстовых материалов без изменений в некоммерческих целях разрешается со ссылкой на N + 1.                          Все аудиовизуальные произведения являются собственностью своих авторов и правообладателей и используются                          только в образовательных и информационных целях. Если вы являетесь собственником того или иного произведения                          и не согласны с его размещением на нашем сайте, пожалуйста, напишите на kirill@nplus1.ru Материалы, опубликованные в разделе «Блоги», отражают позиции их авторов, которые могут не совпадать с мнением редакции. Сайт может содержать контент, не предназначенный для лиц младше 18 лет.  Политика обработки персональных данных пользователей сайта    Change privacy settings   </t>
+  </si>
+  <si>
+    <t>Медицина,Психология,Нейронауки</t>
+  </si>
+  <si>
+    <t>Зоология</t>
+  </si>
+  <si>
+    <t>Космонавтика,Связь</t>
   </si>
   <si>
     <t>Астрономия</t>
   </si>
   <si>
-    <t>Космонавтика</t>
-  </si>
-  <si>
-    <t>Биология,Нейронауки</t>
-  </si>
-  <si>
-    <t>Медицина,Биология</t>
-  </si>
-  <si>
-    <t>Гаджеты,Медицина</t>
-  </si>
-  <si>
-    <t>Роботы и дроны,Космонавтика</t>
+    <t>Медицина</t>
+  </si>
+  <si>
+    <t>Авиация,Оружие</t>
+  </si>
+  <si>
+    <t>Астрономия,Медицина,Красота</t>
+  </si>
+  <si>
+    <t>Оружие,Роботы и дроны</t>
+  </si>
+  <si>
+    <t>Археология,Антропология</t>
+  </si>
+  <si>
+    <t>Медицина,Коронавирусные хроники</t>
+  </si>
+  <si>
+    <t>Оружие</t>
+  </si>
+  <si>
+    <t>Палеонтология,Зоология</t>
+  </si>
+  <si>
+    <t>Палеонтология</t>
+  </si>
+  <si>
+    <t>Роботы и дроны</t>
+  </si>
+  <si>
+    <t>Реклама,Роботы и дроны</t>
+  </si>
+  <si>
+    <t>Экология и климат</t>
+  </si>
+  <si>
+    <t>Физика,Математика</t>
+  </si>
+  <si>
+    <t>Физика,Химия</t>
   </si>
   <si>
     <t>Физика</t>
   </si>
   <si>
-    <t>Роботы и дроны</t>
-  </si>
-  <si>
-    <t>Биология,Красота</t>
-  </si>
-  <si>
-    <t>Антропология,Археология</t>
-  </si>
-  <si>
-    <t>Физика,Технологии,Физики смогли</t>
-  </si>
-  <si>
-    <t>Лингвистика,IT</t>
-  </si>
-  <si>
-    <t>Экология и климат</t>
-  </si>
-  <si>
-    <t>Астрономия,Геология</t>
-  </si>
-  <si>
-    <t>Биология,Медицина,Генетика</t>
-  </si>
-  <si>
     <t>Физика,Астрономия</t>
   </si>
   <si>
-    <t>Партнерский материал,Психология</t>
-  </si>
-  <si>
-    <t>Биология,Генетика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Российский военно-транспортный самолет Ил-112В совершил первый полет, сообщает Авиационный комплекс имени Ильюшина. Испытания прошли на аэродроме воронежского авиазавода ПАО «ВАСО», командиром экипажа был шеф-пилот ПАО «Ил» Герой России Николай Куимов. Первый полет стал завершением цикла аэродромной отработки, в ходе которой были проведены испытания всех систем, в том числе пробежки по аэродрому. Полет прошел в штатном режиме. В воздухе Ил-112В сопровождал самолет-лаборатория Ил-114ЛЛ. Ил-112В в перспективе должен заменить легкий транспортник Ан-26. Он будет использоваться для перевозки и десантирования легкой техники, грузов и бойцов, его грузоподъемность — около пяти тонн. Самолет сможет развивать скорость до 550 километров в час и совершать полеты на расстояние до 3,4 тысячи километров, а при взлете с грунтовых аэродромов и максимальной загрузкой — до 1,2 тысячи километров. Транспортник сможет взлетать с взлетно-посадочных полос длиной не более 900 метров. Пробег Ил-112В при посадке составит около 600 метров. Ранее Министерство обороны России объявляло о намерении приобрести 62 самолета этого типа до 2020 года, однако в августе 2018 года появилась информация о планах заказать не менее 100 машин. Сергей Кузнецов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Исследователи из команды миссии OSIRIS-REx создали стереопару, благодаря которой можно ощутить в объеме 52-метровую скалу на поверхности астероида Бенну. Подобные изображения помогут в выборе места для забора пробы грунта с астероида, сообщается на сайте миссии. Старт автоматической межпланетной станции OSIRIS-REx состоялся в сентябре 2016 года. Главная цель миссии — изучение 500-метрового околоземного астероида (101955) Бенну, относящегося к спектральному классу В. Станция достигла своей цели 3 декабря 2018 года, после чего начала изучение состава грунта при помощи спектрометров. Ожидается, что в начале июля 2020 года станция сблизится с поверхностью астероида и при помощи специального манипулятора соберет с нее 60 граммов пыли и фрагментов породы. После этого в марте 2021 года космический аппарат отправится к Земле и сбросит капсулу с грунтом в сентябре 2023 года. Фотографии валуна на астероиде, из которых было смонтирована стереопара, были получены 1 и 2 декабря 2018 года бортовой камерой PolyCam во время фазы финального сближения OSIRIS-Rex с астероидом. Размер скалы — 52 метра, а находится она в южном полушарии астероида. Скала уходит вглубь поверхности и может быть выступающей частью одного из фрагментов родительского тела астероида.  Примечательно, что в работе принял участие Брайан Мэй — гитарист рок-группы Queen и астрофизик, который в январе официально вошел в состав команды миссии и будет в дальнейшем создавать подобные изображения для помощи в выборе места забора пробы грунта с Бенну. Вторым ученым, работающим над проектом, стала астрофизик Клаудия Манцони (Claudia Manzoni).  Исследование астероида Бенну может дать важную информацию о формировании и эволюции Солнечной системы, включая и ответ на вопрос о том, какие малые тела могут быть ответственны за поставку аминокислот и воды на молодую Землю. О том, что уже узнали ученые об астероиде, читайте в нашем специальном материале «Небесное тело алмазной формы». Александр Войтюк  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Солнечный зонд «Паркер» начал второе тесное сближение с Солнцем: 4 апреля он пролетит на минимальном на данный момент расстоянии от звезды (около 24 миллионов километров). Это позволит зонду получить новые данные о солнечном ветре и короне Солнца, сообщается на сайте миссии.  Запуск зонда «Паркер» в космос состоялся 13 августа 2018 года. Цель миссии — измерение основных характеристик солнечного ветра (потока высокоэнергетичных заряженных частиц, непрерывно испускаемых Солнцем) и солнечной атмосферы вдоль своей траектории, а также изучение электромагнитных полей вблизи Солнца и процессов, идущих в его внешних слоях. От сильного нагрева и потоков заряженных частиц и излучения от звезды аппарат защищают система охлаждения и теплозащитный щит, под которым укрываются все научные приборы. По плану процесс сближения со звездой продлится семь лет: с каждой новой орбитой (всего их 24) аппарат будет все ближе подходить к светилу. В ноябре 2018 года «Паркер» прошел свой первый перигелий, побив рекорд аппарата Helios-B, который подлетал к звезде на 43,5 миллиона километров в 1976 году. 30 марта 2019 года зонд начал новую фазу сближения со звездой в рамках полета по второй научной орбите вокруг Солнца, а 4 апреля должен пролететь на расстоянии около 24 миллионов километров от звезды, двигаясь со скоростью 343 тысячи километров в час. Собирать научные данные зонд будет в полностью автономном режиме. Фаза сближения окончится 10 ноября, после чего начнется передача данных на Землю.  В декабре 2019 года зонд совершит второй гравитационный маневр вблизи Венеры, а самое тесное сближение с Солнцем запланировано на середину декабря 2024 года, когда «Паркер» окажется на расстоянии около 9–10 солнечных радиусов (около шести миллионов километров) от звезды. Это в семь раз ближе, чем перигелий орбиты Меркурия: еще ни один космический аппарат не подбирался настолько близко к Солнцу. Подробнее о целях этой уникальной миссии и загадках Солнца читайте в нашем материале «Навстречу солнечному ветру». Александр Войтюк </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Французские ученые составили примерную карту функциональной латерализации головного мозга. Изучив данные, полученные в ходе фМРТ-экспериментов, они подразделили почти 600 когнитивных процессов человека на несколько категорий и отнесли их либо к левому, либо к правому полушарию. Статья опубликована в журнале Nature Communications. Если провести линию вдоль человеческого тела, то можно заметить, что две части очень друг на друга похожи. С учетом некоторой асимметрии, которая патологией не считается, человеческое тело — и справа и слева — анатомически достаточно симметрично. Это, однако, совсем не касается функциональных возможностей каждой из этих частей. Среди людей есть правши, левши и амбидекстеры, из-за чего разные конечности (и даже органы чувств) человеческого тела обладают разными возможностями: например, праворукие люди могут писать только правой рукой, а некоторые музыканты-амбидекстеры могут играть на струнных инструментах как правши и как левши. Такое различие называется функциональной латерализацией и присутствует оно также в человеческом мозге: за некоторые функции, в основном, отвечает левое полушарие, а за другие — правое (при этом популярная теория о «творческом» и «логическом» полушариях очень упрощена и, строго говоря, неверна). Систематизировать данные о функциональной латерализации человеческого мозга решили ученые под руководством Мишеля Тьебо де Шоттена (Michel Thiebaut de Schotten) из Парижского университета. Для этого они воспользовались данными, полученными в ходе масштабного метаанализа фМРТ-исследований, посвященных функциональной репрезентации некоторых функций человека.  Всего ученые рассмотрели активность мозга, которая характерна для 590 когнитивных процессов. Доминантное полушарие для каждого процесса ученые определили, высчитав разницу между количеством активных вокселей в правом и левом полушарии: если при уровне значимости p &lt; 0,05 какое-либо из полушарий более активно, чем другое, то оно и считалось доминантным. Следует уточнить, что процессов, которые активируют только одно полушарие абсолютно без какого-либо вмешательства второго, нет: доминантность лишь означает, что какое-то полушарие активируется значительно больше.   Ученые выяснили, что активность мозга, характерную для каждого из рассмотренных процессов, можно примерно разбить на четыре категории: символьная коммуникация (язык, распознавание объектов визуального мира), эмоции, восприятие и действия, а также принятие решений. Так, они выяснили, что символьная коммуникация по большей части активирует левое полушарие, восприятие, действия и эмоции — правое, а принятие решений — лобные доли по большей части также с правой стороны. При этом то, насколько точно тот или иной процесс можно отнести к той или иной категории, отражает и то, насколько он латерализован: к примеру, способность к языку, для которого символьная репрезентация является ключевым, будет латерализован в левой части больше, чем анализ объектов визуального мира, который также относится и к категории восприятия и действия. Также ученые выяснили, что те участки, которые вовлечены в наиболее латерализованные функции (например, центра Брока — один из ключевых языковых центров мозга, находящийся в левом полушарии), в меньшей степени связаны со своими анатомическими аналогами в другом полушарии. На основании полученных данных ученые сделали несколько важных выводов. Во-первых, в процессе развития человека и его мозга наиболее затратные процессы оказались прерогативой того или иного полушария, оставляя другое полушарие вовлеченным в меньшей степени. С точки зрения эволюции это очевидное преимущество: мозг человека увеличивался в размерах, и латерализация определенных функций обеспечивала большую эффективность, сокращая возможность того, что между двумя полушариями будут происходить какие-либо задержки связи. Во-вторых, у такой строгой латерализации есть и важное клиническое значение. Повреждения некоторых отделов мозга вследствие инсульта или травмы могут привести к потере некоторых функций, а строгая вовлеченность определенного полушария при этом может быть как плюсом, так и минусом. С одной стороны, вероятность потерять возможность что-либо делать сокращается (например, большинство афазий связаны как раз с повреждением левого полушария), но с другой стороны, из-за сниженной связи сильно латерализованного отдела с его аналогом в другом полушарии, сокращает и вероятность того, что мозг «переучится» и функция восстановится. Функциональная латерализация может проявляться и анатомически. Например, пару лет назад ученые выяснили, что челюсть хищных рыб цихлид перекошена в ту или иную сторону в зависимости от того, с какой стороны они предпочитают подбираться к жертве. Елизавета Ивтушок </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Французские исследователи выяснили, что собаки могут определять характерный для эпилептического припадка запах, причем независимо от типа эпилепсии и отдельного пациента. Для этого ученые обучили собак реагировать на пот и дыхание одного человека при приступе эпилепсии, а затем проверили эффективность обучения и на запахах других людей. Статья опубликована в журнале Scientific Reports. Состав жидкостей человеческого организма (мочи, пота и слюны) может меняться при наличии некоторых заболеваний, из-за чего может измениться и их запах. Некоторые заболевания по запаху могут распознавать собаки, известные своим эффективным обонянием, хотя существуют и работы, это опровергающие.  То, сможет ли собака распознать заболевание, однако, зависит от того, насколько хорошо ее удалось обучить: в прошлом году ученым, к примеру, удалось научить собак определять характерный для малярии запах по носкам. Другие исследования показывают, что собак также можно научить и предсказывать появление некоторых состояний: например, падения уровня сахара в крови и диабетиков или даже приближающейся мигрени. В новом исследовании ученые под руководством Амели Катала (Amélie Catala) из Университета Ренн (Франция) решили проверить, можно ли обучить собак-поводырей определять по запаху эпилептический припадок. В их эксперименте приняли участие пять собак, которых обучают определять различные заболевания по запаху и реагировать на них. Изначально всех собак обучили определять запах пота и дыхания человека в эпилептическом припадке: для этого использовали биоматериалы одного пациента. Во время тестирования, однако, ученые использовали запахи пота и дыхания пяти других пациентов с разными видами эпилепсии. Во время теста собакам на выбор давали семь канистр с запахом каждого из пяти пациентов по отдельности: в канистрах были запахи, соответствующие дыханию и поту пациентов во время эпилептического припадка, физической активности и запахи, взятые в определенный случайный день в спокойном состоянии. Собакам необходимо было найти нужный запах и остановиться напротив него, после чего в течение некоторого времени открывалась специальная миска с угощением.  Ученые выяснили, что собаки значительно больше времени проводили около образцов, которые соответствовали запаху во время эпилептического припадка. При этом такая реакция собак не зависела от типа эпилепсии участников, что означает, что все типы заболевания объединяет какой-то определенный специфический запах.  Авторы работы пришли к выводу, что реакция собак на характерные для эпилепсии запахи может в будущем пригодиться для исследований, которые помогут выявить определенные маркеры приближения припадка. Это, в свою очередь, будет полезно и для собак, которым необходимо следить за больными: пока что этот эксперимент показывает, что определить наличие припадка собаки могут только тогда, когда он уже начался. Выявлять запахи, которые предсказывают наличие заболевания еще до характерных поражений, уже умеют для болезни Альцгеймера: три года назад ученые с помощью эксперимента на животных показали, что пахучие биомаркеры этого заболевания содержатся в моче. Елизавета Ивтушок </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Американская компания electRx представила специальную одноразовую капсулу для отслеживания приема лекарств. Капсула пустая (в нее можно положить любое лекарство) и состоит из желатиновой оболочки и оснащена датчиком, который реагирует на желудочный сок и посылает сигнал к специальному считывателю, который носится на груди. Подробно о капсуле можно прочитать на сайте компании electRx, а краткую информацию приводит издание New Atlas. Разработки, которые позволяют облегчить мониторинг приема обязательных медикаментов, существуют уже довольно давно. Среди них можно выделить специальные датчики, которые реагируют на желудочный сок и сообщают о том, что лекарство принято. Больше года назад в США, к примеру, одобрили выпуск и продажу таблеток с арипипразолом, который применяется для лечения некоторых психических расстройств, включая шизофрению и биполярное расстройство. В каждую таблетку встроен специальный сенсор, который, реагируя на желудочный сок, посылает к приемнику, закрепляемому на груди пациента, сигнал о том, что лекарство принято. Затем информацию об этом могут получить врачи и родственники пациента. Несмотря на эффективность, сенсоры, поступающие в организм вместе с медикаментами, одноразовые, и выводятся при естественном процессе пищеварения, поэтому содержаться они должны в каждой таблетке, а препарат с арипипразолом — пока что единственное одобренное лекарство с датчиком. Инженеры из electRx решили пойти дальше и разработали пустую капсулу с датчиком. Она работает точно так же, как и все существующие и разрабатываемые сейчас подобные системы мониторинга лекарств, но имеет важное преимущество: желатиновая капсула раскрывается, и в нее можно положить любое лекарство. Информация о приеме затем считывается с помощью специального приемника, который пациенту необходимо носить на груди (его можно заряжать с помощью беспроводной зарядки). Вся информация о приеме лекарств поступает в приложение, через которое сам пациент и его лечащий врач могут отслеживать динамику приема препарата. В данный момент разработка ожидает разрешения на производство от Управления по санитарному надзору за качеством пищевых продуктов и медикаментов США (FDA). Пока что капсула используется в исследовании, которое electRx проводит совместно с больницей Бригхэм Гарвардского университета и организацией Fenway Health, которая занимается вопросами здоровья представителей ЛГБТ-сообщества. Участники исследования и их лечащие врачи с помощью разработанной системы отслеживают прием антиретровирусного препарата «Трувада», который используется для профилактики ВИЧ-инфекции. Еще один вид умных лекарств — капсулы, состоящие из биосовместимых и биоразлагаемых материалов, которые в среде желудка разрушаются с разной скоростью, высвобождая лекарства в определенное время. Капсулу с подобным «таймером» для доставки лекарства в сентябре 2017 года показали в MIT. Елизавета Ивтушок </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Специалисты NASA провели первый испытательный полет беспилотного аппарата Mars Helicopter, который разработан для миссии «Марс-2020». Информация об испытаниях опубликована на сайте Лаборатории реактивного движения NASA. Беспилотный вертолет Mars Helicopter отправится на Марс в июле 2020 года вместе с новым ровером в рамках миссии «Марс-2020». Его задача заключается в демонстрации работоспособности и эффективности беспилотных летательных аппаратов в рамках исследовательских миссий к другим планетам Солнечной системы. Масса дрона составляет 1,8 килограмма, он выполнен по соосной вертолетной схеме с двумя контрвращающимися несущими винтами с широкими лопастями. Энергию для полетов и обогрева аппарат будут поставлять литий-ионные аккумуляторные батареи, подзаряжающиеся при помощи солнечных панелей.  Предполагается, что в течение месяца после прибытия на Марс Mars Helicopter вначале совершит 30-секундный пробный подъем на три метра, после чего совершит как минимум пять дальних полетов, длительность которых будет достигать 90 секунд, а высота полета составит несколько сотен метров. Испытания на Земле проводились в вакуумной камере шириной 7,62 метра. Чтобы смоделировать условия Красной планеты из камеры с дроном откачали воздух, заменив его на углекислый газ, являющийся основным компонентом марсианской атмосферы. Марсианская гравитация моделировалась при помощи системы гравитационной разгрузки, прикрепленной к верхней части вертолета — во время полета система немного тянула аппарат вверх. В общей сложности за два дня испытаний дрон совершил два успешных тестовых подъема на высоту в пять сантиметров.  Александр Войтюк </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Физики опубликовали детальное описание нового эксперимента по поиску сверхлегких частиц темной материи ABRACADABRA и подвели итоги работы прототипа. Полноценная установка будет чувствительна к сигналу частиц с массами от 10-12 до 10-6 электронвольт, а прототип работал с диапазоном от 0,31 до 8,3 наноэлектронвольт. Такими массами могут обладать несколько кандидатов на роль частиц темной материи, в том числе аксионы. Искомых событий в рамках наблюдений с прототипом найдено не было. Результаты приняты к публикации в журнале Physical Review Letters, препринт статьи доступен на сервере arXiv.org. Некоторые явления в астрофизике и космологии не поддаются теоретическому описанию с учетом только известных видов материи и взаимодействий. К таким феноменам относятся кривые вращения галактик, динамическая устойчивость их скоплений, гравитационное линзирование на космологических расстояниях, рост возмущений в ранней Вселенной, особенности формы спектра мощности реликтового излучения и некоторые другие. Наиболее распространенным в современной науке разрешением данного затруднения является введение нового компонента вещества — темной материи. Она не взаимодействует посредством электромагнетизма, поэтому не может быть зафиксирована при помощи обычных телескопов, но ее гравитационное влияние позволяет привести теоретические оценки в соответствие с наблюдениями. На данный момент физики не смогли получить прямых указаний на существование темной материи, несмотря на несколько десятилетий активных поисков. Ситуация затрудняется тем, что астрономические наблюдения не позволяют точно определить свойства частиц темной материи, из-за чего существует огромное разнообразие различных моделей. До недавнего времени наибольшей популярностью пользовалась модель вимпов (WIMPs, Weakly interacting massive particles — слабовзаимодействующие массивные частицы). По массе эти частицы должны быть в десятки раз тяжелее протона, однако ни опыты по прямой регистрации, ни эксперименты на коллайдерах не нашли искомых сигналов. Из-за этого многие ученые начали уделять активное внимание альтернативным моделям. Среди альтернативных вимпам идей есть класс теорий, в рамках которых темная материя состоит из очень легких частиц. В частности, к этому типу относится «размытая» темная материя, массивный темный фотон и аксионы. Последние частицы были предложены около 40 лет назад как потенциальное решение сильной CP-проблемы, которая заключается в том, что сильное взаимодействием не нарушает комбинированную четность, то есть симметрично относительно замен всех зарядов и направлений. Это обстоятельство требует объяснения, так как современная теория сильного взаимодействия — квантовая хромодинамика — допускает нарушение данной симметрии, однако в экспериментах этого зафиксировано не было. В результате была сформулирована гипотеза Печчеи—Квинн, которая предполагала наличие нового квантового поля, обращающего в нуль ту часть лагранжиана КХД, которая способна приводить к нарушению CP-симметрии. Соответствующий квант поля был назван аксионом. К идее аксионов вновь вернулись в контексте темной материи, так как они хорошо вписывались в модель темной материи из легких частиц. В отличие от многих других вариантов, у аксионов должно быть специфическое взаимодействие с электромагнитным полем в определенных условиях, так как аксион и фотон с точки зрения теории оказываются связаны. В частности, в сильных полях одни должны превращаться в другие. Именно это свойство является концептуальной основой экспериментов, называемых «свет сквозь стену»: мощный поток света направляют в магнитное поле перед стенкой, фотоны поглощаются, а аксионы проходят сквозь нее, после чего часть из них превращается обратно в фотоны, которые регистрирует приемник. В основе эксперимента ABRACADABRA (A Broadband/Resonant Approach to Cosmic Axion Detection with an Amplifying B-field Ring Apparatus — широкополосный резонансный подход к поиску космических аксионов с усиливающей сигнал кольцевой установкой, создающей магнитное поле) лежит эффект порождения переменного магнитного поля при попадании аксиона в постоянное поле. В таком случае должно создаваться поле, аналогичное генерируемому переменным током, чей вектор плотности параллелен внешнему полю. Детектором в данном случае является СКВИД-магнитометр, помещенный в центр тороидального магнита. Так как масса аксионов невелика, то и появляющееся поле будет слабое — ученые создавали установку с надеждой зафиксировать колебания на уровне 20 аттотесла, то есть примерно в 1012 раз слабее магнитного поля Земли. В то время как большинство экспериментом по поиску аксионов искали частицы с массами от 10 до 100 микроэлектровольт, ABRACADABRA чувствительна к еще более легким частицам. Полноценная установка должна изучить весь диапазон от 10-12 до 10-6 электронвольт, но прототип из-за малой величины и недостаточной экранировки от внешних шумов работал в диапазоне от 3,1×10-10 до 8,3×10−9 эВ. Регистраций зафиксировано не было, что позволило установить ограничения на степень спаривания аксиона с фотоном. Данные результаты получены за месяц работы и уже почти достигают по точности оценки намного более крупного эксперимента CAST. Авторы планируют развить подход и в ближайшем будущем начать собирать данные с полноценной установкой, которая позволит искать аксионы в большом диапазоне малых масс. Затруднения с моделью вимпов породили существенный интерес к альтернативным идеям и их экспериментальной проверке. Так легкую темную материю недавно предложили ловить сверхпроводящими нанопроводами. О важности самого понятия о темной материи мы говорили с астрофизиком Андреем Дорошкевичем в материале «Невидимый цемент Вселенной». </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В Новой Зеландии приступил к работе первый коммерческий робот, засасывающий яблоки. Робот разработан компанией Abundant Robotics и представляет собой небольшой движущийся трактор, на котором есть манипулятор, собирающий яблоки с помощью насоса. Он ориентируется с помощью лидара, а определить созревшие яблоки ему помогает система компьютерного зрения. Подробно о разработке можно почитать на сайте компании, краткое резюме приводит MIT Technology Review. Развитие сельского хозяйства требует роста использования человеческих ресурсов, что не всегда возможно или оптимально. Именно поэтому сейчас все чаще используются автоматизированные системы. Например, есть робот, который самостоятельно находит сорняки и поливает их гербицидами, а Walmart недавно запатентовала точечное опыление и обработку пестицидами с помощью дрона. При этом коммерчески доступных сельскохозяйственных роботов, которые работают на реальных фермах, не так много. Робот компании Abundant Robotics с начала марта используется на яблочных полях новозеландской компании T&amp;G Global. Лидар помогает ему самостоятельно перемещаться по рядам между посевами. Собирает робот яблоки с помощью специального насоса — достаточно сильного, чтобы сорвать яблоко с ветки, не касаясь его (как пылесос). При этом робот не ломает ветки и никак иначе не вредит растениям.  Робот также самостоятельно может определить зрелость яблока: для этого он оснащен системой компьютерного зрения. При этом T&amp;G Global уточняет, что использование робота не приведет к сокращению штата: пока что машина будет работать только ночью, собирая яблоки в труднодоступных местах. В сентябре 2017 года роботам также удалось засеять гектар и затем собрать с него урожай — причем практически без помощи человека. Об этом вы можете почитать здесь. Елизавета Ивтушок </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Американские ученые сняли на видео несколько встреч пустынных кенгуровых прыгунов и гремучих змей — на высокоскоростной съемке видно, как прыгуны ловко уклоняются от змей и бьют их сильными задними ногами. Две статьи ученых по этому поводу вышли в журналах Functional Ecology и Biological Journal of the Linnean Society, а видео собраны на YouTube-канале Ninja Rat. Пустынные кенгуровые прыгуны Dipodomys deserti — относительно крупные (длиной около 30 сантиметров и массой около 90 грамм) представители рода кенгуровых прыгунов, живущие в пустынных районах юго-запада США. Они, помимо прочего, известны тем, что при виде змей, крайне опасных для них хищников, не прячутся, а ведут себя достаточно агрессивно: топочут, подходят близко к змее и поднимают в воздух песок — так они дают змее понять, что видят ее, а змеи реже нападают на жертв, которые знают об их присутствии. Прыгуны настолько часто выходят невредимыми из столкновений с хищниками, что ученые даже на всякий случай проверяли их на устойчивость к яду гремучих змей — потому что при обычной съемке казалось, что змея все-таки кусает животное. Тимоти Хайем (Timothy Higham) из Калифорнийского университета в Риверсайде и его группа, отследив рогатых гремучников Crotalus cerastes в аризонской пустыне, определили места, где те чаще всего охотятся на пустынных кенгуровых прыгунов, и установили в этих местах камеры для скоростной съемки. Таким образом, им удалось получить, по их словам, первые детальные кадры маневров, которые прыгуны используют для защиты от змей.  В частности, ученые оценили скорость реакции змей и прыгунов: один бросок змеи от полной неподвижности до места, где находится прыгун, занимал менее 100 миллисекунд (для сравнения, человек обычно моргает 150 миллисекунд). Но прыгуны действуют еще быстрее — их реакция занимает около 70 миллисекунд, а многие из них подпрыгивали всего через 40 миллисекунд после того, как змея начинала двигаться. «Быстрые прыгуны часто могли полностью отскочить от змеи так, что та кусала лишь воздух, а сам прыгун поднимался на 7-8 длин своего тела в воздух. Но самое удивительное, что нам удалось выяснить, — то, что те прыгуны, кто не успевал отреагировать достаточно быстро, могли воспользоваться еще одним трюком: они часто избегали ядовитого укуса, переворачиваясь в воздухе и используя свои мощные задние ноги, чтобы отбросить змею, как ниндзя», — сказал соавтор работы Рулон Кларк (Rulon Clark), чьи слова приводит пресс-служба университета. Рапидные камеры могут применяться и для съемки более быстрых событий. Так, самая скорострельная камера в мире делает снимки со скоростью, эквивалентной пяти триллионам изображений в секунду. Это позволяет запечатлеть события длительностью около 0,2 триллионных доли секунды — например, химические реакции или движение света на коротком отрезке пути. Ольга Добровидова </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Неандертальцы, жившие в период межледниковья 128–117 тысяч лет назад на юге Европы, возможно, были каннибалами по необходимости. Так считают французские ученые, опубликовавшие результаты исследования в Journal of Archaeological Science. По их мнению, изменение климата привело к уменьшению количества крупных и средних животных в регионе, где жили неандертальцы, поэтому им пришлось начать поедать друг друга, чтобы выжить. За последние 400 тысяч лет Микулинское (Эемское) межледниковье было самым теплым. Оно продолжалось больше 10 тысяч лет, 128–117 тысяч лет назад. Средняя температура была примерно на 1–2 градуса Цельсия выше, а уровнь моря на 6-9 метров выше, чем сейчас. Как в это время менялись флора и фауна в той или иной области, и как переносили теплый климат жившие в то время в Европе неандертальцы, мы знаем плохо. На сегодняшний день в Западной Европе известно мало мест с точно датированными стратиграфическими слоями, где сохранились бы и останки животных и растений, и следы присутствия древних людей, живших во время Микулинского межледниковья. Одно из таких мест — пещера Мула-Герси на юго-востоке Франции. Здесь есть стратиграфические слои, образовавшиеся во время Микулинского межледниковья, а в них сохранились животные и растительные остатки, каменные орудия и остатки жженого угля. В начале 1990-х годов в Мула-Герси, в слоях, соответствующих Микулинскому межледниковью, нашли останки шести неандертальцев, двух взрослых, двух подростков и двоих детей. По всей видимости, они стали жертвой каннибаллов: на костях ученые обнаружили отметины, сделанные каменными орудиями, тела древних людей расчленили, а на костях пальцев сохранились отметки человеческих зубов.   Большинство исследователей, изучавших каннибализм древних людей, сходятся на том, что чаще это была не ритуальная практика, а возможность пополнить запасы белка при отсутствии другой животной пищи. Археологи Альбан Дефлёр (Alban R. Defleur) и Эммануэль Дескло (Emmanuel Desclaux) из Национального центра научных исследований Франции предположили, что южно-европейские неандертальцы стали каннибалами вынужденно. Из-за изменения климата в регионе условия жизни стали тяжелее, крупная дичь исчезла и древним людям пришлось есть друг друга.   Авторы еще раз проанализировали останки неандертальцев, их каменных орудий, животных и растений, найденных  в Мула-Герси в слоях, сформировавшихся во время последнего межледниковья 128–117 тысяч лет назад, а также до и после него, и сравнили свои данные с другими публикациями.   Ученые подтвердили, что климат в районе Мула-Герси в период Микулинского межледниковья был теплее, чем сейчас. Изменение климата с холодного и засушливого на теплый и влажный произошло довольно быстро. По мере того, как менялся климат, изменилась и фауна, и ландшафты. В слоях, соответствующих ледниковым периодам ученые находили кости шерстистых мамонтов, северных оленей и леммингов. Во время межледниковья их сменили лани, носороги и медведи, но крупных и средних животных, судя по сохранившимся в пещере останкам, стало гораздо меньше. Зато появляется много мелких лесных грызунов, черепахи и змеи. Судя по растительным остаткам, вместо лугов появились леса, охотиться в которых было труднее. Анализ зубной эмали найденных в пещере неандертальцев показал, что они они страдали от недоедания и болезней. Хотя у них был разнообразный растительный рацион и периодически они ели мясо, по-видимому, им часто приходилось голодать и есть растения, которые росли в районе пещеры. В таких условиях неудивительно, что они восполняли недостаток белка за счет сородичей. По-видимому, они поедали умерших членов группы или убивали более слабых. В Мула-Герси четверо из шестерых неандертальцев — дети и подростки моложе 15-16, двое остальных — пожилой мужчина и человек хрупкого телосложения, возможно, женщина. По словам авторов исследования, у них впервые появились доказательства,что неандертальцы переживали тяжелые времена. Они делали все, для того, чтобы выжить и их действия не отличались от того, что в похожей ситуации сделали бы люди.   Ранее ученые показали, что неандертальцы были довольно практичными каннибалами: они использовали кости съеденных соплеменников, как орудия труда.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Китайские физики построили систему распознавания лиц, основанную на призрачной визуализации с использованием запутанных фотонов. Работоспособность предложенного способа физики проверили на лицах пятерых сотрудников своей лаборатории. Статья опубликована в Physical Review Letters, кратко о ней сообщает Physics. Распознавание лица позволяет довольно точно установить личность человека, а потому играет важную роль в социальных взаимодействиях. В частности, с помощью такой системы можно ловить преступников или разблокировать смартфон. Как правило, системы распознавания лица анализирует фотографию и выделяет на ней наиболее важные детали, а потом ищет похожие снимки в базе данных. К сожалению, несмотря на быстрый прогресс в этой области, пока еще автоматическое распознавание лиц далеко от совершенства. В то же время, существует альтернативный подход к распознаванию картинок, который не требует сложного машинного анализа и способен одновременно анализировать большие объемы данных. В этом подходе пучок фотонов разделяют на два скоррелированных пучка, один из которых отражается от объекта и создает его изображение (сигнальный пучок), а второй пропускается через маску-фильтр (эталонный пучок). Если изображение совпадает с маской, то интенсивности обоих пучков окажутся скоррелированы; следовательно, по их интерференционной картине можно оценить степень совпадения изображений и быстро распознать очертание объекта. Впервые этот метод предложил еще в 60-х годах прошлого века американский физик Вандер Люгт (Vander Lugt). К сожалению, точность этого метода была неудовлетворительной. Определенного прогресса удалось добиться только в прошлом десятилетии, когда была открыта так называемая призрачная визуализация, основанная на запутанных фотонах. К сожалению, даже в этом случае ученым удавалось распознавать только простые объекты — например, определить число лучей звезды, склеенной из нескольких палочек. Группа физиков под руководством Лисян Чэня (Lixiang Chen) существенно улучшила этот метод и применила его для распознавания лиц. Для этого ученые немного изменили схему, по которой создаются запутанные фотоны и маска объекта. В отличие от предыдущих работ, исследователи работали с лазерными пучками, имеющими не гауссов, а более сложный пространственный профиль. Квантовое состояние пары запутанных фотонов ученые разложили в сумму состояний с фиксированным орбитальным и радиальным квантовым числом. Для этого физики использовали моды Лагерра—Гаусса, которые являются собственными функциями оператора преобразования Фурье. Затем ученые проследили за эволюцией квантового состояния сигнального фотона, проходящего через объект, и сопоставили объекту некоторый оператор. Наконец, с помощью алгебраических преобразований ученые восстановили по этому оператору фурье-спектр эталонного лазерного пучка, который описывает маску объекта. На практике физики получали нужный спектр с помощью пространственного модулятора света.    В сентябре прошлого года американские физики впервые реализовали метод призрачной визуализации с помощью пучка запутанных электронов, а не фотонов. Это позволило ученым сделать микрофотографию предмета с помощью одного-единственного пикселя. В настоящее время системы распознавания лиц активно внедряются в повседневную жизнь. Например, в США такие системы проверяют билеты на концертах, а в Китае ищут преступников и контролируют внимательность школьников. В апреле прошлого года систему распознавания лиц запустили и в московском метро, причем в течение первого месяца она распознала более 40 преступников, которые находились в федеральном розыске и впоследствии были задержаны. А в прошлом месяце Департамент информационных технологий мэрии Москвы сообщил о разработке очков дополненной реальности с технологией распознавания лиц, предназначенных для московской полиции. Дмитрий Трунин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Американские психологи подсчитали объем информации, который к 18 годам выучивает англоговорящий человек о своем родном языке. По их подсчетам, максимальный объем таких данных составляет около 12,5 миллиона бит: всю информацию о языке, таким образом, почти целиком можно уместить на стандартной трехдюймовой дискете. При этом бóльшая часть хранимой информации посвящена лексической семантике. Статья опубликована в журнале Royal Society Open Science. Самый простой способ записи и хранения информации — двоичный код: в таком виде информация хранится на цифровых носителях, а также в виде набора нолей и единиц можно представить и ту информацию об окружающем мире, которую человек получает и хранит у себя в голове. При этом устройство двоичного кода не дает компактно хранить всю информацию об объекте. Представим, к примеру, черничный пирог. Всю информацию и черничном пироге — то, как он выглядит, какой он на вкус, как называется ягода, которая входит в его состав, какого она цвета и так далее — представить в виде одного бита невозможно. Вместо этого ее приходится хранить в виде своеобразных ответов на разные вопросы. Например, что касается того же пирога, ответ на вопрос «Это пирог?» будет «Да», на вопрос «Он абрикосовый?» ответом будет «Нет», поэтому этот кластер информации о пироге может выглядеть как 1 0, то есть занимать два бита. Разумеется, в мире есть и другие объекты помимо пирогов, и по разным подсчетам человеческая память способна хранить от 109 до 1020 бит информации, а на каждый объект приходится от 10 до 14 битов. В новой работе Фрэнсис Моллика (Francis Mollica) из Рочестерского университета и Стивен Пьянтадоси (Steven Piantadosi) из Калифорнийского института в Беркли решили подсчитать, какой объем занимает языковая информация, которую получает человек с рождения до наступления совершеннолетия. Ученые сосредоточились на англоговорящих людях, а информацию о языке разбили на несколько категорий: фонемы, словоформы, лексическая семантика, частотность слов и синтаксис. Для расчета объема информации в каждой категории ученые воспользовались теорией сокращения информационной энтропии, в соответствии с которой для каждой репрезентации R есть некоторое количество неопределенности H. То есть любой объект, который можно познать, сначала представляется в виде неопределенности H(R). При этом есть некоторая информация D: она относится к R и может сократить информационную энтропию. Далее информацию о каком-то объекте можно перевести в биты с помощью разницы в неопределенности до обучения H(R) и неопределенности после обучения H(R|D). В качестве трех основных параметров получения информации о фонемах ученые приняли время начала озвончения в миллисекундах (количественный параметр, который, к примеру, помогает разграничить [п] и [б]), частота фрикации в барках (артикуляционные особенности, помогающие разграничить фрикативные согласные, например, отличить [с] и [з]) и частоты формант гласных звуков в мелах. На основе известных границ длительности озвончения и воспринимаемых человеком частот, ученые выяснили, что время для начала озвончения звонких и глухих (для глухих — отрицательное число, так как озвончения нет) согласных нужно 5 и 3 бита соответственно, для частоты фрикации — 3 бита, а для определения частоты формант гласных — 15 бит. Учитывая количество фонем в английском языке (50) и в зависимости от того, сколько бит информации каждая из них требует, всю фонетическую систему языка можно, по оценкам ученых, уместить в 375–1500 битах. Вторая категория — словоформы — в понимании ученых содержит только оболочку слова, то есть набор фонем, которые нужны, чтобы это слово произнести или распознать при прослушивании. Они ограничили средний объем лексикона взрослого англоговорящего человека 40 тысячью словами. Воспользовавшись базой лингвистических данных CELEX, ученые выяснили среднее количество фонов (фонетических единиц речи) для каждого слова, а затем рассчитали на основе этого, сколько битов необходимо для одного слова. Получилось, по разным моделям, 5, 10 и 16, что соответствует объему от 200 до 640 тысяч бит для хранения словоформ. Для того, чтобы рассчитать объем информации, относящейся к лексической семантике слов, ученые представили все значения всех слов в многомерном векторном пространстве R. В нем есть определенное слово — например, слово «яблоко», — которое попадает не только в пространство R, но и в пространство r чуть поменьше. При этом R содержит r, но неизвестно, где именно это r находится. И, хотя R содержит информацию о фруктах, овощах, коровах, глобальном потеплении и всех других объектах, нужно именно пространство r — потому что в нем содержится только релевантная информация: для сокращения информационной энтропии, поэтому, необходимо сократить R до r.  Чтобы это оценить, ученые проанализировали векторное представления 10 тысяч существительных в WordNet. В качестве r для каждого слова взяли расстояние до ближайших точек в пространстве, а в качестве R — расстояние до самых дальних. По расчетам ученых, процесс сокращения R до r, то есть нахождение того самого меньшего пространства для каждого слова может занимать до 2 бит. При этом семантическое пространство не одномерно, а многомерно, и количество измерений в нем, по разным оценкам, варьируется от 100 до 500. Объем информации о лексической семантике, таким образом, по подсчетам ученых занимает от 500 тысяч до 40 миллионов бит, учитывая лексикон в 40 тысяч слов. Для оценки объема памяти, необходимого для хранения информации о частотности слов, ученые воспользовались помощью 251 добровольца, каждого из которых попросили сравнить два слова по частотности: то есть решить, какое из них в речи встречается чаще всего. Они выяснили, что точность участников составляет около 76,6 процента — то есть где-то в трех случаях из четырех они правильно угадывали, насколько слово частотное. Смоделировав точность участников при выполнении задания в виде того, сколько частот всего они могут определить (оценив недостающие 23,4 процента как вероятность того, что два слова попадут в одну категорию), они выяснили, что люди примерно распределяют частотность по четырем категориям. Для определения частоты слова, таким образом, необходимо где-то от 1 до 3 бит информации: то есть для всех слов — от 40 до 120 тысяч бит. Наконец, для синтаксиса ученые решили подсчитать количество предложений с уникальной синтаксической структурой вне контекста и необходимый объем памяти, который позволяет отличить одну структуру от другой. У ученых вышло 134, 697 и 1394 бита в зависимости от того, сколько уникальных синтаксических конструкций может распознать человек. Авторы, таким образом, подсчитали, что вся информация, которую англоговорящий человек получает о своем языке с раннего детства до 18 лет, можно поместить в достаточно небольшом объеме памяти: от 794 тысяч до 40 миллионов бит. При этом средний показатель (best guess по всем категориям) равняется 12,48 миллиона бит или около 1,5 мегабайта. При этом ученые уточняют, что их расчеты очень грубые и примерные, и скорее годятся для какого-либо теоретического обоснования, а не для применения в информационных технологиях. К примеру, их расчеты показали, что самым затратным по занимаемому объему памяти является лексическая семантика, а вот синтаксис, наоборот, места занимает очень мало.  Кстати о носителях информации: в январе была представлнена первая серийная SD-карта, на которую можно поместить терабайт данных. Специально к этому событию мы подготовили материал «Терабайт — это много или мало?» о том, как менялись со временем цифровые носители. Елизавета Ивтушок </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Площадь ущерба для акватории вокруг китайского искусственного острова на коралловом рифе Мисчиф в Южно-Китайском море оказалась в 200 с лишним раз больше площади самого острова — 1200 квадратных километров против 5,58 квадратных километра, подсчитали авторы статьи в журнале Scientific Reports. Чтобы укрепить свое влияние в регионе, Китай активно создает в Южно-Китайском море искусственные острова, где, как правило, размещает военные объекты. По оценкам, которые приводятся в статье, в 2013–2017 годах КНР намыла примерно 12,95 квадратных километра новой территории (еще полкилометра намыл Вьетнам, а Тайвань добавил к своей территории три гектара). Напряженный политический климат в этом регионе не позволяет проводить оценки экологической обстановки на месте, рядом с новыми островами, но с помощью спутниковых данных можно дистанционно исследовать эти районы на предмет экологического ущерба.  Леланд Смит (Leland Smith) из Джорджтаунского университета и его коллеги изучали риф Мисчиф в восточной части Южно-Китайского моря, где Китай намыл остров площадью около 5,58 квадратных километра и уже построил взлетно-посадочную полосу и здания. Даты начала и окончания намыва острова неизвестны, поэтому ученые опирались на архив спутниковых снимков Landsat, Aqua и Sentinel и изображений, собранных американским Центром стратегических и международных исследований. Судя по этим изображениям, в 2014 году у рифа еще не было надводной части, в 2015 после начала намыва она появилась, а строения на новом острове возникли в 2016 году. Помимо подсчетов земснарядов и оценки масштаба самих операций в 2015 году, ученые оценивали шлейф поднятых донных осадков от намыва острова и состояние воды вокруг рифа по ее спектральным характеристикам. В частности, они выяснили, что максимальная площадь шлейфа в июне 2015 года составила 262 квадратных километра. Общая площадь моря, затронутая операцией по созданию острова, составила, по их оценкам, примерно 1200 квадратных километров, хотя в пределах этой площади воздействие было неравномерным. Кроме того, изначально работы по намыву острова могли стимулировать рост фитопланктона (хотя авторы относятся к этим данным с осторожностью), но после окончания работ состояние экосистем существенно ухудшилось, причем в радиусе по крайней мере двух километров от внешней границы рифа этот эффект сохранялся с 2016 по 2018 год, (за этот период были доступны). Авторы статьи отмечают, что геополитическое значение экологического ущерба от создания новых островов может быть велико, так как на биоресурсы Южно-Китайского моря претендуют Китай, Тайвань, Вьетнам, Малайзия, Индонезия, Бруней и Филиппины. Разрушение коралловых рифов при намыве островов может приводить к гибели не только локальных экосистем, но и видов рыб, представляющих коммерческий интерес. Ученые считают, что их работа как первая попытка количественно оценить ущерб от этого процесса может стать основой для научной дискуссии о последствиях намыва островов в регионе. Где-то острова появляются, а где-то — исчезают: прошлой осенью ураган «Валака» полностью смыл один из островов Гавайского архипелага, на котором жили редкие тюлени и черепахи. Ольга Добровидова </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выдвинута новая теория образования темных полос на склонах марсианских кратеров, согласно которой ключевую роль в их появлении играет поднимающаяся с больших глубин соленая вода. Эта идея также предполагает наличие обширных водоносных горизонтов и активной системы подземных вод под слоем вечной мерзлоты в коре планеты. Если данная гипотеза верна, то на Красной планете находятся значительные запасы труднодоступной воды. Результаты опубликованы в журнале Nature Geoscience.  Вода не может долгое время находиться на поверхности Марса, так как сочетание низкого давления атмосферы и невысоких температур не допускают наличия равновесной жидкой фазы, как видно из фазовой диаграммы воды. Тем не менее, в виде льда вода может сохраняться длительное время. Грунт Красной планеты даже весьма близко к поверхности может содержать заметные количества льда, который иногда тает и проводит к кратковременному появлению жидкой воды. Подробное выяснение деталей появления жидкой воды важно не только в контексте геологии и эволюции планеты, но и для снабжения потенциальных колонизаторов. Поверхность Марса не остается неизменной — большое количество мелкомасштабных процессов изменяют ее. Одним из вызывающих наибольший интерес у ученых процессов является образование темных полос на склонах кратеров (Recurring Slope Lineae, RSL). Обычно они возникают в начале местного лета, увеличиваются в размере в течение теплого сезона, а потом исчезают, сливаясь с окружающим грунтом, но вновь появляются на следующий год. Существует масса гипотез о механизмах их появления, такие как таяние снегов, сухие осыпи, приповерхностные грунтовые воды и расплывание за счет поглощения атмосферной влаги. Кроме сухих осыпей все эти идеи предполагают наличие приповерхностных вод или паров воды, что делает изучение потенциально подходящих для поддержания жизни условий возможным с использованием имеющихся технологий. Аботалиб Заки Аботалиб (Abotalib Zaki Abotalib) из Университета Южной Калифорнии и Ессам Хегги (Essam Heggy) из Калифорнийского технологического института выдвигают новую теорию о ключевой роли залегающих на большой глубине вод. Авторы обладают опытом исследований подземных течений в пустынях на Земле, поэтому решили применить имеющиеся знания для анализа изображений с камеры HiRISE на борту американского зонда Mars Reconnaissance Orbiter. Они изучили снимки склонов нескольких кратеров, в том числе Паликир, который является типичным местов возникновения темных полос, и обнаружили, что RSL обычно начинаются от разломов и трещин поверхности. Это навело их на мысль, что особенности создаются водой, которая под большим давлением поднимается с глубин около 750 метров сквозь расселины в породе. Авторы утверждают, что подобный механизм наблюдается и на Земле, в том числе в северной части Сахары и на Аравийском полуострове.   Самым значительным недавним открытием, связанным с водой на Марсе, является обнаружение большого озера, залегающего на глубине около полутора километров под Южным полюсом планеты. Недавно NASA согласовало с учеными новый план по картированию доступной для потенциального использования воды на поверхности Марса. Тимур Кешелава </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Российские ученые открыли необычный механизм действия нового семейства противоопухолевых препаратов. Как говорится в статье в Nature Communications, вещества под названием кураксины нарушают трехмерную организацию генома в раковых клетках, что приводит к снижению экспрессии онкогенов и других важных для жизнедеятельности клетки генов.  В человеческом геноме ДНК при помощи белковых комплексов организована в структурные домены, которые облегчают активацию транскрипции генов и их взаимодействие с удаленными регуляторными элементами — энхансерами. Такая трехмерная организация, в частности, важна для активации онкогенов — генов, избыточная функция которых приводит к злокачественной трансформации клетки. Подавление активации онкогенов лежит в основе механизма действия некоторых противоопухолевых препаратов. Относительно недавно открытые кураксины, родственные противомалярийному препарату хинакрину, работают в том числе путем подавления удаленного взаимодействия энхансеров с онкогенами, выяснили ученые из Института биологии гена РАН, биофака МГУ и Института биоорганической химии РАН под руководством Сергея Разина. Работа была выполнена в сотрудничестве с американскими центрами изучения рака Fox Chase и Roswell Park при поддержке Российского научного фонда, РФФИ, американского Национального института рака, компании «Инкурон» и ряда других организаций.  В качестве объекта исследования авторы работы выбрали группу онкогенов семейства MYC, экспрессия которых наиболее чувствительна к действию кураксинов. На двух раковых клеточных линиях ученые показали, что активация MYC зависит от удаленных энхансеров, а на in vitro модели — что кураксин CBL0137 нарушает взаимодействие энхансера с промотором («включателем» транскрипции) гена. Глобальное исследование структуры хроматина (ДНК-белкового комплекса ядра) методом Hi-C в присутствии кураксина CBL0137 обнаружило нарушение общей трехмерной структуры генома и изменение границ транскрипционно активных доменов. Наблюдаемое нарушение активации онкогенов, по-видимому, происходит благодаря глобальной перестройке контактов между участками хроматина, что приводит к разрушению взаимодействия ген-энхансер.   В предыдущих исследованиях ученые показали, что кураксины нарушают взаимодействие ДНК с нуклеосомами и препятствуют работе транскрипционного комплекса FACT в раковых клетках. Однако новый механизм, ранее не описанный для противоопухолевых препаратов, затрагивает изменение физических свойств хроматина — по-видимому, кураксин делает ДНК-белковые нити более жесткими, в том числе за счет удаления белка CTCF, и не дает им изгибаться и образовывать контакты.  Класс противоопухолевых препаратов под названием кураксины был разработан и исследуется с участием российской компании Инкурон и американской Cleveland Biolabs, Inc. В настоящее время самая перспективная молекула из этой группы, вещество под номером CBL0137, успешно прошла доклинические испытания, и в 2019 году должны начаться очередные исследования ее эффективности на пациентах с меланомой. Дарья Спасская </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Физики из Гарварда предложили способ, с помощью которого можно выбрать одну из альтернативных теорий инфляции или фальсифицировать инфляционный сценарий как таковой. Для этого ученые рассчитали спектр возмущений кривизны пространства времени, возникающих из-за «стандартных часов» — колебаний массивного поля, сопровождающих эволюцию молодой Вселенной. Оказалось, что в инфляционном сценарии спектр постоянный, а в альтернативных сценариях осциллирует. Ученые утверждают, что до этого способа фальсифицировать инфляционный сценарий не существовало в принципе. Статья опубликована в Physical Review Letters, кратко о ней сообщает Physics, препринт работы выложен на сайте arXiv.org. Несмотря на небольшие отклонения на масштабах планет и галактик, в среднем наша Вселенная практически идеально плоская и однородная. Последние измерения астрономов подтверждают, что, параметр, который входит в уравнение эволюции Вселенной и отвечает за ее кривизну, отклоняется от единицы не более чем на 10−14, а флуктуации реликтового излучения не превышают 0,1 процента. Объяснить эти значения в рамках стандартной теории Большого взрыва невозможно. Поэтому физики дополняют эту теорию космологической инфляцией — периодом быстрого расширения, в результате которого растягиваются квантовые флуктуации и разглаживаются неоднородности пространства-времени. Как такая модификация решает эти проблемы, можно прочитать в статьях «Рождение Вселенной» и «Всемогущая инфляция». В настоящее время инфляционная модель является общепринятой среди физиков-космологов.  Тем не менее, инфляционная модель не является единственной — физикам известно несколько альтернативных теорий, которые так же хорошо объясняют однородность и нулевую кривизну Вселенной. Например, теория «отскока», в которой периоду быстрого расширения предшествовал период быстрого сжатия. Хуже того, теория инфляции имеет серьезный недостаток, из-за которого ее нельзя считать по-настоящему научной теорией. Дело в том, что инфляционный сценарий включает в себя большой набор моделей, которые объединены общей идеей, но отличаются способом ее реализации. Результаты наблюдений почти всегда можно подогнать под одну из этих моделей. В этом смысле инфляция напоминает Стандартную модель из физики элементарных частиц: когда эта теория только зарождалась, физики пробовали разные калибровочные группы и сравнивали их предсказания с экспериментом. В конце концов оказалось, что в статьях и на конференциях все чаще и чаще встречается группа U(1)×SU(2)×SU(3), которую назвали стандартной. К сожалению, в отличие от Стандартной модели частиц Стандартную модель инфляции невозможно фальсифицировать (опровергнуть) с помощью прямого наблюдения. По крайней мере, до этого момента каждое предсказание (как положительное, так и отрицательное), которое казалось уникальным для инфляционного сценария, удавалось воспроизвести с помощью одной из альтернативной теорий. Физики Абрахам Лёб (Abraham Loeb), Синан Чэнь (Xingang Chen) и Чжун-Чжи Сянью (Zhong-Zhi Xianyu), похоже, наконец, нашли явление, которое различает инфляцию и альтернативные сценарии (хотя бы теоретически). В основе предложенного метода лежит тот факт, что разные сценарии предсказывают разные законы a(t), по которым размер Вселенной меняется во времени. Правда, почувствовать эту разницу обычно невозможно, поскольку законы не связаны напрямую с наблюдаемыми величинами. В новой статье ученые предложили наблюдаемую величину, которая отражает вид закона a(t). Для этого ученые заметили, что любая простая модель инфляции должна быть вложена в модель с большим числом полей, которая обладает корректным ультрафиолетовым поведением (то есть позволяет осуществить перенормировки и избавиться от нефизичных расходимостей). При этом масса некоторых из дополнительных полей обязательно превышает характерный масштаб простой модели, то есть масштаб на горизонте событий. Осцилляции таких полей, напоминающие осцилляции обычного гармонического осциллятора, физики называются «первичными стандартными часами» (primordial standard clocks). С одной стороны, «стандартные часы» оставляют «отпечатки» в распределении плотности материи. С другой стороны, они напрямую связаны с законом расширения Вселенной. Следовательно, по сигналу «стандартных часов» можно восстановить закон a(t) и различить альтернативные сценарии эволюции Вселенной. Чтобы оценить величину этого сигнала, ученые сначала решили уравнение на моды массивного поля, помещенного в однородную Вселенную с заданным законом расширения. Исследователи рассмотрели закон расширения вида a(t) ~ (t/t0)p с произвольной степенью. В этом подходе значения |p| ≫ 1 воспроизводят инфляцию, значения −1 &lt; p &lt; 0 отвечают не-инфляционным моделям расширения, а значения 0 &lt; p &lt; 1 — сценариям сжатия. Затем физики подставили найденные моды в двухточечную корреляционную функцию, которая описывает возмущения кривизны пространства-времени. В результате ученые получили спектр таких возмущений, то есть нашли, как их амплитуда зависит от импульса «стандартных часов».  Оказалось, что в инфляционном сценарии спектр возмущений кривизны не зависит от импульса, тогда как в альтернативных сценариях он быстро осциллирует. Качественно это поведение можно объяснить тем, что в ходе инфляции массивное поле все время остается в классическом режиме и быстро колеблется, из-за чего интегралы в корреляционной функции в среднем равны нулю. В альтернативных сценариях такое сокращение происходит только для очень больших или очень маленьких импульсов. Более того, ученые подчеркивают, что получить осциллирующий спектр возмущений кривизны в инфляционном сценарии за счет «новой физики» очень сложно из-за «тонкой настройки» параметров. Другими словами, для этого нужно создать в инфляционном потенциале целую серию особенностей, расположенных в нужных местах и имеющих нужную силу, что кажется нереалистичным.  Таким образом, авторы статьи считают, что предложенный ими эффект хотя бы в принципе позволяет альтернативные теории инфляции или фальсифицировать инфляционный сценарий (поскольку он является общим для всех инфляционных моделей). Для этого нужно извлечь спектр возмущений кривизны из реликтового излучения. К сожалению, в настоящее время точности измерений не хватает, чтобы почувствовать такие возмущения. Ранее мы писали о других исследования, выполненных под руководством Абрахама Лёба. Например, в 2016 году астрофизик предположил, что черные дыры, сигнал от слияния которых впервые зарегистрировала обсерватория LIGO (GW150614), родились из одной звезды. Это объясняет гамма-всплеск, дошедший до Земли на 0,4 секунды позже гравитационных волн. В декабре 2017 года Абрахам Лёб совместно с коллегой из Гарварда показал, что черные дыры не могут образоваться по стандартному сценарию раньше, чем через сто миллионов лет после Большого взрыва (красное смещение z ≈ 40). Теоретически, это наблюдение может указать на существование первичных черных дыр — если астрономы когда-нибудь зарегистрируют гравитационные волны от пары черных дыр с бо́льшим красным смещением. Самая известная работа физика изучает образование источников света (звезд и квазаров) в ранней Вселенной и к настоящему моменту имеет более 700 цитирований. Впрочем, также стоит отметить, что иногда ученый участвует в довольно авантюрных проектах. Подробно прочитать про теорию космологической инфляции можно в материале «Инфляция космических масштабов» — пересказе обзора Андрея Линде, фактически разработавшего эту модель в 80-х годах прошлого века. А про современное состояние теории можно узнать из интервью Андрея Линде, которое ученый дал в конце прошлого года.  Дмитрий Трунин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Международная группа ученых нашла на Мадагаскаре пять новых видов миниатюрных лягушек размером от человеческого ногтя до зернышка риса — три из них ученые объединили в новый род Mini. Статья об открытии опубликована в журнале PLoS ONE. Первый автор работы, зоолог Марк Шерц (Mark Scherz) из Мюнхенского университета, в статье для The Conversation пишет, что таксономическое разнообразие крошечных лягушек часто недооценивается, поскольку при таких размерах они сильно похожи друг на друга, и их легко счесть одним и тем же видом. В частности, как отмечается в статье, долгое время всех мелких лягушек Мадагаскара, где обитает более 350 видов лягушек самых разных размеров, относили к одному роду Stumpffia просто из-за их небольших габаритов. Теперь ученые нашли на Мадагаскаре пять новых видов лягушек из семейства узкоротов, или микроквакш. Все виды принадлежат к эндемичному для острова подсемейству Cophylinae. Три из них оказались представителями неизвестного рода, поэтому ученые назвали его Mini, а самих лягушек — Mini mum, Mini scule и Mini ature (игра слов: в английском языке все эти слова, начинающиеся с mini, обозначают небольшой размер).  Авторы статьи отмечают, что лягушки «миниатюризировались» независимо друг от друга, и эволюционные причины, по которым это происходит, представляют большой интерес для науки. Кроме того, Rhombophryne proportionalis получила свое название за уникальную для лягушек острова пропорциональность: она выглядит как уменьшенная до 12 миллиметров копия больших лягушек, тогда как обычно у этих небольших амфибий более крупные головы и глаза.   Ольга Добровидова </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Благодаря данным, собранным межпланетной станцией «Кассини», астрономы смогли доказать, что за необычную форму внутренних небольших спутников Сатурна  ответственна аккреция частиц из колец и подповерхностных выбросов ледяного спутника Энцелада. Статья опубликована в журнале Science, кратко о ней рассказывается на сайте Лаборатории реактивного движения NASA. Сатурн обладает семейством маленьких внутренних нерегулярных спутников, движущихся вблизи колец газового гиганта. Это Дафнис и Пан, расположенные в щелях между кольцами, три спутника-«пастуха» кольца А и F (Атлас, Пандора и Прометей) и коорбитальные спутники Янус и Эпиметей. Cчитается, что кольца Сатурна напрямую связаны с процессами формирования и эволюции этих спутников, однако неясно, сформировались ли кольца из-за распада внутреннего спутника, либо спутники образовались из вещества колец. До исследования Сатурна межпланетными станциями предполагалось, что кольца представляют собой обломки вещества, из которого формировалась планета, неспособные образовать спутники из-за приливных сил. Данные «Вояджеров» показали, что кольца и внутренние спутники могли быть обломками, образовавшимися при распаде одного или нескольких крупных родительских тел, причем спутники были самыми большими фрагментами. Однако после того, как изучением колец и спутников занялась межпланетная станция «Кассини», картина формирования и эволюции внутренних спутников значительно усложнилась. В новой работе группа астрономов во главе с Бонни Буратти (Bonnie Buratti) опубликовала результаты анализа данных, собранных «Кассини» в ходе пяти сближений с внутренними спутниками Сатурна (Паном, Дафнисом, Атласом, Пандорой и Эпиметеем) в период с декабря 2016 года по апрель 2017 года. Тогда станция смогла получить о морфологии, структуре и составе спутников, а также получить их изображения в ультрафиолетовом и инфракрасном диапазонах волн. Оказалось, что плотность спутников низкая, что говорит о высокой пористости вещества и подтверждает идею о том, что они образовались в несколько этапов, когда вещество колец оседало на более плотных ядрах, которые могут быть фрагментами более крупного объекта. Низкая плотность согласуется и с необычной формой некоторых спутников, которая напоминает пельмень. Цвет спутников Дафниса и Пана, расположенных близко к кольцу А, схож с цветом вещества кольца из-за накопления красноватого хромофора, представляющего собой смесь органических веществ и железа. Поверхности Атласа, Прометея и Пандоры, которые находятся гораздо дальше от Сатурна, также покрыты веществом колец, однако там преобладают яркие ледяные частицы и замерзший водяной пар из подповерхностных выбросов спутника Энцелада. Благодаря «Кассини» ученые получили детальные данные о Сатурне и его огромных и удивительных кольцах, о его новых лунах, где могла возникнуть внеземная жизнь, о шестиугольных штормах, бушующих на газовом гиганте, и о многих других вещах. Обо всем этом читайте в нашем материале «Большой финал «Кассини». Александр Войтюк </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ученые из Университета Чикаго в 2012 году показали, что при переборе вариантов, представленных на иностранном языке, решение оказывается более взвешенным. Все из-за того, что необходимость говорить и думать не на родном языке увеличивает когнитивную нагрузку на мозг, а это снижает влияние эмоциональной обработки в процессе принятия решений и помогает мыслить более рационально. Авторы работы пришли к выводу, что люди, пользующиеся иностранным языком на регулярной основе, в долгосрочной перспективе могут получить больше выгоды при принятии деловых, финансовых и личных решений. Разумеется, если будут делать это не на родном языке. Ученые из Университета Чикаго в 2012 году показали, что при переборе вариантов, представленных на иностранном языке, решение оказывается более взвешенным. Все из-за того, что необходимость говорить и думать не на родном языке увеличивает когнитивную нагрузку на мозг, а это снижает влияние эмоциональной обработки в процессе принятия решений и помогает мыслить более рационально. Авторы работы пришли к выводу, что люди, пользующиеся иностранным языком на регулярной основе, в долгосрочной перспективе могут получить больше выгоды при принятии деловых, финансовых и личных решений. Разумеется, если будут делать это не на родном языке. Несмотря на то, что билингвы (люди, владеющие двумя языками на уровне родного) в действительности обладают более развитыми когнитивными функциями по сравнению с монолингвами, британские исследователи в 2016 году выяснили, что для улучшения внимания достаточно учить новый язык в течение недели. Англоязычные участники эксперимента прошли недельный интенсивный курс шотландского, и их результаты в тестах на переключение внимания улучшились. Более того, в последующие годы их внимание только улучшилось, но, конечно, при условии, что они занимались новым языком не менее пяти часов в неделю. Кстати, преподавателей шотландского можно найти и на Italki. Несмотря на то, что билингвы (люди, владеющие двумя языками на уровне родного) в действительности обладают более развитыми когнитивными функциями по сравнению с монолингвами, британские исследователи в 2016 году выяснили, что для улучшения внимания достаточно учить новый язык в течение недели. Англоязычные участники эксперимента прошли недельный интенсивный курс шотландского, и их результаты в тестах на переключение внимания улучшились. Более того, в последующие годы их внимание только улучшилось, но, конечно, при условии, что они занимались новым языком не менее пяти часов в неделю. Кстати, преподавателей шотландского можно найти и на Italki. Когда дело касается влияния иностранных языков на когнитивные способности, то чем их будет больше, тем лучше. Это подтверждает и исследование люксембургских ученых, выяснивших, что люди, всю жизнь говорившие на двух и более иностранных языках (не считая родного), в возрасте 70 лет и старше чаще других сохраняют ясность ума. По мнению авторов, новые навыки (в том числе и новый иностранный язык) помогают мозгу оставаться пластичным, а значит, молодым, даже в пожилом возрасте. Когда дело касается влияния иностранных языков на когнитивные способности, то чем их будет больше, тем лучше. Это подтверждает и исследование люксембургских ученых, выяснивших, что люди, всю жизнь говорившие на двух и более иностранных языках (не считая родного), в возрасте 70 лет и старше чаще других сохраняют ясность ума. По мнению авторов, новые навыки (в том числе и новый иностранный язык) помогают мозгу оставаться пластичным, а значит, молодым, даже в пожилом возрасте. Изучение иностранного языка приводит к тому, что объем нижней лобной извилины увеличивается. Интересно, что это зависит от очередности овладения языками. Так, если второй язык ребенок выучил одновременно с первым, то с его мозгом не произойдет ничего необычого. А вот уже у подростка, взявшегося за новый язык после того, как в совершенстве освоил родной, нижняя лобная извилина начнет увеличиваться в объеме. Кстати, эта извилина отвечает не только за обработку речевых стимулов, но и за процесс принятия решений, память, внимание и многое другое. Изучение иностранного языка приводит к тому, что объем нижней лобной извилины увеличивается. Интересно, что это зависит от очередности овладения языками. Так, если второй язык ребенок выучил одновременно с первым, то с его мозгом не произойдет ничего необычого. А вот уже у подростка, взявшегося за новый язык после того, как в совершенстве освоил родной, нижняя лобная извилина начнет увеличиваться в объеме. Кстати, эта извилина отвечает не только за обработку речевых стимулов, но и за процесс принятия решений, память, внимание и многое другое. В 2015 году исследователи из Великобритании пришли к выводу, что, в сравнении с людьми, знающими только родной язык, те, кто учит иностранный язык в университете, так же хорошо умеют умеют переключать внимание между несколькими задачами, как и билингвы, владеющие двумя языками с раннего детства. Так что не стоит бояться, что учить язык во взрослом возрасте бесполезно: даже если вас не примут за местного в чужой стране, ваше внимание улучшится. В 2015 году исследователи из Великобритании пришли к выводу, что, в сравнении с людьми, знающими только родной язык, те, кто учит иностранный язык в университете, так же хорошо умеют умеют переключать внимание между несколькими задачами, как и билингвы, владеющие двумя языками с раннего детства. Так что не стоит бояться, что учить язык во взрослом возрасте бесполезно: даже если вас не примут за местного в чужой стране, ваше внимание улучшится. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Китайские физики научились измерять квантовое состояние темной системы, не прибегая к ее прямому контролю. Для этого нужно связать темную систему с пробной двухуровневой системой, подвергуть «пробник» последовательности π-импульсов и несколько раз измерить его состояние. Кроме того, потенциал, связывающий две системы, должен зависеть от состояния «пробника». До этого измерять состояние темной системы, не прибегая к прямому контролю, ученые не умели. Статья опубликована в Physical Review Letters, препринт работы выложен на сайте arXiv.org. Измерение квантовых состояний физической системы в настоящее время кажется чем-то рутинным. Такие измерения обязательно производятся в каждом эксперименте, который содержит в названии слово «квантовый», начиная с фундаментальных проверок законов квантовой механики и заканчивая квантовыми компьютерами и квантовой связью. Тем не менее, далеко не всегда измерение квантового состояния оказывается тривиальной задачей. Наряду с простыми системами — фотонами, спинами, атомами и сверхпроводящими кубитами, — существует большое число сложных систем, квантовое состояние которых невозможно извлечь с помощью прямых наблюдений. Физики называют такие системы «темными». Частный случай темной системы — это темное состояние атома, в котором он не может поглотить фотон и потому становится невидимым для просвечивающих его лазеров. Чтобы измерить состояние таких систем, ученым приходится идти на различные хитрости. Во-первых, нужно ввести вспомогательную систему, запутанную с темной системой и доступную для непосредственных наблюдений. Во-вторых, уровень шума, который разрушает запутанность и квантовые состояния систем, не должен превышать определенный порог. В-третьих, нужно независимым образом воздействовать на темную систему или контролировать связь между запутанными системами. Впрочем, из-за последнего требования такую систему нельзя считать по-настоящему темной. Методов же, которые восстанавливают состояние темной системы, работая только с пробной системой, до последнего времени не было. Группа физиков под руководством Цзяньмина Цая (Jianming Cai) наконец придумала такой способ. Для этого ученые теоретически рассмотрели двухуровневую пробную систему, связанную с темной системой потенциалом, величина которого зависит от состояния пробной системы. В начале мысленного эксперимента состояние пробной системы состояло из суперпозиции двух ее собственных состояний, отвечающих фиксированным значениям энергии. Затем физики применяли к ней последовательность 2N мгновенных π-импульсов, разделенных промежутками свободной эволюции продолжительностью τ. Грубо говоря, π-импульс — это резонансный электромагнитный импульс, который переводит двухуровневую систему в возбужденное состояние, а потом возвращает ее обратно в основное (подробнее можно прочитать в энциклопедии). Наконец, ученые измеряли состояние пробной системы, которое напрямую связано со значением некоторого известного оператора, зависящего от параметров N и τ и усредненного по исходному состоянию темной системы. Учитывая эту зависимость и измеряя состояния пробной системы для различных значений N и τ, можно извлечь информацию об исходном квантовом состоянии темной системы. Правда, чтобы множественное измерение было возможно, квантовое состояние пробной системы должно слабо изменяться в ходе эксперимента, то есть время ее декогеренции должно превышать суммарное время опыта. Предложенную универсальную схему ученые проверили на двух простых примерах: темном спине и темном квантовом осцилляторе. В первом случае темная система имела дискретный спектр, во втором случае — непрерывный, поэтому их матрица плотности выглядела по-разному. Так, чтобы восстановить матрицу плотности темного спина, достаточно знать ее вектор Блоха, а для квантового осциллятора достаточно рассчитать характеристическую функцию Вигнера (преобразование Фурье от обычной функции Вигнера). Поэтому физики разработали два независимых метода, которые восстанавливают эти функции по измеренным состояниям пробной системы. Оказалось, что для первого случая достаточно трех независимых измерений пробной системы, для второго — около двадцати. Таким образом, предложенная учеными схема теоретически позволяет измерять квантовые состояния обеих темных систем. Более того, ученые утверждают, что медленный шум, действующий на системы, практически не влияет на результаты таких измерений. Кроме того, физии предложили схемы экспериментов, в которых можно проверить предложенный ими способ. Реализовать схему с темным спином исследователи предлагают с помощью NV-центра (пробная система) и атома углерода-13 (темная система), встроенных в кристаллическую решетку алмаза и слабо взаимодействующих между собой. В этом случае потенциал, зависящий от состояния NV-центра, можно создать с помощью внешнего магнитного поля. А в качестве темной системы с непрерывным спектром исследователи предлагают взять отдельный ион иттербия-171, пойманный в магнитную ловушку Пауля. Если наложить на эту систему магнитное поле, напряженность которого линейно растет вдоль оси ловушки, энергетические уровни иона расщепятся. В результате уровни с минимальной возможной энергией можно рассматривать как пробную систему, а поступательное движение иона как темную систему с непрерывным спектром. По оценкам ученых, обе предложенные схемы можно реализовать на практике в ближайшее время. Темные состояния часто используют для лазерного охлаждения, поскольку они не взаимодействуют с фотонами лазера и разогреваются только за счет взаимодействия со «светлыми» состояниями. Например, в августе прошлого года американские физики с помощью «темных» состояний охладили облако молекул фторида кальция до рекордно низкой температуры 20 микрокельвин. А в феврале этого года другая группа ученых использовала похожий метод, чтобы охладить до основного состояния все осевые моды колебаний двумерного кристалла, состоящего из 190 ионов бериллия-9. Таким образом ученые побили рекорд по количеству одновременно охлажденных мод. Дмитрий Трунин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Международная группа ученых обнаружила 413 генов, экспрессия которых в головном мозге связана с шизофренией. Для этого они создали статистическую модель, которая связывает характерную для заболевания экспрессию генов в головном мозге с генетическими вариантами по всему геному. Вовлеченные в заболевание гены затем обнаружили, проанализировав геном более сотни тысяч человек, у 40 тысяч из которых диагностирована шизофрения. Статья опубликована в журнале Nature Genetics. Шизофрения — одно из самых плохо изученных психических заболеваний. Сложности заключаются как в его диагностике (до сих пор не выявлено единой симптоматики заболевания), так и в изучении и лечении: исследования шизофрении сильно осложнены тем, что вывести модельные организмы с достоверными симптомами заболевания практически невозможно. Применяемые сейчас антипсихотики позволяют только купировать некоторые симптомы.  Известно, что шизофрения — заболевание наследуемое, но до сих пор генетические исследования этого вопроса не давали точных результатов (подробнее об этом вы можете прочитать в нашем материале «Безумие в наследство»), хотя метод полногеномного поиска ассоциаций несколько раз указывал на наличие некоторых генов-кандидатов (об этом вы можете прочитать во второй части материала, «Безумие в наследство — 2»). Тем не менее, сам метод может указать только на связь определенного генотипа (а точнее — однонуклеотидных полиморфизмов) с риском развития заболевания и проявления определенных симптомов, но не могут дать информации об экспрессии определенных генов в тканях. Ученые под руководством Лоры Хакинс (Laura Huckins) из Медицинской школы Икан на горе Синай (Нью-Йорк) решили расширить и систематизировать имеющиеся данные о генетических маркерах шизофрении. Они использовали статистический метод транскриптомной импутации (transcriptomic imputation), который помогает обнаружить взаимосвязь между результатами полногеномных исследований и исследований транскриптома, которые связывают экспрессию генов в тканях с определенными признаками, характерными для организма. Другими словами, такой метод позволяет не только выявить генетические вариации, характерные для определенного состояния, но и выделить среди них те, экспрессия которых в тканях в действительности связана с проявлением симптомов заболевания. Для этого ученые воспользовались посмертными данными, собранными в рамках проекта CommonMind Consortium: оттуда они взяли данные о генотипе и экспрессии генов в доросатеральной части префронтальной коры головного мозга 538 человек (254 из них болели шизофренией). Они создали статистическую модель, которая предсказывает экспрессию определенного гена в тканях головного мозга на основе наличия определенных однонуклеотидных полиморфизмов (то есть как раз на основе данных полногеномного анализа). Всего с помощью такого анализа ученым удалось выделить около 20 тысяч уникальных генов, варианты которых могут быть связаны с экспрессией генов в префронтальной коре — в основном, через влияние на другие участки мозга. Для того, чтобы сузить характерный для шизофрении генотип, ученые проанализировали геном 40299 человек с диагностированной шизофренией и 65264 здоровых человек в качестве контрольной группы. На основании этого ученым удалось выделить 413 генетических вариантов с экспрессией в 13 участках мозга, включая как дорсолатеральную часть префронтальной коры, так и, к примеру, мозжечок, гиппокам, гипоталамус, базальную ганглию и другие. Воспользовавшись данными об экспрессии генов в головном мозге в разные периоды развития организма человека (от раннего утробного до взрослого возраста), исследователи также оценили и то, как экспрессия в изученных участках проявляется в течение жизни человека. Так, в самом начале формирования мозга в утробе матери наиболее значимая экспрессия, характерная для шизофрении, наблюдается в первичной соматосенсорной и моторной коре, а также в дорсолатеральной и вентролатеральной частях префронтальной коры.  Крупные генетические исследования очень важны для изучения таких наследуемых заболеваний, как шизофрения. Метод, который применили ученые в новой работе, позволяет существенно сократить количество генов, которые в действительности влияют на риск развития заболевания через экспрессию в тканях, тем самым делая генетический анализ более точным.  Зимой прошлого года другое крупное исследование экспрессии генов в головном мозге при наличии психических заболеваний сблизили шизофрению и биполярное расстройство. Об этом вы можете прочитать в нашей заметке. Елизавета Ивтушок </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Изотопный состав найденного_x000D_ в Казахстане метеорита Ефремовка лучше всего описывается предположением,_x000D_ что на очень молодом Солнце произошла исключительно длительная и мощная вспышка. Ученые пришли к такому_x000D_ заключению, исследуя богатые кальцием и алюминием включения в метеорите. Результаты анализа опубликованы в журнале Nature Astronomy. Считается, что многие_x000D_ болиды образовались на заре существования Солнечной системы, поэтому их_x000D_ изучение может предоставить информацию о ее прошлом. Одним из важнейших_x000D_ источников подобных данных является исследование элементного и изотопного_x000D_ состава упавших на Землю метеоритов. Некоторые изотопы образуют лишь при_x000D_ специфических условиях, поэтому их наличие может указать на характер и время_x000D_ оказанных воздействий. В частности, можно_x000D_ исследовать изотопы, являющиеся продуктами распада других короткоживущих ядер._x000D_ К таким ядрам относится бериллий-10 с периодом полураспада 1,4 миллиона лет. Согласно_x000D_ теории, он получается из кислорода или углерода в результате реакции выбивания_x000D_ (spallation), при котором ядро расщепляется на несколько продуктов после_x000D_ взаимодействия с высокоэнергичной частицей. Одна из объясняющих присутствие_x000D_ этого изотопа в ранней Солнечной системе гипотез утверждает, что это связано с_x000D_ повышенным облучением космическими лучами или солнечной радиацией. Согласно_x000D_ другой, появление такой же концентрации бериллия-10 можно объяснить близкой_x000D_ вспышкой сверхновой, в результате которой возник интенсивный поток нейтрино_x000D_ высоких энергий. В работе под руководством_x000D_ Ритеша Кумара Мишры (Ritesh Kumar Mishra) из Космического центра имени Линдона Джонсона NASA изучаются_x000D_ богатые кальцием и алюминием включения (calcium-  and aluminium rich inclusion — CAI) в метеорите_x000D_ Ефремовка. Данные уран-свинцового метода датирования указывают на внушительный возраст_x000D_ этих образований — 4,568 миллиардов лет. Благодаря этому данные включения_x000D_ считаются одними из первых объектов, сформировавшихся на горячем этапе_x000D_ существования Солнечной системы, а от этого времени принято формально отсчитывать_x000D_ ее возраст. CAI чаще всего встречаются в метеоритах из класса углистых хондритов_x000D_ и в основном состоят из оксидов и силикатов кальция, алюминия, титана и магния._x000D_ Изотопный состав алюминия и магния в CAI метеорита Ефремовка уже изучался, по нему удалось оценить возраст_x000D_ формирования включений: они оказались примерно 0,45 миллионов лет моложе_x000D_ Солнечной системы. Основное внимание авторы_x000D_ уделили изотопному составу лития, бериллия и бора в минерале милелите, встречающемся_x000D_ в CAI. Ученые обнаружили повышенное содержание нескольких изотопов. В_x000D_ частности, повышенной оказалась концентрация изотопов бериллия 10Be/9Be. Также наблюдался_x000D_ избыток 7Li по сравнению с другим стабильным вариантом 6Li. Однако взятые из разных мест пробы указали на_x000D_ линейную корреляцию отношения 7Li/6Li с отношением 9Be/6Li, что говорит о происхождении избыточного лития в_x000D_ результате бета-распада 7Be. Однако период полураспада 7Be составляет всего 53_x000D_ дня, что делает маловероятным его появление в результате вспышки сверхновой или_x000D_ связанными с космическими лучами процессами. Авторы называют_x000D_ взаимодействие порожденных Солнцем энергетических частиц с самими CAI или веществами, из которых они образовались, наиболее_x000D_ вероятным механизмом появления данного изотопа. Вместе с измеренным избытком 10Be_x000D_ ученым удалось оценить вклад солнечной активности в производство короткоживущих_x000D_ ядер, соотношение длительности и интенсивности соответствующих событий и временные_x000D_ рамки появление изученных CAI. Дополнительные модельные расчеты при различных_x000D_ параметрах активности Солнца и состава твердых веществ-предшественников_x000D_ изученных минералов показали, что производство 7Be линейно связано с_x000D_ производством 10Be, а подходящий для образования нужного изотопного состава_x000D_ всех элементов поток протонов (1010 частиц в секунду на квадратный сантиметр)_x000D_ мог быть произведен лишь супервспышкой на Солнце с рентгеновской светимостью в_x000D_ 1032 эрг в секунду. В предположении о постоянной яркости такое событие должно_x000D_ было продолжаться пару лет, в то время как данная светимость находится на_x000D_ уровне пиковых значений наиболее мощных вспышек современного Солнца. Данная_x000D_ оценка значительно уточняет предыдущие гипотезы о ранней высокой активности_x000D_ Солнца, которые выдвигали для объяснения изотопного состава бериллия и ванадия_x000D_ в других работах: их авторы приходили к выводу, что облучение длилось не более_x000D_ 300 лет для тел, расположенный в 0,1 астрономической единицы от звезды. Ученые не первый раз используют данные о радиоактивных элементах для оценок активности Солнца в прошлом. В частности, вспышку на звезде пару тысяч лет назад связали с радиоактивными ядрами в гренландском льду. Подобные явления называются событиям Мияке, а мы публиковали подробный текст о важности этого феномена в уточнении методов определения возраста. Тимур Кешелава </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Приемник излучения GRAVITY впервые позволил использовать технику оптической интерферометрии в ближней инфракрасной области для непосредственного наблюдения экзопланеты. Данный метод позволяет объединить возможности нескольких телескопов для получения данных высокого качества. В частности, астрономам удалось изучить исходящий непосредственно от планеты свет, несмотря на то, что излучение близкой звезды мешает этому. Благодаря этому стала возможна оценка параметров ее орбиты и состав атмосферы. Результаты опубликованы в Astronomy &amp; Astrophysics. На данный момент астрономы обнаружили множество экзопланет и планетных систем, но большинство этих открытий сделаны транзитным методом, при котором исследуются небольшие периодические колебания света при прохождении планеты по диску родительской звезды. Этот метод позволяет оценить период обращения и размер планеты, но ничего не говорит о ее составе. Однако для выяснения физических условий на планетах и истории их формирования необходимо точное определение масс и спектров излучения. На сегодняшний день существует только два метода, которые позволяют оценить состав и свойства внешней поверхности экзопланет — транзитная спектроскопия и спектроскопия теплового излучения. Первая анализирует прошедший сквозь атмосферы планет свет звезд во время затмения и подходит для объектов на близких к светилам орбитах с раздутыми от нагрева газовыми оболочками. Второй способ можно использовать для определения параметров расположенных вдали от звезд молодых планет, не успевших остыть и потому все еще излучающих собственный свет. Однако порождаемые светилом фотоны могут мешать изучать свет планеты, а их поток флуктуирует в зависимости от условий наблюдений на Земле. К возможным решениям относится вынесение приемников в космос и использование телескопов с диаметром апертуры порядка 10 метров, но в новом исследовании ученые пошли еще дальше и реализовали наблюдения на всех четырех восьмиметровых телескопах VLT в режиме интерферометра. Эта техника позволяет добиться получения данных, соответствующих телескопу с размером зеркала равным максимальному расстоянию между антеннами, что в случае VLT дает около 100 метров. Данная методика наблюдений требует очень точной временной корреляции данных с разных телескопов, из-за чего ее реализация для высоких частот чрезвычайна сложна. В то же время, в области радиоастрономии интерферометрические наблюдения давно вошли в практику, существует даже наземно-космический интерферометр — в таком режиме работает российский спутник «Радиоастрон» (в данный момент с ним потеряна связь). Астрономам удалось разделить потоки звезды и планеты в системе HR 8799, расположенной на расстоянии 39 парсек. Данная планета называется HR 8799e, потому что была открыта четвертой, но на самом деле расположена ближе всего к своей звезде: при наблюдении с Земли угол между светилом и экзопланетой составляет всего 370 миллисекунд дуги. Ученые использовали возможности приемника GRAVITY, который собирает свет всех четырех телескопов VLT. Авторам удалось определить координаты звезды примерно в десять раз точнее, чем возможно методами прямых наблюдений. Это позволило не только с высокой точностью выяснить форму траектории (большая полуось 16,4±1,5 астрономических единицы, эксцентриситет 0,15±0,08), но и оценить угол наклона орбиты (25±8 градусов), что не получается сделать другими методами. Ученые сравнили измеренные координаты с предсказаниями динамических моделей данной планетной системы, в которых все тела находятся на стабильных орбитах, расположенных строго в одной плоскости. Эти данные позволяют полностью опровергнуть эти модели.  Также ученые получили спектр объекта с разрешением в 500 единиц и отношением сигнал/шум равным 5. В нем сразу выделяется линия угарного газа и отсутствие признаков наличия метана. Моделирование его особенностей с учетом известных линий излучения веществ позволило научной группе обнаружить в атмосфере планеты свидетельства существования облаков железа и силикатной пыли. В сочетании с избытком окиси углерода это показывает, что атмосфера HR 8799e охвачена гигантской бурей.  «Наш анализ показал, что атмосфера HR 8799e содержит гораздо больше окиси углерода, чем метана — неожиданный результат с точки зрения химии равновесных процессов. Нам удалось лучше всего объяснить этот удивительный факт вертикальными ветрами, дующими в верхних слоях атмосферы, которые не позволяют угарному газу вступать в реакцию с водородом и образовывать метан, — говорит руководитель исследовательской группы Сильвестр Лакур (Sylvestre Lacour) из Национального центра научных исследований Франции (CNRS). — Наши наблюдения свидетельствуют об освещенном изнутри газовом шаре, причем лучи света пробиваются сквозь охваченные бурей участки темной облачности. Облака из железо-силикатных частиц перемещаются под действием конвекции и разрушаются, а их содержимое выпадает внутрь планеты. Все это создает картину динамической атмосферы гигантской экзопланеты в процессе рождения, на которой идут сложные физические и химические процессы». Моделирование физических условий на поверхности тела также позволило оценить его параметры: температура оказалась равна 1150 ± 50 кельвинам, радиус — 1,17 ± 0,12 радиусов Юпитера, ускорение силы тяжести — 104,3 ± 0,3 см/с2, а масса от 6 до 17 юпитерианских с наиболее вероятным значением около 10. Сейчас в космосе работает специально созданный для поиска экзопланет спутник TESS, который открыл 280 объектов-кандидатов всего за первые полгода работы. Недавно также удалось подтвердить первую обнаруженную телескопом «Кеплер» экзопланету. О необычных экзопланетах мы делали материал «Краткий путеводитель по галактике». Тимур Кешелава </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Физики представили первую систему, в которой возможно непосредственное измерение порождаемого давлением излучения квантового шума — одного из основных факторов, ограничивающих точность гравитационно-волновых приемников следующего поколения. В результате у ученых появилась удобная испытательная модель для изучения методов преодоления данного ограничения, таких как использование сжатых состояний света. Описание разработки опубликовано в журнале Nature. Современные детекторы гравитационных волн используют электромагнитное излучение для непрерывного слежения за положением тестовых масс. Они представляют собой оптические интерферометры, по плечам которых распространяются лазерные лучи, отражающиеся от зеркал. После многократного прохождения плеча импульсы излучения из разных плеч сводятся вместе и интерферируют. Если через такой приемник проходит гравитационная волна, то она слегка изменяет оптические длины путей между тестовыми массами (зеркалами), из-за чего лазерные импульсы приходят с задержкой и интерференционная картина изменяется. Квантовая механика накладывает фундаментальный предел на точность таких непрерывных измерений. Он является следствием принципа неопределенности Гейзенберга: если увеличивать точность определения одной наблюдаемой величины (например, координаты), то будут увеличиваться ошибки в измерении сопряженной величины (импульса). Это явление получило название квантового обратного действия (quantum back action). В контексте гравитационно-волновых антенн это значит, что увеличение мощности лазерного излучения снижает вклад дробового шума — связанного с квантовой природой света шума счета фотонов, — но при этом неминуемо возрастает связанный с давлением излучения квантовый шум (quantum radiation pressure noise — QRPN). Чувствительность гравитационно-волновых антенн первого поколения, таких как LIGO и Virgo, ограничивалась другими факторами, но для следующего поколения установок данного типа, к которым относятся Advanced LIGO, Advanced  Virgo и KAGRA, предсказывается ведущая роль QRPN в качестве компонента шумов в диапазоне от 10 до 100 герц. Существует несколько концепций противодействия QRPN в случае гравитационных антенн, но до недавнего момента не существовало возможности проверить их экспериментально. Изучение этого явления осложняется тем, что обычно классические шумы, такие как вибрации и связанные с температурой флуктуации, доминируют, а вклад квантовых шумов незначителен. В работе под руководством Томаса Корбитта (Thomas Corbitt) из Университета штата Луизиана описана система, в которой возможно непосредственное измерение QRPN в килогерцовом диапазоне при комнатной температуре. Разработка представляет собой хорошо отражающий монокристаллический микрорезонатор с низкими потерями и сильно подавленными тепловыми шумами, включенный в оптомеханическую систему в качестве одного из зеркал в интерферометре Фабри — Перо. Микрорезонатор состоит из соединенной с монокристаллом арсенида галлия оправы и зеркала из 23 пар четвертьволновых пластинок, пропускающих 250 миллионных долей падающего света. Механическая добротность микрорезонатора массой 50 нанограмм при комнатной температуре составила 16000, а оптическая добротность интерферометра — 13000.  Если включить установку, то излучение Nd:YAG-лазера будет использоваться как для измерения движения микрорезонатора, так и для его стабилизации от флуктуаций посредством системы с обратной связью. Дополнительный контур обратной связи отвечает за несовпадение резонансных частот интерферометра и лазерного излучения. После компенсации возмущений, отраженный от микрорезонатора свет используется для анализа его смещений. Измеряемой величиной является шумовой спектр фотодетектора PDM. Он состоит из нескольких компонент, из которых авторы работы рассматривают классические флуктуации интенсивности и частоты лазера, тепловой шум, дробовой шум, шум темнового тока фотодиода и QRPN. Основной вклад вносит тепловой шум, но работа устройства на малой мощности позволяет построить его модель в условиях пренебрежимо малого влияния следующего по важности компонента — QRPN.  Для непосредственного определения квантового обратного действия физики измеряли смещения микрорезонатора при пяти значениях мощности лазерного излучения: 10, 73, 110, 150 и 220 милливаттах. Оказалось, что QRPN примерно равен по мощности тепловому шуму на частотах от 100 до 10 кГц, затем тепловой становится доминирующим, но QRPN все еще можно измерить вплоть до 2 кГц, где его вклад составляет примерно 20%. Также физики проверили зависимость QRPN от мощности излучения, которая соответствовала предсказываемой теорией квадратичной.   Поиск гравитационных волн является примером измерений очень малых величин, поэтому для уверенной регистрации необходим учет множества факторов, а исказить данные могут самые неожиданные причины. Например, слушать гравитационные волны может помешать атмосфера и даже птицы. Тем не менее, физики значительно продвигаются в плане учета разных шумов. О революционности открытия гравитационных волн мы писали в материале «За волной волна». </t>
+    <t>Биология,Зоология,Звук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Левая дорсолатеральная префронтальсвязаная кора играет важную роль в формировании вербальной памяти: если во время запоминания слов, любого текста, или его отрывка стимулировать эту область, то после, при попытке воспроизвести запомненное, обнаружится снижение производительности памяти. Причем такое снижение производительности в основном отмечается при применении возбуждающей транскраниальной магнитной стимуляции (ТМС) с частотой колебаний 20 герц. Таким образом, кажется, что активность левой дорсолатеральной префронтальной коры может иметь обратную связь с производительностью памяти. Соответственно, можно предположить, что, подавляя активность левой дорсолатеральной префронтальной коры, возможно увеличить производительность памяти. А тот факт, что применение медленной (с частотой один герц) повторяющейся ТМС оказывает тормозящее действие на моторные области, подсказывает метод воздействия. Мирче ван дер Плас (Mircea van der Plas) и его коллеги проверили эту гипотезу, повторно проанализировав данные исследования, авторы которого изучали роль левой дорсолатеральной префронтальной коры в процессах намеренного забывания. В первом эксперименте исследования 40 здоровых участников и во втором — 24 просматривали за серию по два списка из 10 слов, а всего таких серий было 12. Перед участниками стояла задача либо запомнить оба списка, либо только один. При этом в каждом эксперименте во время запоминания второго списка половина участников получала повторяющуюся ТМС с частотой один герц левой дорсолатеральной префронтальной коры, а другая половина, которая стала контрольной группой, — в область макушки головы, так как согласно предыдущим исследованиям стимуляция этих зон оказывает относительно небольшое влияние на текущие мозговые процессы, участвующие в большинстве экспериментальных задач. Оказалось, что при свободном припоминании по сравнению с контрольной группой участники экспериментальной группы вспомнили значимо больше слов, но только слов из тех списков, во время запоминания которых они получали стимуляцию дорсолатеральной префронтальной коры. Одновременно записанные для данные ЭЭГ для первого эксперимента показали, что ТМС с частотой один герц ассоциировалась с последующим снижением бета-волн — состоянием, которое, как известно, полезно для формирования памяти. Это снижение отмечалось в теменных и затылочных областях, которые участвуют в процессах восприятия информации, что критично для запоминания, ведь невозможно верно запомнить то, что неверно воспринято или вовсе не воспринято. Но пока непонятно, связано ли это снижение с тем, что таким образом передние отделы побуждают задние к более качественной обработке или, наоборот, тормозят ее, или же вовсе это свидетельство более высокой функциональной связанности между передними и задними регионами. Как пишут авторы, это должно стать предметом будущих исследований, которые ответят на вопросы о том, как именно ТМС с частотой один герц, примененная к левой дорсолатеральной префронтальной коре, вызывает более выраженное снижение бета-волн в задних областях и улучшение памяти в результате этого. Помимо эффекта, который ТМС оказывает на память, она помогла ученым перехватить воспоминания на пути из кратковременной в долговременную память. А это важно для изучения механизмов формирования памяти, и переноса информации из рабочей памяти в долговременное хранилище. Екатерина Рощина </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зоологи выяснили, что самки обыкновенных вампиров регулярно пьют кровь вместе с подругами и родственницами. Ранее считалось, что дружеские связи этих рукокрылых проявляются лишь внутри колоний, во время отдыха. По мнению авторов исследования, совместное кормление кровью одних и тех же жертв укрепляет связи между вампирами — а также позволяет сэкономить энергию, необходимую для прокусывания кожи, и при необходимости дать отпор конкуренту из чужой колонии. Результаты исследования опубликованы в статье для журнала PloS Biology. Обыкновенные вампиры (Desmodus rotundus) давно стали излюбленным объектом изучения зоологов. Дело в том, что для отдыха в светлое время суток самки этих летучих мышей собираются большими группами, члены которых делятся друг с другом добытой кровью и формируют крепкие дружеские связи. Ученые надеются, что, наблюдая за вампирами, они смогут больше узнать об эволюции социальности, в том числе у людей. Команда специалистов под руководством Джеральда Картера (Gerald Carter) из Университета штата Огайо и Смитсоновского института тропических исследований изучает социальное поведение обыкновенных вампиров уже много лет. За это время исследователям удалось, например, выяснить, что в сообществах вампиров-самок отсутствует строгая иерархия, а подруги заботятся о детенышах друг друга. Кроме того, заболевшие особи поддерживают социальное дистанцирование. Картер и его соавтор Саймон Риппергер (Simon P. Ripperger) обратили внимание, что большинство работ о социальности вампиров посвящены тому, как эти рукокрылые ведут себя внутри колоний, где проводят светлое время суток. О взаимоотношениях вампиров за пределами мест отдыха известно намного меньше. Лишь в некоторых публикациях есть упоминания о том, что самки вампиров, связанные дружескими отношениями, вместе отправляют за пищей, во время ее поиска держатся небольшими компаниями от двух до шести особей и даже сосут кровь одних и тех же животных.  В попытке выяснить, действительно ли обыкновенные вампиры ищут еду и кормятся вместе с друзьями, Картер и Риппергер пометили датчиками сближения 50 самок вампиров из округа Толе в Панаме. 27 из них поймали в дикой природе и сразу же выпустили, оснастив меткой. Еще 23 самки перед выпуском провели 21 месяц в лаборатории или родились в неволе. Благодаря датчикам ученые получили возможность отслеживать встречи вампиров как на месте отдыха, так и во время кормления. Чтобы облегчить наблюдение за вампирами, их снабдили стабильным источником питания. В течение пяти ночей в сентябре 2017 года зоологи сгоняли стадо из примерно ста коров в загон, расположенный в 300 метрах от дерева, в дупле которого в светлое время суток держалась интересовавшая их колония из 200-250 вампиров. На протяжении еще четырех ночей в течение периода исследования скот пасся свободно. Как выяснили Картер и Риппергер, обыкновенные вампиры почти никогда не вылетают с места отдыха одновременно с друзьями или другими сородичами. Однако порой они воссоединяются друг с другом за пределами колонии, когда кормятся на одном и том же животном. В общей сложности авторы зафксировали 586 таких встреч, которые в среднем длились около секунды — намного меньше, чем взаимодействия во время отдыха. Ни одна из встреч во время кормления не заняла более получаса. Во взаимодействиях вне колонии поучаствовала 151 пара самок. Члены 45 таких пар встречались друг с другом больше одного раза. Исследователи выявили положительную корреляцию между степенью родства и вероятностью, что две особи столкнутся во время кормления (p&lt;0,0001). Кроме того, они выяснили, что близкие родственники, встретившиеся вне колонии, проводят рядом особенно много времени (в среднем девять секунд против одной секунды для самок, не связанных родством). Дружеские отношения между вампирами также повышают вероятность совместного кормления. Самки, склонные проводить больше времени друг с другом во время отдыха, чаще встречаются вне колонии и дольше держатся рядом. А самые общительные особи, которые поддерживают контакт со значительным количеством сородичей на месте отдыха, также чаще встречаются с ними за пределами колонии. Особое внимание Картер и Риппергер уделили самкам вампиров, которые перед выпуском около двух лет прожили в неволе. Оказалось, что наличие дружеских связей, сформировавшихся в лаборатории, положительно коррелирует с вероятностью совместного кормления. При этом в неволе, где вампиров кормят кровью из фонтанчика, они не демонстрируют склонности кормиться вместе с друзьями. Во время работ в округе Толе исследователи лишь дважды собственными глазами видели кормление пары летучих мышей на одной корове. Чтобы непосредственно понаблюдать за этим процессом, авторы вооружились инфракрасными камерами и отправились на ферму в округе Ла Чоррера. В результате они смогли запечатлеть 14 случаев совместного кормления вампиров. В некоторых случаях рукокрылые вели себя дружелюбно, но иногда вступали в конфликт, причем более ожесточенный, чем можно наблюдать во время кормления в неволе (вероятно, это были представители разных колоний, не связанные родственными и дружескими узами).  Ученым также удалось записать ультразвуковые сигналы, которые вампиры издавали при кормлении. Два типа криков уже были знакомы специалистам: нисходящий сигнал, который эти летучие мыши производят в колониях, а также жужжание, сопровождающее конфликты особей. Однако помимо них исследователи также выявили еще один, неизвестный ранее сигнал, который на спектрограмме напоминает английскую букву «n». Его издавали вампиры, встретившиеся на одной корове. Картер и Риппергер не обнаружили подтверждений, что вампиры из одной колонии вместе ищут жертв. Тем не менее эти рукокрылые регулярно встречаются во время кормления, причем предпочитают питаться вместе с друзьями и родственниками (представители многих других видов животных, от птиц до дельфинов и приматов, также предпочитают кормиться вместе с друзьями). Поскольку прокусить кожу коровы довольно трудно, одна особь в паре может пить кровь из отверстия, которое уже проделала ее подруга. Это менее затратный способ поделиться едой, чем срыгнуть проглоченную кровь товарищу, оставшемуся в колонии. Также пара самок-подруг с большей вероятностью даст отпор конкурентам из других колоний, чем одиночная особь. Авторы предполагают, что совместное кормление укрепляет дружеские связи между самками вампиров — а в некоторых случаях дает им начало. Например, если две особи предпочитают определенный вид добычи, они с высокой вероятностью встретятся на одной и той же жертве, после чего их дружба продолжит развиваться на месте отдыха. С другой стороны, если две самки подружились внутри колонии, они, скорее всего, предпочтут пить кровь одних и тех же животных. В последние годы зоологи получают все больше данных о дружбе между дикими животными. Среди видов, которые заводят друзей на долгие годы, такие разные существа, как темноперые серые акулы (Carcharhinus amblyrhynchos), жирафы (Giraffa camelopardalis) и четыре вида фламинго.  Сергей Коленов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Американские инженеры показали, что сигналы интернет-спутников Starlink можно использовать для геолокации с помощью любительского радиооборудования. Записав сигналы шести пролетающих спутников, они рассчитали местоположение в пространстве с ошибкой в 33,5 метра, а при использовании высотомера и позиционировании на плоскости ошибка уменьшилась до 7,7 метра. Статья опубликована в IEEE Transactions on Aerospace and Electronic Systems, а также доступна на сайте Калифорнийского университета в Ирвайне. GPS, ГЛОНАСС и другие глобальные спутниковые навигационные системы работают следующим образом. Находясь на орбите, спутники транслируют сигнал, содержащий в себе данные о времени его испускания. Получив этот сигнал, приемник может сравнить его с собственным временем и по скорости распространения радиоволн рассчитать расстояние до спутника. А получив сигналы от хотя бы трех спутников, он может рассчитать свое местоположение. Спутники GPS и ГЛОНАСС находятся на высоте 19-20 тысяч километров, поэтому сигнал доходит с не очень высокой мощностью и исследователи уже довольно давно изучают возможность использования низкоорбитальных аппаратов, расположенных намного ближе к Земле. В последние годы толчок этому направлению дали новые большие группировки интернет-спутников, такие как Starlink, OneWeb и несколько планируемых, в том числе Kuiper от Amazon. Потенциально близкое расположение к поверхности Земли и мощный принимаемый сигнал могут повысить качество спутниковой навигации, но фактически существующие системы не «заточены» под такое использование, поэтому классический метод с приемом сигналов о времени с ними не работает. Ранее исследователи предлагали альтернативные методы, для которых необязательно знать содержимое сигналов, но к Starlink их пока не применяли. Исследователи под руководством Захера Кассаса (Zaher Kassas) из Калифорнийского университета в Ирвайне научились рассчитывать местоположение по сигналам Starlink, не имея информации о его содержимом. Они обнаружили, что в сигнале спутников на частоте 11,325 гигагерц есть девять несущих пиков сигнала. Авторы решили рассчитывать местоположение с помощью отслеживания фазы несущей, метода, используемого для повышения точности GPS-измерений до десятков сантиметров. Они дополнили его адаптивным фильтром Калмана для подстройки частоты из-за допплеровского смещения сигнала от спутников.   Одна из проблем использования GPS и его аналогов в больших городах заключается в том, что сигнал отражается от зданий, поэтому расчеты происходят с ошибками. В прошлом году Google начала добавлять в Android модели зданий в некоторых городах, чтобы учитывать их при расчете координат. Григорий Копиев </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Данные наблюдений космического телескопа «Хаббл» за 11 лет помогли ученым определить, что средняя скорость ветров в знаменитом вихре Большое Красное Пятно на Юпитере постепенно растет по мере уменьшения размеров урагана и округления его формы. За 11 лет она увеличилась на 4–8 процентов. Статья опубликована в Geophysical Research Letters. Большое Красное Пятно представляет собой огромный антициклон в Южной тропической зоне (STrZ) атмосферы Юпитера, который наблюдается уже более 350 лет и исследовался многими наземными и космическими телескопами, а также межпланетными станциями. Размеры и долговечность урагана делают его уникальным среди вихрей Солнечной системы, кроме того он интересен как представитель класса вихревых блинов (pancake vortices), которые включают в себя темные пятна на Нептуне и некоторые вихри в земных океанах и характеризуются тем, что их толщина намного меньше их горизонтальных размеров. Более ранние долговременные исследования уже помогли выявить уменьшение вихря (что, впрочем, пытаются опровергнуть некоторые научные группы), изменение его формы с овала на круг и смену окраски. Группа планетологов во главе с Майклом Вонгом (Michael Wong) из Калифорнийского университета опубликовала результаты измерения скорости и направления ветров в Большом Красном Пятне путем анализа данных наблюдений космического телескопа «Хаббл» в период с 2009 по 2020 год.   Ранее мы рассказывали о том, как ученые выяснили природу темных областей в Большом Красном Пятне и на какую глубину уходят «корни» урагана. Александр Войтюк </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эмбриологи обнаружили, что ДНК однояйцевых близнецов отличается от ДНК разнояйцевых близнецов различным метилированием в 243 позициях. Этот паттерн метилирования сходен для всех монозиготных близнецов, и по нему можно сказать, был ли человек зачат как однояйцевый близнец или нет. Для того чтобы выяснить это, ученые проанализировали образцы крови 924 монозиготных близнецов и 1033 дизиготных близнецов. Больше всего отличий нашли в метилировании регионов рядом с теломерами и центромерами хромосом, а также в генах, участвующих в клеточной адгезии и эмбриогенезе. Исследование опубликовали в Nature Communications.  Монозиготные (однояйцевые) близнецы появляются в результате деления одной зиготы, то есть такие близнецы имеют одинаковый генотип. Примерно 12 процентов от всех беременностей начинается с развития монозиготных близнецов, но в процессе дальнейшего развития один из близнецов погибает. Точные причины образования однояйцевых близнецов не известны, и пока ученые считают, что это случайный процесс.  На ранних этапах эмбриогенеза возникновение монозиготных близнецов совпадает по времени с эпигенетическими изменениями в геноме эмбриона — метилированием и деметилированием. Ученые из семи стран во главе с Доррет Боомсма (Dorret I. Boomsma) из Амстердамского свободного университета предположили, что такие эпигенетические изменения у однояйцевых близнецов могут отличаться от остальных эмбрионов. Чтобы проверить свою гипотезу, исследователи проанализировали образцы крови 1957 человек: из них 924 человека были монозиготными близнецами, а 1033 — дизиготными (разнояйцевыми) близнецами, возникшими после оплодотворения двух разных яйцеклеток. Оказалось, что ДНК у всех пар однояйцевых близнецов имеет сходный паттерн метилирования, который отличается от паттерна метилирования в ДНК разнояйцевых близнецов в 243 позициях (p &lt; 0,0001). В среднем разница в метилировании составляет 2,2 процента. При этом больше всего отличий в метилировании наблюдали на участках ДНК рядом с теломерами и центромерами хромосом, в зонах гетерохроматина, а также в генах, участвующих в клеточной адгезии и эмбриогенезе.  Кроме этого, ученые разработали алгоритм, с помощью которого можно узнать, был ли человек зачат как однояйцевый близнец, проанализировав его ДНК. Этот метод позволит изучать редкие генетические аномалии, например синдром Беквита-Видемана. Существует гипотеза, что этот синдром развивается у монозиготных близнецов, один из которых впоследствии умирает внутриутробно на ранних стадиях развития. Пока эмбриологи не могут сказать, является ли особый паттерн метилировании ДНК однояйцевых близнецов следствием, побочным событием или причиной их образования. Для того чтобы определить это, понадобятся новые исследования. За последние 30 лет доля рождения близнецов от общего числа рождений в популяции по всему миру увеличилась на треть. По словам ученых, важной причиной этого стоит считать огромный рост вспомогательных репродуктивных технологий. Анастасия Кузнецова-Фантони </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Американский авиастроительный концерн Boeing передал ВМС США первый палубный истребитель F/A-18 Super Hornet версии Block III. Самолет получил планер с ресурсом десять тысяч летных часов, кокпит с панорамным многофункциональным сенсорным дисплеем и радиопоглощающее покрытие.  Первые F/A-18 разработали в семидесятых годах, а в восьмидесятых они поступили на вооружение корпуса морской пехоты и ВМС США. Это семейство истребителей включает самолеты трех поколений: первого — одноместные и двухместные F/A-18A и F/A-18B, второго — C и D и третьего — E/F. ВМС США собираются списать все устаревшие версии Super Hornet, то есть А, B, C и D, к 2030 году.  Разработкой новой версией Super Hornet под названием Block III занимается Boeing. Военные заказали у концерна 78 таких самолетов. Super Hornet Block III отличаются радиопоглощающим покрытием, которое делает их малозаметными для радиолокационных станций, и улучшенным планером. Ресурс последнего составляет десять тысяч часов. Для сравнения, у остальных F/A-18E/F он насчитывает шесть тысяч часов.  Super Hornet Block III получил многофункциональный сенсорный дисплей, усовершенствованную систему управления вооружением и инфракрасную поисково-следящую систему, позволяющую обнаруживать цели по тепловому излучению.  На истребитель также должны были установить конформные топливные баки. Они увеличили бы его дальность полета на 222 километра. Но ВМС США отказались от этих планов, не раскрывая точных причин. Предполагается, что военных не устроили вопросы стоимости, графика готовности и эффективности баков.  В прошлом году ВМС США получили два самолета с некоторыми обновлениями Block III. Опытные образцы уже успешно прошли ряд испытаний, подтвердивших, что подходят для запуска и посадки на авианосец.  ВМС США получили первый палубный истребитель F/A-18 Super Hornet версии Block III 31 августа, но сообщили об этом только 27 сентября. Первый из 78 обновленных Super Hornet отправили двадцать третьей испытательной эскадрилье в Мэриленде для проведения доводочных испытаний. Boeing планирует не только строить новые истребители версии Block III, но и модифицировать Super Hornet Block II.  Новая версия Super Hornet частично основана на проекте Advanced Super Hornet, о котором мы писали ранее.  Василиса Чернявцева </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Астрономы с большой точностью определили положение непрозрачного облачного слоя в атмосфере экзопланеты WASP-127, которая относится к классу горячих сатурнов. В этом им помогли наземный телескоп VLT и космический телескоп «Хаббл». Результаты работы доступны на сайте конференции EPSC-2021. За последние несколько лет в области исследований атмосфер экзопланет наблюдается значительный прогресс как с точки зрения определения их примерного химического состава, так и их свойств, в частности распределения температуры, наличия ветров, облаков или дымки. При этом целями наблюдений становятся самые разные объекты — от землеподобных экзопланет до горячих газовых гигантов, а результаты подобных исследований позволяют ученым проверять модели формирования и эволюции экзопланет, а также оценивать их потенциальную обитаемость при помощи биомаркеров. Группа астрономов во главе с Роменом Аллартом (Romain Allart) из Монреальского университета опубликовала результаты анализа наблюдений за экзопланетой WASP-127b в оптическом диапазоне волн при помощи эшелле-спектрографа ESPRESSO, установленного на комплексе из четырех 8-метровых телескопов VLT, а также в ближнем инфракрасном диапазоне волн при помощи космического телескопа «Хаббл». Наблюдения велись когда планета проходила по диску своей звезды, при этом излучение светила проходило сквозь атмосферу экзопланеты, неся в себе информацию о ее свойствах.  Ученые сравнили полученные данные о содержании водяного пара и атомарного натрия с моделями строения атмосферы WASP-127b и пришли к выводу, что лучше всего подходит модель, в которой есть слои облаков, непрозрачных в оптическом диапазоне, но прозрачных в инфракрасном, на высотах, соответствующих давлению между 0,3 и 0,5 миллибар. Ученые считают, что примененная ими в ходе работы методика поможет выявить облака и на других экзопланетах. Ранее мы рассказывали о том, как «Спитцер» не нашел атмосферы у близкой экзопланеты земного типа и как богатая углеродом атмосфера горячего юпитера указала на место его формирования. Александр Войтюк </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перед вами фотография Южного полюса Марса, сделанная аппаратом Mars Reconnaissance Orbiter. Он обнаружил рядом со льдом глину, и ученые решили, что именно ее астрономы раньше ошибочно принимали за жидкую воду при обследовании поверхности с помощью радиолокации. А срез мозжечка выглядит так: Перед вами фотография Южного полюса Марса, сделанная аппаратом Mars Reconnaissance Orbiter. Он обнаружил рядом со льдом глину, и ученые решили, что именно ее астрономы раньше ошибочно принимали за жидкую воду при обследовании поверхности с помощью радиолокации. А срез мозжечка выглядит так: Вы смотрите на моторные нейроны спинного мозга. Они располагаются в передних его рогах и обеспечивают сокращение мышц конечностей. Мотонейроны объединяются в пулы, которые иннервируют определенную мышцу. Их количество в каждом пуле прямо пропорционально точности контроля за работой отдельной мышцы. Например, у мышц пальцев мотонейронов больше, чем в мышце бедра — это и позволяет пальцам выполнять более тонкую работу. А поверхность спутника Юпитера Европы (на снимке с зонде «Галилео») выглядит так:  Вы смотрите на моторные нейроны спинного мозга. Они располагаются в передних его рогах и обеспечивают сокращение мышц конечностей. Мотонейроны объединяются в пулы, которые иннервируют определенную мышцу. Их количество в каждом пуле прямо пропорционально точности контроля за работой отдельной мышцы. Например, у мышц пальцев мотонейронов больше, чем в мышце бедра — это и позволяет пальцам выполнять более тонкую работу. А поверхность спутника Юпитера Европы (на снимке с зонде «Галилео») выглядит так:  Вы смотрите на снимок Земли Ноя, которая находится в южной части западного полушария Марса. В честь этого нагорья астрономы назвали отдельный период истории Марса, во время которого планета подвергалась мощной бомбардировке астероидами. Кроме множества кратеров, в южной части земли Ноя появились причудливые узоры, вызванные, по всей видимости, сжатием и расширением подземного льда. А срез поджелудочной железы выглядит так: Вы смотрите на снимок Земли Ноя, которая находится в южной части западного полушария Марса. В честь этого нагорья астрономы назвали отдельный период истории Марса, во время которого планета подвергалась мощной бомбардировке астероидами. Кроме множества кратеров, в южной части земли Ноя появились причудливые узоры, вызванные, по всей видимости, сжатием и расширением подземного льда. А срез поджелудочной железы выглядит так: На изображении срез головного мозга, обработанный нитратом серебра и дихроматом калия. Именно способ окрашивания препарата и придает ему желто-коричневый цвет. Эту технику придумал итальянский гистолог Камилло Гольджи, и нее есть преимущества перед другими методами окрашивания. Дело в том, что клетки в нервной ткани расположены очень компактно, но по методу Гольджи окрашивается только небольшое число клеток. Причина этого феномена до сих пор неизвестна. А поверхность Ио выглядит так (темные пятна — погасшие вулканы): На изображении срез головного мозга, обработанный нитратом серебра и дихроматом калия. Именно способ окрашивания препарата и придает ему желто-коричневый цвет. Эту технику придумал итальянский гистолог Камилло Гольджи, и нее есть преимущества перед другими методами окрашивания. Дело в том, что клетки в нервной ткани расположены очень компактно, но по методу Гольджи окрашивается только небольшое число клеток. Причина этого феномена до сих пор неизвестна. А поверхность Ио выглядит так (темные пятна — погасшие вулканы): Кишечные ворсинки — это выросты слизистой оболочки тонкой кишки, покрытые клетками эпителия с множеством еще более мелких ворсинок. За счет них всасывающая способность кишки увеличивается в 8-10 раз. Внутри кишечной ворсинки находятся сосуды, по которым питательные вещества доставляются от кишки в остальные ткани организма. Расщепленные белки и углеводы попадают в кровеносные сосуды, а жиры — в лимфатические. А фьорды на спутниковых снимков выглядят так: Кишечные ворсинки — это выросты слизистой оболочки тонкой кишки, покрытые клетками эпителия с множеством еще более мелких ворсинок. За счет них всасывающая способность кишки увеличивается в 8-10 раз. Внутри кишечной ворсинки находятся сосуды, по которым питательные вещества доставляются от кишки в остальные ткани организма. Расщепленные белки и углеводы попадают в кровеносные сосуды, а жиры — в лимфатические. А фьорды на спутниковых снимков выглядят так: Эту фотографию поверхности Энцелада сделал космический аппарат «Кассини» 18 мая 2020 года. «Кассини» начал изучать Энцелад еще в 2005 году и с тех пор обнаружил, что спутник Сатурна геологически активен, а под его ледяной поверхностью находится океан жидкой воды. Так Энцелад стал важным для астробиологов объектом. Еще больше снимков Сатурна — в материалах «Большой финал "Кассини"» и «Свидание с властелином колец». А срез соединительная ткань выглядит так:  Эту фотографию поверхности Энцелада сделал космический аппарат «Кассини» 18 мая 2020 года. «Кассини» начал изучать Энцелад еще в 2005 году и с тех пор обнаружил, что спутник Сатурна геологически активен, а под его ледяной поверхностью находится океан жидкой воды. Так Энцелад стал важным для астробиологов объектом. Еще больше снимков Сатурна — в материалах «Большой финал "Кассини"» и «Свидание с властелином колец». А срез соединительная ткань выглядит так:  Перед вами изображение центра шестиугольника Сатурна — вихря, расположенного на северном полюсе этой планеты. Каждая из сторон шестиугольника имеет в длину 14 500 километров, что сравнимо с диаметром Земли. До сих пор ученые точно не знают, как образовался этот шестиугольник, и регулярно выдвигают новые гипотезы. А катаракта выглядит так: Перед вами изображение центра шестиугольника Сатурна — вихря, расположенного на северном полюсе этой планеты. Каждая из сторон шестиугольника имеет в длину 14 500 километров, что сравнимо с диаметром Земли. До сих пор ученые точно не знают, как образовался этот шестиугольник, и регулярно выдвигают новые гипотезы. А катаракта выглядит так: Южная полярная шапка Марса состоит из большого количества твердого диоксида углерода с примесью льда, воды и пыли. Летом часть полярной шапки испаряется и ее площадь уменьшается. В NASA этот снимок окрестили «Мистер Арахис» из-за сходства изображения с бобом. А срез тонкой кишки при целиакии выглядит так: Южная полярная шапка Марса состоит из большого количества твердого диоксида углерода с примесью льда, воды и пыли. Летом часть полярной шапки испаряется и ее площадь уменьшается. В NASA этот снимок окрестили «Мистер Арахис» из-за сходства изображения с бобом. А срез тонкой кишки при целиакии выглядит так: 29 января 2020 года астрономы с помощью самого большого наземного солнечного телескопа DKIST получили наиболее детальное изображение фотосферы Солнца на сегодняшний день. На нем можно различить объекты размером до 30 километров. А хрящ выглядит так: 29 января 2020 года астрономы с помощью самого большого наземного солнечного телескопа DKIST получили наиболее детальное изображение фотосферы Солнца на сегодняшний день. На нем можно различить объекты размером до 30 километров. А хрящ выглядит так: Компактная костная ткань составляет около 80 процентов от общей массы человеческого скелета. Она складывается из отдельных единиц, которые называются остеонами. Эти цилиндрические образования состоят из костных пластинок, которые окружают Гаверсов канал — по нему проходят нервы и сосуды, питающие кость. А поверхность Меркурия выглядит так (цвета искусственные и обозначают химический состав): Компактная костная ткань составляет около 80 процентов от общей массы человеческого скелета. Она складывается из отдельных единиц, которые называются остеонами. Эти цилиндрические образования состоят из костных пластинок, которые окружают Гаверсов канал — по нему проходят нервы и сосуды, питающие кость. А поверхность Меркурия выглядит так (цвета искусственные и обозначают химический состав): </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Смоленский научно-исследовательский институт современных телекоммуникационных технологий разработал разведывательный беспилотник «Мерлин-ВР» с гибридным двигателем. Как сообщает «РИА Новости», он может летать на высоте до пяти километров и непрерывно вести наблюдения в течение десяти часов.  Пока на вооружении российской армии есть только небольшие разведывательные беспилотники. Например, «Орлан-10» со взлетной массой 14 килограммов. Он может летать на скорости до 150 километров и находиться в воздухе до 16 часов, а его дальность в автономном режиме составляет 600 километров. Есть и более тяжелые аппараты, такие как «Форпост-Р», у которого недавно появилась ударная модификация.  Смоленский научно-исследовательский институт современных телекоммуникационных технологий разработал разведывательный беспилотник «Мерлин-ВР» с гибридным двигателем. Он может летать на высоте до пяти километров и десять часов вести воздушный мониторинг в автоматическом и полуавтоматическом режиме.   Максимальная масса полезной нагрузки беспилотника — 6,5 килограмма. Этого достаточно, чтобы нести различные оптико-локационные станции. Разработчики уже представили «Мерлина-ВР» военным, и сейчас рассматривается возможность его испытаний. Других подробностей об аппарате не приводится.  В России также уже несколько лет идут программы по разработке ударных беспилотников. Ранее мы писали, военные уже получили три беспилотника «Орион» для опытной эксплуатации. Каждый такой аппарат может нести четыре ракеты.  Василиса Чернявцева </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Археологи исследовали человеческие останки, обнаруженные в коридорной гробнице на западе Испании. Оказалось, что в дольмене хоронили кремированные кости, причем само сожжение проходило за пределами памятника. Вероятно, такой погребальный обряд существовал в регионе в первой половине III тысячелетия до нашей эры. Статья опубликована в Journal of Archaeological Science: Reports. В эпоху неолита и халколита в Европе получили распространение сложенные из больших камней мегалитические гробницы, возникновение которых ученые связывают с появлением и развитием земледельческих обществ. Схожесть конструкций многих таких сооружений, расположенных в Скандинавии, Ирландии, Великобритании, Франции и Испании, позволила ученым связать их появление с развитием контактов между представителями разных культур. Известны такие гробницы III–II тысячелетия до нашей эры и на территории России, например, на Кавказе, где они относятся к майкопской археологической культуре раннего бронзового века. Существует два основных типа мегалитических гробниц: длинные каменные ящики (могилы с галереей) и коридорные гробницы. Последние представляют собой могильные камеры, к которым ведет более низкий и узкий вход. Такие сооружения наиболее распространены в Средиземноморье, Франции, Ирландии, Шотландии и Швеции. Погребальные сооружения, по всей видимости, всегда закрывались курганами или пирамидой из камней. В Испании мегалитические конструкции порой включали останки более ста человек, причем в большинстве случаев практиковалась ингумация, а по мере заполнения могильной камеры более древние кости перемещались к одной стороне, освобождая место для новых захоронений.  Давид Санчес-Абельян (David Sanchez-Abellan) совместно с коллегами из Мадридского университета Комплутенсе исследовал мегалитическую коридорную гробницу Лакара, расположенную на западе Пиренейского полуострова в Эстермадуре. Памятник представляет собой большой курган, в котором находится гранитное сооружение, состоящее из коридора и погребальной камеры. Исследователи предполагают, что подобные захоронения в регионе появились уже в конце эпохи неолита. Ученые проанализировали 1418 фрагментов костей, обнаруженных в гробнице в разные годы раскопок. В ходе работы они выяснили, что останки являются свидетельством преднамеренной кремации. Внутри гробницы не было обнаружено никаких свидетельств огня или значительного количества древесного угля, что указывает на кремацию за пределами дольмена. Цвет и текстура исследованных образцов показали, что большинство костей было сожжено при температуре выше 500 градусов Цельсия.  Археологи отметили, что сложно определить конкретный период, когда дольмен Лакара использовался для захоронения кремированных останков. При первом приближении датировка охватывает почти два тысячелетия (начало IV — конец III тысячелетия до нашей эры). Однако на других памятниках региона, где практиковалось захоронение кремированных останков в мегалитах, была проведена радиоуглеродная датировка по древесному углю. Оказалось, что они использовались в промежутке между 2800 и 2500 годами до нашей эры. Ранее на N + 1 рассказывали, что похороненные в мегалитах люди в Ирландии и Скандинавии нередко приходились друг другу близкими родственниками. Кроме того, археологи обнаружили на севере Израиля гигантский дольмен с гравировками, возраст которого превышает 4000 лет. Михаил Подрезов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ученые из Оксфорда выявили снижение ожидаемой продолжительности жизни в 2020 году в 27 странах из 29, в демографические базы которых были проанализированы. При этом в 11 странах ожидаемая продолжительность жизни у мужчин снизилась более чем на год. У женщин снижение продолжительности жизни больше чем на год наблюдалось в 8 странах. Результаты работы опубликованы в International Journal of Epidemiology. Ожидаемая продолжительность жизни рассчитывается исходя из предположения, что уровни смертности населения во всех возрастах в будущем останутся такими же, как в рассматриваемом году. Этот показатель обычно рассчитывают для описания текущего состояния общества, а для описания статистики по длине человеческой жизни в прошлом используют данные о средней продолжительности жизни, взятые из демографических баз.  С течением времени продолжительность жизни росла: если в Средневековье она составляла 30 лет, то к его концу поднялась до 50 лет. Бум роста продолжительности жизни пришелся на XX век, но его прервала Вторая мировая война. В Европейских странах, наиболее пострадавших во время войны, в 1943-1945 годах продолжительность жизни снизилась на 5-10 лет. Пандемия коронавируса унесла жизни 4,5 миллионов людей, вызвав увеличение смертности (а значит и снижение продолжительности жизни) по всему миру. Ученые из Оксфорда под руководством Ридхи Кашьяпа (Ridhi Kashyap) проанализировали смертность от всех причин в 29 странах (государства Европы, США и Чили) за 2020 год, добавив к ней смерти от коронавируса. По этим данным эпидемиологи рассчитали ожидаемую продолжительность жизни на момент рождения. Ее значения сравнивали с ожидаемой продолжительностью жизни в 2019 году. Исследователи выявили снижение продолжительности жизни в 27 из 29 исследованных стран. В 11 странах (среди них США, Литва, Болгария и Польша) ожидаемая продолжительность жизни у мужчин снизилась более чем на год. В 8 странах (среди них США, Испания и Бельгия) ожидаемая продолжительность жизни у женщин снизилась больше чем на год. Наибольшее снижение ожидаемой продолжительности жизни обнаружили у мужчин в США (2,2 года) и Литве (1,7 года).   Анастасия Кузнецова-Фантони </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Агентство перспективных оборонных разработок (DARPA) министерства обороны США вместе с ВВС США провело успешные летные испытания гиперзвуковой крылатой ракеты HAWC. Ракета достигла скорости, в пять раз превышающей звуковую.  DARPA в середине 2010-х годов объявило тендер на разработку гиперзвуковой авиационной ракеты HAWC (Hypersonic Air-breathing Weapon Concept, концепция гиперзвукового воздушно-реактивного оружия), которую можно было бы запускать с истребителей нескольких типов. В том числе, с F-35 Lightning II. В рамках проекта военные хотят также получить технологии управляемого гиперзвукового полета, прямоточного гиперзвукового воздушно-реактивного двигателя, работающего на углеводородном топливе, а также термостойких материалов. В тендере участвуют две американских компании: Raytheon и Lockheed Martin. Они обе уже провели первые испытания своих прототипов HAWC, во время которых ракеты были подвешены на самолет. Прошлой зимой ВВС США попытались запустить боеприпас разработки Lockheed Martin, но сброс был отменен по неуказанным механическим причинам.  На прошлой неделе DARPA и ВВС США запустили ракету HAWC, построенную Raytheon. Испытания прошли успешно. Двигатель ракеты запустился спустя несколько секунд после того, как ее сбросили с самолета, и она достигла скорости, в пять раз превышающей звуковую. Другие подробности не раскрываются.  В этом году американские военные попытались запустить другую гиперзвуковую ракету — аэробаллистическую AGM-183A ARRW, о которой мы писали ранее. Но испытания завершились неудачей. Василиса Чернявцева </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Археолог Роман Мимоход исследовал погребения, совершенные в сидячем положении, из могильников Волго-Уральского региона. Оказалось, что они относятся к финальному этапу среднего бронзового века (около XXII–XX веков до нашей эры), а оставили их представители лолинской археологической культуры, входящей в блок посткатакомбных культур. Статья опубликована в журнале Российская археология. Финальный этап среднего бронзового века (около XXII–XVIII веков до нашей эры) на обширной территории от Днепра до Нижней Волги и Северного Кавказа характеризуется появлением блока посткатакомбных культурных образований, одним из которых была лолинская культура. Ее памятники в основном сконцентрированы в степном Предкавказье. Археологи связывают появление этой культуры с передвижением групп населения из Северо-Восточного Кавказа в степь из-за резкой аридизации климата, которая произошла около 4200 лет назад. Миграция населения, связанного с лолинской культурой, подтверждена результатами палеоантропологических исследований, в том числе анализом морфологии серии черепов. Погребения лолинской культуры совершались как в одиночных курганах в составе более древних могильников, так и в отдельных скоплениях насыпей. В некоторых случаях они сопровождались каменными оградами, кромлехами и ровиками. Могилы обычно представлены простыми ямами, ямами с заплечиками или подбоями, а также катакомбами. В большинстве случаев это одиночные захоронения, которые, как правило, совершались в скорченном положении на левом боку. В редких случаях встречаются останки людей с деформированными черепами (узнать больше о разных древних черепах можно в нашем материале «Кто забыл эту голову?»), элементами расчленения или вторичного захоронения.  Роман Мимоход (Roman Mimokhod) из Института археологии РАН исследовал серию погребений бронзового века из Волго-Уралья, которые совершались в сидячем положении. Такие захоронения характеризуются следующими чертами: плотно прижатые кости голеней к бедренным; согнутые в локтях руки, охватывающие колени; вертикально поднятый череп теменем вверх. В ряде случаев зафиксирована не сидячая поза, а ее имитация. В этом случае ноги размещались аналогично, но туловище укладывалось на спину. Археолог отметил, что погребение в сидячем положении (или его имитация) распространено на памятниках эпохи энеолита на правобережье Волги. Однако исследуемые случаи относятся к финальному этапу среднего бронзового века. Так, в кургане 2 могильника Перевозинка два основных погребения относятся к волго-уральской культурной группе посткатакомбного периода — одной из составляющих культурного круга Лола. На это указывает целый ряд черт обряда, например, большая могила с заплечиками, скорченное положение скелета на левом боку с ориентировкой на юго-запад. Погребения волго-уральской культурной группы также характеризуются наличием костей ног мелких или крупных рогатых животных. Часть сидячих погребений (23 процента) была сделана в ямах с подбоем. Ученый отметил, что в 5 из 13 случаев в могилах также были найдены следы горения (зола и уголь) — по всей видимости, значимый признак погребального обряда. Инвентарь из этих погребений также свидетельствует об их датировке финалом среднего бронзового века. Он включал, в частности, фрагменты защитных накладок на запястье лучника, бронзовый нож с узким листовидным клинком, костяное пряслице и пряжку.  Археолог пришел к выводу, что сидячие захоронения из Волго-Уралья, судя по обряду и инвентарю, демонстрируют посткатакомбные признаки, за исключением лишь одного погребения, относящегося к постшнуровым традициям. С учетом локализации этих погребений и характерных черт обряда, по мнению ученого, их нужно отнести к волго-уральской культурной группе, находившейся на северной периферии культурного круга Лола. Датировка этих памятников — около XXII–XX веков до нашей эры. Ранее на N + 1 мы рассказывали о других исследованиях древностей бронзового века на территории России. Так, челябинские археологи обнаружили 17 младенческих погребений синташтинской культуры, а в Хакасии нашли богатое непотревоженное женское погребение карасукской культуры. Михаил Подрезов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палеонтологи обнаружили самую древнюю ястребиную птицу Австралии. Новый вид Archaehierax sylvestris («Лесной древний ястреб») жил в местных лесах около 25 миллионов лет назад, был довольно крупным и охотился на млекопитающих размером до кролика и птиц. Как отмечается в статье для журнала Historical Biology, древний хищник приходился весьма отдаленным родственником современным ястребам и орлам и потомков не оставил. Семейство ястребиных (Accipitridae) включает около 250 современных видов, многие из которых, например, орлы, орланы и грифы, занимают экологические ниши крупных хищников или падальщиков. Эволюционная история данной группы началась не позднее среднего эоцена. Именно к этой эпохе специалисты относят древнейшие ископаемые остатки птиц, которые напоминают ныне живущих ястребов и их родственников (в раннем эоцене их нишу могли занимать совы). А уже около 20 миллионов лет назад, судя по палеонтологическим и молекулярным данным, существовали все современные подсемейства ястребиных. К сожалению, в ископаемой летописи некоторых континентов ястребиные птицы представлены очень слабо. Например, до сих пор специалистам были известны всего два представителя этой группы, которые жили на территории Австралии до начала плейстоцена (возраст одного составляет 20-24 миллиона лет, а второго — 12-14 миллионов лет). Получить новые данные об эволюции австралийских ястребиных удалось команде палеонтологов во главе с Эллен Мэтер (Ellen K. Mather) из Университета Флиндерса. В центре внимания исследователей оказались окаменевшие остатки хищной птицы возрастом 24-25 миллионов лет, обнаруженные в 2016 году на позднеолигоценовой геологической формации Намба в штате Южная Австралия. Тщательно изучив находку, в том числе хорошо сохранившиеся кости крыльев и ног, а также фрагменты черепа, клюва и некоторых других частей скелета (в общей сложности 63 элемента), Мэтер и ее соавторы пришли к выводу, что перед ними не известный ранее представитель семейства Accipitridae, древнейший из обнаруженных на территории Австралии. Он получил название Archaehierax sylvestris — то есть, в переводе с древнегреческого, «лесной древний ястреб». Этот пернатый хищник был довольно крупным. По размерам он уступал самым крупным хищным птицам современной Австралии, клинохвостому орлу (Aquila audax) и белобрюхому орлану (Haliaeetus leucogaster), но был крупнее канюкового коршуна (Hamirostra melanosternon). Исследователи отмечают, что A. sylvestris обладал комбинацией анатомических признаков, характерных для разных современных подсемейств ястребиных птиц, так что его нельзя отнести ни к одному из них. А некоторые черты его строения и вовсе не встречаются у ныне живущих ястребиных. В результате A. sylvestris был выделен в собственное подсемейство Archaehieraxinae, состоящее из единственного вида. Возможно, оно является сестринским ко всем остальным ястребиным за исключением дымчатых коршунов (Elaninae). Как бы то ни было, доживших до современности потомков «лесной древний ястреб» не оставил.  В позднем олигоцене значительную часть Австралии покрывали леса. Известные к настоящему времени ископаемые флора и фауна формации Намба также соответствует лесистой местности. Исходя из этого, авторы предполагают, что A. sylvestris жил и охотился в лесах. В пользу данной гипотезы также говорят некоторые анатомические особенности данного вида, а именно относительно короткие крылья, обеспечивающие маневренность и позволяющие летать среди древесных стволов и крон, и удлиненные ноги, которыми удобно хватать жертв, сидящих на ветках. Похожие черты характерны для современных пернатых хищников, которые населяют леса, например, хохлатых орлов (Spizaetus) и гарпий (Harpia harpyja). Основной добычей «лесного древнего ястреба», вероятно, были наземные, древесные и околоводные позвоночные: млекопитающие размером с кролика и мельче (например, древние сородичи поссумов и коал) или мелкие и среднеразмерные птицы. Он мог поджидать их в засаде, сидя на ветке, а затем, когда жертва оказывалась зоне досягаемости, быстро вылетать из укрытия и атаковать. Вместе с остатками A. sylvestris палеонтологи обнаружили в формации Намба еще две кости конечностей более мелких ястребиных птиц, которые, скорее всего, относились к другому виду или видам. Однако плохая сохранность не позволяет достоверно судить о систематическом положении и биологических особенностях их владельцев. Многие современные хищные птицы по вине человека оказались на грани исчезновения. Проанализировав распространение и видовое разнообразие пернатых хищников по всему миру, орнитологи пришли к выводу, что для сохранения редких представителей этой группы лучше сосредоточиться на более эффективной охране существующих заповедников и национальных парков, а не на создании новых. Сергей Коленов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палеонтологи описали новый род и вид анкилозавров — Spicomellus afer. Ученые отмечают, что это самый древний представитель группы, а также первый анкилозавр, найденный в Африке. Новый анкилозавр описан на основе необычного ребра, которое срослось с шипастой остеодермой (кожным окостенением). В статье, опубликованной в журнале Nature Ecology &amp; Evolution, говорится, что подобная анатомическая структура не встречается ни у каких других животных. Анкилозавры (Ankylosauria) — группа растительноядных динозавров, покрытых броней из остеодерм. Они были родственны стегозаврам, от которых отделились в конце ранней или начале средней юры. В палеонтологической летописи базальные анкилозавры практически не представлены. Единственный валидный вид анкилозавров из средней юры — Sarcolestes leedsi, найденный на территории Великобритании в отложениях формации Оксфорд-Клэй (Oxford Clay Formation).  Большинство ископаемых остатков анкилозавров обнаружено на территории бывшей Лавразии — в Северной Америке и Евразии, в то время как гондванские анкилозавры немногочисленны и в основном представлены фрагментарным материалом. Исследование Сюзанны Мейдмент (Susannah C. R. Maidment) из Музея естественной истории в Лондоне и ее коллег из Великобритании, Марокко и Швейцарии позволяет предположить, что разнообразие гондванских анкилозавров гораздо выше, чем считалось ранее. Ученые описали новый род и вид анкилозавров на основе окаменелости, найденной в Марокко. Палеонтологи отмечают, что это первый африканский представитель группы. Динозавра назвали Spicomellus afer, что в переводе с латыни означает «шипастый воротник из Африки». Такое название ему дали из-за необычного вида окаменелости: это был фрагмент ребра, к которому сверху приросла остеодерма, несущая ряд конических шипов. Из-за этого исследователи сначала даже затруднялись определить таксономическую принадлежность образца. Только после изучения окаменелости с помощью компьютерной томографии и палеогистологических методов ученые смогли отнести образец к анкилозаврам.  Срастание остеодерм с ребрами еще не было обнаружено у анкилозавров. Более того, оно не встречается и у других животных, включая черепах, — в формировании костальных пластинок их карапакса остеодермы не принимают участия. По мнению авторов, срастающиеся с ребрами шипастые остеодермы были более надежной защитой по сравнению с отдельными шипами.  Окаменелость была обнаружена в среднеюрских отложениях формации Эль-Мерс III (El Mers III Formation), возраст которых составляет примерно 168,3–163,5 миллиона лет, что делает S. afer древнейшим представителем анкилозавров. Недавно из этой же формации был описан и самый древний стегозавр — Adratiklit boulahfa. Прежде ученые предполагали, что анкилозавры вытеснили стегозавров, которые в итоге вымерли в конце раннего мела. Однако очередной пример сосуществования анкилозавра и стегозавра в одной экосистеме ставит под сомнение такое предположение. Другие подобные примеры включают в себя анкилозавра Sarcolestes и стегозавра Loricatosaurus из среднеюрской формации Оксфорд-Клэй; анкилозавра Dracopelta и стегозавров Miragaia и Stegosaurus из верхнеюрской формации Лориньян (Lourinhã Formation). Таким образом, представители обеих групп сосуществовали на протяжении более 20 миллионов лет, поэтому вымирание стегозавров, вероятно, произошло по другим причинам. Ранее мы писали о другом анкилозавре — Borealopelta markmitchelli из раннего мела Канады. Его ископаемые остатки содержали следы меланина, что позволило палеонтологам предположить о наличии у этого динозавра покровительственной окраски.  Семён Морозов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Английские и датские ученые в эксперименте на добровольцах показали, что текущие рекомендации по оптимальному для выработки витамина D пребыванию на солнце могут быть неверными, но пока непонятно, в большую или меньшую сторону. Медики посмотрели концентрацию витамина D в крови участников исследования после облучения разными аппаратами. Оказалось, что облучение одинаковой интенсивности, но из разных источников, вызывает выработку разного количества витамина D. Исследование опубликовали в Proceedings of the National Academy of Sciences. Солнечное излучение в большом количестве вызывает покраснение кожи. Для его оценки в медицине приняли единицу измерения SED (стандартная эритемная доза). Одна единица SED равна дозе в 100 джоулей на квадратный метр поверхности кожи. При этом для расчета индивидуальной реакции кожи на солнечное излучение используют MED (минимальная эритемная доза). У людей со светлой кожей (I/II фототип) MED составляет примерно три SED. В работах, изучающих синтез витамина D в коже под действием ультрафиолетового излучения, чаще используют единицы SED, чтобы сделать результаты единообразными. В таких экспериментах ученые пытаются понять, как соблюсти баланс между выработкой витамина D и повреждением кожи. При этом в исследованиях применяют разные источники ультрафиолетового излучения (а не только солнце), полагая, что излучение одинаковой интенсивности одинаково сказывается на выработке витамина D. По таким работам обычно и строятся рекомендации по оптимальному пребыванию на солнце: обычно рекомендуют бывать на улице 15-30 минут между 11 и 15 часами дня. Ученые из Англии и Дании во главе с Петером Филипсеном (Peter A. Philipsen) из Больницы университета Копенгагена решили проверить, совпадают ли показатели синтеза витамина D (25(OH)D3) при одинаковой SED от разных ультрафиолетовых ламп. Они облучили все тело участников разными аппаратами: Arimed B (19 человек), UV6 (10 человек) и PUVA (11 человек). Всего провели 5 сеансов, и на каждом из них участники получили дозу в два SED. В начале исследования у каждого испытуемого взяли кровь, по которой определили уровень 25(OH)D3, а затем измеряли его концентрацию после каждого сеанса.  Исследователи считают, что SED нельзя использовать для предсказания синтеза витамина D, так как разные источники ультрафиолетового излучения по-разному воздействуют на его выработку. По мнению авторов работы, предыдущие рекомендации по оптимальному для синтеза витамина D пребыванию на солнце могут не соответствовать истине, а значит их надо пересмотреть после дополнительной проверки. В большую или в меньшую сторону – сказать пока нельзя, это покажут новые исследования. Американские медики обнаружили связь дефицита ультрафиолета B, ответственного за выработку витамина D, с заболеваемостью колоректальным раком, причем найденная ассоциация усиливается с возрастом. Анастасия Кузнецова-Фантони </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Организаторы соревнований роботов для подземной среды DARPA Subterranean Challenge провели финальный этап и объявили победителей. В реальном соревновании, проходившем в пещере и искусственных подземных сооружениях, победила команда CERBERUS, использовавшая четвероногого робота, а в виртуальном зачете первой стала Dynamo, выбравшая квадрокоптер. Запись финала опубликована на YouTube-канале DARPA. Управление перспективных исследовательских проектов Министерства обороны США (DARPA) непосредственно разрабатывает и способствует разработке новых технологий, которые потенциально можно использовать в военных целях. Управление известно в том числе и своими технологическими конкурсами, самым успешным из которых стал Urban Challenge, в рамках которого разработчики создавали беспилотные автомобили. Этот конкурс дал огромный толчок отрасли, а многие из его участников затем основали компании и проекты, которые сегодня лидируют в этой области: Waymo, Zoox, Nuro и другие. Цель Subterranean Challenge заключалась в разработке роботов и вообще разного рода систем для автономной навигации и создания карт подземных пространств, а также поиска в них объектов. Конкурс был разделен на две основные категории: реальную и виртуальную (участвовать можно было сразу в обеих). Сначала прошли три отдельных этапа. На первом роботы и дроны команд перемещались и выполняли задания в шахтном тоннеле. На втором этапе соревнования проходило в городских подземных сооружениях. А третий должен был проходить в пещере, но его провели лишь виртуально из-за пандемии. Наконец, в финале командам предстояло продемонстрировать свои разработки сразу в трех этих средах.  Команды оценивались по тому, как много объектов они обнаружили и как быстро они это сделали. Среди объектов были потерявшийся человек, рюкзак, источник газа и другие. Победителем в основной категории стала CERBERUS, в состав которой вошли инженеры из США, Швейцарии, Великобритании и Норвегии. Изначально команда планировала использовать связку из четвероногого робота и дрона, но в итоге остановилась лишь на четвероногом роботе ANYmal. Робот обнаружил 23 из 40 объектов. Команда CSIRO Data61 тоже нашла 23 объекта, но потратила на это больше времени, поэтому заняла второе место. Она использовала связку из гусеничного робота и расположенного на нем квадрокоптера. В результате CERBERUS получила два миллиона долларов, CSIRO Data61 достался один миллион, а MARBLE, занявшая третье место с 18 найденными объектами, выиграла 500 тысяч долларов. В виртуальном соревновании победила испанская команда Dynamo, использовавшая квадрокоптер с лидаром. Она получила 223 балла и выиграла 750 тысяч долларов. Вторыми и третьими стали CTU-CRAS-NORLAB и Coordinated Robotics, они получили 500 и 250 тысяч соответственно. Примечательно, что команды могли участвовать в виртуальных и реальных соревнованиях, и четыре команды так и поступили, но ни одна из них не смогла занять призовое место в обеих категориях. В 2018 году DARPA запустила соревнование по созданию микророботов и технологий, необходимых для их создания. Финальный этап должен пройти весной 2022 года. Григорий Копиев </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ткачиковые воробьи, которые обитают в пустыне Калахари, могут вырастить потомство даже в засушливые годы, но для этого размножающейся паре нужна помощь подросших птенцов предыдущих лет, которые остались с родителями. Особенно ценны помощники-самки. Как выяснили британские орнитологи, благодаря помощникам женского пола ткачиковым воробьям удается сохранять репродуктивный успех на стабильном уровне независимо от уровня осадков. Это подтверждает гипотезу альтруистической подстраховки, согласно которой в некоторых случаях появление альтруизма может быть реакцией на жизнь в среде обитания с непредсказуемыми условиями. Результаты исследования опубликованы в статье для журнала Science Advances. У многих видов птиц в выращивании потомства участвует не только родительская пара, но и ее подросшие птенцы, появившиеся на свет в предыдущие годы. Их называют помощниками на гнездах. Поведение таких особей может показаться нелогичным: они как будто жертвуют своим шансом на размножение, чтобы помочь родителям поднять на крыло младших братьев и сестер. Однако с генетической точки зрения помощнику выгодно ухаживать за сиблингами, ведь у него с ними такое же количество общих генов, какое было бы у него и его собственных птенцов. Специалисты предполагают, что эволюция поддерживает появление помощников на гнездах, поскольку те увеличивают средний репродуктивный успех матери и отца. Однако недавно была выдвинута гипотеза альтруистической подстраховки (altruistic bet-hedging), согласно которой в непредсказуемой среде обитания такое поведение — и другие проявления альтруизма — защищает от провальных сезонов размножения. Если эта идея верна, то в неблагоприятные годы семьи, в которых есть помощники, выращивают больше птенцов, чем их сородичи, и за счет этого выигрывают у них в конкурентной борьбе. Впрочем, убедительные доказательства в пользу этой точки зрения до сих пор отсутствовали. Команда орнитологов под руководством Эндрю Янга (Andrew J. Young) из Эксетерского университета решила проверить гипотезу альтруистической подстраховки на ткачиковых воробьях (Plocepasser mahali). Эти мелкие птицы из семейства ткачиковых (Ploceidae) обитают в засушливых местностях на юге и востоке Африки, где уровень осадков сильно варьирует от года к году. Держатся они группами, которые состоят из пары размножающихся птиц и 0-10 помощников на гнездах (обычно это подросшие потомки пары). В течение девяти сезонов, с 2007 по 2016 годы, Янг и его коллеги оценивали успех размножения примерно 40 семейных групп ткачиковых воробьев из кустарниковой саванны в южноафриканской части пустыни Калахари. Они подсчитывали количество отложенных яиц, вылупившихся птенцов и покинувших гнезда слетков. Кроме того, исследователи попытались выяснить, насколько велик вклад каждого члена группы в выкармливание потомства. Для этого на видеокамеры фиксировали всех особей, которые посещали гнезда с восьмого по тринадцатый день с момента вылупления первого птенца. Чтобы иметь возможность отличать отдельных членов группы на записях, ученые заранее наносили на перья каждого из них, кроме доминирующей самки, индивидуальные метки черной краской. В общей сложности команде удалось записать на видео выкармливание 159 выводков 35 семейных групп. Оказалось, что пищу птенцам приносят помощники обоих полов — однако самки делают это чаще. Кроме того, лишь вклад самок положительно сказывается на частоте кормления юных птиц. При этом чем больше помощников женского пола у доминирующей самки в конкретном сезоне размножения, тем выше частота кормления птенцов. Количество помощников-самцов на этот показатель не повлияло. А когда в ходе дополнительного эксперимента авторы удалили помощников-самок из части групп, птенцы в них стали получать пищу намного реже, при этом удаление самцов такого эффекта не оказало. Несмотря на важную роль помощников-самок, ткачиковые воробьи способны выкормить птенцов и без них. Как показал анализ данных о примерно 400 выводках, группы, в которых нет помощников женского пола, в среднем выращивают примерно такое же количество потомства, что и те, где они есть. Тем не менее присутствие помощников-самок делает репродуктивный успех групп более стабильным от сезона к сезону. Кроме того, чем больше у доминирующей самки помощников женского пола в данном сезоне, тем ближе к среднему будет ее репродуктивный успех. Янг и его коллеги предположили, что межгодовые отличия в успехе размножения у ткачиковых воробьев связаны с уровнем осадков, который в Калахари сильно варьируется от года к году. Присутствие помощников-самок в теории может смягчить влияние погоды. Чтобы проверить эту идею, авторы сопоставили данные об осадках на исследованном участке во временном диапазоне от 36 дней до и 9 дней после вылупления первого птенца, репродуктивном успехе разных групп и наличии в них помощников-самок. Оказалось, что чем больше в группе помощников женского пола, тем выше в ней выживаемость птенцов в засушливые годы, когда пища в дефиците — судя по всему, благодаря усиленному кормлению. Эти результаты согласуются с гипотезой альтруистической подстраховки. Интересно, что во влажные годы, когда еды вдоволь, дополнительные помощники-самки, напротив, снижают выживаемость птенцов. Возможно, их активность привлекает к гнезду хищников. Тем не менее польза от помощников в засушливые годы, судя по всему, перевешивает вред, который они приносят в годы с высоким уровнем осадков. В целом же, чем больше в группе помощников женского пола, тем меньше на ее репродуктивный успех влияют осадки. Таким образом, по крайней мере для ткачиковых воробьев гипотеза альтруистической подстраховки оказалась верной. Янг и его соавторы предполагают, что аналогичный механизм может быть обнаружен и у других видов из засушливых регионов, где главным фактором, влияющим на репродуктивный успех, является уровень осадков. В более стабильной среде помощники на гнездах также приносят пользу родителям. Например, доминирующие самки сейшельских камышовок (Acrocephalus sechellensis) медленнее стареют, если у них есть помощники. Кроме того, благодаря помощникам даже стареющие самки остаются успешными матерями. Сергей Коленов </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Китайская аэрокосмическая научно-техническая корпорация (CASC) построила прототип вооруженного разведывательного беспилотника CH-6. Как сообщает Janes, летательный аппарат покажут на авиасалоне в Чжухае. CH-6 — средневысотный аппарат, способный летать на длинные дистанции на дозвуковых скоростях.  Китайская академия аэрокосмической аэродинамики (филиал CASC) начала работать над созданием CH-6 в 2019 году. Внешне беспилотник похож на высотный беспилотник CH-5, который, в свою очередь, напоминает американский ударный MQ-9 Reaper. Но хвостовое оперение у CH-6 Т-образное, а над хвостовой частью у него два реактивных двигателя.   CH-6 может стать одним из крупнейших китайских беспилотников. Предполагается, что его максимальная взлетная масса составит 7,8 тонны. В разведывательной конфигурации аппарат сможет нести до 300 килограмм, а в разведывательно-ударной — две тонны. При длине в 15 метров размах крыла беспилотника составляет 20,5 метра. Максимальная скорость CH-6 составит 800 километров в час, а крейсерская — от 500 до 700 километров в час. Он сможет подниматься на высоту до 12 километров и пролетать в разведывательной конфигурации до 12 тысяч километров. У вооруженного CH-6 дальность будет меньше — всего 4,5 тысячи километров.  На беспилотник можно будет устанавливать разные виды полезной нагрузки. Например, радиолокационную станцию дальнего обнаружения, ракеты класса «воздух-земля» и бомбы.  Китайцы разрабатывают и другие беспилотники. Например, реактивный ударный WJ-700, о котором мы писали ранее. Он весит 3,5 тонны и может находиться в воздухе до 20 часов.  Василиса Чернявцева </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ученые обнаружили связь между ускорением потепления климата и ослаблением опрокидывающей меридиональной циркуляции в Южном океане. Потепление изменило режим ветров в области Антарктиды и нагрело придонные воды, вследствие чего Южный океан стал хуже поглощать избыток тепла из атмосферы. Такие выводы позволило сделать сравнение двух климатических моделей ансамбля CMIP6, одна из которых прогнозировала более быстрое и интенсивное потепление климата. Статья опубликована в журнале Nature Geoscience.  Антропогенные выбросы парниковых газов приводят к глобальному изменению климата, но в масштабах планеты этот процесс неоднороден, и не все конкретные механизмы отклика климатической системы на рост концентрации CO2 в атмосфере к текущему моменту детально изучены. Один из способов изучения механизмов потепления — использование математических моделей. В разных моделях потепление прогнозируется с неодинаковыми скоростью и интенсивностью, и различия в таких прогнозах позволяет выявить критически уязвимые компоненты климатической системы. Климатические модели сравниваются в рамках специального международного проекта Coupled Model Intercomparison Project (CMIP), который сейчас находится в шестой фазе. Одним из важных показателей, в оценках которого зачастую расходятся климатические модели, является эффективная чувствительность климата (EffCS) — сбалансированное глобальное среднее потепление земной поверхности, которое произойдет за 150 лет при четырехкратном росте концентрации углекислого газа в атмосфере. В предыдущей фазе проекта по сравнению климатических моделей (CMIP5) отличия в значениях EffCS приходились на тропическую акваторию Тихого океана. В последней же фазе (CMIP6) прогнозы относительно этих широт нивелировались, и отличия проявились уже для области Южного океана ниже 35 градуса южной широты.  Ученые под руководством Ады Гьермундсен (Ada Gjermundsen) из Норвежского метеорологического института попытались понять, чем вызвано различие между прогнозами потепления у моделей в CMIP6. Для этого они рассмотрели две климатические модели системы Земли: CESM2 (The Community Earth System Model version 2), разработанную в Лаборатории климата и глобальной динамики Национального центра атмосферных исследований США, и NorESM2 (Norwegian Earth System Model version 2), разработанную в Норвежском метеорологическом институте. Эти модели отличаются значением показателя EffCS: в американской модели он составляет 5,3 кельвин, а в норвежской 2,5 кельвин. При этом базовые параметры, которые используются в этих моделях для описания суши, атмосферы и морского льда, одинаковы. Авторы обратили внимания на разницу в отражении коротковолновой радиации от облаков над Южным океаном: в модели CESM2 они отражают на 0,5 ватт, деленный на метр в квадрате и на кельвин тепла больше, чем в модели NorESM2, то есть облачность в этой зоне приводит к ускоренному потеплению земной поверхности.  Климатологи пришли к выводу, что это может быть связано с изменением опрокидывающей циркуляции Южного океана — главного поглотителя избыточного тепла атмосферы. Она действует аналогично Атлантической меридиональной циркуляции, благодаря которой углекислый газ поглощается холодной водой, опускается на глубину и надолго выводится из атмосферы. Потепление климата привело к тому, что эта циркуляция была нарушена: режим ветров вблизи Антарктиды изменился, воды антарктического дна нагрелись, и поглощение атмосферного тепла заметно ослабло. Это привело к усилению облачности над Южным океаном, которая также стала удерживать тепло, и как следствие к дополнительному потеплению климата в целом.  Марина Попова </t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Пингвинами» изначально называли бескрылых гагарок (Pinguinus impennis), крупных нелетающих птиц из семейства чистиковых (Alcidae), которые обитали в Северной Атлантике. С настоящими пингвинами европейцы впервые повстречались только в конце XV века, когда португальская экспедиция под руководством Бартоломеу Диаша огибала мыс Доброй Надежды на юге Африки. Здесь моряки увидели огромные колонии очковых пингвинов (Spheniscus demersus). Учитывая, что бескрылые гагарки и пингвины похожи из-за конвергентной эволюции, неудивительно, что их долгое время считали ближайшими родственниками и называли одним и тем же словом. К сожалению, к середине XIX века бескрылых гагарок истребили охотники и сборщики яиц. Очковым пингвинам знакомство с людьми тоже не пошло на пользу: их численность сократилась c нескольких миллионов особей до примерно двадцати тысяч размножающихся пар из-за чрезмерного вылова рыбы и разливов нефти.  «Пингвинами» изначально называли бескрылых гагарок (Pinguinus impennis), крупных нелетающих птиц из семейства чистиковых (Alcidae), которые обитали в Северной Атлантике. С настоящими пингвинами европейцы впервые повстречались только в конце XV века, когда португальская экспедиция под руководством Бартоломеу Диаша огибала мыс Доброй Надежды на юге Африки. Здесь моряки увидели огромные колонии очковых пингвинов (Spheniscus demersus). Учитывая, что бескрылые гагарки и пингвины похожи из-за конвергентной эволюции, неудивительно, что их долгое время считали ближайшими родственниками и называли одним и тем же словом. К сожалению, к середине XIX века бескрылых гагарок истребили охотники и сборщики яиц. Очковым пингвинам знакомство с людьми тоже не пошло на пользу: их численность сократилась с нескольких миллионов особей до примерно двадцати тысяч размножающихся пар из-за чрезмерного вылова рыбы и разливов нефти.  Одним из главных врагов Бэтмена действительно является криминальный босс Освальд Честерфилд Кобблпот по прозвищу Пингвин. А пингвинам Гумбольдта (Spheniscus humboldti), гнездящимся на побережье Перу и Чили, приходится давать отпор летучим мышам в реальной жизни. Дело в том, что колонии этих птиц привлекают обыкновенных вампиров (Desmodus rotundus), которые по ночам прокусывают кожу на лапках пингвинят и сосут их кровь. На взрослых пингвинов летучие мыши нападать боятся, ведь те могут закидать их грязью или окатить пометом (последнее вы, собственно, и видите на гифке).Интересно, что обычно обыкновенные вампиры кормятся кровью млекопитающих; например, на пустынном побережье Перу и Чили они нападают на южных морских львов (Otaria flavescens). Тем не менее, некоторым особям явно больше нравится кровь пингвинов.  Одним из главных врагов Бэтмена действительно является криминальный босс Освальд Честерфилд Кобблпот по прозвищу Пингвин. А пингвинам Гумбольдта (Spheniscus humboldti), гнездящимся на побережье Перу и Чили, приходится давать отпор летучим мышам в реальной жизни. Дело в том, что колонии этих птиц привлекают обыкновенных вампиров (Desmodus rotundus), которые по ночам прокусывают кожу на лапках пингвинят и сосут их кровь. На взрослых пингвинов летучие мыши нападать боятся, ведь те могут закидать их грязью или окатить пометом (последнее вы, собственно, и видите на гифке).Интересно, что обычно обыкновенные вампиры кормятся кровью млекопитающих; например, на пустынном побережье Перу и Чили они нападают на южных морских львов (Otaria flavescens). Тем не менее, некоторым особям явно больше нравится кровь пингвинов.  Численность тасманийских дьяволов (Sarcophilus harrisii) быстро сокращается из-за распространения инфекционного рака. В попытке спасти этих хищников специалисты создают изолированные страховочные популяции, состоящие из здоровых особей. В 2012 году одна из таких популяций появилась на островке Марайа у восточного побережья Тасмании. Прежде дьяволы никогда здесь не обитали, однако быстро освоились — и принялись разорять гнезда живущих на острове морских птиц.В результате местная колония из примерно трех тысяч пар малых пингвинов полностью исчезла. Пострадали и другие виды птиц. Теперь орнитологи призывают вывезти дьяволов с Марайи — тем более что на других островах и в материковой Австралии появились дополнительные страховочные популяции вида, а инфекционный рак представляет для дьяволов меньшую угрозу, чем считалось ранее.Любопытно, что в 2009 году логотипом Linux 2.6.29 вместо традиционного малого пингвина стал тасманийский дьявол в маске с клювом. Так Линус Торвальдс хотел привлечь внимание к проблемам этого вида. Численность тасманийских дьяволов (Sarcophilus harrisii) быстро сокращается из-за распространения инфекционного рака. В попытке спасти этих хищников специалисты создают изолированные страховочные популяции, состоящие из здоровых особей. В 2012 году одна из таких популяций появилась на островке Марайа у восточного побережья Тасмании. Прежде дьяволы никогда здесь не обитали, однако быстро освоились — и принялись разорять гнезда живущих на острове морских птиц.В результате местная колония из примерно трех тысяч пар малых пингвинов полностью исчезла. Пострадали и другие виды птиц. Теперь орнитологи призывают вывезти дьяволов с Марайи — тем более что на других островах и в материковой Австралии появились дополнительные страховочные популяции вида, а инфекционный рак представляет для дьяволов меньшую угрозу, чем считалось ранее.Любопытно, что в 2009 году логотипом Linux 2.6.29 вместо традиционного малого пингвина стал тасманийский дьявол в маске с клювом. Так Линус Торвальдс хотел привлечь внимание к проблемам этого вида. Пингвин Пен-Пен живет в квартире Мисато Кацураги, одной из героинь аниме Neon Genesis Evangelion. Ему выделена специальная комната, где поддерживается прохладная температура. К какому именно виду принадлежит Пен-Пен, сказать трудно. Хохолок на голове делает его похожим на представителя рода хохлатых пингвинов (Eudyptes), однако когтей на крыльях и чрезвычайно высокого интеллекта нет ни у одного из современных видов пингвинов. Возможно, Пен-Пен появился в результате генетических экспериментов. Реальному же пингвину, в отличие от анимешного, в городской квартире будет плохо – да и хозяину он причинит немало неудобств. Пингвин Пен-Пен живет в квартире Мисато Кацураги, одной из героинь аниме Neon Genesis Evangelion. Ему выделена специальная комната, где поддерживается прохладная температура. К какому именно виду принадлежит Пен-Пен, сказать трудно. Хохолок на голове делает его похожим на представителя рода хохлатых пингвинов (Eudyptes), однако когтей на крыльях и чрезвычайно высокого интеллекта нет ни у одного из современных видов пингвинов. Возможно, Пен-Пен появился в результате генетических экспериментов. Реальному же пингвину, в отличие от анимешного, в городской квартире будет плохо – да и хозяину он причинит немало неудобств. В 2016 году американский орнитолог Стивен Эмсли во время экспедиции на антарктический мыс Иризар, вдающийся в море Росса, действительно обнаружил на месте отступившего из-за климатических изменений ледника следы колонии пингвинов Адели (Pygoscelis adeliae): кучки гальки, а также мумифицированные тушки, кости и перья. Изначально ученый думал, что остаткам птиц всего пять-десять лет. Однако, как показал радиоуглеродный анализ, на самом деле их возраст составляет от 685 до 5135 лет. Интересно, что сейчас пингвины Адели на мысе Иризар не гнездятся, поскольку море вокруг него постоянно покрыто льдом. В 2016 году американский орнитолог Стивен Эмсли во время экспедиции на антарктический мыс Иризар, вдающийся в море Росса, действительно обнаружил на месте отступившего из-за климатических изменений ледника следы колонии пингвинов Адели (Pygoscelis adeliae): кучки гальки, а также мумифицированные тушки, кости и перья. Изначально ученый думал, что остаткам птиц всего пять-десять лет. Однако, как показал радиоуглеродный анализ, на самом деле их возраст составляет от 685 до 5135 лет. Интересно, что сейчас пингвины Адели на мысе Иризар не гнездятся, поскольку море вокруг него постоянно покрыто льдом. Так делают герои советского мультфильма – живущий на айсберге пингвин и его друг-кит. Вместе они поддерживают айсберг в идеальной чистоте: кит время от времени орошает его фонтаном воды, а пингвин полирует поверхность тряпкой и собирает мусор в корзину. К сожалению, эта идиллия привлекла многочисленных туристов, которые так загадили айсберг, что друзьям стало не под силу его очищать. Так делают герои советского мультфильма – живущий на айсберге пингвин и его друг-кит. Вместе они поддерживают айсберг в идеальной чистоте: кит время от времени орошает его фонтаном воды, а пингвин полирует поверхность тряпкой и собирает мусор в корзину. К сожалению, эта идиллия привлекла многочисленных туристов, которые так загадили айсберг, что друзьям стало не под силу его очищать. Юный императорский пингвин по имени Мамбл, персонаж мультфильма «Делай ноги», в отличие от сородичей, с рождения не умеет петь. Вместо этого он ловко отбивает чечетку. В результате Мамбл становится изгоем и оказывается далеко от дома, где его ждут опасные приключения. Интересно, что в мультфильме императорские пингвины исполняют популярные музыкальные хиты, однако в реальности голоса у этих птиц не самые приятные. Танцевать чечетку императорские пингвины тоже не умеют: брачные демонстрации самцов, помимо криков, включают различные позы и движения, например, покачивание головой. А заинтересовавшиеся друг другом самец и самка  встают лицом к лицу, после чего каждый из них в течение нескольких минут повторяет все движения потенциального партнера. Юный императорский пингвин по имени Мамбл, персонаж мультфильма «Делай ноги», в отличие от сородичей, с рождения не умеет петь. Вместо этого он ловко отбивает чечетку. В результате Мамбл становится изгоем и оказывается далеко от дома, где его ждут опасные приключения. Интересно, что в мультфильме императорские пингвины исполняют популярные музыкальные хиты, однако в реальности голоса у этих птиц не самые приятные. Танцевать чечетку императорские пингвины тоже не умеют: брачные демонстрации самцов, помимо криков, включают различные позы и движения, например, покачивание головой. А заинтересовавшиеся друг другом самец и самка  встают лицом к лицу, после чего каждый из них в течение нескольких минут повторяет все движения потенциального партнера. Субантарктические пингвины (Pygoscelis papua) предпочитают гнездиться на голых скалах. Однако порой выбранные ими участки оказываются заметены снегом. Чтобы очистить место для гнезда, пингвины используют необычный трюк. Они испражняются на снег в одних и тех же точках, из-за чего он темнеет и тает быстрее, чем за пределами колонии. В результате скалы очищаются, и птицы могут быстрее приступить к откладке яиц. Субантарктические пингвины (Pygoscelis papua) предпочитают гнездиться на голых скалах. Однако порой выбранные ими участки оказываются заметены снегом. Чтобы очистить место для гнезда, пингвины используют необычный трюк. Они испражняются на снег в одних и тех же точках, из-за чего он темнеет и тает быстрее, чем за пределами колонии. В результате скалы очищаются, и птицы могут быстрее приступить к откладке яиц. Многие птицы умеют изготавливать и использовать инструменты. Однако пингвинов в этом списке нет. Скорее всего, они просто не нуждаются в орудиях ни во время охоты, ни в период размножения. Впрочем, недавно орнитологи застали других морских птиц, тупиков (Fratercula arctica), за чисткой перьев с помощью палочки. Возможно, и за пингвинами ученым стоит понаблюдать повнимательнее. Многие птицы умеют изготавливать и использовать инструменты. Однако пингвинов в этом списке нет. Скорее всего, они просто не нуждаются в орудиях ни во время охоты, ни в период размножения. Впрочем, недавно орнитологи застали других морских птиц, тупиков (Fratercula arctica), за чисткой перьев с помощью палочки. Возможно, и за пингвинами ученым стоит понаблюдать повнимательнее. Мифу о «поднимателе пингвинов» скоро исполнится полвека. Во время войны на Фолклендских островах (1982 год) британские летчики якобы заметили, что пингвины внимательно смотрят на пролетающие над ними самолеты. При этом они порой так сильно задирают головы, что падают на спину. В первоначальной версии истории речь шла о том, как одновременно перевернулись сразу десять тысяч любопытных пингвинов. С 1994 года миф о падающих на спину птицах циркулирует по интернету, постепенно меняясь и обрастая подробностями. Место действия рассказа переместилось в Антарктиду – а еще в нем появился специальный человек, обязанность которого – переворачивать пингвинов со спины на живот (сами они якобы сделать этого не могут). В реальности пингвины опасаются громких шумов. Когда над ними пролетает самолет или вертолет, они замолкают и стараются убежать. Однако даже если какой-то пингвин упадет на спину, засмотревшись в небо, он с легкостью перевернется на живот и поднимется на ноги. Мифу о «поднимателе пингвинов» скоро исполнится полвека. Во время войны на Фолклендских островах (1982 год) британские летчики якобы заметили, что пингвины внимательно смотрят на пролетающие над ними самолеты. При этом они порой так сильно задирают головы, что падают на спину. В первоначальной версии истории речь шла о том, как одновременно перевернулись сразу десять тысяч любопытных пингвинов. С 1994 года миф о падающих на спину птицах циркулирует по интернету, постепенно меняясь и обрастая подробностями. Место действия рассказа переместилось в Антарктиду – а еще в нем появился специальный человек, обязанность которого – переворачивать пингвинов со спины на живот (сами они якобы сделать этого не могут). В реальности пингвины опасаются громких шумов. Когда над ними пролетает самолет или вертолет, они замолкают и стараются убежать. Однако даже если какой-то пингвин упадет на спину, засмотревшись в небо, он с легкостью перевернется на живот и поднимется на ноги. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Японский физик рассмотрел задачу о расположении точечных зарядов на поверхности сферы с точки зрения частот их колебаний. Он получил последовательность магических чисел, которая отличается от аналогичной последовательности, полученной из энергетических соображений. Автор связал обнаруженные аномалии со степенью энергетического вырождения и симметрией зарядового распределения. Исследование опубликовано в Physical Review B. Знание о том, как распределяются заряды по поверхности сферы, имеет как практическое, так и фундаментальное значение. В первом случае это будет полезно при синтезе и применении разнообразных нанокластеров, например, фуллеренов. Во втором случае это знание связано с решением седьмой из восемнадцати нерешенных математических проблем, сформулированных Стивеном Смейлом. Эта проблему еще часто называют задачей Томсона. Сложность энергетической структуры состояний зарядов на сфере быстро растет с их числом N. В общем случае ученые строят поверхность потенциальной энергии в фазовом пространстве размерности 2N и ищут в ней глобальный и локальные минимумы. В целом характеристики структуры, например, энергия или устойчивость, зависят от N монотонно, однако для некоторых чисел появляются аномалии. Такие числа физики называют магическими и исследуют с особым интересом. Так, ранее ряд из чисел 12,32,72,122,132,137,146,182,187 и 192 был признан магическим на основании стабильности конфигураций зарядов на сфере. Японский физик Шота Оно (Shota Ono) из Университета Гифу предложил другой подход к поиску магических чисел. Он учел тот факт, что при ненулевой температуре нужно учитывать колебания всей структуры в окрестности минимумов поверхности потенциальной энергии. Изучая зависимость максимально возможной частоты колебания решетки зарядов, Оно выяснил, что часть найденных им чисел совпадает с ранее приведенными числами, в то время как другие — нет. Для начала физик записал классический лагранжиан для точечных зарядов, размещенных на сфере единичного радиуса, что позволило получить ему все уравнения движения. Далее, предположив гармоничность колебаний, он переформулировал уравнения через малые отклонения от положений равновесия, и решил оптимизационную задачу с помощью метода Монте-Карло, подтвердив, что заряды на сфере выстраиваются в треугольную решетку. Знания о положении минимумов и кривизне поверхностей позволили ему вычислить частоты колебаний. Далее Оно исследовал зависимость наибольшей из частот от числа зарядов N. Она представляла собой монотонно растущую кривую, совмещенную с небольшими флуктуациями. Для некоторых магических чисел, однако, флуктуации были особенно существенными. Для их выявления физик построил полуэмпирическую формулу, объясняющую монотонный тренд, после чего вычел ее из значений частот.  Отмечая значения N, для которых частоты получились существенно ниже выборки, автор составил ряд магических чисел 12,32,72,132 и 192. Общее количество таких чисел оказалось меньше, чем в использованном ранее подходе, связанном с вычислением полной энергии. Физик объяснил этот факт тем, что величина максимальной частоты отражает отсутствие энергетического разнообразия (то есть, высокую степень вырождения) и икосаэдрическую симметрию распределения зарядов. Проверяя эту гипотезу, он обнаружил еще несколько значений N, равных 212,272,282 и 372, чья степень вырождения была также высока. В заключение Оно отметил, что результаты его работы демонстрируют другой подход к решению проблемы Томсона. Физик также надеется, что предложенный формализм принесет пользу применительно к реальным физическим объектам, таким, например, как атомные дефекты в металлах. Ученые не первый раз работают с магическими математическими объектами. Ранее мы уже писали, как поворот на магический угол сделал двухслойный графен сверхпроводящим и как ЦЕРН подтвердил двойную магичность олова-132. Марат Хамадеев </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физики применили двухфотонный оптический комбинационный переход через промежуточное возбужденное состояние для ассоциации атомов натрия и цезия в молекулу в слабосвязанном состоянии. Они смоги пронаблюдать осцилляции Раби для такого перехода, а также изучить то, как этот когерентный процесс зависит от свойств оптических ловушек, в которых он происходит. Исследование опубликовано в Physical Review X. Ученые относительно недавно научились создавать и манипулировать ультрахолодными молекулами, однако они уже успели стать полезным инструментом для точных измерений, квантовых симуляций и обработки квантовой информации. Зачастую для этих целей нужны экзотические молекулы, которые собираются из отдельных, сильно охлажденных и запертых в ловушки атомов. Сложность при этом заключается в том, что для образования достаточно прочной молекулы, она должна быть создана в состоянии, чья энергия будет существенно ниже, изначальная суммарная энергия атомов, и ее избыток нужно куда-то деть. Кроме того, волновая функция такого состояния слабо пересекается с волновыми функциями атомов, что уменьшает шансы на соединение. Для решения этой проблемы ученые соединяют атомы в молекулу в промежуточном состоянии, а затем пытаются перевести ее в целевое состояние с помощью вынужденного излучения. Самым распространенным способом сделать это стала магнитоассоциация с помощью резонанса Фешбаха, однако этот метод не работает для немагнитных атомов, а также для атомов без узких интеркомбинационных линий. В качестве альтернативы физики использую оптическую ассоциацию в лазерном поле. Несмотря на работоспособность этого метода, рождающиеся таким образом молекулы распадаются слишком быстро, чтобы можно было изучать в них какие-либо когерентные процессы. Для решения этой проблемы команда физиков из Великобритании, Испании и США при участии Джереми Хатсона (Jeremy Hutson) из Даремского университета применила двухфотонных оптический комбинационный переход через промежуточное возбужденное состояние для ассоциации атомов натрия и цезия в молекулу в слабосвязанном состоянии. В результате им удалось наблюдать осцилляции Раби на этом переходе до того, как молекула распалась. Эксперимент начинался с помещения атомов в отдельные оптические пинцеты. После этого авторы включали слабое магнитное поле, чтобы зафиксировать выделенную ось для конкретизации проекций на нее орбитальных и спиновых моментов. За счет бокового охлаждения они добивались того, чтобы атомы занимали только основное колебательное состояние внутри пинцета, а их спины выбирались сонаправленными. При слиянии пинцетов, физики переворачивали цезиевый спин, переводя таким образом систему в начальное для комбинационного перехода состояние. Параллельно они добавляли модуляцию к частоте лазера, формирующего пинцет, равную 770 мегагерцам. Такая модуляция соответствовала биениям от сложения двух лазерных мод с частотами, необходимыми для двухфотонного перехода. Включая комбинационный переход на небольшое и регулируемое время, физики измеряли, какая доля атомов остается в диссоциированном состоянии. Зависимость этой доли от времени носит осциллирующий характер и описывает когерентные переходы всей системы между молекулярным состоянием и состоянием свободных атомов. Осцилляции, однако, быстро затухали, что исследователи связали со временем жизни молекулы.  Для проверки этой гипотезы они включали переход на время, соответствующего полному переходу атомов в молекулярное состояние, затем давали системе проэволюционировать, а затем переключали ее обратно в атомное состояние. Изучая число сохранившихся молекул для различных времен эволюции, они получили характерное время жизни, равное 0,2 миллисекундам, которое совпало с временем затухания осцилляций Раби. Физики также исследовали зависимость свойств этих осцилляций от мощности лазера, формирующего пинцет, и его отстройки, что позволило уточнить теоретическую модель комбинационного перехода. В заключении авторы отмечают, что эффективность перехода в их эксперименте составила 69 процентов, однако она может быть улучшена в будущем подбором других состояний. Кроме того, они указали возможные способы уменьшения декогеренции, включающие борьбу с шумом в спектре лазера и с нелинейными эффектами в волноводе. Даже если получаемые ультрахолодные молекулы оказываются относительно стабильными, им грозит распад при взаимодействии друг с другом. Ранее мы писали, как физики борются с этим с помощью микроволного и электрического полей. Марат Хамадеев </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Американские физики смогли зафиксировать процесс добавления и вычитания одиночного фонона из механического резонатора при комнатной температуре. Это было сделано с помощью измерения характеристик рассеянного на нем лазерного излучения. Эксперимент подтвердил, что состояния, отличающиеся от равновесных на один фонон, оказываются неклассическими даже в нормальных условиях. Исследование опубликовано в Physical Review Letters. Механические движения рассматриваются в квантовых технологиях в качестве источника квантовых состояний наряду электронными, фотонными и другими степенями свободы. Речь идет в первую очередь о квантованном движении частиц в оптических и магнитных ловушках, колебаниях и вращениях молекул, а также о возбуждении в резонаторах квантованных механических волн, которые описываются с помощью фононов. Свет — наиболее удобный инструмент для манипуляции механическими степенями свободы. При переходе оптомеханики в квантовый режим одиночные фотоны начинают играть ощутимую роль. Например, воздействие одиночного фотона на механический резонатор способно сделать его статистические характеристики существенно неклассическими. Такие эффекты как правило наблюдаются при низких температурах, чтобы повысить чувствительность эксперимента. Амир Сафави-Наейни (Amir Safavi-Naeini) с коллегами из Стэнфордского университета решили выйти за рамки этого ограничения и провести эксперимент, в котором они бы смогли зафиксировать добавление и вычитание одиночных фононов за счет взаимодействия со светом при комнатной температуре. Прямое измерение этого эффекта затруднено в силу большого числа фононов (для резонатора, использованного в статье, их число составляло чуть более полутора тысяч), поэтому авторы исследовали статистические свойства фотонов, рассеянных на них. Рассеиваясь на фононах, свет может увеличивать (уменьшать) их число, при этом его энергия будет уменьшаться (увеличиваться) на величину, равную энергии фонона. Этот процесс аналогичен комбинационному рассеянию в молекулах, где свет уносит (добавляет) энергию их колебаний и вращений. В случае же, когда число фотонов не меняется, рассеяний свет несет информацию о статистических свойствах фононного ансамбля. Физики использовали оба этих явления в своем эксперименте. Они подавали излучение лазера, слегка отстроенное от частоты оптомеханического резонатора: выше по частоте, чтобы добавить фотон, и ниже — чтобы вычесть. Рассеянное излучение разделялось на две части: одна из них использовалась для того, чтобы фиксировать присутствие в пучке одиночного фотона с резонансной частотой, вторая отправлялась на гетеродинный балансный детектор, измерявший функцию Вигнера света, несущую информацию о свойствах фононов. Когда физики игнорировали сигнал с однофотонного источника, статистика фотонов была равновесной (гауссовой). При учете же только тех данных балансного детектора, которые следовали за щелчком однофотонного детектора в течение двух микросекунд, статистика свидетельствовала о добавлении или исключении одного фонона.  Исследователи измеряли среднее число фононов для равновесного и неравновесного распределений. В частности, для случая добавления фонона эти числа оказались равны 1597,6±0,6 и 3158,1±0,9 соответственно. Их отличие в два раза кажется парадоксальным, однако хорошо объясняется теорией. Дело в том, что в случае срабатывания однофотонного детектора в распределении должна быть учтена вероятность рассеяния фотона на фононах, которая пропорциональна их числу. Это приводит к удвоенному отношению средних, что и наблюдалось в эксперименте с высокой точностью. В заключении авторы отмечают, что их работа подтверждает теоретические расчеты, которые предсказывали, что состояния ансамбля фононов, отличающиеся от равновесных на одну квазичастицу, могут быть неклассическими при любых температурах. Они надеются, что последующие исследования смогут превратить продемонстрированные состояния в полезный квантовый ресурс. В качестве примера физики приводят создание механических состояний, описываемых как состояние кота Шрёдингера. Ученые регулярно создают такие системы, состоянием которых можно управлять с помощью всего лишь одного фотона. Недавно мы писали про то, как два атома возбудили одним фотоном и как однофотонную нелинейность реализовали при комнатной температуре. Марат Хамадеев </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физики смогли увеличить время когерентности кубитов, созданных на базе ультрахолодных молекул, до ста миллисекунд, что на порядок больше, чем в предыдущих работах. Этого удалось достичь благодаря активному подавлению шума в магнитном поле и правильной ориентации магнитных и электрических полей относительно друг друга. Исследование опубликовано в Physical Review Letters, доступен также препринт. Квантовая механика предписывает всем связанным микросистемам обладать дискретным энергетическим спектром. При этом чем больше в системе элементов, тем она сложнее. Энергетические уровни атомов определяются в первую очередь электронной конфигурацией, обогащаясь небольшими поправками на взаимодействия, чувствительные к орбитальным и спиновым степеням свободы электронов и ядра. У молекул же возникает куда более сложная структура, в которую дают вклад колебания ядер относительно друг друга, а также вращения в молекуле. Оказалось, что эти колебательные и вращательные уровни хорошо подходят для хранения и обработки квантовой информации. В случае же, когда молекула полярная, то есть обладает собственным дипольным моментом, ее проще связывать с соседями для образования квантовой запутанности и ею проще манипулировать. Однако, как и многие другие физические реализации кубитов, состояния молекул подвержены декогеренции, то есть, потере квантовой информации. Для увеличения времени когерентности их очень сильно охлаждают и помещают в оптические ловушки, но пока физикам удалось достичь времени, не превышающего 10 миллисекунд (про похожее исследование мы недавно писали), хотя для нужд квантовых вычислений оно должно быть существенно больше. Шон Бурчески (Sean Burchesky) из Кембриджского университета с коллегами из США и Южной Кореи сообщили о том, что им удалось десятикратно увеличить это время, сохраняя когерентность вращательных уровней в молекуле CaF, удерживаемой оптическим пинцетом. Такой результат был получен благодаря тщательному анализу причин декогеренции и борьбе с ними. В частности, авторы применили уникальную систему подавления флуктуаций магнитного поля, а также избавились от сдвигов, вызываемых электрическим полем лазера пинцета с помощью правильной конфигурации установки. В качестве состояний кубита физики использовали пару вращательных уровней |N = 0; J = 1/2; F = 1; mf = 0&gt; и |N = 1; J = 1/2; F = 0; mf = 0&gt; из разрешенной сверхтонкой структуры. Перед началом каждого экспериментального цикла одиночные молекулы, захваченные лазерным пинцетом с длиной волны 780 нанометров, готовились в верхнем состоянии. Затем они облучались парой микроволновых π/2-импульсов с контролируемым интервалом времени между ними. Первый импульс поворачивал вектор состояния кубита в экваториальную плоскость сферы Блоха (то есть в равную квантовую суперпозицию), в пределах которой возникала его свободная эволюция, в то время как второй импульс возвращал его к одному из пары исходных состояний. В конце населенность состояния молекулы измерялась с помощью интерферометрии Рамси. Контраст осцилляций Рамси характеризует степень когерентности, а его уменьшение в e раз – искомое время.  Сначала физики рассмотрели постоянное магнитное поле как источник декогеренции. Благодаря конфигурации выбранной пары уровней, на них оказывал влияние только квадратичный зеемановский сдвиг. Однако даже он вызывал помехи из-за флуктуаций поля, вызванных шумами в источниках питания и дробовыми шумами. Для борьбы с ними авторы применили активное шумоподавление, которое заключалось в синхронной компенсации флуктуаций поля с помощью дополнительного зонда, помещенного недалеко от молекулы. Затем ученые проанализировали влияние переменных электрических полей лазерного пинцета. Для их компенсации физики создавали такой режим, при котором сдвиги, вызванные магнитным полем, оказывались сопоставимы с поправками на тензорную поляризуемость. Выбрав правильный угол между магнитным полем и направлением поляризации света (магический угол), они смогли скомпенсировать влияние полей и довести время когерентности до 93±7 миллисекунд при температуре молекулы пять микрокельвин. Авторы отмечают, что даже несмотря на использование магических углов, остаточная дифференциальная поляризуемость мешает продлить время когерентности выше сотни миллисекунд. Одним из выходов они назвали применение более коротких квантовых вентилей, что позволит производить несколько тысяч операций над кубитами за это время. Физики также отметили универсальность предложенных ими улучшений, которые могут быть применены к широкому классу молекул. Холодные молекулы – не единственные кандидаты в кубиты. Мы уже рассказывали, как время когерентности твердотельных спиновых кубитов было увеличено до десятков миллисекунд, а также о том, как радиация ограничила время когерентности сверхпроводящих кубитов четырьмя миллисекундами. Марат Хамадеев </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физики применили квантовую теорию информации к проблеме прямого наблюдения экзопланет. Они показали, что измерение в режиме квантового предела способно снизить вероятность ложноотрицательной ошибки, а также показали, какие из существующих методов детектирования могут достичь этого на практике. Работа опубликована в Physical Review Letters. Астрономы начали обнаруживать экзопланеты сравнительно недавно и на сегодняшний день их число насчитывает около четырех с половиной тысяч (примерно половина ожидает подтверждения). Большинство из них обнаруживаются с помощью метода транзитной фотометрии, и всего лишь около процента можно увидеть напрямую. Причина этого в том, что излучение света от экзопланет слабее, чем излучение звезды рядом с ними. При прямом наблюдении звездных систем их изображение собирается в фокальной плоскости телескопа. Из-за дифракционного предела изображение небесных тел оказывается размытым, что неизбежно приводит к ошибкам, как ложноположительными (увидели планету там, где ее нет), так и ложноотрицательными (не увидели планету, хотя она там есть). В силу редкости экзопланет ошибки второго типа куда более критичны, поэтому астрономы стараются избегать в первую очередь их. Физики Цзысинь Хуан (Zixin Huang) из Университета Маккуори и Космо Лупо из Университета Шеффилд решили применить к этой проблеме подход, основанный на квантовой теории информации. Они взяли за основу параметр ε, равный отношению интенсивности света, рассеянного экзопланетой, к интенсивности света от всей системы и показали, что в пределе малого параметра квантовый подход к оценке ошибок будет иметь преимущества перед классическим. Авторы также показали, в каких типах измерений может быть достигнут квантовый предел. Вероятность ложноотрицательной ошибки определяется в теории информации через относительную энтропию, выражаемую через вероятности встретить фотон на экране для случаев наличия и отсутствия экзопланеты. Физики привели выкладки для классической и квантовой относительных энтропий, и обнаружили, что, если распределение от точечного источника на экране имеет гауссов вид, они зависят от малого ε по квадратичному и линейному законам, соответственно. На практике это будет означать, что в случае слабого сигнала от экзопланеты измерение, которое учитывает квантовую природу света, имеет меньшую вероятность ошибки. Авторы рассмотрели несколько подходов к измерению, которые могли бы достичь квантового предела. Проведя соответствующие вычисления, они показали, что это возможно в режиме пространственного демультиплексирования (SPADE) и в режиме инверсионной интерферометрии (SLIVER). Первый метод основан на разложении приходящего света на пространственные моды Эрмита-Гаусса и вычислении вероятностей для каждой из них. Он мог бы быть реализован в интерферометрах, с помощью голографической техники и мультимодовых волноводов. Второй метод оценивает влияние параметра ε на вероятность получить ту или иную четность при инверсии пришедшего сигнала. Такой режим также может быть реализован в интерферометрах. В обоих случаях измеренная относительная энтропия зависит от ε линейно. Физики также исследовали влияние статистического разброса по числу фотонов в пределах одной моды, которым характеризуется классический равновесный свет, на приведенные выше оценки. Оказалось, что даже большое число фотонов в равновесном свете несущественно увеличивает ошибку. Более того, астрономы чаще всего имеют дело со слабыми оптическими сигналами, в которых содержится мало фотонов. В этом пределе получаемые выражения для энтропий практически совпадают с формулами, выведенными авторами в самом начале. Исследователи отмечают, что развитый подход применим не только к астрономическим наблюдениям, но вообще к любому классу задач, где необходимо оптически разрешить один слабый источник на фоне другого сильного. В качестве примера они приводят поиск димеров в микроскопии, а также идентификацию объектов, которые расположены очень близко друг к другу. Для поиска экзопланет астрономы используют весь арсенал доступных им физических методов. Мы уже рассказывали, как астрономы фиксируют их радиоизлучение и ищут их при помощи метода радиальных скоростей. Марат Хамадеев </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физики экспериментально продемонстрировали систему, в которой возникает нелинейный отклик всего лишь от одного фотона при комнатной температуре. Для этого исследователи возбуждали поляритоны в полимерной пленке и следили за их конденсацией в зависимости от интенсивности затравочных импульсов. Работа опубликована в Nature. Взаимодействие вещества со светом в нелинейном режиме стало довольно важным явлением, нашедшим применение во множестве практических приложений, начиная от телекоммуникации и заканчивая микроскопией высокого разрешения. Его главный признак — нелинейная зависимость отклика среды на воздействие светом, например, переизлучение средой света с удвоенной частотой или самофокусировка пучка. Традиционно нелинейность ассоциируется с большими интенсивностями падающего излучения. Однако, как оказалось, в некоторых средах нелинейного режима можно достичь и при облучении их всего одним фотоном. Это удавалось наблюдать для атомов и атомоподобных систем, помещенных в резонатор, либо для ультрахолодных атомных ансамблей. В последнем случае сильная и устойчивая однофотонная нелинейность достигается за счет сильно скоррелированных состояний, например, в бозе-эйнштейновском конденсате, однако его создание требует очень сложных условий для реализации, включая очень низкие температуры. Группа физиков из Германии, России и Швейцарии под руководством Антона Заседателева (Anton Zasedatelev) и Павлоса Лагудакиса (Pavlos Lagoudakis) из Сколковского института науки и технологий экспериментально показала, что однофотонную нелинейность можно получить при комнатной температуре, объединив преимущества подхода, основанного на усилении взаимодействия света с веществом с помощью резонаторов, с сильными корреляциями, наблюдаемыми в бозе-конденсатах. Для этого они помещали пленку из полипарафенилена (MeLPPP) толщиной 35 нанометров, окруженную двумя прокладками из диоксида кремния толщиной 50 нанометров, в оптический микрорезонатор на основе брэгговских зеркал. Физики имели возможность резонансно возбуждать в полимере экситоны с помощью импульса накачки. За счет правильно подобранных свойств среды эта энергия эффективно передавалась в колебательные степени свободы с образованием соответствующего поляритона, то есть квазичастицы, объединяющей в себе возбуждения среды с фотоном. Начиная с некоторого порога интенсивности накачки, спонтанно рождаемые поляритоны конденсировались, что отражалось на излучении, выходящем из системы.  Затем авторы решили усилить конденсацию с помощью затравочных импульсов, которые напрямую возбуждали новые поляритоны. Они следили за величиной, названной контрастом, которая характеризовала то, насколько затравочных поляритонов больше, чем спонтанно образованных. Построив зависимость контраста от энергии одного импульса, физики обнаружили степенной закон, который подтвердил численные симуляции. Экстраполируя эту зависимость до энергии импульса, соответствующей энергии одного фотона, они получили контраст, равный 28 процентам. Исследователи обратили внимание на то, что полученное значение нельзя считать истинно однофотонным, поскольку в проделанном опыте свет был классическим. Иными словами, распределение вероятности встретить в моде n фотонов носило пуассоновский характер. Это означает, что в измерениях с накоплением данных после множества повторений неизбежно возникнут вклады от многофотонных состояний. Чтобы обойти эту проблему, физики измеряли фотолюминесценцию после каждого затравочного импульса. Повторение эксперимента в таком режиме снизило значение контраста до 11 процентов для импульсов, содержащих в среднем один фотон. В заключении авторы подчеркивают, что проведенный ими эксперимент стал четким подтверждением однофотонной нелинейности при комнатной температуре, что может быть полезно для разработки устройств фотоники на чипе. Они также отмечают, что отношение сигнал/шум эксперимента может быть увеличено путем управления свойствами фильтрации и накачки, размерами конденсата, конфигурацией затравочных состояний и многим другим. Физики с большим интересом изучают нелинейные эффекты в конденсированных средах. Мы уже рассказывали, как они получили «двуцветный» фотон и исследовали генерацию высших гармоник в графене. Марат Хамадеев </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Американские и китайские биологи показали, что нематоды Caenorhabditis elegans могут воспринимать звук, несмотря на то, что у них нет морфологически обособленных органов слуха. При этом роль барабанной перепонки играет кутикула — покровы червей. В работе, опубликованной в журнале Neuron, исследователи отмечают, что слух может быть более широко распространен среди беспозвоночных, чем считалось ранее.  Животные воспринимают сигналы внешней и внутренней среды при помощи сенсорных систем, среди которых наиболее распространены органы зрения, осязания, обоняния, вкуса и проприорецепции. При этом привычная для людей слуховая сенсорная система характерна только для нескольких групп животных: позвоночных и некоторых членистоногих. Также предполагается, что слухом могут обладать и головоногие моллюски.       Для того чтобы исключить реакцию нематод на колебания субстрата, исследователи изучили поведение червей с мутацией в гене mec-4, которая приводит к дегенерации механосенсорных нейронов, ответственных за восприятие вибрации субстрата. Оказалось, что и такие мутанты проявляли отрицательный фонотаксис. Дополнительно исследователи измерили вибрацию субстрата при помощи лазерной виброметрии и обнаружили, что звук вызывает минимальные колебания в субстрате. Затем ученые решили выяснить, каким образом звук активирует поведение фонотаксиса. Для этого они снова использовали лазерную виброметрию, которая показала, что кутикула червей вибрирует в ответ на звук. Биологи предположили, что кутикула C. elegans выступает аналогом барабанной перепонки позвоночных и перепонки тимпанальных органов насекомых. Ученые проверили это предположение, изучив поведение нематод с мутациями в генах bli-1, bli-2 и bli-6, вызывающими нарушение структуры кутикулы. Выяснилось, что такие мутанты практически не реагировали на звуковые колебания. Адам Илифф с коллегами установили, что за фонотаксисное поведение отвечают механосенсорные нейроны FLP и PVD. Ученые выяснили, что центральную роль в преобразовании звуковых сигналов играют субъединицы DES-2/DEG-3 никотинового ацетилхолинового рецептора. При этом оказалось, что ацетилхолин не участвует в передаче сигнала, так как мутанты по генам cha-1 и unc-17, у которых отсутствует синтез ацетилхолина, проявляли нормальную реакцию на звуковые стимулы.  Ученые предполагают, что DES-2/DEG-3 выступают порообразующими субъединицами канального комплекса механотрансдукции, который преобразует звуковые волны в нервный импульс. Этим нематоды отличаются от насекомых и позвоночных, у которых такую функцию выполняют каналы TRP и TMC соответственно. В экспериментах нематоды реагировали на звук с частотой от 100 до 5000 герц. Биологи отмечают, что частотный диапазон C. elegans шире, чем у некоторых позвоночных, таких как рыбы или черепахи. По мнению авторов, полученные результаты подтверждают представление о том, что органы слуха независимо возникали у животных в процессе эволюции, в отличие от органов зрения, которые у билатеральных животных, вероятно, имеют общее происхождение. Также авторы работы предположили, что аналогичным образом воспринимать звук могут и другие беспозвоночные с мягким телом, такие как моллюски, кольчатые и плоские черви.  Ранее мы писали о том, как американские биологи с помощью ультразвука научились управлять активностью нейронов C. elegans.  Семён Морозов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физики провели численную симуляцию процесса ионизации атома водорода, находящегося в циркулярном состоянии, мощным лазерным импульсом. Они обнаружили аномальную зависимость вероятности ионизации от частоты света, которую объяснили резонансными процессами с участием нижележащего уровня. Исследование опубликовано в Physical Review A. Атом водорода сегодня изучен лучше любой другой квантовой системы. В силу простоты своего устройства он стал отправной точкой для построения теорий и предсказания новых эффектов. По этой же причине он стал популярным объектом для экспериментов по измерению физических величин с рекордной точностью. Недавно, однако, выяснилось, что при взаимодействии атома водорода с очень интенсивными лазерными полями характер происходящих с ним процессов может быть довольно сложным. В первую очередь это касается ионизации, которая, как оказалось, сильно зависит от магнитного квантового числа m электрона из-за возникновения резонансных эффектов. С другой стороны, возможность резонансного контроля ионизации позволит создавать спин-поляризованные электронные пучки, свойствами которых можно управлять на фемтосекундном масштабе (про одно из таких исследований мы уже писали), поэтому физики продолжают строить модели этих процессов. Пэйсян Лу (Peixiang Lu) из Хуачжунского университета науки и технологии с коллегами решили подробнее изучить зависимость малофотонной ионизации от частоты лазера для циркулярных состояний атома водорода. Циркулярными называют состояния с максимально возможным значением магнитного квантового числа m для данного главного квантового числа n. Строго говоря, для атома водорода возможно всего два их варианта: m = n − 1 и m = − |n − 1|. Если облучать атом светом с круговой поляризацией, то направление вращения плотности электронного тока одного из циркулярных состояний совпадет с направлением вращения вектора электрического поля, а для другого они окажутся противоположны. Физики численно решали зависящее от времени уравнение Шрёдингера для атома в обоих циркулярных состояниях с n = 3, облучаемого лазерным импульсом большой интенсивности. Они разлагали искомое решение по сферическим функциям с зависящей от времени радиальной частью, ограничиваясь сверху орбитальным квантовым числом l = 30. Строя зависимость вероятности ионизации от частоты света, они обнаружили ее неожиданное поведение в диапазоне, соответствующему поглощению двух фотонов. В частности, для состояния атома, чье вращение сонаправленно с вращением поля, авторы увидели сильный рост ионизации, в то время как для другого состояния ее вероятность монотонно убывала. Такой характер зависимости сохранялся в широком диапазоне интенсивностей света и длительностей импульсов.  Для понимания причин усиления и подавления ионизации на разных частотах, авторы детально исследовали эволюцию населенности уровней с другими квантовыми числами для обоих циркулярных состояний. Так, они выяснили, что рост вероятности ионизации для сонаправленного состояния объясняется резонансными переходами ни нижний уровень, который также участвует в ионизации. Вместе с тем подавление ионизации происходит из-за осцилляций Раби между начальным и нижним уровнем. Физики надеются, что выявленный ими механизм поможет лучше понять процессы, происходящие при ионизации с большим числом фотонов. И хотя ионизацию атомов изучают уже больше века, с ней до сих пор не все ясно. Так, физики лишь недавно разобрались с тем, как в этом процессе распределяются импульсы фотонов и насколько важно учитывать при этом релятивизм. Марат Хамадеев </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Китайские физики подробно изучили поведение левитирующей в оптическом пинцете микрочастицы в условиях центрифугирования. Они показали, что такая система может быть использована для измерения массы частиц, а также в качестве детектора угловой скорости или гироскопа. Исследование опубликовано в Optics Letters. Оптические пинцеты стали неотъемлемым инструментом современного физического эксперимента. В их основе лежит способность сфокусированного пучка света удерживать микрочастицы в определенной области пространства за счет давления света﻿﻿. Это оказывается полезно для множества задач атомной и молекулярной физики, химии, биологии и других областей. За изобретение оптического пинцета в 2018 году была присуждена Нобелевская премия по физике, чему был посвящен наш материал «Скальпель и пинцет». Помимо чисто практических целей удержание частиц в пинцете представляет интерес благодаря богатой динамике, сопровождающей такую оптическую левитацию. Захваченные микрочастицы испытывают движение центра масс, вращение, либрацию и прецессию. Все эти типы движения, с одной стороны легко детектируются, с другой — очень чувствительны к мельчайшим воздействиям, что делает их хорошими механическими сенсорами, поэтому ученые уделяют этому вопросу большое внимание. Юйле У (Yulie Wu) из Оборонного научно-технического университета Народно-освободительной армии Китая с коллегами решили изучить центробежное движение микрочастицы, пойманной во вращающийся оптический пинцет. Для этого они разместили все элементы оптической схемы на вращающемся столе. Ось вращения была параллельна оси пинцета, но отстояла от нее на некотором расстоянии.  Для создания ловушки физики использовали лазер с длиной волны 1064 нанометра и мощностью 500 милливатт, свет от которого был сфокусирован в пятно диаметром около четырех миллиметров при комнатной температуре и давлении. После фокусировки излучение передавалось на балансный детектор, который измерял смещение частицы. Дополнительно ловушка облучалась светом лампы для получения изображения с помощью камеры. Авторы записали и решили уравнения движения частицы в таких условиях и выяснили, что смещение должно зависеть линейно от массы, расстояния между осями и обратной жесткости ловушки, но квадратично от угловой скорости. Измерив смещение для различных скоростей и направлений вращения для кремниевой сферической частицы диаметров 22 микрона и межосного расстояния, равного 20 миллиметрам, физики убедились в этом, однако извлеченная из аппроксимации жесткость оптической ловушки оказалась несколько завышенной по сравнению с этой же величиной, но полученной из измерения поперечных осцилляций. Исследователи предположили, что ошибка исходит из неточного измерения расстояния между осями. Проведя аналогичные эксперименты с разными значениями этого расстояния, физики увидели, что зависимость от него действительно оказалась нелинейна. Проведя корректировку, авторы убедились, что вычисленная из данных о вращении масса частицы не зависит от частоты в пределах погрешностей и совпадает с величиной, измеренной другим методом. Также ученые изучили то, как изменяется вращение левитирующей микрочастицы в условиях центрифугирования. Для этого они помещали в пинцет эллиптическую микрочастицу и облучали ее лазером с круговой поляризации. В отсутствие вращения стола частица вращалась с частотой 1,3 герца. Добавление вращения стола уменьшало эту частоту по параболическому закону. Авторы объяснили это центробежным смещением частицы в область с более низкой интенсивностью света, и, как следствие, с меньшим моментом силы. Они предполагают, что это может найти применение в сенсорах вращения и гироскопах. Оптические пинцеты позволяют делать с микрочастицами удивительные вещи. Недавно мы рассказывали, как с их помощью пожонглировали глицериновыми каплями и увидели квантование электрического заряда невооруженным глазом. Марат Хамадеев </t>
   </si>
 </sst>
 </file>
@@ -928,28 +1018,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="I2">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -960,28 +1050,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="I3">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -992,28 +1082,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="I4">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1024,28 +1114,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="I5">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1056,28 +1146,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="I6">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1088,28 +1178,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="I7">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1120,28 +1210,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="I8">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1152,28 +1242,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="I9">
-        <v>6.1</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1184,28 +1274,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="I10">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="J10" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1216,28 +1306,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="I11">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1248,28 +1338,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="I12">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1280,28 +1370,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="I13">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1312,28 +1402,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H14" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="I14">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1344,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="H15" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="I15">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1376,28 +1466,28 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="I16">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1408,28 +1498,28 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="I17">
-        <v>6.9</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1440,28 +1530,28 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="H18" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="I18">
-        <v>6.9</v>
+        <v>2.7</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1472,28 +1562,28 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I19">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1504,28 +1594,28 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="I20">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1536,28 +1626,28 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="H21" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="I21">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1568,28 +1658,28 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="I22">
-        <v>8.199999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1597,31 +1687,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="I23">
-        <v>7.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J23" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1629,31 +1719,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="H24" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="I24">
-        <v>7.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1661,31 +1751,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H25" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="I25">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="J25" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1693,31 +1783,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H26" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="I26">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J26" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1725,31 +1815,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="I27">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="J27" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1757,31 +1847,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="H28" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="I28">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="J28" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1789,31 +1879,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="I29">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J29" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1821,31 +1911,31 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="H30" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="I30">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="J30" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1853,31 +1943,31 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="G31" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="I31">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="J31" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
